--- a/Einsatzsuche.xlsx
+++ b/Einsatzsuche.xlsx
@@ -18,12 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ZiviDisconnect</t>
-  </si>
-  <si>
-    <t>Einsatzsuche</t>
   </si>
   <si>
     <t>Tutorial</t>
@@ -113,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -141,22 +138,34 @@
       </bottom>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFDFE4E9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf fontId="2" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="90" vertical="center"/>
@@ -720,15 +729,17 @@
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="5" t="str">
+        <f>COUNTA(raw!A2:A501)&amp;" Einsätze"</f>
+        <v xml:space="preserve">0 Einsätze</v>
+      </c>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="129" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="129" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="str">
+      <c r="B2" s="8" t="str">
         <f>"-"&amp;_xlfn.TEXTJOIN("
 -",TRUE,Tutorial!A1:A9)</f>
         <v xml:space="preserve">-Einsatzsuche von ZiviConnect öffnen
@@ -741,29 +752,29 @@
 -Die Datei zu CSV Konvertieren
 -Das Resultat im "raw" Arbeitsblatt einfügen</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="8" t="str">
+      <c r="A4" s="9" t="str">
         <f>IF(ISBLANK(raw!A2),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A2))</f>
         <v/>
       </c>
@@ -785,7 +796,7 @@
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="8" t="str">
+      <c r="A5" s="9" t="str">
         <f>IF(ISBLANK(raw!A3),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A3))</f>
         <v/>
       </c>
@@ -807,7 +818,7 @@
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="8" t="str">
+      <c r="A6" s="9" t="str">
         <f>IF(ISBLANK(raw!A4),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A4))</f>
         <v/>
       </c>
@@ -829,7 +840,7 @@
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="8" t="str">
+      <c r="A7" s="9" t="str">
         <f>IF(ISBLANK(raw!A5),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A5))</f>
         <v/>
       </c>
@@ -851,7 +862,7 @@
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="8" t="str">
+      <c r="A8" s="9" t="str">
         <f>IF(ISBLANK(raw!A6),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A6))</f>
         <v/>
       </c>
@@ -873,7 +884,7 @@
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="8" t="str">
+      <c r="A9" s="9" t="str">
         <f>IF(ISBLANK(raw!A7),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A7))</f>
         <v/>
       </c>
@@ -895,7 +906,7 @@
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="8" t="str">
+      <c r="A10" s="9" t="str">
         <f>IF(ISBLANK(raw!A8),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A8))</f>
         <v/>
       </c>
@@ -917,7 +928,7 @@
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="8" t="str">
+      <c r="A11" s="9" t="str">
         <f>IF(ISBLANK(raw!A9),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A9))</f>
         <v/>
       </c>
@@ -939,7 +950,7 @@
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="8" t="str">
+      <c r="A12" s="9" t="str">
         <f>IF(ISBLANK(raw!A10),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A10))</f>
         <v/>
       </c>
@@ -961,7 +972,7 @@
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="8" t="str">
+      <c r="A13" s="9" t="str">
         <f>IF(ISBLANK(raw!A11),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A11))</f>
         <v/>
       </c>
@@ -983,7 +994,7 @@
       </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="8" t="str">
+      <c r="A14" s="9" t="str">
         <f>IF(ISBLANK(raw!A12),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A12))</f>
         <v/>
       </c>
@@ -1005,7 +1016,7 @@
       </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="8" t="str">
+      <c r="A15" s="9" t="str">
         <f>IF(ISBLANK(raw!A13),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A13))</f>
         <v/>
       </c>
@@ -1027,7 +1038,7 @@
       </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="8" t="str">
+      <c r="A16" s="9" t="str">
         <f>IF(ISBLANK(raw!A14),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A14))</f>
         <v/>
       </c>
@@ -1049,7 +1060,7 @@
       </c>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="8" t="str">
+      <c r="A17" s="9" t="str">
         <f>IF(ISBLANK(raw!A15),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A15))</f>
         <v/>
       </c>
@@ -1071,7 +1082,7 @@
       </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="8" t="str">
+      <c r="A18" s="9" t="str">
         <f>IF(ISBLANK(raw!A16),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A16))</f>
         <v/>
       </c>
@@ -1093,7 +1104,7 @@
       </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="8" t="str">
+      <c r="A19" s="9" t="str">
         <f>IF(ISBLANK(raw!A17),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A17))</f>
         <v/>
       </c>
@@ -1115,7 +1126,7 @@
       </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="8" t="str">
+      <c r="A20" s="9" t="str">
         <f>IF(ISBLANK(raw!A18),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A18))</f>
         <v/>
       </c>
@@ -1137,7 +1148,7 @@
       </c>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="8" t="str">
+      <c r="A21" s="9" t="str">
         <f>IF(ISBLANK(raw!A19),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A19))</f>
         <v/>
       </c>
@@ -1159,7 +1170,7 @@
       </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="8" t="str">
+      <c r="A22" s="9" t="str">
         <f>IF(ISBLANK(raw!A20),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A20))</f>
         <v/>
       </c>
@@ -1181,7 +1192,7 @@
       </c>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="8" t="str">
+      <c r="A23" s="9" t="str">
         <f>IF(ISBLANK(raw!A21),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A21))</f>
         <v/>
       </c>
@@ -1203,7 +1214,7 @@
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="8" t="str">
+      <c r="A24" s="9" t="str">
         <f>IF(ISBLANK(raw!A22),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A22))</f>
         <v/>
       </c>
@@ -1225,7 +1236,7 @@
       </c>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="8" t="str">
+      <c r="A25" s="9" t="str">
         <f>IF(ISBLANK(raw!A23),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A23))</f>
         <v/>
       </c>
@@ -1247,7 +1258,7 @@
       </c>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="8" t="str">
+      <c r="A26" s="9" t="str">
         <f>IF(ISBLANK(raw!A24),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A24))</f>
         <v/>
       </c>
@@ -1269,7 +1280,7 @@
       </c>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="8" t="str">
+      <c r="A27" s="9" t="str">
         <f>IF(ISBLANK(raw!A25),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A25))</f>
         <v/>
       </c>
@@ -1291,7 +1302,7 @@
       </c>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="8" t="str">
+      <c r="A28" s="9" t="str">
         <f>IF(ISBLANK(raw!A26),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A26))</f>
         <v/>
       </c>
@@ -1313,7 +1324,7 @@
       </c>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="8" t="str">
+      <c r="A29" s="9" t="str">
         <f>IF(ISBLANK(raw!A27),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A27))</f>
         <v/>
       </c>
@@ -1335,7 +1346,7 @@
       </c>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="8" t="str">
+      <c r="A30" s="9" t="str">
         <f>IF(ISBLANK(raw!A28),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A28))</f>
         <v/>
       </c>
@@ -1357,7 +1368,7 @@
       </c>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" s="8" t="str">
+      <c r="A31" s="9" t="str">
         <f>IF(ISBLANK(raw!A29),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A29))</f>
         <v/>
       </c>
@@ -1379,7 +1390,7 @@
       </c>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="8" t="str">
+      <c r="A32" s="9" t="str">
         <f>IF(ISBLANK(raw!A30),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A30))</f>
         <v/>
       </c>
@@ -1401,7 +1412,7 @@
       </c>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="8" t="str">
+      <c r="A33" s="9" t="str">
         <f>IF(ISBLANK(raw!A31),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A31))</f>
         <v/>
       </c>
@@ -1423,7 +1434,7 @@
       </c>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" s="8" t="str">
+      <c r="A34" s="9" t="str">
         <f>IF(ISBLANK(raw!A32),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A32))</f>
         <v/>
       </c>
@@ -1445,7 +1456,7 @@
       </c>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35" s="8" t="str">
+      <c r="A35" s="9" t="str">
         <f>IF(ISBLANK(raw!A33),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A33))</f>
         <v/>
       </c>
@@ -1467,7 +1478,7 @@
       </c>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="8" t="str">
+      <c r="A36" s="9" t="str">
         <f>IF(ISBLANK(raw!A34),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A34))</f>
         <v/>
       </c>
@@ -1489,7 +1500,7 @@
       </c>
     </row>
     <row r="37" ht="14.25">
-      <c r="A37" s="8" t="str">
+      <c r="A37" s="9" t="str">
         <f>IF(ISBLANK(raw!A35),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A35))</f>
         <v/>
       </c>
@@ -1511,7 +1522,7 @@
       </c>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38" s="8" t="str">
+      <c r="A38" s="9" t="str">
         <f>IF(ISBLANK(raw!A36),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A36))</f>
         <v/>
       </c>
@@ -1533,7 +1544,7 @@
       </c>
     </row>
     <row r="39" ht="14.25">
-      <c r="A39" s="8" t="str">
+      <c r="A39" s="9" t="str">
         <f>IF(ISBLANK(raw!A37),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A37))</f>
         <v/>
       </c>
@@ -1555,7 +1566,7 @@
       </c>
     </row>
     <row r="40" ht="14.25">
-      <c r="A40" s="8" t="str">
+      <c r="A40" s="9" t="str">
         <f>IF(ISBLANK(raw!A38),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A38))</f>
         <v/>
       </c>
@@ -1577,7 +1588,7 @@
       </c>
     </row>
     <row r="41" ht="14.25">
-      <c r="A41" s="8" t="str">
+      <c r="A41" s="9" t="str">
         <f>IF(ISBLANK(raw!A39),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A39))</f>
         <v/>
       </c>
@@ -1599,7 +1610,7 @@
       </c>
     </row>
     <row r="42" ht="14.25">
-      <c r="A42" s="8" t="str">
+      <c r="A42" s="9" t="str">
         <f>IF(ISBLANK(raw!A40),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A40))</f>
         <v/>
       </c>
@@ -1621,7 +1632,7 @@
       </c>
     </row>
     <row r="43" ht="14.25">
-      <c r="A43" s="8" t="str">
+      <c r="A43" s="9" t="str">
         <f>IF(ISBLANK(raw!A41),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A41))</f>
         <v/>
       </c>
@@ -1643,7 +1654,7 @@
       </c>
     </row>
     <row r="44" ht="14.25">
-      <c r="A44" s="8" t="str">
+      <c r="A44" s="9" t="str">
         <f>IF(ISBLANK(raw!A42),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A42))</f>
         <v/>
       </c>
@@ -1665,7 +1676,7 @@
       </c>
     </row>
     <row r="45" ht="14.25">
-      <c r="A45" s="8" t="str">
+      <c r="A45" s="9" t="str">
         <f>IF(ISBLANK(raw!A43),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A43))</f>
         <v/>
       </c>
@@ -1687,7 +1698,7 @@
       </c>
     </row>
     <row r="46" ht="14.25">
-      <c r="A46" s="8" t="str">
+      <c r="A46" s="9" t="str">
         <f>IF(ISBLANK(raw!A44),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A44))</f>
         <v/>
       </c>
@@ -1709,7 +1720,7 @@
       </c>
     </row>
     <row r="47" ht="14.25">
-      <c r="A47" s="8" t="str">
+      <c r="A47" s="9" t="str">
         <f>IF(ISBLANK(raw!A45),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A45))</f>
         <v/>
       </c>
@@ -1731,7 +1742,7 @@
       </c>
     </row>
     <row r="48" ht="14.25">
-      <c r="A48" s="8" t="str">
+      <c r="A48" s="9" t="str">
         <f>IF(ISBLANK(raw!A46),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A46))</f>
         <v/>
       </c>
@@ -1753,7 +1764,7 @@
       </c>
     </row>
     <row r="49" ht="14.25">
-      <c r="A49" s="8" t="str">
+      <c r="A49" s="9" t="str">
         <f>IF(ISBLANK(raw!A47),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A47))</f>
         <v/>
       </c>
@@ -1775,7 +1786,7 @@
       </c>
     </row>
     <row r="50" ht="14.25">
-      <c r="A50" s="8" t="str">
+      <c r="A50" s="9" t="str">
         <f>IF(ISBLANK(raw!A48),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A48))</f>
         <v/>
       </c>
@@ -1797,7 +1808,7 @@
       </c>
     </row>
     <row r="51" ht="14.25">
-      <c r="A51" s="8" t="str">
+      <c r="A51" s="9" t="str">
         <f>IF(ISBLANK(raw!A49),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A49))</f>
         <v/>
       </c>
@@ -1819,7 +1830,7 @@
       </c>
     </row>
     <row r="52" ht="14.25">
-      <c r="A52" s="8" t="str">
+      <c r="A52" s="9" t="str">
         <f>IF(ISBLANK(raw!A50),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A50))</f>
         <v/>
       </c>
@@ -1841,7 +1852,7 @@
       </c>
     </row>
     <row r="53" ht="14.25">
-      <c r="A53" s="8" t="str">
+      <c r="A53" s="9" t="str">
         <f>IF(ISBLANK(raw!A51),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A51))</f>
         <v/>
       </c>
@@ -1863,7 +1874,7 @@
       </c>
     </row>
     <row r="54" ht="14.25">
-      <c r="A54" s="8" t="str">
+      <c r="A54" s="9" t="str">
         <f>IF(ISBLANK(raw!A52),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A52))</f>
         <v/>
       </c>
@@ -1885,7 +1896,7 @@
       </c>
     </row>
     <row r="55" ht="14.25">
-      <c r="A55" s="8" t="str">
+      <c r="A55" s="9" t="str">
         <f>IF(ISBLANK(raw!A53),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A53))</f>
         <v/>
       </c>
@@ -1907,7 +1918,7 @@
       </c>
     </row>
     <row r="56" ht="14.25">
-      <c r="A56" s="8" t="str">
+      <c r="A56" s="9" t="str">
         <f>IF(ISBLANK(raw!A54),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A54))</f>
         <v/>
       </c>
@@ -1929,7 +1940,7 @@
       </c>
     </row>
     <row r="57" ht="14.25">
-      <c r="A57" s="8" t="str">
+      <c r="A57" s="9" t="str">
         <f>IF(ISBLANK(raw!A55),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A55))</f>
         <v/>
       </c>
@@ -1951,7 +1962,7 @@
       </c>
     </row>
     <row r="58" ht="14.25">
-      <c r="A58" s="8" t="str">
+      <c r="A58" s="9" t="str">
         <f>IF(ISBLANK(raw!A56),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A56))</f>
         <v/>
       </c>
@@ -1973,7 +1984,7 @@
       </c>
     </row>
     <row r="59" ht="14.25">
-      <c r="A59" s="8" t="str">
+      <c r="A59" s="9" t="str">
         <f>IF(ISBLANK(raw!A57),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A57))</f>
         <v/>
       </c>
@@ -1995,7 +2006,7 @@
       </c>
     </row>
     <row r="60" ht="14.25">
-      <c r="A60" s="8" t="str">
+      <c r="A60" s="9" t="str">
         <f>IF(ISBLANK(raw!A58),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A58))</f>
         <v/>
       </c>
@@ -2017,7 +2028,7 @@
       </c>
     </row>
     <row r="61" ht="14.25">
-      <c r="A61" s="8" t="str">
+      <c r="A61" s="9" t="str">
         <f>IF(ISBLANK(raw!A59),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A59))</f>
         <v/>
       </c>
@@ -2039,7 +2050,7 @@
       </c>
     </row>
     <row r="62" ht="14.25">
-      <c r="A62" s="8" t="str">
+      <c r="A62" s="9" t="str">
         <f>IF(ISBLANK(raw!A60),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A60))</f>
         <v/>
       </c>
@@ -2061,7 +2072,7 @@
       </c>
     </row>
     <row r="63" ht="14.25">
-      <c r="A63" s="8" t="str">
+      <c r="A63" s="9" t="str">
         <f>IF(ISBLANK(raw!A61),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A61))</f>
         <v/>
       </c>
@@ -2083,7 +2094,7 @@
       </c>
     </row>
     <row r="64" ht="14.25">
-      <c r="A64" s="8" t="str">
+      <c r="A64" s="9" t="str">
         <f>IF(ISBLANK(raw!A62),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A62))</f>
         <v/>
       </c>
@@ -2105,7 +2116,7 @@
       </c>
     </row>
     <row r="65" ht="14.25">
-      <c r="A65" s="8" t="str">
+      <c r="A65" s="9" t="str">
         <f>IF(ISBLANK(raw!A63),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A63))</f>
         <v/>
       </c>
@@ -2127,7 +2138,7 @@
       </c>
     </row>
     <row r="66" ht="14.25">
-      <c r="A66" s="8" t="str">
+      <c r="A66" s="9" t="str">
         <f>IF(ISBLANK(raw!A64),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A64))</f>
         <v/>
       </c>
@@ -2149,7 +2160,7 @@
       </c>
     </row>
     <row r="67" ht="14.25">
-      <c r="A67" s="8" t="str">
+      <c r="A67" s="9" t="str">
         <f>IF(ISBLANK(raw!A65),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A65))</f>
         <v/>
       </c>
@@ -2171,7 +2182,7 @@
       </c>
     </row>
     <row r="68" ht="14.25">
-      <c r="A68" s="8" t="str">
+      <c r="A68" s="9" t="str">
         <f>IF(ISBLANK(raw!A66),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A66))</f>
         <v/>
       </c>
@@ -2193,7 +2204,7 @@
       </c>
     </row>
     <row r="69" ht="14.25">
-      <c r="A69" s="8" t="str">
+      <c r="A69" s="9" t="str">
         <f>IF(ISBLANK(raw!A67),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A67))</f>
         <v/>
       </c>
@@ -2215,7 +2226,7 @@
       </c>
     </row>
     <row r="70" ht="14.25">
-      <c r="A70" s="8" t="str">
+      <c r="A70" s="9" t="str">
         <f>IF(ISBLANK(raw!A68),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A68))</f>
         <v/>
       </c>
@@ -2237,7 +2248,7 @@
       </c>
     </row>
     <row r="71" ht="14.25">
-      <c r="A71" s="8" t="str">
+      <c r="A71" s="9" t="str">
         <f>IF(ISBLANK(raw!A69),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A69))</f>
         <v/>
       </c>
@@ -2259,7 +2270,7 @@
       </c>
     </row>
     <row r="72" ht="14.25">
-      <c r="A72" s="8" t="str">
+      <c r="A72" s="9" t="str">
         <f>IF(ISBLANK(raw!A70),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A70))</f>
         <v/>
       </c>
@@ -2281,7 +2292,7 @@
       </c>
     </row>
     <row r="73" ht="14.25">
-      <c r="A73" s="8" t="str">
+      <c r="A73" s="9" t="str">
         <f>IF(ISBLANK(raw!A71),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A71))</f>
         <v/>
       </c>
@@ -2303,7 +2314,7 @@
       </c>
     </row>
     <row r="74" ht="14.25">
-      <c r="A74" s="8" t="str">
+      <c r="A74" s="9" t="str">
         <f>IF(ISBLANK(raw!A72),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A72))</f>
         <v/>
       </c>
@@ -2325,7 +2336,7 @@
       </c>
     </row>
     <row r="75" ht="14.25">
-      <c r="A75" s="8" t="str">
+      <c r="A75" s="9" t="str">
         <f>IF(ISBLANK(raw!A73),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A73))</f>
         <v/>
       </c>
@@ -2347,7 +2358,7 @@
       </c>
     </row>
     <row r="76" ht="14.25">
-      <c r="A76" s="8" t="str">
+      <c r="A76" s="9" t="str">
         <f>IF(ISBLANK(raw!A74),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A74))</f>
         <v/>
       </c>
@@ -2369,7 +2380,7 @@
       </c>
     </row>
     <row r="77" ht="14.25">
-      <c r="A77" s="8" t="str">
+      <c r="A77" s="9" t="str">
         <f>IF(ISBLANK(raw!A75),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A75))</f>
         <v/>
       </c>
@@ -2391,7 +2402,7 @@
       </c>
     </row>
     <row r="78" ht="14.25">
-      <c r="A78" s="8" t="str">
+      <c r="A78" s="9" t="str">
         <f>IF(ISBLANK(raw!A76),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A76))</f>
         <v/>
       </c>
@@ -2413,7 +2424,7 @@
       </c>
     </row>
     <row r="79" ht="14.25">
-      <c r="A79" s="8" t="str">
+      <c r="A79" s="9" t="str">
         <f>IF(ISBLANK(raw!A77),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A77))</f>
         <v/>
       </c>
@@ -2435,7 +2446,7 @@
       </c>
     </row>
     <row r="80" ht="14.25">
-      <c r="A80" s="8" t="str">
+      <c r="A80" s="9" t="str">
         <f>IF(ISBLANK(raw!A78),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A78))</f>
         <v/>
       </c>
@@ -2457,7 +2468,7 @@
       </c>
     </row>
     <row r="81" ht="14.25">
-      <c r="A81" s="8" t="str">
+      <c r="A81" s="9" t="str">
         <f>IF(ISBLANK(raw!A79),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A79))</f>
         <v/>
       </c>
@@ -2479,7 +2490,7 @@
       </c>
     </row>
     <row r="82" ht="14.25">
-      <c r="A82" s="8" t="str">
+      <c r="A82" s="9" t="str">
         <f>IF(ISBLANK(raw!A80),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A80))</f>
         <v/>
       </c>
@@ -2501,7 +2512,7 @@
       </c>
     </row>
     <row r="83" ht="14.25">
-      <c r="A83" s="8" t="str">
+      <c r="A83" s="9" t="str">
         <f>IF(ISBLANK(raw!A81),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A81))</f>
         <v/>
       </c>
@@ -2523,7 +2534,7 @@
       </c>
     </row>
     <row r="84" ht="14.25">
-      <c r="A84" s="8" t="str">
+      <c r="A84" s="9" t="str">
         <f>IF(ISBLANK(raw!A82),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A82))</f>
         <v/>
       </c>
@@ -2545,7 +2556,7 @@
       </c>
     </row>
     <row r="85" ht="14.25">
-      <c r="A85" s="8" t="str">
+      <c r="A85" s="9" t="str">
         <f>IF(ISBLANK(raw!A83),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A83))</f>
         <v/>
       </c>
@@ -2567,7 +2578,7 @@
       </c>
     </row>
     <row r="86" ht="14.25">
-      <c r="A86" s="8" t="str">
+      <c r="A86" s="9" t="str">
         <f>IF(ISBLANK(raw!A84),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A84))</f>
         <v/>
       </c>
@@ -2589,7 +2600,7 @@
       </c>
     </row>
     <row r="87" ht="14.25">
-      <c r="A87" s="8" t="str">
+      <c r="A87" s="9" t="str">
         <f>IF(ISBLANK(raw!A85),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A85))</f>
         <v/>
       </c>
@@ -2611,7 +2622,7 @@
       </c>
     </row>
     <row r="88" ht="14.25">
-      <c r="A88" s="8" t="str">
+      <c r="A88" s="9" t="str">
         <f>IF(ISBLANK(raw!A86),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A86))</f>
         <v/>
       </c>
@@ -2633,7 +2644,7 @@
       </c>
     </row>
     <row r="89" ht="14.25">
-      <c r="A89" s="8" t="str">
+      <c r="A89" s="9" t="str">
         <f>IF(ISBLANK(raw!A87),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A87))</f>
         <v/>
       </c>
@@ -2655,7 +2666,7 @@
       </c>
     </row>
     <row r="90" ht="14.25">
-      <c r="A90" s="8" t="str">
+      <c r="A90" s="9" t="str">
         <f>IF(ISBLANK(raw!A88),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A88))</f>
         <v/>
       </c>
@@ -2677,7 +2688,7 @@
       </c>
     </row>
     <row r="91" ht="14.25">
-      <c r="A91" s="8" t="str">
+      <c r="A91" s="9" t="str">
         <f>IF(ISBLANK(raw!A89),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A89))</f>
         <v/>
       </c>
@@ -2699,7 +2710,7 @@
       </c>
     </row>
     <row r="92" ht="14.25">
-      <c r="A92" s="8" t="str">
+      <c r="A92" s="9" t="str">
         <f>IF(ISBLANK(raw!A90),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A90))</f>
         <v/>
       </c>
@@ -2721,7 +2732,7 @@
       </c>
     </row>
     <row r="93" ht="14.25">
-      <c r="A93" s="8" t="str">
+      <c r="A93" s="9" t="str">
         <f>IF(ISBLANK(raw!A91),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A91))</f>
         <v/>
       </c>
@@ -2743,7 +2754,7 @@
       </c>
     </row>
     <row r="94" ht="14.25">
-      <c r="A94" s="8" t="str">
+      <c r="A94" s="9" t="str">
         <f>IF(ISBLANK(raw!A92),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A92))</f>
         <v/>
       </c>
@@ -2765,7 +2776,7 @@
       </c>
     </row>
     <row r="95" ht="14.25">
-      <c r="A95" s="8" t="str">
+      <c r="A95" s="9" t="str">
         <f>IF(ISBLANK(raw!A93),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A93))</f>
         <v/>
       </c>
@@ -2787,7 +2798,7 @@
       </c>
     </row>
     <row r="96" ht="14.25">
-      <c r="A96" s="8" t="str">
+      <c r="A96" s="9" t="str">
         <f>IF(ISBLANK(raw!A94),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A94))</f>
         <v/>
       </c>
@@ -2809,7 +2820,7 @@
       </c>
     </row>
     <row r="97" ht="14.25">
-      <c r="A97" s="8" t="str">
+      <c r="A97" s="9" t="str">
         <f>IF(ISBLANK(raw!A95),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A95))</f>
         <v/>
       </c>
@@ -2831,7 +2842,7 @@
       </c>
     </row>
     <row r="98" ht="14.25">
-      <c r="A98" s="8" t="str">
+      <c r="A98" s="9" t="str">
         <f>IF(ISBLANK(raw!A96),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A96))</f>
         <v/>
       </c>
@@ -2853,7 +2864,7 @@
       </c>
     </row>
     <row r="99" ht="14.25">
-      <c r="A99" s="8" t="str">
+      <c r="A99" s="9" t="str">
         <f>IF(ISBLANK(raw!A97),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A97))</f>
         <v/>
       </c>
@@ -2875,7 +2886,7 @@
       </c>
     </row>
     <row r="100" ht="14.25">
-      <c r="A100" s="8" t="str">
+      <c r="A100" s="9" t="str">
         <f>IF(ISBLANK(raw!A98),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A98))</f>
         <v/>
       </c>
@@ -2897,7 +2908,7 @@
       </c>
     </row>
     <row r="101" ht="14.25">
-      <c r="A101" s="8" t="str">
+      <c r="A101" s="9" t="str">
         <f>IF(ISBLANK(raw!A99),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A99))</f>
         <v/>
       </c>
@@ -2919,7 +2930,7 @@
       </c>
     </row>
     <row r="102" ht="14.25">
-      <c r="A102" s="8" t="str">
+      <c r="A102" s="9" t="str">
         <f>IF(ISBLANK(raw!A100),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A100))</f>
         <v/>
       </c>
@@ -2941,7 +2952,7 @@
       </c>
     </row>
     <row r="103" ht="14.25">
-      <c r="A103" s="8" t="str">
+      <c r="A103" s="9" t="str">
         <f>IF(ISBLANK(raw!A101),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A101))</f>
         <v/>
       </c>
@@ -2963,7 +2974,7 @@
       </c>
     </row>
     <row r="104" ht="14.25">
-      <c r="A104" s="8" t="str">
+      <c r="A104" s="9" t="str">
         <f>IF(ISBLANK(raw!A102),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A102))</f>
         <v/>
       </c>
@@ -2985,7 +2996,7 @@
       </c>
     </row>
     <row r="105" ht="14.25">
-      <c r="A105" s="8" t="str">
+      <c r="A105" s="9" t="str">
         <f>IF(ISBLANK(raw!A103),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A103))</f>
         <v/>
       </c>
@@ -3007,7 +3018,7 @@
       </c>
     </row>
     <row r="106" ht="14.25">
-      <c r="A106" s="8" t="str">
+      <c r="A106" s="9" t="str">
         <f>IF(ISBLANK(raw!A104),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A104))</f>
         <v/>
       </c>
@@ -3029,7 +3040,7 @@
       </c>
     </row>
     <row r="107" ht="14.25">
-      <c r="A107" s="8" t="str">
+      <c r="A107" s="9" t="str">
         <f>IF(ISBLANK(raw!A105),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A105))</f>
         <v/>
       </c>
@@ -3051,7 +3062,7 @@
       </c>
     </row>
     <row r="108" ht="14.25">
-      <c r="A108" s="8" t="str">
+      <c r="A108" s="9" t="str">
         <f>IF(ISBLANK(raw!A106),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A106))</f>
         <v/>
       </c>
@@ -3073,7 +3084,7 @@
       </c>
     </row>
     <row r="109" ht="14.25">
-      <c r="A109" s="8" t="str">
+      <c r="A109" s="9" t="str">
         <f>IF(ISBLANK(raw!A107),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A107))</f>
         <v/>
       </c>
@@ -3095,7 +3106,7 @@
       </c>
     </row>
     <row r="110" ht="14.25">
-      <c r="A110" s="8" t="str">
+      <c r="A110" s="9" t="str">
         <f>IF(ISBLANK(raw!A108),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A108))</f>
         <v/>
       </c>
@@ -3117,7 +3128,7 @@
       </c>
     </row>
     <row r="111" ht="14.25">
-      <c r="A111" s="8" t="str">
+      <c r="A111" s="9" t="str">
         <f>IF(ISBLANK(raw!A109),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A109))</f>
         <v/>
       </c>
@@ -3139,7 +3150,7 @@
       </c>
     </row>
     <row r="112" ht="14.25">
-      <c r="A112" s="8" t="str">
+      <c r="A112" s="9" t="str">
         <f>IF(ISBLANK(raw!A110),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A110))</f>
         <v/>
       </c>
@@ -3161,7 +3172,7 @@
       </c>
     </row>
     <row r="113" ht="14.25">
-      <c r="A113" s="8" t="str">
+      <c r="A113" s="9" t="str">
         <f>IF(ISBLANK(raw!A111),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A111))</f>
         <v/>
       </c>
@@ -3183,7 +3194,7 @@
       </c>
     </row>
     <row r="114" ht="14.25">
-      <c r="A114" s="8" t="str">
+      <c r="A114" s="9" t="str">
         <f>IF(ISBLANK(raw!A112),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A112))</f>
         <v/>
       </c>
@@ -3205,7 +3216,7 @@
       </c>
     </row>
     <row r="115" ht="14.25">
-      <c r="A115" s="8" t="str">
+      <c r="A115" s="9" t="str">
         <f>IF(ISBLANK(raw!A113),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A113))</f>
         <v/>
       </c>
@@ -3227,7 +3238,7 @@
       </c>
     </row>
     <row r="116" ht="14.25">
-      <c r="A116" s="8" t="str">
+      <c r="A116" s="9" t="str">
         <f>IF(ISBLANK(raw!A114),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A114))</f>
         <v/>
       </c>
@@ -3249,7 +3260,7 @@
       </c>
     </row>
     <row r="117" ht="14.25">
-      <c r="A117" s="8" t="str">
+      <c r="A117" s="9" t="str">
         <f>IF(ISBLANK(raw!A115),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A115))</f>
         <v/>
       </c>
@@ -3271,7 +3282,7 @@
       </c>
     </row>
     <row r="118" ht="14.25">
-      <c r="A118" s="8" t="str">
+      <c r="A118" s="9" t="str">
         <f>IF(ISBLANK(raw!A116),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A116))</f>
         <v/>
       </c>
@@ -3293,7 +3304,7 @@
       </c>
     </row>
     <row r="119" ht="14.25">
-      <c r="A119" s="8" t="str">
+      <c r="A119" s="9" t="str">
         <f>IF(ISBLANK(raw!A117),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A117))</f>
         <v/>
       </c>
@@ -3315,7 +3326,7 @@
       </c>
     </row>
     <row r="120" ht="14.25">
-      <c r="A120" s="8" t="str">
+      <c r="A120" s="9" t="str">
         <f>IF(ISBLANK(raw!A118),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A118))</f>
         <v/>
       </c>
@@ -3337,7 +3348,7 @@
       </c>
     </row>
     <row r="121" ht="14.25">
-      <c r="A121" s="8" t="str">
+      <c r="A121" s="9" t="str">
         <f>IF(ISBLANK(raw!A119),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A119))</f>
         <v/>
       </c>
@@ -3359,7 +3370,7 @@
       </c>
     </row>
     <row r="122" ht="14.25">
-      <c r="A122" s="8" t="str">
+      <c r="A122" s="9" t="str">
         <f>IF(ISBLANK(raw!A120),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A120))</f>
         <v/>
       </c>
@@ -3381,7 +3392,7 @@
       </c>
     </row>
     <row r="123" ht="14.25">
-      <c r="A123" s="8" t="str">
+      <c r="A123" s="9" t="str">
         <f>IF(ISBLANK(raw!A121),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A121))</f>
         <v/>
       </c>
@@ -3403,7 +3414,7 @@
       </c>
     </row>
     <row r="124" ht="14.25">
-      <c r="A124" s="8" t="str">
+      <c r="A124" s="9" t="str">
         <f>IF(ISBLANK(raw!A122),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A122))</f>
         <v/>
       </c>
@@ -3425,7 +3436,7 @@
       </c>
     </row>
     <row r="125" ht="14.25">
-      <c r="A125" s="8" t="str">
+      <c r="A125" s="9" t="str">
         <f>IF(ISBLANK(raw!A123),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A123))</f>
         <v/>
       </c>
@@ -3447,7 +3458,7 @@
       </c>
     </row>
     <row r="126" ht="14.25">
-      <c r="A126" s="8" t="str">
+      <c r="A126" s="9" t="str">
         <f>IF(ISBLANK(raw!A124),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A124))</f>
         <v/>
       </c>
@@ -3469,7 +3480,7 @@
       </c>
     </row>
     <row r="127" ht="14.25">
-      <c r="A127" s="8" t="str">
+      <c r="A127" s="9" t="str">
         <f>IF(ISBLANK(raw!A125),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A125))</f>
         <v/>
       </c>
@@ -3491,7 +3502,7 @@
       </c>
     </row>
     <row r="128" ht="14.25">
-      <c r="A128" s="8" t="str">
+      <c r="A128" s="9" t="str">
         <f>IF(ISBLANK(raw!A126),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A126))</f>
         <v/>
       </c>
@@ -3513,7 +3524,7 @@
       </c>
     </row>
     <row r="129" ht="14.25">
-      <c r="A129" s="8" t="str">
+      <c r="A129" s="9" t="str">
         <f>IF(ISBLANK(raw!A127),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A127))</f>
         <v/>
       </c>
@@ -3535,7 +3546,7 @@
       </c>
     </row>
     <row r="130" ht="14.25">
-      <c r="A130" s="8" t="str">
+      <c r="A130" s="9" t="str">
         <f>IF(ISBLANK(raw!A128),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A128))</f>
         <v/>
       </c>
@@ -3557,7 +3568,7 @@
       </c>
     </row>
     <row r="131" ht="14.25">
-      <c r="A131" s="8" t="str">
+      <c r="A131" s="9" t="str">
         <f>IF(ISBLANK(raw!A129),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A129))</f>
         <v/>
       </c>
@@ -3579,7 +3590,7 @@
       </c>
     </row>
     <row r="132" ht="14.25">
-      <c r="A132" s="8" t="str">
+      <c r="A132" s="9" t="str">
         <f>IF(ISBLANK(raw!A130),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A130))</f>
         <v/>
       </c>
@@ -3601,7 +3612,7 @@
       </c>
     </row>
     <row r="133" ht="14.25">
-      <c r="A133" s="8" t="str">
+      <c r="A133" s="9" t="str">
         <f>IF(ISBLANK(raw!A131),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A131))</f>
         <v/>
       </c>
@@ -3623,7 +3634,7 @@
       </c>
     </row>
     <row r="134" ht="14.25">
-      <c r="A134" s="8" t="str">
+      <c r="A134" s="9" t="str">
         <f>IF(ISBLANK(raw!A132),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A132))</f>
         <v/>
       </c>
@@ -3645,7 +3656,7 @@
       </c>
     </row>
     <row r="135" ht="14.25">
-      <c r="A135" s="8" t="str">
+      <c r="A135" s="9" t="str">
         <f>IF(ISBLANK(raw!A133),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A133))</f>
         <v/>
       </c>
@@ -3667,7 +3678,7 @@
       </c>
     </row>
     <row r="136" ht="14.25">
-      <c r="A136" s="8" t="str">
+      <c r="A136" s="9" t="str">
         <f>IF(ISBLANK(raw!A134),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A134))</f>
         <v/>
       </c>
@@ -3689,7 +3700,7 @@
       </c>
     </row>
     <row r="137" ht="14.25">
-      <c r="A137" s="8" t="str">
+      <c r="A137" s="9" t="str">
         <f>IF(ISBLANK(raw!A135),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A135))</f>
         <v/>
       </c>
@@ -3711,7 +3722,7 @@
       </c>
     </row>
     <row r="138" ht="14.25">
-      <c r="A138" s="8" t="str">
+      <c r="A138" s="9" t="str">
         <f>IF(ISBLANK(raw!A136),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A136))</f>
         <v/>
       </c>
@@ -3733,7 +3744,7 @@
       </c>
     </row>
     <row r="139" ht="14.25">
-      <c r="A139" s="8" t="str">
+      <c r="A139" s="9" t="str">
         <f>IF(ISBLANK(raw!A137),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A137))</f>
         <v/>
       </c>
@@ -3755,7 +3766,7 @@
       </c>
     </row>
     <row r="140" ht="14.25">
-      <c r="A140" s="8" t="str">
+      <c r="A140" s="9" t="str">
         <f>IF(ISBLANK(raw!A138),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A138))</f>
         <v/>
       </c>
@@ -3777,7 +3788,7 @@
       </c>
     </row>
     <row r="141" ht="14.25">
-      <c r="A141" s="8" t="str">
+      <c r="A141" s="9" t="str">
         <f>IF(ISBLANK(raw!A139),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A139))</f>
         <v/>
       </c>
@@ -3799,7 +3810,7 @@
       </c>
     </row>
     <row r="142" ht="14.25">
-      <c r="A142" s="8" t="str">
+      <c r="A142" s="9" t="str">
         <f>IF(ISBLANK(raw!A140),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A140))</f>
         <v/>
       </c>
@@ -3821,7 +3832,7 @@
       </c>
     </row>
     <row r="143" ht="14.25">
-      <c r="A143" s="8" t="str">
+      <c r="A143" s="9" t="str">
         <f>IF(ISBLANK(raw!A141),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A141))</f>
         <v/>
       </c>
@@ -3843,7 +3854,7 @@
       </c>
     </row>
     <row r="144" ht="14.25">
-      <c r="A144" s="8" t="str">
+      <c r="A144" s="9" t="str">
         <f>IF(ISBLANK(raw!A142),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A142))</f>
         <v/>
       </c>
@@ -3865,7 +3876,7 @@
       </c>
     </row>
     <row r="145" ht="14.25">
-      <c r="A145" s="8" t="str">
+      <c r="A145" s="9" t="str">
         <f>IF(ISBLANK(raw!A143),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A143))</f>
         <v/>
       </c>
@@ -3887,7 +3898,7 @@
       </c>
     </row>
     <row r="146" ht="14.25">
-      <c r="A146" s="8" t="str">
+      <c r="A146" s="9" t="str">
         <f>IF(ISBLANK(raw!A144),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A144))</f>
         <v/>
       </c>
@@ -3909,7 +3920,7 @@
       </c>
     </row>
     <row r="147" ht="14.25">
-      <c r="A147" s="8" t="str">
+      <c r="A147" s="9" t="str">
         <f>IF(ISBLANK(raw!A145),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A145))</f>
         <v/>
       </c>
@@ -3931,7 +3942,7 @@
       </c>
     </row>
     <row r="148" ht="14.25">
-      <c r="A148" s="8" t="str">
+      <c r="A148" s="9" t="str">
         <f>IF(ISBLANK(raw!A146),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A146))</f>
         <v/>
       </c>
@@ -3953,7 +3964,7 @@
       </c>
     </row>
     <row r="149" ht="14.25">
-      <c r="A149" s="8" t="str">
+      <c r="A149" s="9" t="str">
         <f>IF(ISBLANK(raw!A147),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A147))</f>
         <v/>
       </c>
@@ -3975,7 +3986,7 @@
       </c>
     </row>
     <row r="150" ht="14.25">
-      <c r="A150" s="8" t="str">
+      <c r="A150" s="9" t="str">
         <f>IF(ISBLANK(raw!A148),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A148))</f>
         <v/>
       </c>
@@ -3997,7 +4008,7 @@
       </c>
     </row>
     <row r="151" ht="14.25">
-      <c r="A151" s="8" t="str">
+      <c r="A151" s="9" t="str">
         <f>IF(ISBLANK(raw!A149),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A149))</f>
         <v/>
       </c>
@@ -4019,7 +4030,7 @@
       </c>
     </row>
     <row r="152" ht="14.25">
-      <c r="A152" s="8" t="str">
+      <c r="A152" s="9" t="str">
         <f>IF(ISBLANK(raw!A150),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A150))</f>
         <v/>
       </c>
@@ -4041,7 +4052,7 @@
       </c>
     </row>
     <row r="153" ht="14.25">
-      <c r="A153" s="8" t="str">
+      <c r="A153" s="9" t="str">
         <f>IF(ISBLANK(raw!A151),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A151))</f>
         <v/>
       </c>
@@ -4063,7 +4074,7 @@
       </c>
     </row>
     <row r="154" ht="14.25">
-      <c r="A154" s="8" t="str">
+      <c r="A154" s="9" t="str">
         <f>IF(ISBLANK(raw!A152),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A152))</f>
         <v/>
       </c>
@@ -4085,7 +4096,7 @@
       </c>
     </row>
     <row r="155" ht="14.25">
-      <c r="A155" s="8" t="str">
+      <c r="A155" s="9" t="str">
         <f>IF(ISBLANK(raw!A153),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A153))</f>
         <v/>
       </c>
@@ -4107,7 +4118,7 @@
       </c>
     </row>
     <row r="156" ht="14.25">
-      <c r="A156" s="8" t="str">
+      <c r="A156" s="9" t="str">
         <f>IF(ISBLANK(raw!A154),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A154))</f>
         <v/>
       </c>
@@ -4129,7 +4140,7 @@
       </c>
     </row>
     <row r="157" ht="14.25">
-      <c r="A157" s="8" t="str">
+      <c r="A157" s="9" t="str">
         <f>IF(ISBLANK(raw!A155),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A155))</f>
         <v/>
       </c>
@@ -4151,7 +4162,7 @@
       </c>
     </row>
     <row r="158" ht="14.25">
-      <c r="A158" s="8" t="str">
+      <c r="A158" s="9" t="str">
         <f>IF(ISBLANK(raw!A156),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A156))</f>
         <v/>
       </c>
@@ -4173,7 +4184,7 @@
       </c>
     </row>
     <row r="159" ht="14.25">
-      <c r="A159" s="8" t="str">
+      <c r="A159" s="9" t="str">
         <f>IF(ISBLANK(raw!A157),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A157))</f>
         <v/>
       </c>
@@ -4195,7 +4206,7 @@
       </c>
     </row>
     <row r="160" ht="14.25">
-      <c r="A160" s="8" t="str">
+      <c r="A160" s="9" t="str">
         <f>IF(ISBLANK(raw!A158),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A158))</f>
         <v/>
       </c>
@@ -4217,7 +4228,7 @@
       </c>
     </row>
     <row r="161" ht="14.25">
-      <c r="A161" s="8" t="str">
+      <c r="A161" s="9" t="str">
         <f>IF(ISBLANK(raw!A159),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A159))</f>
         <v/>
       </c>
@@ -4239,7 +4250,7 @@
       </c>
     </row>
     <row r="162" ht="14.25">
-      <c r="A162" s="8" t="str">
+      <c r="A162" s="9" t="str">
         <f>IF(ISBLANK(raw!A160),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A160))</f>
         <v/>
       </c>
@@ -4261,7 +4272,7 @@
       </c>
     </row>
     <row r="163" ht="14.25">
-      <c r="A163" s="8" t="str">
+      <c r="A163" s="9" t="str">
         <f>IF(ISBLANK(raw!A161),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A161))</f>
         <v/>
       </c>
@@ -4283,7 +4294,7 @@
       </c>
     </row>
     <row r="164" ht="14.25">
-      <c r="A164" s="8" t="str">
+      <c r="A164" s="9" t="str">
         <f>IF(ISBLANK(raw!A162),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A162))</f>
         <v/>
       </c>
@@ -4305,7 +4316,7 @@
       </c>
     </row>
     <row r="165" ht="14.25">
-      <c r="A165" s="8" t="str">
+      <c r="A165" s="9" t="str">
         <f>IF(ISBLANK(raw!A163),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A163))</f>
         <v/>
       </c>
@@ -4327,7 +4338,7 @@
       </c>
     </row>
     <row r="166" ht="14.25">
-      <c r="A166" s="8" t="str">
+      <c r="A166" s="9" t="str">
         <f>IF(ISBLANK(raw!A164),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A164))</f>
         <v/>
       </c>
@@ -4349,7 +4360,7 @@
       </c>
     </row>
     <row r="167" ht="14.25">
-      <c r="A167" s="8" t="str">
+      <c r="A167" s="9" t="str">
         <f>IF(ISBLANK(raw!A165),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A165))</f>
         <v/>
       </c>
@@ -4371,7 +4382,7 @@
       </c>
     </row>
     <row r="168" ht="14.25">
-      <c r="A168" s="8" t="str">
+      <c r="A168" s="9" t="str">
         <f>IF(ISBLANK(raw!A166),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A166))</f>
         <v/>
       </c>
@@ -4393,7 +4404,7 @@
       </c>
     </row>
     <row r="169" ht="14.25">
-      <c r="A169" s="8" t="str">
+      <c r="A169" s="9" t="str">
         <f>IF(ISBLANK(raw!A167),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A167))</f>
         <v/>
       </c>
@@ -4415,7 +4426,7 @@
       </c>
     </row>
     <row r="170" ht="14.25">
-      <c r="A170" s="8" t="str">
+      <c r="A170" s="9" t="str">
         <f>IF(ISBLANK(raw!A168),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A168))</f>
         <v/>
       </c>
@@ -4437,7 +4448,7 @@
       </c>
     </row>
     <row r="171" ht="14.25">
-      <c r="A171" s="8" t="str">
+      <c r="A171" s="9" t="str">
         <f>IF(ISBLANK(raw!A169),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A169))</f>
         <v/>
       </c>
@@ -4459,7 +4470,7 @@
       </c>
     </row>
     <row r="172" ht="14.25">
-      <c r="A172" s="8" t="str">
+      <c r="A172" s="9" t="str">
         <f>IF(ISBLANK(raw!A170),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A170))</f>
         <v/>
       </c>
@@ -4481,7 +4492,7 @@
       </c>
     </row>
     <row r="173" ht="14.25">
-      <c r="A173" s="8" t="str">
+      <c r="A173" s="9" t="str">
         <f>IF(ISBLANK(raw!A171),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A171))</f>
         <v/>
       </c>
@@ -4503,7 +4514,7 @@
       </c>
     </row>
     <row r="174" ht="14.25">
-      <c r="A174" s="8" t="str">
+      <c r="A174" s="9" t="str">
         <f>IF(ISBLANK(raw!A172),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A172))</f>
         <v/>
       </c>
@@ -4525,7 +4536,7 @@
       </c>
     </row>
     <row r="175" ht="14.25">
-      <c r="A175" s="8" t="str">
+      <c r="A175" s="9" t="str">
         <f>IF(ISBLANK(raw!A173),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A173))</f>
         <v/>
       </c>
@@ -4547,7 +4558,7 @@
       </c>
     </row>
     <row r="176" ht="14.25">
-      <c r="A176" s="8" t="str">
+      <c r="A176" s="9" t="str">
         <f>IF(ISBLANK(raw!A174),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A174))</f>
         <v/>
       </c>
@@ -4569,7 +4580,7 @@
       </c>
     </row>
     <row r="177" ht="14.25">
-      <c r="A177" s="8" t="str">
+      <c r="A177" s="9" t="str">
         <f>IF(ISBLANK(raw!A175),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A175))</f>
         <v/>
       </c>
@@ -4591,7 +4602,7 @@
       </c>
     </row>
     <row r="178" ht="14.25">
-      <c r="A178" s="8" t="str">
+      <c r="A178" s="9" t="str">
         <f>IF(ISBLANK(raw!A176),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A176))</f>
         <v/>
       </c>
@@ -4613,7 +4624,7 @@
       </c>
     </row>
     <row r="179" ht="14.25">
-      <c r="A179" s="8" t="str">
+      <c r="A179" s="9" t="str">
         <f>IF(ISBLANK(raw!A177),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A177))</f>
         <v/>
       </c>
@@ -4635,7 +4646,7 @@
       </c>
     </row>
     <row r="180" ht="14.25">
-      <c r="A180" s="8" t="str">
+      <c r="A180" s="9" t="str">
         <f>IF(ISBLANK(raw!A178),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A178))</f>
         <v/>
       </c>
@@ -4657,7 +4668,7 @@
       </c>
     </row>
     <row r="181" ht="14.25">
-      <c r="A181" s="8" t="str">
+      <c r="A181" s="9" t="str">
         <f>IF(ISBLANK(raw!A179),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A179))</f>
         <v/>
       </c>
@@ -4679,7 +4690,7 @@
       </c>
     </row>
     <row r="182" ht="14.25">
-      <c r="A182" s="8" t="str">
+      <c r="A182" s="9" t="str">
         <f>IF(ISBLANK(raw!A180),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A180))</f>
         <v/>
       </c>
@@ -4701,7 +4712,7 @@
       </c>
     </row>
     <row r="183" ht="14.25">
-      <c r="A183" s="8" t="str">
+      <c r="A183" s="9" t="str">
         <f>IF(ISBLANK(raw!A181),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A181))</f>
         <v/>
       </c>
@@ -4723,7 +4734,7 @@
       </c>
     </row>
     <row r="184" ht="14.25">
-      <c r="A184" s="8" t="str">
+      <c r="A184" s="9" t="str">
         <f>IF(ISBLANK(raw!A182),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A182))</f>
         <v/>
       </c>
@@ -4745,7 +4756,7 @@
       </c>
     </row>
     <row r="185" ht="14.25">
-      <c r="A185" s="8" t="str">
+      <c r="A185" s="9" t="str">
         <f>IF(ISBLANK(raw!A183),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A183))</f>
         <v/>
       </c>
@@ -4767,7 +4778,7 @@
       </c>
     </row>
     <row r="186" ht="14.25">
-      <c r="A186" s="8" t="str">
+      <c r="A186" s="9" t="str">
         <f>IF(ISBLANK(raw!A184),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A184))</f>
         <v/>
       </c>
@@ -4789,7 +4800,7 @@
       </c>
     </row>
     <row r="187" ht="14.25">
-      <c r="A187" s="8" t="str">
+      <c r="A187" s="9" t="str">
         <f>IF(ISBLANK(raw!A185),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A185))</f>
         <v/>
       </c>
@@ -4811,7 +4822,7 @@
       </c>
     </row>
     <row r="188" ht="14.25">
-      <c r="A188" s="8" t="str">
+      <c r="A188" s="9" t="str">
         <f>IF(ISBLANK(raw!A186),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A186))</f>
         <v/>
       </c>
@@ -4833,7 +4844,7 @@
       </c>
     </row>
     <row r="189" ht="14.25">
-      <c r="A189" s="8" t="str">
+      <c r="A189" s="9" t="str">
         <f>IF(ISBLANK(raw!A187),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A187))</f>
         <v/>
       </c>
@@ -4855,7 +4866,7 @@
       </c>
     </row>
     <row r="190" ht="14.25">
-      <c r="A190" s="8" t="str">
+      <c r="A190" s="9" t="str">
         <f>IF(ISBLANK(raw!A188),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A188))</f>
         <v/>
       </c>
@@ -4877,7 +4888,7 @@
       </c>
     </row>
     <row r="191" ht="14.25">
-      <c r="A191" s="8" t="str">
+      <c r="A191" s="9" t="str">
         <f>IF(ISBLANK(raw!A189),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A189))</f>
         <v/>
       </c>
@@ -4899,7 +4910,7 @@
       </c>
     </row>
     <row r="192" ht="14.25">
-      <c r="A192" s="8" t="str">
+      <c r="A192" s="9" t="str">
         <f>IF(ISBLANK(raw!A190),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A190))</f>
         <v/>
       </c>
@@ -4921,7 +4932,7 @@
       </c>
     </row>
     <row r="193" ht="14.25">
-      <c r="A193" s="8" t="str">
+      <c r="A193" s="9" t="str">
         <f>IF(ISBLANK(raw!A191),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A191))</f>
         <v/>
       </c>
@@ -4943,7 +4954,7 @@
       </c>
     </row>
     <row r="194" ht="14.25">
-      <c r="A194" s="8" t="str">
+      <c r="A194" s="9" t="str">
         <f>IF(ISBLANK(raw!A192),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A192))</f>
         <v/>
       </c>
@@ -4965,7 +4976,7 @@
       </c>
     </row>
     <row r="195" ht="14.25">
-      <c r="A195" s="8" t="str">
+      <c r="A195" s="9" t="str">
         <f>IF(ISBLANK(raw!A193),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A193))</f>
         <v/>
       </c>
@@ -4987,7 +4998,7 @@
       </c>
     </row>
     <row r="196" ht="14.25">
-      <c r="A196" s="8" t="str">
+      <c r="A196" s="9" t="str">
         <f>IF(ISBLANK(raw!A194),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A194))</f>
         <v/>
       </c>
@@ -5009,7 +5020,7 @@
       </c>
     </row>
     <row r="197" ht="14.25">
-      <c r="A197" s="8" t="str">
+      <c r="A197" s="9" t="str">
         <f>IF(ISBLANK(raw!A195),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A195))</f>
         <v/>
       </c>
@@ -5031,7 +5042,7 @@
       </c>
     </row>
     <row r="198" ht="14.25">
-      <c r="A198" s="8" t="str">
+      <c r="A198" s="9" t="str">
         <f>IF(ISBLANK(raw!A196),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A196))</f>
         <v/>
       </c>
@@ -5053,7 +5064,7 @@
       </c>
     </row>
     <row r="199" ht="14.25">
-      <c r="A199" s="8" t="str">
+      <c r="A199" s="9" t="str">
         <f>IF(ISBLANK(raw!A197),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A197))</f>
         <v/>
       </c>
@@ -5075,7 +5086,7 @@
       </c>
     </row>
     <row r="200" ht="14.25">
-      <c r="A200" s="8" t="str">
+      <c r="A200" s="9" t="str">
         <f>IF(ISBLANK(raw!A198),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A198))</f>
         <v/>
       </c>
@@ -5097,7 +5108,7 @@
       </c>
     </row>
     <row r="201" ht="14.25">
-      <c r="A201" s="8" t="str">
+      <c r="A201" s="9" t="str">
         <f>IF(ISBLANK(raw!A199),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A199))</f>
         <v/>
       </c>
@@ -5119,7 +5130,7 @@
       </c>
     </row>
     <row r="202" ht="14.25">
-      <c r="A202" s="8" t="str">
+      <c r="A202" s="9" t="str">
         <f>IF(ISBLANK(raw!A200),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A200))</f>
         <v/>
       </c>
@@ -5141,7 +5152,7 @@
       </c>
     </row>
     <row r="203" ht="14.25">
-      <c r="A203" s="8" t="str">
+      <c r="A203" s="9" t="str">
         <f>IF(ISBLANK(raw!A201),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A201))</f>
         <v/>
       </c>
@@ -5163,7 +5174,7 @@
       </c>
     </row>
     <row r="204" ht="14.25">
-      <c r="A204" s="8" t="str">
+      <c r="A204" s="9" t="str">
         <f>IF(ISBLANK(raw!A202),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A202))</f>
         <v/>
       </c>
@@ -5185,7 +5196,7 @@
       </c>
     </row>
     <row r="205" ht="14.25">
-      <c r="A205" s="8" t="str">
+      <c r="A205" s="9" t="str">
         <f>IF(ISBLANK(raw!A203),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A203))</f>
         <v/>
       </c>
@@ -5207,7 +5218,7 @@
       </c>
     </row>
     <row r="206" ht="14.25">
-      <c r="A206" s="8" t="str">
+      <c r="A206" s="9" t="str">
         <f>IF(ISBLANK(raw!A204),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A204))</f>
         <v/>
       </c>
@@ -5229,7 +5240,7 @@
       </c>
     </row>
     <row r="207" ht="14.25">
-      <c r="A207" s="8" t="str">
+      <c r="A207" s="9" t="str">
         <f>IF(ISBLANK(raw!A205),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A205))</f>
         <v/>
       </c>
@@ -5251,7 +5262,7 @@
       </c>
     </row>
     <row r="208" ht="14.25">
-      <c r="A208" s="8" t="str">
+      <c r="A208" s="9" t="str">
         <f>IF(ISBLANK(raw!A206),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A206))</f>
         <v/>
       </c>
@@ -5273,7 +5284,7 @@
       </c>
     </row>
     <row r="209" ht="14.25">
-      <c r="A209" s="8" t="str">
+      <c r="A209" s="9" t="str">
         <f>IF(ISBLANK(raw!A207),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A207))</f>
         <v/>
       </c>
@@ -5295,7 +5306,7 @@
       </c>
     </row>
     <row r="210" ht="14.25">
-      <c r="A210" s="8" t="str">
+      <c r="A210" s="9" t="str">
         <f>IF(ISBLANK(raw!A208),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A208))</f>
         <v/>
       </c>
@@ -5317,7 +5328,7 @@
       </c>
     </row>
     <row r="211" ht="14.25">
-      <c r="A211" s="8" t="str">
+      <c r="A211" s="9" t="str">
         <f>IF(ISBLANK(raw!A209),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A209))</f>
         <v/>
       </c>
@@ -5339,7 +5350,7 @@
       </c>
     </row>
     <row r="212" ht="14.25">
-      <c r="A212" s="8" t="str">
+      <c r="A212" s="9" t="str">
         <f>IF(ISBLANK(raw!A210),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A210))</f>
         <v/>
       </c>
@@ -5361,7 +5372,7 @@
       </c>
     </row>
     <row r="213" ht="14.25">
-      <c r="A213" s="8" t="str">
+      <c r="A213" s="9" t="str">
         <f>IF(ISBLANK(raw!A211),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A211))</f>
         <v/>
       </c>
@@ -5383,7 +5394,7 @@
       </c>
     </row>
     <row r="214" ht="14.25">
-      <c r="A214" s="8" t="str">
+      <c r="A214" s="9" t="str">
         <f>IF(ISBLANK(raw!A212),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A212))</f>
         <v/>
       </c>
@@ -5405,7 +5416,7 @@
       </c>
     </row>
     <row r="215" ht="14.25">
-      <c r="A215" s="8" t="str">
+      <c r="A215" s="9" t="str">
         <f>IF(ISBLANK(raw!A213),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A213))</f>
         <v/>
       </c>
@@ -5427,7 +5438,7 @@
       </c>
     </row>
     <row r="216" ht="14.25">
-      <c r="A216" s="8" t="str">
+      <c r="A216" s="9" t="str">
         <f>IF(ISBLANK(raw!A214),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A214))</f>
         <v/>
       </c>
@@ -5449,7 +5460,7 @@
       </c>
     </row>
     <row r="217" ht="14.25">
-      <c r="A217" s="8" t="str">
+      <c r="A217" s="9" t="str">
         <f>IF(ISBLANK(raw!A215),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A215))</f>
         <v/>
       </c>
@@ -5471,7 +5482,7 @@
       </c>
     </row>
     <row r="218" ht="14.25">
-      <c r="A218" s="8" t="str">
+      <c r="A218" s="9" t="str">
         <f>IF(ISBLANK(raw!A216),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A216))</f>
         <v/>
       </c>
@@ -5493,7 +5504,7 @@
       </c>
     </row>
     <row r="219" ht="14.25">
-      <c r="A219" s="8" t="str">
+      <c r="A219" s="9" t="str">
         <f>IF(ISBLANK(raw!A217),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A217))</f>
         <v/>
       </c>
@@ -5515,7 +5526,7 @@
       </c>
     </row>
     <row r="220" ht="14.25">
-      <c r="A220" s="8" t="str">
+      <c r="A220" s="9" t="str">
         <f>IF(ISBLANK(raw!A218),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A218))</f>
         <v/>
       </c>
@@ -5537,7 +5548,7 @@
       </c>
     </row>
     <row r="221" ht="14.25">
-      <c r="A221" s="8" t="str">
+      <c r="A221" s="9" t="str">
         <f>IF(ISBLANK(raw!A219),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A219))</f>
         <v/>
       </c>
@@ -5559,7 +5570,7 @@
       </c>
     </row>
     <row r="222" ht="14.25">
-      <c r="A222" s="8" t="str">
+      <c r="A222" s="9" t="str">
         <f>IF(ISBLANK(raw!A220),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A220))</f>
         <v/>
       </c>
@@ -5581,7 +5592,7 @@
       </c>
     </row>
     <row r="223" ht="14.25">
-      <c r="A223" s="8" t="str">
+      <c r="A223" s="9" t="str">
         <f>IF(ISBLANK(raw!A221),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A221))</f>
         <v/>
       </c>
@@ -5603,7 +5614,7 @@
       </c>
     </row>
     <row r="224" ht="14.25">
-      <c r="A224" s="8" t="str">
+      <c r="A224" s="9" t="str">
         <f>IF(ISBLANK(raw!A222),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A222))</f>
         <v/>
       </c>
@@ -5625,7 +5636,7 @@
       </c>
     </row>
     <row r="225" ht="14.25">
-      <c r="A225" s="8" t="str">
+      <c r="A225" s="9" t="str">
         <f>IF(ISBLANK(raw!A223),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A223))</f>
         <v/>
       </c>
@@ -5647,7 +5658,7 @@
       </c>
     </row>
     <row r="226" ht="14.25">
-      <c r="A226" s="8" t="str">
+      <c r="A226" s="9" t="str">
         <f>IF(ISBLANK(raw!A224),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A224))</f>
         <v/>
       </c>
@@ -5669,7 +5680,7 @@
       </c>
     </row>
     <row r="227" ht="14.25">
-      <c r="A227" s="8" t="str">
+      <c r="A227" s="9" t="str">
         <f>IF(ISBLANK(raw!A225),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A225))</f>
         <v/>
       </c>
@@ -5691,7 +5702,7 @@
       </c>
     </row>
     <row r="228" ht="14.25">
-      <c r="A228" s="8" t="str">
+      <c r="A228" s="9" t="str">
         <f>IF(ISBLANK(raw!A226),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A226))</f>
         <v/>
       </c>
@@ -5713,7 +5724,7 @@
       </c>
     </row>
     <row r="229" ht="14.25">
-      <c r="A229" s="8" t="str">
+      <c r="A229" s="9" t="str">
         <f>IF(ISBLANK(raw!A227),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A227))</f>
         <v/>
       </c>
@@ -5735,7 +5746,7 @@
       </c>
     </row>
     <row r="230" ht="14.25">
-      <c r="A230" s="8" t="str">
+      <c r="A230" s="9" t="str">
         <f>IF(ISBLANK(raw!A228),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A228))</f>
         <v/>
       </c>
@@ -5757,7 +5768,7 @@
       </c>
     </row>
     <row r="231" ht="14.25">
-      <c r="A231" s="8" t="str">
+      <c r="A231" s="9" t="str">
         <f>IF(ISBLANK(raw!A229),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A229))</f>
         <v/>
       </c>
@@ -5779,7 +5790,7 @@
       </c>
     </row>
     <row r="232" ht="14.25">
-      <c r="A232" s="8" t="str">
+      <c r="A232" s="9" t="str">
         <f>IF(ISBLANK(raw!A230),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A230))</f>
         <v/>
       </c>
@@ -5801,7 +5812,7 @@
       </c>
     </row>
     <row r="233" ht="14.25">
-      <c r="A233" s="8" t="str">
+      <c r="A233" s="9" t="str">
         <f>IF(ISBLANK(raw!A231),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A231))</f>
         <v/>
       </c>
@@ -5823,7 +5834,7 @@
       </c>
     </row>
     <row r="234" ht="14.25">
-      <c r="A234" s="8" t="str">
+      <c r="A234" s="9" t="str">
         <f>IF(ISBLANK(raw!A232),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A232))</f>
         <v/>
       </c>
@@ -5845,7 +5856,7 @@
       </c>
     </row>
     <row r="235" ht="14.25">
-      <c r="A235" s="8" t="str">
+      <c r="A235" s="9" t="str">
         <f>IF(ISBLANK(raw!A233),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A233))</f>
         <v/>
       </c>
@@ -5867,7 +5878,7 @@
       </c>
     </row>
     <row r="236" ht="14.25">
-      <c r="A236" s="8" t="str">
+      <c r="A236" s="9" t="str">
         <f>IF(ISBLANK(raw!A234),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A234))</f>
         <v/>
       </c>
@@ -5889,7 +5900,7 @@
       </c>
     </row>
     <row r="237" ht="14.25">
-      <c r="A237" s="8" t="str">
+      <c r="A237" s="9" t="str">
         <f>IF(ISBLANK(raw!A235),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A235))</f>
         <v/>
       </c>
@@ -5911,7 +5922,7 @@
       </c>
     </row>
     <row r="238" ht="14.25">
-      <c r="A238" s="8" t="str">
+      <c r="A238" s="9" t="str">
         <f>IF(ISBLANK(raw!A236),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A236))</f>
         <v/>
       </c>
@@ -5933,7 +5944,7 @@
       </c>
     </row>
     <row r="239" ht="14.25">
-      <c r="A239" s="8" t="str">
+      <c r="A239" s="9" t="str">
         <f>IF(ISBLANK(raw!A237),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A237))</f>
         <v/>
       </c>
@@ -5955,7 +5966,7 @@
       </c>
     </row>
     <row r="240" ht="14.25">
-      <c r="A240" s="8" t="str">
+      <c r="A240" s="9" t="str">
         <f>IF(ISBLANK(raw!A238),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A238))</f>
         <v/>
       </c>
@@ -5977,7 +5988,7 @@
       </c>
     </row>
     <row r="241" ht="14.25">
-      <c r="A241" s="8" t="str">
+      <c r="A241" s="9" t="str">
         <f>IF(ISBLANK(raw!A239),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A239))</f>
         <v/>
       </c>
@@ -5999,7 +6010,7 @@
       </c>
     </row>
     <row r="242" ht="14.25">
-      <c r="A242" s="8" t="str">
+      <c r="A242" s="9" t="str">
         <f>IF(ISBLANK(raw!A240),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A240))</f>
         <v/>
       </c>
@@ -6021,7 +6032,7 @@
       </c>
     </row>
     <row r="243" ht="14.25">
-      <c r="A243" s="8" t="str">
+      <c r="A243" s="9" t="str">
         <f>IF(ISBLANK(raw!A241),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A241))</f>
         <v/>
       </c>
@@ -6043,7 +6054,7 @@
       </c>
     </row>
     <row r="244" ht="14.25">
-      <c r="A244" s="8" t="str">
+      <c r="A244" s="9" t="str">
         <f>IF(ISBLANK(raw!A242),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A242))</f>
         <v/>
       </c>
@@ -6065,7 +6076,7 @@
       </c>
     </row>
     <row r="245" ht="14.25">
-      <c r="A245" s="8" t="str">
+      <c r="A245" s="9" t="str">
         <f>IF(ISBLANK(raw!A243),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A243))</f>
         <v/>
       </c>
@@ -6087,7 +6098,7 @@
       </c>
     </row>
     <row r="246" ht="14.25">
-      <c r="A246" s="8" t="str">
+      <c r="A246" s="9" t="str">
         <f>IF(ISBLANK(raw!A244),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A244))</f>
         <v/>
       </c>
@@ -6109,7 +6120,7 @@
       </c>
     </row>
     <row r="247" ht="14.25">
-      <c r="A247" s="8" t="str">
+      <c r="A247" s="9" t="str">
         <f>IF(ISBLANK(raw!A245),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A245))</f>
         <v/>
       </c>
@@ -6131,7 +6142,7 @@
       </c>
     </row>
     <row r="248" ht="14.25">
-      <c r="A248" s="8" t="str">
+      <c r="A248" s="9" t="str">
         <f>IF(ISBLANK(raw!A246),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A246))</f>
         <v/>
       </c>
@@ -6153,7 +6164,7 @@
       </c>
     </row>
     <row r="249" ht="14.25">
-      <c r="A249" s="8" t="str">
+      <c r="A249" s="9" t="str">
         <f>IF(ISBLANK(raw!A247),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A247))</f>
         <v/>
       </c>
@@ -6175,7 +6186,7 @@
       </c>
     </row>
     <row r="250" ht="14.25">
-      <c r="A250" s="8" t="str">
+      <c r="A250" s="9" t="str">
         <f>IF(ISBLANK(raw!A248),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A248))</f>
         <v/>
       </c>
@@ -6197,7 +6208,7 @@
       </c>
     </row>
     <row r="251" ht="14.25">
-      <c r="A251" s="8" t="str">
+      <c r="A251" s="9" t="str">
         <f>IF(ISBLANK(raw!A249),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A249))</f>
         <v/>
       </c>
@@ -6219,7 +6230,7 @@
       </c>
     </row>
     <row r="252" ht="14.25">
-      <c r="A252" s="8" t="str">
+      <c r="A252" s="9" t="str">
         <f>IF(ISBLANK(raw!A250),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A250))</f>
         <v/>
       </c>
@@ -6241,7 +6252,7 @@
       </c>
     </row>
     <row r="253" ht="14.25">
-      <c r="A253" s="8" t="str">
+      <c r="A253" s="9" t="str">
         <f>IF(ISBLANK(raw!A251),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A251))</f>
         <v/>
       </c>
@@ -6263,7 +6274,7 @@
       </c>
     </row>
     <row r="254" ht="14.25">
-      <c r="A254" s="8" t="str">
+      <c r="A254" s="9" t="str">
         <f>IF(ISBLANK(raw!A252),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A252))</f>
         <v/>
       </c>
@@ -6285,7 +6296,7 @@
       </c>
     </row>
     <row r="255" ht="14.25">
-      <c r="A255" s="8" t="str">
+      <c r="A255" s="9" t="str">
         <f>IF(ISBLANK(raw!A253),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A253))</f>
         <v/>
       </c>
@@ -6307,7 +6318,7 @@
       </c>
     </row>
     <row r="256" ht="14.25">
-      <c r="A256" s="8" t="str">
+      <c r="A256" s="9" t="str">
         <f>IF(ISBLANK(raw!A254),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A254))</f>
         <v/>
       </c>
@@ -6329,7 +6340,7 @@
       </c>
     </row>
     <row r="257" ht="14.25">
-      <c r="A257" s="8" t="str">
+      <c r="A257" s="9" t="str">
         <f>IF(ISBLANK(raw!A255),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A255))</f>
         <v/>
       </c>
@@ -6351,7 +6362,7 @@
       </c>
     </row>
     <row r="258" ht="14.25">
-      <c r="A258" s="8" t="str">
+      <c r="A258" s="9" t="str">
         <f>IF(ISBLANK(raw!A256),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A256))</f>
         <v/>
       </c>
@@ -6373,7 +6384,7 @@
       </c>
     </row>
     <row r="259" ht="14.25">
-      <c r="A259" s="8" t="str">
+      <c r="A259" s="9" t="str">
         <f>IF(ISBLANK(raw!A257),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A257))</f>
         <v/>
       </c>
@@ -6395,7 +6406,7 @@
       </c>
     </row>
     <row r="260" ht="14.25">
-      <c r="A260" s="8" t="str">
+      <c r="A260" s="9" t="str">
         <f>IF(ISBLANK(raw!A258),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A258))</f>
         <v/>
       </c>
@@ -6417,7 +6428,7 @@
       </c>
     </row>
     <row r="261" ht="14.25">
-      <c r="A261" s="8" t="str">
+      <c r="A261" s="9" t="str">
         <f>IF(ISBLANK(raw!A259),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A259))</f>
         <v/>
       </c>
@@ -6439,7 +6450,7 @@
       </c>
     </row>
     <row r="262" ht="14.25">
-      <c r="A262" s="8" t="str">
+      <c r="A262" s="9" t="str">
         <f>IF(ISBLANK(raw!A260),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A260))</f>
         <v/>
       </c>
@@ -6461,7 +6472,7 @@
       </c>
     </row>
     <row r="263" ht="14.25">
-      <c r="A263" s="8" t="str">
+      <c r="A263" s="9" t="str">
         <f>IF(ISBLANK(raw!A261),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A261))</f>
         <v/>
       </c>
@@ -6483,7 +6494,7 @@
       </c>
     </row>
     <row r="264" ht="14.25">
-      <c r="A264" s="8" t="str">
+      <c r="A264" s="9" t="str">
         <f>IF(ISBLANK(raw!A262),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A262))</f>
         <v/>
       </c>
@@ -6505,7 +6516,7 @@
       </c>
     </row>
     <row r="265" ht="14.25">
-      <c r="A265" s="8" t="str">
+      <c r="A265" s="9" t="str">
         <f>IF(ISBLANK(raw!A263),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A263))</f>
         <v/>
       </c>
@@ -6527,7 +6538,7 @@
       </c>
     </row>
     <row r="266" ht="14.25">
-      <c r="A266" s="8" t="str">
+      <c r="A266" s="9" t="str">
         <f>IF(ISBLANK(raw!A264),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A264))</f>
         <v/>
       </c>
@@ -6549,7 +6560,7 @@
       </c>
     </row>
     <row r="267" ht="14.25">
-      <c r="A267" s="8" t="str">
+      <c r="A267" s="9" t="str">
         <f>IF(ISBLANK(raw!A265),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A265))</f>
         <v/>
       </c>
@@ -6571,7 +6582,7 @@
       </c>
     </row>
     <row r="268" ht="14.25">
-      <c r="A268" s="8" t="str">
+      <c r="A268" s="9" t="str">
         <f>IF(ISBLANK(raw!A266),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A266))</f>
         <v/>
       </c>
@@ -6593,7 +6604,7 @@
       </c>
     </row>
     <row r="269" ht="14.25">
-      <c r="A269" s="8" t="str">
+      <c r="A269" s="9" t="str">
         <f>IF(ISBLANK(raw!A267),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A267))</f>
         <v/>
       </c>
@@ -6615,7 +6626,7 @@
       </c>
     </row>
     <row r="270" ht="14.25">
-      <c r="A270" s="8" t="str">
+      <c r="A270" s="9" t="str">
         <f>IF(ISBLANK(raw!A268),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A268))</f>
         <v/>
       </c>
@@ -6637,7 +6648,7 @@
       </c>
     </row>
     <row r="271" ht="14.25">
-      <c r="A271" s="8" t="str">
+      <c r="A271" s="9" t="str">
         <f>IF(ISBLANK(raw!A269),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A269))</f>
         <v/>
       </c>
@@ -6659,7 +6670,7 @@
       </c>
     </row>
     <row r="272" ht="14.25">
-      <c r="A272" s="8" t="str">
+      <c r="A272" s="9" t="str">
         <f>IF(ISBLANK(raw!A270),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A270))</f>
         <v/>
       </c>
@@ -6681,7 +6692,7 @@
       </c>
     </row>
     <row r="273" ht="14.25">
-      <c r="A273" s="8" t="str">
+      <c r="A273" s="9" t="str">
         <f>IF(ISBLANK(raw!A271),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A271))</f>
         <v/>
       </c>
@@ -6703,7 +6714,7 @@
       </c>
     </row>
     <row r="274" ht="14.25">
-      <c r="A274" s="8" t="str">
+      <c r="A274" s="9" t="str">
         <f>IF(ISBLANK(raw!A272),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A272))</f>
         <v/>
       </c>
@@ -6725,7 +6736,7 @@
       </c>
     </row>
     <row r="275" ht="14.25">
-      <c r="A275" s="8" t="str">
+      <c r="A275" s="9" t="str">
         <f>IF(ISBLANK(raw!A273),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A273))</f>
         <v/>
       </c>
@@ -6747,7 +6758,7 @@
       </c>
     </row>
     <row r="276" ht="14.25">
-      <c r="A276" s="8" t="str">
+      <c r="A276" s="9" t="str">
         <f>IF(ISBLANK(raw!A274),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A274))</f>
         <v/>
       </c>
@@ -6769,7 +6780,7 @@
       </c>
     </row>
     <row r="277" ht="14.25">
-      <c r="A277" s="8" t="str">
+      <c r="A277" s="9" t="str">
         <f>IF(ISBLANK(raw!A275),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A275))</f>
         <v/>
       </c>
@@ -6791,7 +6802,7 @@
       </c>
     </row>
     <row r="278" ht="14.25">
-      <c r="A278" s="8" t="str">
+      <c r="A278" s="9" t="str">
         <f>IF(ISBLANK(raw!A276),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A276))</f>
         <v/>
       </c>
@@ -6813,7 +6824,7 @@
       </c>
     </row>
     <row r="279" ht="14.25">
-      <c r="A279" s="8" t="str">
+      <c r="A279" s="9" t="str">
         <f>IF(ISBLANK(raw!A277),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A277))</f>
         <v/>
       </c>
@@ -6835,7 +6846,7 @@
       </c>
     </row>
     <row r="280" ht="14.25">
-      <c r="A280" s="8" t="str">
+      <c r="A280" s="9" t="str">
         <f>IF(ISBLANK(raw!A278),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A278))</f>
         <v/>
       </c>
@@ -6857,7 +6868,7 @@
       </c>
     </row>
     <row r="281" ht="14.25">
-      <c r="A281" s="8" t="str">
+      <c r="A281" s="9" t="str">
         <f>IF(ISBLANK(raw!A279),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A279))</f>
         <v/>
       </c>
@@ -6879,7 +6890,7 @@
       </c>
     </row>
     <row r="282" ht="14.25">
-      <c r="A282" s="8" t="str">
+      <c r="A282" s="9" t="str">
         <f>IF(ISBLANK(raw!A280),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A280))</f>
         <v/>
       </c>
@@ -6901,7 +6912,7 @@
       </c>
     </row>
     <row r="283" ht="14.25">
-      <c r="A283" s="8" t="str">
+      <c r="A283" s="9" t="str">
         <f>IF(ISBLANK(raw!A281),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A281))</f>
         <v/>
       </c>
@@ -6923,7 +6934,7 @@
       </c>
     </row>
     <row r="284" ht="14.25">
-      <c r="A284" s="8" t="str">
+      <c r="A284" s="9" t="str">
         <f>IF(ISBLANK(raw!A282),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A282))</f>
         <v/>
       </c>
@@ -6945,7 +6956,7 @@
       </c>
     </row>
     <row r="285" ht="14.25">
-      <c r="A285" s="8" t="str">
+      <c r="A285" s="9" t="str">
         <f>IF(ISBLANK(raw!A283),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A283))</f>
         <v/>
       </c>
@@ -6967,7 +6978,7 @@
       </c>
     </row>
     <row r="286" ht="14.25">
-      <c r="A286" s="8" t="str">
+      <c r="A286" s="9" t="str">
         <f>IF(ISBLANK(raw!A284),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A284))</f>
         <v/>
       </c>
@@ -6989,7 +7000,7 @@
       </c>
     </row>
     <row r="287" ht="14.25">
-      <c r="A287" s="8" t="str">
+      <c r="A287" s="9" t="str">
         <f>IF(ISBLANK(raw!A285),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A285))</f>
         <v/>
       </c>
@@ -7011,7 +7022,7 @@
       </c>
     </row>
     <row r="288" ht="14.25">
-      <c r="A288" s="8" t="str">
+      <c r="A288" s="9" t="str">
         <f>IF(ISBLANK(raw!A286),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A286))</f>
         <v/>
       </c>
@@ -7033,7 +7044,7 @@
       </c>
     </row>
     <row r="289" ht="14.25">
-      <c r="A289" s="8" t="str">
+      <c r="A289" s="9" t="str">
         <f>IF(ISBLANK(raw!A287),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A287))</f>
         <v/>
       </c>
@@ -7055,7 +7066,7 @@
       </c>
     </row>
     <row r="290" ht="14.25">
-      <c r="A290" s="8" t="str">
+      <c r="A290" s="9" t="str">
         <f>IF(ISBLANK(raw!A288),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A288))</f>
         <v/>
       </c>
@@ -7077,7 +7088,7 @@
       </c>
     </row>
     <row r="291" ht="14.25">
-      <c r="A291" s="8" t="str">
+      <c r="A291" s="9" t="str">
         <f>IF(ISBLANK(raw!A289),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A289))</f>
         <v/>
       </c>
@@ -7099,7 +7110,7 @@
       </c>
     </row>
     <row r="292" ht="14.25">
-      <c r="A292" s="8" t="str">
+      <c r="A292" s="9" t="str">
         <f>IF(ISBLANK(raw!A290),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A290))</f>
         <v/>
       </c>
@@ -7121,7 +7132,7 @@
       </c>
     </row>
     <row r="293" ht="14.25">
-      <c r="A293" s="8" t="str">
+      <c r="A293" s="9" t="str">
         <f>IF(ISBLANK(raw!A291),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A291))</f>
         <v/>
       </c>
@@ -7143,7 +7154,7 @@
       </c>
     </row>
     <row r="294" ht="14.25">
-      <c r="A294" s="8" t="str">
+      <c r="A294" s="9" t="str">
         <f>IF(ISBLANK(raw!A292),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A292))</f>
         <v/>
       </c>
@@ -7165,7 +7176,7 @@
       </c>
     </row>
     <row r="295" ht="14.25">
-      <c r="A295" s="8" t="str">
+      <c r="A295" s="9" t="str">
         <f>IF(ISBLANK(raw!A293),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A293))</f>
         <v/>
       </c>
@@ -7187,7 +7198,7 @@
       </c>
     </row>
     <row r="296" ht="14.25">
-      <c r="A296" s="8" t="str">
+      <c r="A296" s="9" t="str">
         <f>IF(ISBLANK(raw!A294),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A294))</f>
         <v/>
       </c>
@@ -7209,7 +7220,7 @@
       </c>
     </row>
     <row r="297" ht="14.25">
-      <c r="A297" s="8" t="str">
+      <c r="A297" s="9" t="str">
         <f>IF(ISBLANK(raw!A295),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A295))</f>
         <v/>
       </c>
@@ -7231,7 +7242,7 @@
       </c>
     </row>
     <row r="298" ht="14.25">
-      <c r="A298" s="8" t="str">
+      <c r="A298" s="9" t="str">
         <f>IF(ISBLANK(raw!A296),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A296))</f>
         <v/>
       </c>
@@ -7253,7 +7264,7 @@
       </c>
     </row>
     <row r="299" ht="14.25">
-      <c r="A299" s="8" t="str">
+      <c r="A299" s="9" t="str">
         <f>IF(ISBLANK(raw!A297),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A297))</f>
         <v/>
       </c>
@@ -7275,7 +7286,7 @@
       </c>
     </row>
     <row r="300" ht="14.25">
-      <c r="A300" s="8" t="str">
+      <c r="A300" s="9" t="str">
         <f>IF(ISBLANK(raw!A298),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A298))</f>
         <v/>
       </c>
@@ -7297,7 +7308,7 @@
       </c>
     </row>
     <row r="301" ht="14.25">
-      <c r="A301" s="8" t="str">
+      <c r="A301" s="9" t="str">
         <f>IF(ISBLANK(raw!A299),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A299))</f>
         <v/>
       </c>
@@ -7319,7 +7330,7 @@
       </c>
     </row>
     <row r="302" ht="14.25">
-      <c r="A302" s="8" t="str">
+      <c r="A302" s="9" t="str">
         <f>IF(ISBLANK(raw!A300),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A300))</f>
         <v/>
       </c>
@@ -7341,7 +7352,7 @@
       </c>
     </row>
     <row r="303" ht="14.25">
-      <c r="A303" s="8" t="str">
+      <c r="A303" s="9" t="str">
         <f>IF(ISBLANK(raw!A301),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A301))</f>
         <v/>
       </c>
@@ -7363,7 +7374,7 @@
       </c>
     </row>
     <row r="304" ht="14.25">
-      <c r="A304" s="8" t="str">
+      <c r="A304" s="9" t="str">
         <f>IF(ISBLANK(raw!A302),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A302))</f>
         <v/>
       </c>
@@ -7385,7 +7396,7 @@
       </c>
     </row>
     <row r="305" ht="14.25">
-      <c r="A305" s="8" t="str">
+      <c r="A305" s="9" t="str">
         <f>IF(ISBLANK(raw!A303),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A303))</f>
         <v/>
       </c>
@@ -7407,7 +7418,7 @@
       </c>
     </row>
     <row r="306" ht="14.25">
-      <c r="A306" s="8" t="str">
+      <c r="A306" s="9" t="str">
         <f>IF(ISBLANK(raw!A304),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A304))</f>
         <v/>
       </c>
@@ -7429,7 +7440,7 @@
       </c>
     </row>
     <row r="307" ht="14.25">
-      <c r="A307" s="8" t="str">
+      <c r="A307" s="9" t="str">
         <f>IF(ISBLANK(raw!A305),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A305))</f>
         <v/>
       </c>
@@ -7451,7 +7462,7 @@
       </c>
     </row>
     <row r="308" ht="14.25">
-      <c r="A308" s="8" t="str">
+      <c r="A308" s="9" t="str">
         <f>IF(ISBLANK(raw!A306),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A306))</f>
         <v/>
       </c>
@@ -7473,7 +7484,7 @@
       </c>
     </row>
     <row r="309" ht="14.25">
-      <c r="A309" s="8" t="str">
+      <c r="A309" s="9" t="str">
         <f>IF(ISBLANK(raw!A307),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A307))</f>
         <v/>
       </c>
@@ -7495,7 +7506,7 @@
       </c>
     </row>
     <row r="310" ht="14.25">
-      <c r="A310" s="8" t="str">
+      <c r="A310" s="9" t="str">
         <f>IF(ISBLANK(raw!A308),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A308))</f>
         <v/>
       </c>
@@ -7517,7 +7528,7 @@
       </c>
     </row>
     <row r="311" ht="14.25">
-      <c r="A311" s="8" t="str">
+      <c r="A311" s="9" t="str">
         <f>IF(ISBLANK(raw!A309),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A309))</f>
         <v/>
       </c>
@@ -7539,7 +7550,7 @@
       </c>
     </row>
     <row r="312" ht="14.25">
-      <c r="A312" s="8" t="str">
+      <c r="A312" s="9" t="str">
         <f>IF(ISBLANK(raw!A310),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A310))</f>
         <v/>
       </c>
@@ -7561,7 +7572,7 @@
       </c>
     </row>
     <row r="313" ht="14.25">
-      <c r="A313" s="8" t="str">
+      <c r="A313" s="9" t="str">
         <f>IF(ISBLANK(raw!A311),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A311))</f>
         <v/>
       </c>
@@ -7583,7 +7594,7 @@
       </c>
     </row>
     <row r="314" ht="14.25">
-      <c r="A314" s="8" t="str">
+      <c r="A314" s="9" t="str">
         <f>IF(ISBLANK(raw!A312),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A312))</f>
         <v/>
       </c>
@@ -7605,7 +7616,7 @@
       </c>
     </row>
     <row r="315" ht="14.25">
-      <c r="A315" s="8" t="str">
+      <c r="A315" s="9" t="str">
         <f>IF(ISBLANK(raw!A313),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A313))</f>
         <v/>
       </c>
@@ -7627,7 +7638,7 @@
       </c>
     </row>
     <row r="316" ht="14.25">
-      <c r="A316" s="8" t="str">
+      <c r="A316" s="9" t="str">
         <f>IF(ISBLANK(raw!A314),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A314))</f>
         <v/>
       </c>
@@ -7649,7 +7660,7 @@
       </c>
     </row>
     <row r="317" ht="14.25">
-      <c r="A317" s="8" t="str">
+      <c r="A317" s="9" t="str">
         <f>IF(ISBLANK(raw!A315),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A315))</f>
         <v/>
       </c>
@@ -7671,7 +7682,7 @@
       </c>
     </row>
     <row r="318" ht="14.25">
-      <c r="A318" s="8" t="str">
+      <c r="A318" s="9" t="str">
         <f>IF(ISBLANK(raw!A316),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A316))</f>
         <v/>
       </c>
@@ -7693,7 +7704,7 @@
       </c>
     </row>
     <row r="319" ht="14.25">
-      <c r="A319" s="8" t="str">
+      <c r="A319" s="9" t="str">
         <f>IF(ISBLANK(raw!A317),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A317))</f>
         <v/>
       </c>
@@ -7715,7 +7726,7 @@
       </c>
     </row>
     <row r="320" ht="14.25">
-      <c r="A320" s="8" t="str">
+      <c r="A320" s="9" t="str">
         <f>IF(ISBLANK(raw!A318),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A318))</f>
         <v/>
       </c>
@@ -7737,7 +7748,7 @@
       </c>
     </row>
     <row r="321" ht="14.25">
-      <c r="A321" s="8" t="str">
+      <c r="A321" s="9" t="str">
         <f>IF(ISBLANK(raw!A319),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A319))</f>
         <v/>
       </c>
@@ -7759,7 +7770,7 @@
       </c>
     </row>
     <row r="322" ht="14.25">
-      <c r="A322" s="8" t="str">
+      <c r="A322" s="9" t="str">
         <f>IF(ISBLANK(raw!A320),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A320))</f>
         <v/>
       </c>
@@ -7781,7 +7792,7 @@
       </c>
     </row>
     <row r="323" ht="14.25">
-      <c r="A323" s="8" t="str">
+      <c r="A323" s="9" t="str">
         <f>IF(ISBLANK(raw!A321),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A321))</f>
         <v/>
       </c>
@@ -7803,7 +7814,7 @@
       </c>
     </row>
     <row r="324" ht="14.25">
-      <c r="A324" s="8" t="str">
+      <c r="A324" s="9" t="str">
         <f>IF(ISBLANK(raw!A322),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A322))</f>
         <v/>
       </c>
@@ -7825,7 +7836,7 @@
       </c>
     </row>
     <row r="325" ht="14.25">
-      <c r="A325" s="8" t="str">
+      <c r="A325" s="9" t="str">
         <f>IF(ISBLANK(raw!A323),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A323))</f>
         <v/>
       </c>
@@ -7847,7 +7858,7 @@
       </c>
     </row>
     <row r="326" ht="14.25">
-      <c r="A326" s="8" t="str">
+      <c r="A326" s="9" t="str">
         <f>IF(ISBLANK(raw!A324),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A324))</f>
         <v/>
       </c>
@@ -7869,7 +7880,7 @@
       </c>
     </row>
     <row r="327" ht="14.25">
-      <c r="A327" s="8" t="str">
+      <c r="A327" s="9" t="str">
         <f>IF(ISBLANK(raw!A325),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A325))</f>
         <v/>
       </c>
@@ -7891,7 +7902,7 @@
       </c>
     </row>
     <row r="328" ht="14.25">
-      <c r="A328" s="8" t="str">
+      <c r="A328" s="9" t="str">
         <f>IF(ISBLANK(raw!A326),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A326))</f>
         <v/>
       </c>
@@ -7913,7 +7924,7 @@
       </c>
     </row>
     <row r="329" ht="14.25">
-      <c r="A329" s="8" t="str">
+      <c r="A329" s="9" t="str">
         <f>IF(ISBLANK(raw!A327),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A327))</f>
         <v/>
       </c>
@@ -7935,7 +7946,7 @@
       </c>
     </row>
     <row r="330" ht="14.25">
-      <c r="A330" s="8" t="str">
+      <c r="A330" s="9" t="str">
         <f>IF(ISBLANK(raw!A328),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A328))</f>
         <v/>
       </c>
@@ -7957,7 +7968,7 @@
       </c>
     </row>
     <row r="331" ht="14.25">
-      <c r="A331" s="8" t="str">
+      <c r="A331" s="9" t="str">
         <f>IF(ISBLANK(raw!A329),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A329))</f>
         <v/>
       </c>
@@ -7979,7 +7990,7 @@
       </c>
     </row>
     <row r="332" ht="14.25">
-      <c r="A332" s="8" t="str">
+      <c r="A332" s="9" t="str">
         <f>IF(ISBLANK(raw!A330),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A330))</f>
         <v/>
       </c>
@@ -8001,7 +8012,7 @@
       </c>
     </row>
     <row r="333" ht="14.25">
-      <c r="A333" s="8" t="str">
+      <c r="A333" s="9" t="str">
         <f>IF(ISBLANK(raw!A331),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A331))</f>
         <v/>
       </c>
@@ -8023,7 +8034,7 @@
       </c>
     </row>
     <row r="334" ht="14.25">
-      <c r="A334" s="8" t="str">
+      <c r="A334" s="9" t="str">
         <f>IF(ISBLANK(raw!A332),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A332))</f>
         <v/>
       </c>
@@ -8045,7 +8056,7 @@
       </c>
     </row>
     <row r="335" ht="14.25">
-      <c r="A335" s="8" t="str">
+      <c r="A335" s="9" t="str">
         <f>IF(ISBLANK(raw!A333),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A333))</f>
         <v/>
       </c>
@@ -8067,7 +8078,7 @@
       </c>
     </row>
     <row r="336" ht="14.25">
-      <c r="A336" s="8" t="str">
+      <c r="A336" s="9" t="str">
         <f>IF(ISBLANK(raw!A334),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A334))</f>
         <v/>
       </c>
@@ -8089,7 +8100,7 @@
       </c>
     </row>
     <row r="337" ht="14.25">
-      <c r="A337" s="8" t="str">
+      <c r="A337" s="9" t="str">
         <f>IF(ISBLANK(raw!A335),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A335))</f>
         <v/>
       </c>
@@ -8111,7 +8122,7 @@
       </c>
     </row>
     <row r="338" ht="14.25">
-      <c r="A338" s="8" t="str">
+      <c r="A338" s="9" t="str">
         <f>IF(ISBLANK(raw!A336),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A336))</f>
         <v/>
       </c>
@@ -8133,7 +8144,7 @@
       </c>
     </row>
     <row r="339" ht="14.25">
-      <c r="A339" s="8" t="str">
+      <c r="A339" s="9" t="str">
         <f>IF(ISBLANK(raw!A337),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A337))</f>
         <v/>
       </c>
@@ -8155,7 +8166,7 @@
       </c>
     </row>
     <row r="340" ht="14.25">
-      <c r="A340" s="8" t="str">
+      <c r="A340" s="9" t="str">
         <f>IF(ISBLANK(raw!A338),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A338))</f>
         <v/>
       </c>
@@ -8177,7 +8188,7 @@
       </c>
     </row>
     <row r="341" ht="14.25">
-      <c r="A341" s="8" t="str">
+      <c r="A341" s="9" t="str">
         <f>IF(ISBLANK(raw!A339),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A339))</f>
         <v/>
       </c>
@@ -8199,7 +8210,7 @@
       </c>
     </row>
     <row r="342" ht="14.25">
-      <c r="A342" s="8" t="str">
+      <c r="A342" s="9" t="str">
         <f>IF(ISBLANK(raw!A340),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A340))</f>
         <v/>
       </c>
@@ -8221,7 +8232,7 @@
       </c>
     </row>
     <row r="343" ht="14.25">
-      <c r="A343" s="8" t="str">
+      <c r="A343" s="9" t="str">
         <f>IF(ISBLANK(raw!A341),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A341))</f>
         <v/>
       </c>
@@ -8243,7 +8254,7 @@
       </c>
     </row>
     <row r="344" ht="14.25">
-      <c r="A344" s="8" t="str">
+      <c r="A344" s="9" t="str">
         <f>IF(ISBLANK(raw!A342),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A342))</f>
         <v/>
       </c>
@@ -8265,7 +8276,7 @@
       </c>
     </row>
     <row r="345" ht="14.25">
-      <c r="A345" s="8" t="str">
+      <c r="A345" s="9" t="str">
         <f>IF(ISBLANK(raw!A343),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A343))</f>
         <v/>
       </c>
@@ -8287,7 +8298,7 @@
       </c>
     </row>
     <row r="346" ht="14.25">
-      <c r="A346" s="8" t="str">
+      <c r="A346" s="9" t="str">
         <f>IF(ISBLANK(raw!A344),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A344))</f>
         <v/>
       </c>
@@ -8309,7 +8320,7 @@
       </c>
     </row>
     <row r="347" ht="14.25">
-      <c r="A347" s="8" t="str">
+      <c r="A347" s="9" t="str">
         <f>IF(ISBLANK(raw!A345),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A345))</f>
         <v/>
       </c>
@@ -8331,7 +8342,7 @@
       </c>
     </row>
     <row r="348" ht="14.25">
-      <c r="A348" s="8" t="str">
+      <c r="A348" s="9" t="str">
         <f>IF(ISBLANK(raw!A346),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A346))</f>
         <v/>
       </c>
@@ -8353,7 +8364,7 @@
       </c>
     </row>
     <row r="349" ht="14.25">
-      <c r="A349" s="8" t="str">
+      <c r="A349" s="9" t="str">
         <f>IF(ISBLANK(raw!A347),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A347))</f>
         <v/>
       </c>
@@ -8375,7 +8386,7 @@
       </c>
     </row>
     <row r="350" ht="14.25">
-      <c r="A350" s="8" t="str">
+      <c r="A350" s="9" t="str">
         <f>IF(ISBLANK(raw!A348),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A348))</f>
         <v/>
       </c>
@@ -8397,7 +8408,7 @@
       </c>
     </row>
     <row r="351" ht="14.25">
-      <c r="A351" s="8" t="str">
+      <c r="A351" s="9" t="str">
         <f>IF(ISBLANK(raw!A349),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A349))</f>
         <v/>
       </c>
@@ -8419,7 +8430,7 @@
       </c>
     </row>
     <row r="352" ht="14.25">
-      <c r="A352" s="8" t="str">
+      <c r="A352" s="9" t="str">
         <f>IF(ISBLANK(raw!A350),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A350))</f>
         <v/>
       </c>
@@ -8441,7 +8452,7 @@
       </c>
     </row>
     <row r="353" ht="14.25">
-      <c r="A353" s="8" t="str">
+      <c r="A353" s="9" t="str">
         <f>IF(ISBLANK(raw!A351),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A351))</f>
         <v/>
       </c>
@@ -8463,7 +8474,7 @@
       </c>
     </row>
     <row r="354" ht="14.25">
-      <c r="A354" s="8" t="str">
+      <c r="A354" s="9" t="str">
         <f>IF(ISBLANK(raw!A352),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A352))</f>
         <v/>
       </c>
@@ -8485,7 +8496,7 @@
       </c>
     </row>
     <row r="355" ht="14.25">
-      <c r="A355" s="8" t="str">
+      <c r="A355" s="9" t="str">
         <f>IF(ISBLANK(raw!A353),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A353))</f>
         <v/>
       </c>
@@ -8507,7 +8518,7 @@
       </c>
     </row>
     <row r="356" ht="14.25">
-      <c r="A356" s="8" t="str">
+      <c r="A356" s="9" t="str">
         <f>IF(ISBLANK(raw!A354),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A354))</f>
         <v/>
       </c>
@@ -8529,7 +8540,7 @@
       </c>
     </row>
     <row r="357" ht="14.25">
-      <c r="A357" s="8" t="str">
+      <c r="A357" s="9" t="str">
         <f>IF(ISBLANK(raw!A355),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A355))</f>
         <v/>
       </c>
@@ -8551,7 +8562,7 @@
       </c>
     </row>
     <row r="358" ht="14.25">
-      <c r="A358" s="8" t="str">
+      <c r="A358" s="9" t="str">
         <f>IF(ISBLANK(raw!A356),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A356))</f>
         <v/>
       </c>
@@ -8573,7 +8584,7 @@
       </c>
     </row>
     <row r="359" ht="14.25">
-      <c r="A359" s="8" t="str">
+      <c r="A359" s="9" t="str">
         <f>IF(ISBLANK(raw!A357),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A357))</f>
         <v/>
       </c>
@@ -8595,7 +8606,7 @@
       </c>
     </row>
     <row r="360" ht="14.25">
-      <c r="A360" s="8" t="str">
+      <c r="A360" s="9" t="str">
         <f>IF(ISBLANK(raw!A358),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A358))</f>
         <v/>
       </c>
@@ -8617,7 +8628,7 @@
       </c>
     </row>
     <row r="361" ht="14.25">
-      <c r="A361" s="8" t="str">
+      <c r="A361" s="9" t="str">
         <f>IF(ISBLANK(raw!A359),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A359))</f>
         <v/>
       </c>
@@ -8639,7 +8650,7 @@
       </c>
     </row>
     <row r="362" ht="14.25">
-      <c r="A362" s="8" t="str">
+      <c r="A362" s="9" t="str">
         <f>IF(ISBLANK(raw!A360),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A360))</f>
         <v/>
       </c>
@@ -8661,7 +8672,7 @@
       </c>
     </row>
     <row r="363" ht="14.25">
-      <c r="A363" s="8" t="str">
+      <c r="A363" s="9" t="str">
         <f>IF(ISBLANK(raw!A361),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A361))</f>
         <v/>
       </c>
@@ -8683,7 +8694,7 @@
       </c>
     </row>
     <row r="364" ht="14.25">
-      <c r="A364" s="8" t="str">
+      <c r="A364" s="9" t="str">
         <f>IF(ISBLANK(raw!A362),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A362))</f>
         <v/>
       </c>
@@ -8705,7 +8716,7 @@
       </c>
     </row>
     <row r="365" ht="14.25">
-      <c r="A365" s="8" t="str">
+      <c r="A365" s="9" t="str">
         <f>IF(ISBLANK(raw!A363),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A363))</f>
         <v/>
       </c>
@@ -8727,7 +8738,7 @@
       </c>
     </row>
     <row r="366" ht="14.25">
-      <c r="A366" s="8" t="str">
+      <c r="A366" s="9" t="str">
         <f>IF(ISBLANK(raw!A364),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A364))</f>
         <v/>
       </c>
@@ -8749,7 +8760,7 @@
       </c>
     </row>
     <row r="367" ht="14.25">
-      <c r="A367" s="8" t="str">
+      <c r="A367" s="9" t="str">
         <f>IF(ISBLANK(raw!A365),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A365))</f>
         <v/>
       </c>
@@ -8771,7 +8782,7 @@
       </c>
     </row>
     <row r="368" ht="14.25">
-      <c r="A368" s="8" t="str">
+      <c r="A368" s="9" t="str">
         <f>IF(ISBLANK(raw!A366),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A366))</f>
         <v/>
       </c>
@@ -8793,7 +8804,7 @@
       </c>
     </row>
     <row r="369" ht="14.25">
-      <c r="A369" s="8" t="str">
+      <c r="A369" s="9" t="str">
         <f>IF(ISBLANK(raw!A367),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A367))</f>
         <v/>
       </c>
@@ -8815,7 +8826,7 @@
       </c>
     </row>
     <row r="370" ht="14.25">
-      <c r="A370" s="8" t="str">
+      <c r="A370" s="9" t="str">
         <f>IF(ISBLANK(raw!A368),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A368))</f>
         <v/>
       </c>
@@ -8837,7 +8848,7 @@
       </c>
     </row>
     <row r="371" ht="14.25">
-      <c r="A371" s="8" t="str">
+      <c r="A371" s="9" t="str">
         <f>IF(ISBLANK(raw!A369),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A369))</f>
         <v/>
       </c>
@@ -8859,7 +8870,7 @@
       </c>
     </row>
     <row r="372" ht="14.25">
-      <c r="A372" s="8" t="str">
+      <c r="A372" s="9" t="str">
         <f>IF(ISBLANK(raw!A370),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A370))</f>
         <v/>
       </c>
@@ -8881,7 +8892,7 @@
       </c>
     </row>
     <row r="373" ht="14.25">
-      <c r="A373" s="8" t="str">
+      <c r="A373" s="9" t="str">
         <f>IF(ISBLANK(raw!A371),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A371))</f>
         <v/>
       </c>
@@ -8903,7 +8914,7 @@
       </c>
     </row>
     <row r="374" ht="14.25">
-      <c r="A374" s="8" t="str">
+      <c r="A374" s="9" t="str">
         <f>IF(ISBLANK(raw!A372),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A372))</f>
         <v/>
       </c>
@@ -8925,7 +8936,7 @@
       </c>
     </row>
     <row r="375" ht="14.25">
-      <c r="A375" s="8" t="str">
+      <c r="A375" s="9" t="str">
         <f>IF(ISBLANK(raw!A373),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A373))</f>
         <v/>
       </c>
@@ -8947,7 +8958,7 @@
       </c>
     </row>
     <row r="376" ht="14.25">
-      <c r="A376" s="8" t="str">
+      <c r="A376" s="9" t="str">
         <f>IF(ISBLANK(raw!A374),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A374))</f>
         <v/>
       </c>
@@ -8969,7 +8980,7 @@
       </c>
     </row>
     <row r="377" ht="14.25">
-      <c r="A377" s="8" t="str">
+      <c r="A377" s="9" t="str">
         <f>IF(ISBLANK(raw!A375),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A375))</f>
         <v/>
       </c>
@@ -8991,7 +9002,7 @@
       </c>
     </row>
     <row r="378" ht="14.25">
-      <c r="A378" s="8" t="str">
+      <c r="A378" s="9" t="str">
         <f>IF(ISBLANK(raw!A376),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A376))</f>
         <v/>
       </c>
@@ -9013,7 +9024,7 @@
       </c>
     </row>
     <row r="379" ht="14.25">
-      <c r="A379" s="8" t="str">
+      <c r="A379" s="9" t="str">
         <f>IF(ISBLANK(raw!A377),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A377))</f>
         <v/>
       </c>
@@ -9035,7 +9046,7 @@
       </c>
     </row>
     <row r="380" ht="14.25">
-      <c r="A380" s="8" t="str">
+      <c r="A380" s="9" t="str">
         <f>IF(ISBLANK(raw!A378),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A378))</f>
         <v/>
       </c>
@@ -9057,7 +9068,7 @@
       </c>
     </row>
     <row r="381" ht="14.25">
-      <c r="A381" s="8" t="str">
+      <c r="A381" s="9" t="str">
         <f>IF(ISBLANK(raw!A379),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A379))</f>
         <v/>
       </c>
@@ -9079,7 +9090,7 @@
       </c>
     </row>
     <row r="382" ht="14.25">
-      <c r="A382" s="8" t="str">
+      <c r="A382" s="9" t="str">
         <f>IF(ISBLANK(raw!A380),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A380))</f>
         <v/>
       </c>
@@ -9101,7 +9112,7 @@
       </c>
     </row>
     <row r="383" ht="14.25">
-      <c r="A383" s="8" t="str">
+      <c r="A383" s="9" t="str">
         <f>IF(ISBLANK(raw!A381),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A381))</f>
         <v/>
       </c>
@@ -9123,7 +9134,7 @@
       </c>
     </row>
     <row r="384" ht="14.25">
-      <c r="A384" s="8" t="str">
+      <c r="A384" s="9" t="str">
         <f>IF(ISBLANK(raw!A382),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A382))</f>
         <v/>
       </c>
@@ -9145,7 +9156,7 @@
       </c>
     </row>
     <row r="385" ht="14.25">
-      <c r="A385" s="8" t="str">
+      <c r="A385" s="9" t="str">
         <f>IF(ISBLANK(raw!A383),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A383))</f>
         <v/>
       </c>
@@ -9167,7 +9178,7 @@
       </c>
     </row>
     <row r="386" ht="14.25">
-      <c r="A386" s="8" t="str">
+      <c r="A386" s="9" t="str">
         <f>IF(ISBLANK(raw!A384),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A384))</f>
         <v/>
       </c>
@@ -9189,7 +9200,7 @@
       </c>
     </row>
     <row r="387" ht="14.25">
-      <c r="A387" s="8" t="str">
+      <c r="A387" s="9" t="str">
         <f>IF(ISBLANK(raw!A385),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A385))</f>
         <v/>
       </c>
@@ -9211,7 +9222,7 @@
       </c>
     </row>
     <row r="388" ht="14.25">
-      <c r="A388" s="8" t="str">
+      <c r="A388" s="9" t="str">
         <f>IF(ISBLANK(raw!A386),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A386))</f>
         <v/>
       </c>
@@ -9233,7 +9244,7 @@
       </c>
     </row>
     <row r="389" ht="14.25">
-      <c r="A389" s="8" t="str">
+      <c r="A389" s="9" t="str">
         <f>IF(ISBLANK(raw!A387),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A387))</f>
         <v/>
       </c>
@@ -9255,7 +9266,7 @@
       </c>
     </row>
     <row r="390" ht="14.25">
-      <c r="A390" s="8" t="str">
+      <c r="A390" s="9" t="str">
         <f>IF(ISBLANK(raw!A388),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A388))</f>
         <v/>
       </c>
@@ -9277,7 +9288,7 @@
       </c>
     </row>
     <row r="391" ht="14.25">
-      <c r="A391" s="8" t="str">
+      <c r="A391" s="9" t="str">
         <f>IF(ISBLANK(raw!A389),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A389))</f>
         <v/>
       </c>
@@ -9299,7 +9310,7 @@
       </c>
     </row>
     <row r="392" ht="14.25">
-      <c r="A392" s="8" t="str">
+      <c r="A392" s="9" t="str">
         <f>IF(ISBLANK(raw!A390),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A390))</f>
         <v/>
       </c>
@@ -9321,7 +9332,7 @@
       </c>
     </row>
     <row r="393" ht="14.25">
-      <c r="A393" s="8" t="str">
+      <c r="A393" s="9" t="str">
         <f>IF(ISBLANK(raw!A391),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A391))</f>
         <v/>
       </c>
@@ -9343,7 +9354,7 @@
       </c>
     </row>
     <row r="394" ht="14.25">
-      <c r="A394" s="8" t="str">
+      <c r="A394" s="9" t="str">
         <f>IF(ISBLANK(raw!A392),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A392))</f>
         <v/>
       </c>
@@ -9365,7 +9376,7 @@
       </c>
     </row>
     <row r="395" ht="14.25">
-      <c r="A395" s="8" t="str">
+      <c r="A395" s="9" t="str">
         <f>IF(ISBLANK(raw!A393),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A393))</f>
         <v/>
       </c>
@@ -9387,7 +9398,7 @@
       </c>
     </row>
     <row r="396" ht="14.25">
-      <c r="A396" s="8" t="str">
+      <c r="A396" s="9" t="str">
         <f>IF(ISBLANK(raw!A394),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A394))</f>
         <v/>
       </c>
@@ -9409,7 +9420,7 @@
       </c>
     </row>
     <row r="397" ht="14.25">
-      <c r="A397" s="8" t="str">
+      <c r="A397" s="9" t="str">
         <f>IF(ISBLANK(raw!A395),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A395))</f>
         <v/>
       </c>
@@ -9431,7 +9442,7 @@
       </c>
     </row>
     <row r="398" ht="14.25">
-      <c r="A398" s="8" t="str">
+      <c r="A398" s="9" t="str">
         <f>IF(ISBLANK(raw!A396),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A396))</f>
         <v/>
       </c>
@@ -9453,7 +9464,7 @@
       </c>
     </row>
     <row r="399" ht="14.25">
-      <c r="A399" s="8" t="str">
+      <c r="A399" s="9" t="str">
         <f>IF(ISBLANK(raw!A397),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A397))</f>
         <v/>
       </c>
@@ -9475,7 +9486,7 @@
       </c>
     </row>
     <row r="400" ht="14.25">
-      <c r="A400" s="8" t="str">
+      <c r="A400" s="9" t="str">
         <f>IF(ISBLANK(raw!A398),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A398))</f>
         <v/>
       </c>
@@ -9497,7 +9508,7 @@
       </c>
     </row>
     <row r="401" ht="14.25">
-      <c r="A401" s="8" t="str">
+      <c r="A401" s="9" t="str">
         <f>IF(ISBLANK(raw!A399),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A399))</f>
         <v/>
       </c>
@@ -9519,7 +9530,7 @@
       </c>
     </row>
     <row r="402" ht="14.25">
-      <c r="A402" s="8" t="str">
+      <c r="A402" s="9" t="str">
         <f>IF(ISBLANK(raw!A400),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A400))</f>
         <v/>
       </c>
@@ -9541,7 +9552,7 @@
       </c>
     </row>
     <row r="403" ht="14.25">
-      <c r="A403" s="8" t="str">
+      <c r="A403" s="9" t="str">
         <f>IF(ISBLANK(raw!A401),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A401))</f>
         <v/>
       </c>
@@ -9563,7 +9574,7 @@
       </c>
     </row>
     <row r="404" ht="14.25">
-      <c r="A404" s="8" t="str">
+      <c r="A404" s="9" t="str">
         <f>IF(ISBLANK(raw!A402),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A402))</f>
         <v/>
       </c>
@@ -9585,7 +9596,7 @@
       </c>
     </row>
     <row r="405" ht="14.25">
-      <c r="A405" s="8" t="str">
+      <c r="A405" s="9" t="str">
         <f>IF(ISBLANK(raw!A403),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A403))</f>
         <v/>
       </c>
@@ -9607,7 +9618,7 @@
       </c>
     </row>
     <row r="406" ht="14.25">
-      <c r="A406" s="8" t="str">
+      <c r="A406" s="9" t="str">
         <f>IF(ISBLANK(raw!A404),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A404))</f>
         <v/>
       </c>
@@ -9629,7 +9640,7 @@
       </c>
     </row>
     <row r="407" ht="14.25">
-      <c r="A407" s="8" t="str">
+      <c r="A407" s="9" t="str">
         <f>IF(ISBLANK(raw!A405),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A405))</f>
         <v/>
       </c>
@@ -9651,7 +9662,7 @@
       </c>
     </row>
     <row r="408" ht="14.25">
-      <c r="A408" s="8" t="str">
+      <c r="A408" s="9" t="str">
         <f>IF(ISBLANK(raw!A406),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A406))</f>
         <v/>
       </c>
@@ -9673,7 +9684,7 @@
       </c>
     </row>
     <row r="409" ht="14.25">
-      <c r="A409" s="8" t="str">
+      <c r="A409" s="9" t="str">
         <f>IF(ISBLANK(raw!A407),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A407))</f>
         <v/>
       </c>
@@ -9695,7 +9706,7 @@
       </c>
     </row>
     <row r="410" ht="14.25">
-      <c r="A410" s="8" t="str">
+      <c r="A410" s="9" t="str">
         <f>IF(ISBLANK(raw!A408),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A408))</f>
         <v/>
       </c>
@@ -9717,7 +9728,7 @@
       </c>
     </row>
     <row r="411" ht="14.25">
-      <c r="A411" s="8" t="str">
+      <c r="A411" s="9" t="str">
         <f>IF(ISBLANK(raw!A409),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A409))</f>
         <v/>
       </c>
@@ -9739,7 +9750,7 @@
       </c>
     </row>
     <row r="412" ht="14.25">
-      <c r="A412" s="8" t="str">
+      <c r="A412" s="9" t="str">
         <f>IF(ISBLANK(raw!A410),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A410))</f>
         <v/>
       </c>
@@ -9761,7 +9772,7 @@
       </c>
     </row>
     <row r="413" ht="14.25">
-      <c r="A413" s="8" t="str">
+      <c r="A413" s="9" t="str">
         <f>IF(ISBLANK(raw!A411),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A411))</f>
         <v/>
       </c>
@@ -9783,7 +9794,7 @@
       </c>
     </row>
     <row r="414" ht="14.25">
-      <c r="A414" s="8" t="str">
+      <c r="A414" s="9" t="str">
         <f>IF(ISBLANK(raw!A412),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A412))</f>
         <v/>
       </c>
@@ -9805,7 +9816,7 @@
       </c>
     </row>
     <row r="415" ht="14.25">
-      <c r="A415" s="8" t="str">
+      <c r="A415" s="9" t="str">
         <f>IF(ISBLANK(raw!A413),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A413))</f>
         <v/>
       </c>
@@ -9827,7 +9838,7 @@
       </c>
     </row>
     <row r="416" ht="14.25">
-      <c r="A416" s="8" t="str">
+      <c r="A416" s="9" t="str">
         <f>IF(ISBLANK(raw!A414),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A414))</f>
         <v/>
       </c>
@@ -9849,7 +9860,7 @@
       </c>
     </row>
     <row r="417" ht="14.25">
-      <c r="A417" s="8" t="str">
+      <c r="A417" s="9" t="str">
         <f>IF(ISBLANK(raw!A415),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A415))</f>
         <v/>
       </c>
@@ -9871,7 +9882,7 @@
       </c>
     </row>
     <row r="418" ht="14.25">
-      <c r="A418" s="8" t="str">
+      <c r="A418" s="9" t="str">
         <f>IF(ISBLANK(raw!A416),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A416))</f>
         <v/>
       </c>
@@ -9893,7 +9904,7 @@
       </c>
     </row>
     <row r="419" ht="14.25">
-      <c r="A419" s="8" t="str">
+      <c r="A419" s="9" t="str">
         <f>IF(ISBLANK(raw!A417),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A417))</f>
         <v/>
       </c>
@@ -9915,7 +9926,7 @@
       </c>
     </row>
     <row r="420" ht="14.25">
-      <c r="A420" s="8" t="str">
+      <c r="A420" s="9" t="str">
         <f>IF(ISBLANK(raw!A418),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A418))</f>
         <v/>
       </c>
@@ -9937,7 +9948,7 @@
       </c>
     </row>
     <row r="421" ht="14.25">
-      <c r="A421" s="8" t="str">
+      <c r="A421" s="9" t="str">
         <f>IF(ISBLANK(raw!A419),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A419))</f>
         <v/>
       </c>
@@ -9959,7 +9970,7 @@
       </c>
     </row>
     <row r="422" ht="14.25">
-      <c r="A422" s="8" t="str">
+      <c r="A422" s="9" t="str">
         <f>IF(ISBLANK(raw!A420),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A420))</f>
         <v/>
       </c>
@@ -9981,7 +9992,7 @@
       </c>
     </row>
     <row r="423" ht="14.25">
-      <c r="A423" s="8" t="str">
+      <c r="A423" s="9" t="str">
         <f>IF(ISBLANK(raw!A421),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A421))</f>
         <v/>
       </c>
@@ -10003,7 +10014,7 @@
       </c>
     </row>
     <row r="424" ht="14.25">
-      <c r="A424" s="8" t="str">
+      <c r="A424" s="9" t="str">
         <f>IF(ISBLANK(raw!A422),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A422))</f>
         <v/>
       </c>
@@ -10025,7 +10036,7 @@
       </c>
     </row>
     <row r="425" ht="14.25">
-      <c r="A425" s="8" t="str">
+      <c r="A425" s="9" t="str">
         <f>IF(ISBLANK(raw!A423),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A423))</f>
         <v/>
       </c>
@@ -10047,7 +10058,7 @@
       </c>
     </row>
     <row r="426" ht="14.25">
-      <c r="A426" s="8" t="str">
+      <c r="A426" s="9" t="str">
         <f>IF(ISBLANK(raw!A424),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A424))</f>
         <v/>
       </c>
@@ -10069,7 +10080,7 @@
       </c>
     </row>
     <row r="427" ht="14.25">
-      <c r="A427" s="8" t="str">
+      <c r="A427" s="9" t="str">
         <f>IF(ISBLANK(raw!A425),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A425))</f>
         <v/>
       </c>
@@ -10091,7 +10102,7 @@
       </c>
     </row>
     <row r="428" ht="14.25">
-      <c r="A428" s="8" t="str">
+      <c r="A428" s="9" t="str">
         <f>IF(ISBLANK(raw!A426),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A426))</f>
         <v/>
       </c>
@@ -10113,7 +10124,7 @@
       </c>
     </row>
     <row r="429" ht="14.25">
-      <c r="A429" s="8" t="str">
+      <c r="A429" s="9" t="str">
         <f>IF(ISBLANK(raw!A427),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A427))</f>
         <v/>
       </c>
@@ -10135,7 +10146,7 @@
       </c>
     </row>
     <row r="430" ht="14.25">
-      <c r="A430" s="8" t="str">
+      <c r="A430" s="9" t="str">
         <f>IF(ISBLANK(raw!A428),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A428))</f>
         <v/>
       </c>
@@ -10157,7 +10168,7 @@
       </c>
     </row>
     <row r="431" ht="14.25">
-      <c r="A431" s="8" t="str">
+      <c r="A431" s="9" t="str">
         <f>IF(ISBLANK(raw!A429),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A429))</f>
         <v/>
       </c>
@@ -10179,7 +10190,7 @@
       </c>
     </row>
     <row r="432" ht="14.25">
-      <c r="A432" s="8" t="str">
+      <c r="A432" s="9" t="str">
         <f>IF(ISBLANK(raw!A430),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A430))</f>
         <v/>
       </c>
@@ -10201,7 +10212,7 @@
       </c>
     </row>
     <row r="433" ht="14.25">
-      <c r="A433" s="8" t="str">
+      <c r="A433" s="9" t="str">
         <f>IF(ISBLANK(raw!A431),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A431))</f>
         <v/>
       </c>
@@ -10223,7 +10234,7 @@
       </c>
     </row>
     <row r="434" ht="14.25">
-      <c r="A434" s="8" t="str">
+      <c r="A434" s="9" t="str">
         <f>IF(ISBLANK(raw!A432),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A432))</f>
         <v/>
       </c>
@@ -10245,7 +10256,7 @@
       </c>
     </row>
     <row r="435" ht="14.25">
-      <c r="A435" s="8" t="str">
+      <c r="A435" s="9" t="str">
         <f>IF(ISBLANK(raw!A433),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A433))</f>
         <v/>
       </c>
@@ -10267,7 +10278,7 @@
       </c>
     </row>
     <row r="436" ht="14.25">
-      <c r="A436" s="8" t="str">
+      <c r="A436" s="9" t="str">
         <f>IF(ISBLANK(raw!A434),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A434))</f>
         <v/>
       </c>
@@ -10289,7 +10300,7 @@
       </c>
     </row>
     <row r="437" ht="14.25">
-      <c r="A437" s="8" t="str">
+      <c r="A437" s="9" t="str">
         <f>IF(ISBLANK(raw!A435),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A435))</f>
         <v/>
       </c>
@@ -10311,7 +10322,7 @@
       </c>
     </row>
     <row r="438" ht="14.25">
-      <c r="A438" s="8" t="str">
+      <c r="A438" s="9" t="str">
         <f>IF(ISBLANK(raw!A436),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A436))</f>
         <v/>
       </c>
@@ -10333,7 +10344,7 @@
       </c>
     </row>
     <row r="439" ht="14.25">
-      <c r="A439" s="8" t="str">
+      <c r="A439" s="9" t="str">
         <f>IF(ISBLANK(raw!A437),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A437))</f>
         <v/>
       </c>
@@ -10355,7 +10366,7 @@
       </c>
     </row>
     <row r="440" ht="14.25">
-      <c r="A440" s="8" t="str">
+      <c r="A440" s="9" t="str">
         <f>IF(ISBLANK(raw!A438),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A438))</f>
         <v/>
       </c>
@@ -10377,7 +10388,7 @@
       </c>
     </row>
     <row r="441" ht="14.25">
-      <c r="A441" s="8" t="str">
+      <c r="A441" s="9" t="str">
         <f>IF(ISBLANK(raw!A439),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A439))</f>
         <v/>
       </c>
@@ -10399,7 +10410,7 @@
       </c>
     </row>
     <row r="442" ht="14.25">
-      <c r="A442" s="8" t="str">
+      <c r="A442" s="9" t="str">
         <f>IF(ISBLANK(raw!A440),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A440))</f>
         <v/>
       </c>
@@ -10421,7 +10432,7 @@
       </c>
     </row>
     <row r="443" ht="14.25">
-      <c r="A443" s="8" t="str">
+      <c r="A443" s="9" t="str">
         <f>IF(ISBLANK(raw!A441),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A441))</f>
         <v/>
       </c>
@@ -10443,7 +10454,7 @@
       </c>
     </row>
     <row r="444" ht="14.25">
-      <c r="A444" s="8" t="str">
+      <c r="A444" s="9" t="str">
         <f>IF(ISBLANK(raw!A442),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A442))</f>
         <v/>
       </c>
@@ -10465,7 +10476,7 @@
       </c>
     </row>
     <row r="445" ht="14.25">
-      <c r="A445" s="8" t="str">
+      <c r="A445" s="9" t="str">
         <f>IF(ISBLANK(raw!A443),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A443))</f>
         <v/>
       </c>
@@ -10487,7 +10498,7 @@
       </c>
     </row>
     <row r="446" ht="14.25">
-      <c r="A446" s="8" t="str">
+      <c r="A446" s="9" t="str">
         <f>IF(ISBLANK(raw!A444),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A444))</f>
         <v/>
       </c>
@@ -10509,7 +10520,7 @@
       </c>
     </row>
     <row r="447" ht="14.25">
-      <c r="A447" s="8" t="str">
+      <c r="A447" s="9" t="str">
         <f>IF(ISBLANK(raw!A445),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A445))</f>
         <v/>
       </c>
@@ -10531,7 +10542,7 @@
       </c>
     </row>
     <row r="448" ht="14.25">
-      <c r="A448" s="8" t="str">
+      <c r="A448" s="9" t="str">
         <f>IF(ISBLANK(raw!A446),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A446))</f>
         <v/>
       </c>
@@ -10553,7 +10564,7 @@
       </c>
     </row>
     <row r="449" ht="14.25">
-      <c r="A449" s="8" t="str">
+      <c r="A449" s="9" t="str">
         <f>IF(ISBLANK(raw!A447),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A447))</f>
         <v/>
       </c>
@@ -10575,7 +10586,7 @@
       </c>
     </row>
     <row r="450" ht="14.25">
-      <c r="A450" s="8" t="str">
+      <c r="A450" s="9" t="str">
         <f>IF(ISBLANK(raw!A448),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A448))</f>
         <v/>
       </c>
@@ -10597,7 +10608,7 @@
       </c>
     </row>
     <row r="451" ht="14.25">
-      <c r="A451" s="8" t="str">
+      <c r="A451" s="9" t="str">
         <f>IF(ISBLANK(raw!A449),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A449))</f>
         <v/>
       </c>
@@ -10619,7 +10630,7 @@
       </c>
     </row>
     <row r="452" ht="14.25">
-      <c r="A452" s="8" t="str">
+      <c r="A452" s="9" t="str">
         <f>IF(ISBLANK(raw!A450),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A450))</f>
         <v/>
       </c>
@@ -10641,7 +10652,7 @@
       </c>
     </row>
     <row r="453" ht="14.25">
-      <c r="A453" s="8" t="str">
+      <c r="A453" s="9" t="str">
         <f>IF(ISBLANK(raw!A451),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A451))</f>
         <v/>
       </c>
@@ -10663,7 +10674,7 @@
       </c>
     </row>
     <row r="454" ht="14.25">
-      <c r="A454" s="8" t="str">
+      <c r="A454" s="9" t="str">
         <f>IF(ISBLANK(raw!A452),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A452))</f>
         <v/>
       </c>
@@ -10685,7 +10696,7 @@
       </c>
     </row>
     <row r="455" ht="14.25">
-      <c r="A455" s="8" t="str">
+      <c r="A455" s="9" t="str">
         <f>IF(ISBLANK(raw!A453),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A453))</f>
         <v/>
       </c>
@@ -10707,7 +10718,7 @@
       </c>
     </row>
     <row r="456" ht="14.25">
-      <c r="A456" s="8" t="str">
+      <c r="A456" s="9" t="str">
         <f>IF(ISBLANK(raw!A454),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A454))</f>
         <v/>
       </c>
@@ -10729,7 +10740,7 @@
       </c>
     </row>
     <row r="457" ht="14.25">
-      <c r="A457" s="8" t="str">
+      <c r="A457" s="9" t="str">
         <f>IF(ISBLANK(raw!A455),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A455))</f>
         <v/>
       </c>
@@ -10751,7 +10762,7 @@
       </c>
     </row>
     <row r="458" ht="14.25">
-      <c r="A458" s="8" t="str">
+      <c r="A458" s="9" t="str">
         <f>IF(ISBLANK(raw!A456),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A456))</f>
         <v/>
       </c>
@@ -10773,7 +10784,7 @@
       </c>
     </row>
     <row r="459" ht="14.25">
-      <c r="A459" s="8" t="str">
+      <c r="A459" s="9" t="str">
         <f>IF(ISBLANK(raw!A457),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A457))</f>
         <v/>
       </c>
@@ -10795,7 +10806,7 @@
       </c>
     </row>
     <row r="460" ht="14.25">
-      <c r="A460" s="8" t="str">
+      <c r="A460" s="9" t="str">
         <f>IF(ISBLANK(raw!A458),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A458))</f>
         <v/>
       </c>
@@ -10817,7 +10828,7 @@
       </c>
     </row>
     <row r="461" ht="14.25">
-      <c r="A461" s="8" t="str">
+      <c r="A461" s="9" t="str">
         <f>IF(ISBLANK(raw!A459),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A459))</f>
         <v/>
       </c>
@@ -10839,7 +10850,7 @@
       </c>
     </row>
     <row r="462" ht="14.25">
-      <c r="A462" s="8" t="str">
+      <c r="A462" s="9" t="str">
         <f>IF(ISBLANK(raw!A460),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A460))</f>
         <v/>
       </c>
@@ -10861,7 +10872,7 @@
       </c>
     </row>
     <row r="463" ht="14.25">
-      <c r="A463" s="8" t="str">
+      <c r="A463" s="9" t="str">
         <f>IF(ISBLANK(raw!A461),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A461))</f>
         <v/>
       </c>
@@ -10883,7 +10894,7 @@
       </c>
     </row>
     <row r="464" ht="14.25">
-      <c r="A464" s="8" t="str">
+      <c r="A464" s="9" t="str">
         <f>IF(ISBLANK(raw!A462),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A462))</f>
         <v/>
       </c>
@@ -10905,7 +10916,7 @@
       </c>
     </row>
     <row r="465" ht="14.25">
-      <c r="A465" s="8" t="str">
+      <c r="A465" s="9" t="str">
         <f>IF(ISBLANK(raw!A463),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A463))</f>
         <v/>
       </c>
@@ -10927,7 +10938,7 @@
       </c>
     </row>
     <row r="466" ht="14.25">
-      <c r="A466" s="8" t="str">
+      <c r="A466" s="9" t="str">
         <f>IF(ISBLANK(raw!A464),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A464))</f>
         <v/>
       </c>
@@ -10949,7 +10960,7 @@
       </c>
     </row>
     <row r="467" ht="14.25">
-      <c r="A467" s="8" t="str">
+      <c r="A467" s="9" t="str">
         <f>IF(ISBLANK(raw!A465),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A465))</f>
         <v/>
       </c>
@@ -10971,7 +10982,7 @@
       </c>
     </row>
     <row r="468" ht="14.25">
-      <c r="A468" s="8" t="str">
+      <c r="A468" s="9" t="str">
         <f>IF(ISBLANK(raw!A466),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A466))</f>
         <v/>
       </c>
@@ -10993,7 +11004,7 @@
       </c>
     </row>
     <row r="469" ht="14.25">
-      <c r="A469" s="8" t="str">
+      <c r="A469" s="9" t="str">
         <f>IF(ISBLANK(raw!A467),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A467))</f>
         <v/>
       </c>
@@ -11015,7 +11026,7 @@
       </c>
     </row>
     <row r="470" ht="14.25">
-      <c r="A470" s="8" t="str">
+      <c r="A470" s="9" t="str">
         <f>IF(ISBLANK(raw!A468),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A468))</f>
         <v/>
       </c>
@@ -11037,7 +11048,7 @@
       </c>
     </row>
     <row r="471" ht="14.25">
-      <c r="A471" s="8" t="str">
+      <c r="A471" s="9" t="str">
         <f>IF(ISBLANK(raw!A469),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A469))</f>
         <v/>
       </c>
@@ -11059,7 +11070,7 @@
       </c>
     </row>
     <row r="472" ht="14.25">
-      <c r="A472" s="8" t="str">
+      <c r="A472" s="9" t="str">
         <f>IF(ISBLANK(raw!A470),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A470))</f>
         <v/>
       </c>
@@ -11081,7 +11092,7 @@
       </c>
     </row>
     <row r="473" ht="14.25">
-      <c r="A473" s="8" t="str">
+      <c r="A473" s="9" t="str">
         <f>IF(ISBLANK(raw!A471),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A471))</f>
         <v/>
       </c>
@@ -11103,7 +11114,7 @@
       </c>
     </row>
     <row r="474" ht="14.25">
-      <c r="A474" s="8" t="str">
+      <c r="A474" s="9" t="str">
         <f>IF(ISBLANK(raw!A472),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A472))</f>
         <v/>
       </c>
@@ -11125,7 +11136,7 @@
       </c>
     </row>
     <row r="475" ht="14.25">
-      <c r="A475" s="8" t="str">
+      <c r="A475" s="9" t="str">
         <f>IF(ISBLANK(raw!A473),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A473))</f>
         <v/>
       </c>
@@ -11147,7 +11158,7 @@
       </c>
     </row>
     <row r="476" ht="14.25">
-      <c r="A476" s="8" t="str">
+      <c r="A476" s="9" t="str">
         <f>IF(ISBLANK(raw!A474),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A474))</f>
         <v/>
       </c>
@@ -11169,7 +11180,7 @@
       </c>
     </row>
     <row r="477" ht="14.25">
-      <c r="A477" s="8" t="str">
+      <c r="A477" s="9" t="str">
         <f>IF(ISBLANK(raw!A475),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A475))</f>
         <v/>
       </c>
@@ -11191,7 +11202,7 @@
       </c>
     </row>
     <row r="478" ht="14.25">
-      <c r="A478" s="8" t="str">
+      <c r="A478" s="9" t="str">
         <f>IF(ISBLANK(raw!A476),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A476))</f>
         <v/>
       </c>
@@ -11213,7 +11224,7 @@
       </c>
     </row>
     <row r="479" ht="14.25">
-      <c r="A479" s="8" t="str">
+      <c r="A479" s="9" t="str">
         <f>IF(ISBLANK(raw!A477),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A477))</f>
         <v/>
       </c>
@@ -11235,7 +11246,7 @@
       </c>
     </row>
     <row r="480" ht="14.25">
-      <c r="A480" s="8" t="str">
+      <c r="A480" s="9" t="str">
         <f>IF(ISBLANK(raw!A478),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A478))</f>
         <v/>
       </c>
@@ -11257,7 +11268,7 @@
       </c>
     </row>
     <row r="481" ht="14.25">
-      <c r="A481" s="8" t="str">
+      <c r="A481" s="9" t="str">
         <f>IF(ISBLANK(raw!A479),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A479))</f>
         <v/>
       </c>
@@ -11279,7 +11290,7 @@
       </c>
     </row>
     <row r="482" ht="14.25">
-      <c r="A482" s="8" t="str">
+      <c r="A482" s="9" t="str">
         <f>IF(ISBLANK(raw!A480),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A480))</f>
         <v/>
       </c>
@@ -11301,7 +11312,7 @@
       </c>
     </row>
     <row r="483" ht="14.25">
-      <c r="A483" s="8" t="str">
+      <c r="A483" s="9" t="str">
         <f>IF(ISBLANK(raw!A481),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A481))</f>
         <v/>
       </c>
@@ -11323,7 +11334,7 @@
       </c>
     </row>
     <row r="484" ht="14.25">
-      <c r="A484" s="8" t="str">
+      <c r="A484" s="9" t="str">
         <f>IF(ISBLANK(raw!A482),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A482))</f>
         <v/>
       </c>
@@ -11345,7 +11356,7 @@
       </c>
     </row>
     <row r="485" ht="14.25">
-      <c r="A485" s="8" t="str">
+      <c r="A485" s="9" t="str">
         <f>IF(ISBLANK(raw!A483),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A483))</f>
         <v/>
       </c>
@@ -11367,7 +11378,7 @@
       </c>
     </row>
     <row r="486" ht="14.25">
-      <c r="A486" s="8" t="str">
+      <c r="A486" s="9" t="str">
         <f>IF(ISBLANK(raw!A484),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A484))</f>
         <v/>
       </c>
@@ -11389,7 +11400,7 @@
       </c>
     </row>
     <row r="487" ht="14.25">
-      <c r="A487" s="8" t="str">
+      <c r="A487" s="9" t="str">
         <f>IF(ISBLANK(raw!A485),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A485))</f>
         <v/>
       </c>
@@ -11411,7 +11422,7 @@
       </c>
     </row>
     <row r="488" ht="14.25">
-      <c r="A488" s="8" t="str">
+      <c r="A488" s="9" t="str">
         <f>IF(ISBLANK(raw!A486),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A486))</f>
         <v/>
       </c>
@@ -11433,7 +11444,7 @@
       </c>
     </row>
     <row r="489" ht="14.25">
-      <c r="A489" s="8" t="str">
+      <c r="A489" s="9" t="str">
         <f>IF(ISBLANK(raw!A487),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A487))</f>
         <v/>
       </c>
@@ -11455,7 +11466,7 @@
       </c>
     </row>
     <row r="490" ht="14.25">
-      <c r="A490" s="8" t="str">
+      <c r="A490" s="9" t="str">
         <f>IF(ISBLANK(raw!A488),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A488))</f>
         <v/>
       </c>
@@ -11477,7 +11488,7 @@
       </c>
     </row>
     <row r="491" ht="14.25">
-      <c r="A491" s="8" t="str">
+      <c r="A491" s="9" t="str">
         <f>IF(ISBLANK(raw!A489),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A489))</f>
         <v/>
       </c>
@@ -11499,7 +11510,7 @@
       </c>
     </row>
     <row r="492" ht="14.25">
-      <c r="A492" s="8" t="str">
+      <c r="A492" s="9" t="str">
         <f>IF(ISBLANK(raw!A490),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A490))</f>
         <v/>
       </c>
@@ -11521,7 +11532,7 @@
       </c>
     </row>
     <row r="493" ht="14.25">
-      <c r="A493" s="8" t="str">
+      <c r="A493" s="9" t="str">
         <f>IF(ISBLANK(raw!A491),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A491))</f>
         <v/>
       </c>
@@ -11543,7 +11554,7 @@
       </c>
     </row>
     <row r="494" ht="14.25">
-      <c r="A494" s="8" t="str">
+      <c r="A494" s="9" t="str">
         <f>IF(ISBLANK(raw!A492),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A492))</f>
         <v/>
       </c>
@@ -11565,7 +11576,7 @@
       </c>
     </row>
     <row r="495" ht="14.25">
-      <c r="A495" s="8" t="str">
+      <c r="A495" s="9" t="str">
         <f>IF(ISBLANK(raw!A493),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A493))</f>
         <v/>
       </c>
@@ -11587,7 +11598,7 @@
       </c>
     </row>
     <row r="496" ht="14.25">
-      <c r="A496" s="8" t="str">
+      <c r="A496" s="9" t="str">
         <f>IF(ISBLANK(raw!A494),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A494))</f>
         <v/>
       </c>
@@ -11609,7 +11620,7 @@
       </c>
     </row>
     <row r="497" ht="14.25">
-      <c r="A497" s="8" t="str">
+      <c r="A497" s="9" t="str">
         <f>IF(ISBLANK(raw!A495),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A495))</f>
         <v/>
       </c>
@@ -11631,7 +11642,7 @@
       </c>
     </row>
     <row r="498" ht="14.25">
-      <c r="A498" s="8" t="str">
+      <c r="A498" s="9" t="str">
         <f>IF(ISBLANK(raw!A496),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A496))</f>
         <v/>
       </c>
@@ -11653,7 +11664,7 @@
       </c>
     </row>
     <row r="499" ht="14.25">
-      <c r="A499" s="8" t="str">
+      <c r="A499" s="9" t="str">
         <f>IF(ISBLANK(raw!A497),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A497))</f>
         <v/>
       </c>
@@ -11675,7 +11686,7 @@
       </c>
     </row>
     <row r="500" ht="14.25">
-      <c r="A500" s="8" t="str">
+      <c r="A500" s="9" t="str">
         <f>IF(ISBLANK(raw!A498),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A498))</f>
         <v/>
       </c>
@@ -11697,7 +11708,7 @@
       </c>
     </row>
     <row r="501" ht="14.25">
-      <c r="A501" s="8" t="str">
+      <c r="A501" s="9" t="str">
         <f>IF(ISBLANK(raw!A499),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A499))</f>
         <v/>
       </c>
@@ -11719,7 +11730,7 @@
       </c>
     </row>
     <row r="502" ht="14.25">
-      <c r="A502" s="8" t="str">
+      <c r="A502" s="9" t="str">
         <f>IF(ISBLANK(raw!A500),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A500))</f>
         <v/>
       </c>
@@ -11769,820 +11780,820 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
     </row>
     <row r="3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
     </row>
     <row r="4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
     </row>
     <row r="5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
     </row>
     <row r="6">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
     </row>
     <row r="7">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
     </row>
     <row r="8">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
     </row>
     <row r="9">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
     </row>
     <row r="10">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
     </row>
     <row r="11">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
     </row>
     <row r="12">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
     </row>
     <row r="13">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
     </row>
     <row r="14">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
     </row>
     <row r="15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
     </row>
     <row r="16">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
     </row>
     <row r="17">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
     </row>
     <row r="18">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
     </row>
     <row r="19">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
     </row>
     <row r="20">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
     </row>
     <row r="21">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
     </row>
     <row r="22">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
     </row>
     <row r="23">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
     </row>
     <row r="24">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
     </row>
     <row r="25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
     </row>
     <row r="26">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
     </row>
     <row r="27">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
     </row>
     <row r="28">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
     </row>
     <row r="29">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
     </row>
     <row r="30">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
     </row>
     <row r="31">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
     </row>
     <row r="32">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
     </row>
     <row r="33">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
     </row>
     <row r="34">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
     </row>
     <row r="35">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
     </row>
     <row r="36">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
     </row>
     <row r="37">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
     </row>
     <row r="38">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
     </row>
     <row r="39">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
     </row>
     <row r="40">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
     </row>
     <row r="41">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
     </row>
     <row r="42">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
     </row>
     <row r="43">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
     </row>
     <row r="44">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
     </row>
     <row r="45">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
     </row>
     <row r="46">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
     </row>
     <row r="47">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
     </row>
     <row r="48">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
     </row>
     <row r="49">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
     </row>
     <row r="50">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
     </row>
     <row r="51">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
     </row>
     <row r="52"/>
   </sheetData>
@@ -12604,47 +12615,47 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Einsatzsuche.xlsx
+++ b/Einsatzsuche.xlsx
@@ -18,10 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>ZiviDisconnect</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Tutorial</t>
   </si>
@@ -72,17 +69,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="22.000000"/>
-      <color theme="1"/>
-      <name val="FrutigerNeueW02-Light"/>
     </font>
     <font>
       <sz val="14.000000"/>
@@ -110,32 +102,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left style="none"/>
       <right style="none"/>
       <top style="none"/>
       <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="thick">
-        <color rgb="FFDFE4E9"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFDFE4E9"/>
-      </left>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="thick">
-        <color rgb="FFDFE4E9"/>
-      </bottom>
       <diagonal style="none"/>
     </border>
     <border>
@@ -147,24 +119,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thick">
+        <color rgb="FFDFE4E9"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -173,7 +153,7 @@
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
@@ -198,33 +178,26 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>53577</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>71723</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="498871" cy="518825"/>
+    <xdr:ext cx="3861226" cy="504824"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2026008863" name=""/>
+        <xdr:cNvPr id="1207995721" name=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="0" t="0" r="85236" b="36969"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="0" flipV="0">
-          <a:off x="53577" y="71723"/>
-          <a:ext cx="498871" cy="518825"/>
+          <a:off x="0" y="114300"/>
+          <a:ext cx="3861226" cy="504824"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -724,22 +697,20 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="54.75" customHeight="1">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="str">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4" t="str">
         <f>COUNTA(raw!A2:A501)&amp;" Einsätze"</f>
         <v xml:space="preserve">0 Einsätze</v>
       </c>
-      <c r="F1" s="6"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="129" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="str">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="str">
         <f>"-"&amp;_xlfn.TEXTJOIN("
 -",TRUE,Tutorial!A1:A9)</f>
         <v xml:space="preserve">-Einsatzsuche von ZiviConnect öffnen
@@ -752,29 +723,29 @@
 -Die Datei zu CSV Konvertieren
 -Das Resultat im "raw" Arbeitsblatt einfügen</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="9" t="str">
+      <c r="A4" s="8" t="str">
         <f>IF(ISBLANK(raw!A2),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A2))</f>
         <v/>
       </c>
@@ -796,7 +767,7 @@
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="9" t="str">
+      <c r="A5" s="8" t="str">
         <f>IF(ISBLANK(raw!A3),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A3))</f>
         <v/>
       </c>
@@ -818,7 +789,7 @@
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="9" t="str">
+      <c r="A6" s="8" t="str">
         <f>IF(ISBLANK(raw!A4),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A4))</f>
         <v/>
       </c>
@@ -840,7 +811,7 @@
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="9" t="str">
+      <c r="A7" s="8" t="str">
         <f>IF(ISBLANK(raw!A5),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A5))</f>
         <v/>
       </c>
@@ -862,7 +833,7 @@
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="9" t="str">
+      <c r="A8" s="8" t="str">
         <f>IF(ISBLANK(raw!A6),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A6))</f>
         <v/>
       </c>
@@ -884,7 +855,7 @@
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="9" t="str">
+      <c r="A9" s="8" t="str">
         <f>IF(ISBLANK(raw!A7),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A7))</f>
         <v/>
       </c>
@@ -906,7 +877,7 @@
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="9" t="str">
+      <c r="A10" s="8" t="str">
         <f>IF(ISBLANK(raw!A8),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A8))</f>
         <v/>
       </c>
@@ -928,7 +899,7 @@
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="9" t="str">
+      <c r="A11" s="8" t="str">
         <f>IF(ISBLANK(raw!A9),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A9))</f>
         <v/>
       </c>
@@ -950,7 +921,7 @@
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="9" t="str">
+      <c r="A12" s="8" t="str">
         <f>IF(ISBLANK(raw!A10),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A10))</f>
         <v/>
       </c>
@@ -972,7 +943,7 @@
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="9" t="str">
+      <c r="A13" s="8" t="str">
         <f>IF(ISBLANK(raw!A11),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A11))</f>
         <v/>
       </c>
@@ -994,7 +965,7 @@
       </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="9" t="str">
+      <c r="A14" s="8" t="str">
         <f>IF(ISBLANK(raw!A12),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A12))</f>
         <v/>
       </c>
@@ -1016,7 +987,7 @@
       </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="9" t="str">
+      <c r="A15" s="8" t="str">
         <f>IF(ISBLANK(raw!A13),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A13))</f>
         <v/>
       </c>
@@ -1038,7 +1009,7 @@
       </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="9" t="str">
+      <c r="A16" s="8" t="str">
         <f>IF(ISBLANK(raw!A14),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A14))</f>
         <v/>
       </c>
@@ -1060,7 +1031,7 @@
       </c>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="9" t="str">
+      <c r="A17" s="8" t="str">
         <f>IF(ISBLANK(raw!A15),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A15))</f>
         <v/>
       </c>
@@ -1082,7 +1053,7 @@
       </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="9" t="str">
+      <c r="A18" s="8" t="str">
         <f>IF(ISBLANK(raw!A16),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A16))</f>
         <v/>
       </c>
@@ -1104,7 +1075,7 @@
       </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="9" t="str">
+      <c r="A19" s="8" t="str">
         <f>IF(ISBLANK(raw!A17),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A17))</f>
         <v/>
       </c>
@@ -1126,7 +1097,7 @@
       </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="9" t="str">
+      <c r="A20" s="8" t="str">
         <f>IF(ISBLANK(raw!A18),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A18))</f>
         <v/>
       </c>
@@ -1148,7 +1119,7 @@
       </c>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="9" t="str">
+      <c r="A21" s="8" t="str">
         <f>IF(ISBLANK(raw!A19),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A19))</f>
         <v/>
       </c>
@@ -1170,7 +1141,7 @@
       </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="9" t="str">
+      <c r="A22" s="8" t="str">
         <f>IF(ISBLANK(raw!A20),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A20))</f>
         <v/>
       </c>
@@ -1192,7 +1163,7 @@
       </c>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="9" t="str">
+      <c r="A23" s="8" t="str">
         <f>IF(ISBLANK(raw!A21),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A21))</f>
         <v/>
       </c>
@@ -1214,7 +1185,7 @@
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="9" t="str">
+      <c r="A24" s="8" t="str">
         <f>IF(ISBLANK(raw!A22),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A22))</f>
         <v/>
       </c>
@@ -1236,7 +1207,7 @@
       </c>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="9" t="str">
+      <c r="A25" s="8" t="str">
         <f>IF(ISBLANK(raw!A23),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A23))</f>
         <v/>
       </c>
@@ -1258,7 +1229,7 @@
       </c>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="9" t="str">
+      <c r="A26" s="8" t="str">
         <f>IF(ISBLANK(raw!A24),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A24))</f>
         <v/>
       </c>
@@ -1280,7 +1251,7 @@
       </c>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="9" t="str">
+      <c r="A27" s="8" t="str">
         <f>IF(ISBLANK(raw!A25),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A25))</f>
         <v/>
       </c>
@@ -1302,7 +1273,7 @@
       </c>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="9" t="str">
+      <c r="A28" s="8" t="str">
         <f>IF(ISBLANK(raw!A26),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A26))</f>
         <v/>
       </c>
@@ -1324,7 +1295,7 @@
       </c>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="9" t="str">
+      <c r="A29" s="8" t="str">
         <f>IF(ISBLANK(raw!A27),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A27))</f>
         <v/>
       </c>
@@ -1346,7 +1317,7 @@
       </c>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="9" t="str">
+      <c r="A30" s="8" t="str">
         <f>IF(ISBLANK(raw!A28),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A28))</f>
         <v/>
       </c>
@@ -1368,7 +1339,7 @@
       </c>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" s="9" t="str">
+      <c r="A31" s="8" t="str">
         <f>IF(ISBLANK(raw!A29),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A29))</f>
         <v/>
       </c>
@@ -1390,7 +1361,7 @@
       </c>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="9" t="str">
+      <c r="A32" s="8" t="str">
         <f>IF(ISBLANK(raw!A30),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A30))</f>
         <v/>
       </c>
@@ -1412,7 +1383,7 @@
       </c>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="9" t="str">
+      <c r="A33" s="8" t="str">
         <f>IF(ISBLANK(raw!A31),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A31))</f>
         <v/>
       </c>
@@ -1434,7 +1405,7 @@
       </c>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" s="9" t="str">
+      <c r="A34" s="8" t="str">
         <f>IF(ISBLANK(raw!A32),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A32))</f>
         <v/>
       </c>
@@ -1456,7 +1427,7 @@
       </c>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35" s="9" t="str">
+      <c r="A35" s="8" t="str">
         <f>IF(ISBLANK(raw!A33),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A33))</f>
         <v/>
       </c>
@@ -1478,7 +1449,7 @@
       </c>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="9" t="str">
+      <c r="A36" s="8" t="str">
         <f>IF(ISBLANK(raw!A34),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A34))</f>
         <v/>
       </c>
@@ -1500,7 +1471,7 @@
       </c>
     </row>
     <row r="37" ht="14.25">
-      <c r="A37" s="9" t="str">
+      <c r="A37" s="8" t="str">
         <f>IF(ISBLANK(raw!A35),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A35))</f>
         <v/>
       </c>
@@ -1522,7 +1493,7 @@
       </c>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38" s="9" t="str">
+      <c r="A38" s="8" t="str">
         <f>IF(ISBLANK(raw!A36),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A36))</f>
         <v/>
       </c>
@@ -1544,7 +1515,7 @@
       </c>
     </row>
     <row r="39" ht="14.25">
-      <c r="A39" s="9" t="str">
+      <c r="A39" s="8" t="str">
         <f>IF(ISBLANK(raw!A37),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A37))</f>
         <v/>
       </c>
@@ -1566,7 +1537,7 @@
       </c>
     </row>
     <row r="40" ht="14.25">
-      <c r="A40" s="9" t="str">
+      <c r="A40" s="8" t="str">
         <f>IF(ISBLANK(raw!A38),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A38))</f>
         <v/>
       </c>
@@ -1588,7 +1559,7 @@
       </c>
     </row>
     <row r="41" ht="14.25">
-      <c r="A41" s="9" t="str">
+      <c r="A41" s="8" t="str">
         <f>IF(ISBLANK(raw!A39),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A39))</f>
         <v/>
       </c>
@@ -1610,7 +1581,7 @@
       </c>
     </row>
     <row r="42" ht="14.25">
-      <c r="A42" s="9" t="str">
+      <c r="A42" s="8" t="str">
         <f>IF(ISBLANK(raw!A40),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A40))</f>
         <v/>
       </c>
@@ -1632,7 +1603,7 @@
       </c>
     </row>
     <row r="43" ht="14.25">
-      <c r="A43" s="9" t="str">
+      <c r="A43" s="8" t="str">
         <f>IF(ISBLANK(raw!A41),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A41))</f>
         <v/>
       </c>
@@ -1654,7 +1625,7 @@
       </c>
     </row>
     <row r="44" ht="14.25">
-      <c r="A44" s="9" t="str">
+      <c r="A44" s="8" t="str">
         <f>IF(ISBLANK(raw!A42),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A42))</f>
         <v/>
       </c>
@@ -1676,7 +1647,7 @@
       </c>
     </row>
     <row r="45" ht="14.25">
-      <c r="A45" s="9" t="str">
+      <c r="A45" s="8" t="str">
         <f>IF(ISBLANK(raw!A43),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A43))</f>
         <v/>
       </c>
@@ -1698,7 +1669,7 @@
       </c>
     </row>
     <row r="46" ht="14.25">
-      <c r="A46" s="9" t="str">
+      <c r="A46" s="8" t="str">
         <f>IF(ISBLANK(raw!A44),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A44))</f>
         <v/>
       </c>
@@ -1720,7 +1691,7 @@
       </c>
     </row>
     <row r="47" ht="14.25">
-      <c r="A47" s="9" t="str">
+      <c r="A47" s="8" t="str">
         <f>IF(ISBLANK(raw!A45),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A45))</f>
         <v/>
       </c>
@@ -1742,7 +1713,7 @@
       </c>
     </row>
     <row r="48" ht="14.25">
-      <c r="A48" s="9" t="str">
+      <c r="A48" s="8" t="str">
         <f>IF(ISBLANK(raw!A46),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A46))</f>
         <v/>
       </c>
@@ -1764,7 +1735,7 @@
       </c>
     </row>
     <row r="49" ht="14.25">
-      <c r="A49" s="9" t="str">
+      <c r="A49" s="8" t="str">
         <f>IF(ISBLANK(raw!A47),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A47))</f>
         <v/>
       </c>
@@ -1786,7 +1757,7 @@
       </c>
     </row>
     <row r="50" ht="14.25">
-      <c r="A50" s="9" t="str">
+      <c r="A50" s="8" t="str">
         <f>IF(ISBLANK(raw!A48),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A48))</f>
         <v/>
       </c>
@@ -1808,7 +1779,7 @@
       </c>
     </row>
     <row r="51" ht="14.25">
-      <c r="A51" s="9" t="str">
+      <c r="A51" s="8" t="str">
         <f>IF(ISBLANK(raw!A49),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A49))</f>
         <v/>
       </c>
@@ -1830,7 +1801,7 @@
       </c>
     </row>
     <row r="52" ht="14.25">
-      <c r="A52" s="9" t="str">
+      <c r="A52" s="8" t="str">
         <f>IF(ISBLANK(raw!A50),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A50))</f>
         <v/>
       </c>
@@ -1852,7 +1823,7 @@
       </c>
     </row>
     <row r="53" ht="14.25">
-      <c r="A53" s="9" t="str">
+      <c r="A53" s="8" t="str">
         <f>IF(ISBLANK(raw!A51),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A51))</f>
         <v/>
       </c>
@@ -1874,7 +1845,7 @@
       </c>
     </row>
     <row r="54" ht="14.25">
-      <c r="A54" s="9" t="str">
+      <c r="A54" s="8" t="str">
         <f>IF(ISBLANK(raw!A52),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A52))</f>
         <v/>
       </c>
@@ -1896,7 +1867,7 @@
       </c>
     </row>
     <row r="55" ht="14.25">
-      <c r="A55" s="9" t="str">
+      <c r="A55" s="8" t="str">
         <f>IF(ISBLANK(raw!A53),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A53))</f>
         <v/>
       </c>
@@ -1918,7 +1889,7 @@
       </c>
     </row>
     <row r="56" ht="14.25">
-      <c r="A56" s="9" t="str">
+      <c r="A56" s="8" t="str">
         <f>IF(ISBLANK(raw!A54),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A54))</f>
         <v/>
       </c>
@@ -1940,7 +1911,7 @@
       </c>
     </row>
     <row r="57" ht="14.25">
-      <c r="A57" s="9" t="str">
+      <c r="A57" s="8" t="str">
         <f>IF(ISBLANK(raw!A55),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A55))</f>
         <v/>
       </c>
@@ -1962,7 +1933,7 @@
       </c>
     </row>
     <row r="58" ht="14.25">
-      <c r="A58" s="9" t="str">
+      <c r="A58" s="8" t="str">
         <f>IF(ISBLANK(raw!A56),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A56))</f>
         <v/>
       </c>
@@ -1984,7 +1955,7 @@
       </c>
     </row>
     <row r="59" ht="14.25">
-      <c r="A59" s="9" t="str">
+      <c r="A59" s="8" t="str">
         <f>IF(ISBLANK(raw!A57),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A57))</f>
         <v/>
       </c>
@@ -2006,7 +1977,7 @@
       </c>
     </row>
     <row r="60" ht="14.25">
-      <c r="A60" s="9" t="str">
+      <c r="A60" s="8" t="str">
         <f>IF(ISBLANK(raw!A58),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A58))</f>
         <v/>
       </c>
@@ -2028,7 +1999,7 @@
       </c>
     </row>
     <row r="61" ht="14.25">
-      <c r="A61" s="9" t="str">
+      <c r="A61" s="8" t="str">
         <f>IF(ISBLANK(raw!A59),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A59))</f>
         <v/>
       </c>
@@ -2050,7 +2021,7 @@
       </c>
     </row>
     <row r="62" ht="14.25">
-      <c r="A62" s="9" t="str">
+      <c r="A62" s="8" t="str">
         <f>IF(ISBLANK(raw!A60),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A60))</f>
         <v/>
       </c>
@@ -2072,7 +2043,7 @@
       </c>
     </row>
     <row r="63" ht="14.25">
-      <c r="A63" s="9" t="str">
+      <c r="A63" s="8" t="str">
         <f>IF(ISBLANK(raw!A61),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A61))</f>
         <v/>
       </c>
@@ -2094,7 +2065,7 @@
       </c>
     </row>
     <row r="64" ht="14.25">
-      <c r="A64" s="9" t="str">
+      <c r="A64" s="8" t="str">
         <f>IF(ISBLANK(raw!A62),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A62))</f>
         <v/>
       </c>
@@ -2116,7 +2087,7 @@
       </c>
     </row>
     <row r="65" ht="14.25">
-      <c r="A65" s="9" t="str">
+      <c r="A65" s="8" t="str">
         <f>IF(ISBLANK(raw!A63),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A63))</f>
         <v/>
       </c>
@@ -2138,7 +2109,7 @@
       </c>
     </row>
     <row r="66" ht="14.25">
-      <c r="A66" s="9" t="str">
+      <c r="A66" s="8" t="str">
         <f>IF(ISBLANK(raw!A64),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A64))</f>
         <v/>
       </c>
@@ -2160,7 +2131,7 @@
       </c>
     </row>
     <row r="67" ht="14.25">
-      <c r="A67" s="9" t="str">
+      <c r="A67" s="8" t="str">
         <f>IF(ISBLANK(raw!A65),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A65))</f>
         <v/>
       </c>
@@ -2182,7 +2153,7 @@
       </c>
     </row>
     <row r="68" ht="14.25">
-      <c r="A68" s="9" t="str">
+      <c r="A68" s="8" t="str">
         <f>IF(ISBLANK(raw!A66),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A66))</f>
         <v/>
       </c>
@@ -2204,7 +2175,7 @@
       </c>
     </row>
     <row r="69" ht="14.25">
-      <c r="A69" s="9" t="str">
+      <c r="A69" s="8" t="str">
         <f>IF(ISBLANK(raw!A67),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A67))</f>
         <v/>
       </c>
@@ -2226,7 +2197,7 @@
       </c>
     </row>
     <row r="70" ht="14.25">
-      <c r="A70" s="9" t="str">
+      <c r="A70" s="8" t="str">
         <f>IF(ISBLANK(raw!A68),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A68))</f>
         <v/>
       </c>
@@ -2248,7 +2219,7 @@
       </c>
     </row>
     <row r="71" ht="14.25">
-      <c r="A71" s="9" t="str">
+      <c r="A71" s="8" t="str">
         <f>IF(ISBLANK(raw!A69),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A69))</f>
         <v/>
       </c>
@@ -2270,7 +2241,7 @@
       </c>
     </row>
     <row r="72" ht="14.25">
-      <c r="A72" s="9" t="str">
+      <c r="A72" s="8" t="str">
         <f>IF(ISBLANK(raw!A70),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A70))</f>
         <v/>
       </c>
@@ -2292,7 +2263,7 @@
       </c>
     </row>
     <row r="73" ht="14.25">
-      <c r="A73" s="9" t="str">
+      <c r="A73" s="8" t="str">
         <f>IF(ISBLANK(raw!A71),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A71))</f>
         <v/>
       </c>
@@ -2314,7 +2285,7 @@
       </c>
     </row>
     <row r="74" ht="14.25">
-      <c r="A74" s="9" t="str">
+      <c r="A74" s="8" t="str">
         <f>IF(ISBLANK(raw!A72),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A72))</f>
         <v/>
       </c>
@@ -2336,7 +2307,7 @@
       </c>
     </row>
     <row r="75" ht="14.25">
-      <c r="A75" s="9" t="str">
+      <c r="A75" s="8" t="str">
         <f>IF(ISBLANK(raw!A73),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A73))</f>
         <v/>
       </c>
@@ -2358,7 +2329,7 @@
       </c>
     </row>
     <row r="76" ht="14.25">
-      <c r="A76" s="9" t="str">
+      <c r="A76" s="8" t="str">
         <f>IF(ISBLANK(raw!A74),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A74))</f>
         <v/>
       </c>
@@ -2380,7 +2351,7 @@
       </c>
     </row>
     <row r="77" ht="14.25">
-      <c r="A77" s="9" t="str">
+      <c r="A77" s="8" t="str">
         <f>IF(ISBLANK(raw!A75),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A75))</f>
         <v/>
       </c>
@@ -2402,7 +2373,7 @@
       </c>
     </row>
     <row r="78" ht="14.25">
-      <c r="A78" s="9" t="str">
+      <c r="A78" s="8" t="str">
         <f>IF(ISBLANK(raw!A76),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A76))</f>
         <v/>
       </c>
@@ -2424,7 +2395,7 @@
       </c>
     </row>
     <row r="79" ht="14.25">
-      <c r="A79" s="9" t="str">
+      <c r="A79" s="8" t="str">
         <f>IF(ISBLANK(raw!A77),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A77))</f>
         <v/>
       </c>
@@ -2446,7 +2417,7 @@
       </c>
     </row>
     <row r="80" ht="14.25">
-      <c r="A80" s="9" t="str">
+      <c r="A80" s="8" t="str">
         <f>IF(ISBLANK(raw!A78),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A78))</f>
         <v/>
       </c>
@@ -2468,7 +2439,7 @@
       </c>
     </row>
     <row r="81" ht="14.25">
-      <c r="A81" s="9" t="str">
+      <c r="A81" s="8" t="str">
         <f>IF(ISBLANK(raw!A79),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A79))</f>
         <v/>
       </c>
@@ -2490,7 +2461,7 @@
       </c>
     </row>
     <row r="82" ht="14.25">
-      <c r="A82" s="9" t="str">
+      <c r="A82" s="8" t="str">
         <f>IF(ISBLANK(raw!A80),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A80))</f>
         <v/>
       </c>
@@ -2512,7 +2483,7 @@
       </c>
     </row>
     <row r="83" ht="14.25">
-      <c r="A83" s="9" t="str">
+      <c r="A83" s="8" t="str">
         <f>IF(ISBLANK(raw!A81),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A81))</f>
         <v/>
       </c>
@@ -2534,7 +2505,7 @@
       </c>
     </row>
     <row r="84" ht="14.25">
-      <c r="A84" s="9" t="str">
+      <c r="A84" s="8" t="str">
         <f>IF(ISBLANK(raw!A82),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A82))</f>
         <v/>
       </c>
@@ -2556,7 +2527,7 @@
       </c>
     </row>
     <row r="85" ht="14.25">
-      <c r="A85" s="9" t="str">
+      <c r="A85" s="8" t="str">
         <f>IF(ISBLANK(raw!A83),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A83))</f>
         <v/>
       </c>
@@ -2578,7 +2549,7 @@
       </c>
     </row>
     <row r="86" ht="14.25">
-      <c r="A86" s="9" t="str">
+      <c r="A86" s="8" t="str">
         <f>IF(ISBLANK(raw!A84),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A84))</f>
         <v/>
       </c>
@@ -2600,7 +2571,7 @@
       </c>
     </row>
     <row r="87" ht="14.25">
-      <c r="A87" s="9" t="str">
+      <c r="A87" s="8" t="str">
         <f>IF(ISBLANK(raw!A85),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A85))</f>
         <v/>
       </c>
@@ -2622,7 +2593,7 @@
       </c>
     </row>
     <row r="88" ht="14.25">
-      <c r="A88" s="9" t="str">
+      <c r="A88" s="8" t="str">
         <f>IF(ISBLANK(raw!A86),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A86))</f>
         <v/>
       </c>
@@ -2644,7 +2615,7 @@
       </c>
     </row>
     <row r="89" ht="14.25">
-      <c r="A89" s="9" t="str">
+      <c r="A89" s="8" t="str">
         <f>IF(ISBLANK(raw!A87),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A87))</f>
         <v/>
       </c>
@@ -2666,7 +2637,7 @@
       </c>
     </row>
     <row r="90" ht="14.25">
-      <c r="A90" s="9" t="str">
+      <c r="A90" s="8" t="str">
         <f>IF(ISBLANK(raw!A88),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A88))</f>
         <v/>
       </c>
@@ -2688,7 +2659,7 @@
       </c>
     </row>
     <row r="91" ht="14.25">
-      <c r="A91" s="9" t="str">
+      <c r="A91" s="8" t="str">
         <f>IF(ISBLANK(raw!A89),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A89))</f>
         <v/>
       </c>
@@ -2710,7 +2681,7 @@
       </c>
     </row>
     <row r="92" ht="14.25">
-      <c r="A92" s="9" t="str">
+      <c r="A92" s="8" t="str">
         <f>IF(ISBLANK(raw!A90),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A90))</f>
         <v/>
       </c>
@@ -2732,7 +2703,7 @@
       </c>
     </row>
     <row r="93" ht="14.25">
-      <c r="A93" s="9" t="str">
+      <c r="A93" s="8" t="str">
         <f>IF(ISBLANK(raw!A91),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A91))</f>
         <v/>
       </c>
@@ -2754,7 +2725,7 @@
       </c>
     </row>
     <row r="94" ht="14.25">
-      <c r="A94" s="9" t="str">
+      <c r="A94" s="8" t="str">
         <f>IF(ISBLANK(raw!A92),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A92))</f>
         <v/>
       </c>
@@ -2776,7 +2747,7 @@
       </c>
     </row>
     <row r="95" ht="14.25">
-      <c r="A95" s="9" t="str">
+      <c r="A95" s="8" t="str">
         <f>IF(ISBLANK(raw!A93),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A93))</f>
         <v/>
       </c>
@@ -2798,7 +2769,7 @@
       </c>
     </row>
     <row r="96" ht="14.25">
-      <c r="A96" s="9" t="str">
+      <c r="A96" s="8" t="str">
         <f>IF(ISBLANK(raw!A94),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A94))</f>
         <v/>
       </c>
@@ -2820,7 +2791,7 @@
       </c>
     </row>
     <row r="97" ht="14.25">
-      <c r="A97" s="9" t="str">
+      <c r="A97" s="8" t="str">
         <f>IF(ISBLANK(raw!A95),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A95))</f>
         <v/>
       </c>
@@ -2842,7 +2813,7 @@
       </c>
     </row>
     <row r="98" ht="14.25">
-      <c r="A98" s="9" t="str">
+      <c r="A98" s="8" t="str">
         <f>IF(ISBLANK(raw!A96),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A96))</f>
         <v/>
       </c>
@@ -2864,7 +2835,7 @@
       </c>
     </row>
     <row r="99" ht="14.25">
-      <c r="A99" s="9" t="str">
+      <c r="A99" s="8" t="str">
         <f>IF(ISBLANK(raw!A97),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A97))</f>
         <v/>
       </c>
@@ -2886,7 +2857,7 @@
       </c>
     </row>
     <row r="100" ht="14.25">
-      <c r="A100" s="9" t="str">
+      <c r="A100" s="8" t="str">
         <f>IF(ISBLANK(raw!A98),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A98))</f>
         <v/>
       </c>
@@ -2908,7 +2879,7 @@
       </c>
     </row>
     <row r="101" ht="14.25">
-      <c r="A101" s="9" t="str">
+      <c r="A101" s="8" t="str">
         <f>IF(ISBLANK(raw!A99),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A99))</f>
         <v/>
       </c>
@@ -2930,7 +2901,7 @@
       </c>
     </row>
     <row r="102" ht="14.25">
-      <c r="A102" s="9" t="str">
+      <c r="A102" s="8" t="str">
         <f>IF(ISBLANK(raw!A100),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A100))</f>
         <v/>
       </c>
@@ -2952,7 +2923,7 @@
       </c>
     </row>
     <row r="103" ht="14.25">
-      <c r="A103" s="9" t="str">
+      <c r="A103" s="8" t="str">
         <f>IF(ISBLANK(raw!A101),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A101))</f>
         <v/>
       </c>
@@ -2974,7 +2945,7 @@
       </c>
     </row>
     <row r="104" ht="14.25">
-      <c r="A104" s="9" t="str">
+      <c r="A104" s="8" t="str">
         <f>IF(ISBLANK(raw!A102),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A102))</f>
         <v/>
       </c>
@@ -2996,7 +2967,7 @@
       </c>
     </row>
     <row r="105" ht="14.25">
-      <c r="A105" s="9" t="str">
+      <c r="A105" s="8" t="str">
         <f>IF(ISBLANK(raw!A103),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A103))</f>
         <v/>
       </c>
@@ -3018,7 +2989,7 @@
       </c>
     </row>
     <row r="106" ht="14.25">
-      <c r="A106" s="9" t="str">
+      <c r="A106" s="8" t="str">
         <f>IF(ISBLANK(raw!A104),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A104))</f>
         <v/>
       </c>
@@ -3040,7 +3011,7 @@
       </c>
     </row>
     <row r="107" ht="14.25">
-      <c r="A107" s="9" t="str">
+      <c r="A107" s="8" t="str">
         <f>IF(ISBLANK(raw!A105),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A105))</f>
         <v/>
       </c>
@@ -3062,7 +3033,7 @@
       </c>
     </row>
     <row r="108" ht="14.25">
-      <c r="A108" s="9" t="str">
+      <c r="A108" s="8" t="str">
         <f>IF(ISBLANK(raw!A106),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A106))</f>
         <v/>
       </c>
@@ -3084,7 +3055,7 @@
       </c>
     </row>
     <row r="109" ht="14.25">
-      <c r="A109" s="9" t="str">
+      <c r="A109" s="8" t="str">
         <f>IF(ISBLANK(raw!A107),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A107))</f>
         <v/>
       </c>
@@ -3106,7 +3077,7 @@
       </c>
     </row>
     <row r="110" ht="14.25">
-      <c r="A110" s="9" t="str">
+      <c r="A110" s="8" t="str">
         <f>IF(ISBLANK(raw!A108),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A108))</f>
         <v/>
       </c>
@@ -3128,7 +3099,7 @@
       </c>
     </row>
     <row r="111" ht="14.25">
-      <c r="A111" s="9" t="str">
+      <c r="A111" s="8" t="str">
         <f>IF(ISBLANK(raw!A109),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A109))</f>
         <v/>
       </c>
@@ -3150,7 +3121,7 @@
       </c>
     </row>
     <row r="112" ht="14.25">
-      <c r="A112" s="9" t="str">
+      <c r="A112" s="8" t="str">
         <f>IF(ISBLANK(raw!A110),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A110))</f>
         <v/>
       </c>
@@ -3172,7 +3143,7 @@
       </c>
     </row>
     <row r="113" ht="14.25">
-      <c r="A113" s="9" t="str">
+      <c r="A113" s="8" t="str">
         <f>IF(ISBLANK(raw!A111),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A111))</f>
         <v/>
       </c>
@@ -3194,7 +3165,7 @@
       </c>
     </row>
     <row r="114" ht="14.25">
-      <c r="A114" s="9" t="str">
+      <c r="A114" s="8" t="str">
         <f>IF(ISBLANK(raw!A112),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A112))</f>
         <v/>
       </c>
@@ -3216,7 +3187,7 @@
       </c>
     </row>
     <row r="115" ht="14.25">
-      <c r="A115" s="9" t="str">
+      <c r="A115" s="8" t="str">
         <f>IF(ISBLANK(raw!A113),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A113))</f>
         <v/>
       </c>
@@ -3238,7 +3209,7 @@
       </c>
     </row>
     <row r="116" ht="14.25">
-      <c r="A116" s="9" t="str">
+      <c r="A116" s="8" t="str">
         <f>IF(ISBLANK(raw!A114),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A114))</f>
         <v/>
       </c>
@@ -3260,7 +3231,7 @@
       </c>
     </row>
     <row r="117" ht="14.25">
-      <c r="A117" s="9" t="str">
+      <c r="A117" s="8" t="str">
         <f>IF(ISBLANK(raw!A115),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A115))</f>
         <v/>
       </c>
@@ -3282,7 +3253,7 @@
       </c>
     </row>
     <row r="118" ht="14.25">
-      <c r="A118" s="9" t="str">
+      <c r="A118" s="8" t="str">
         <f>IF(ISBLANK(raw!A116),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A116))</f>
         <v/>
       </c>
@@ -3304,7 +3275,7 @@
       </c>
     </row>
     <row r="119" ht="14.25">
-      <c r="A119" s="9" t="str">
+      <c r="A119" s="8" t="str">
         <f>IF(ISBLANK(raw!A117),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A117))</f>
         <v/>
       </c>
@@ -3326,7 +3297,7 @@
       </c>
     </row>
     <row r="120" ht="14.25">
-      <c r="A120" s="9" t="str">
+      <c r="A120" s="8" t="str">
         <f>IF(ISBLANK(raw!A118),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A118))</f>
         <v/>
       </c>
@@ -3348,7 +3319,7 @@
       </c>
     </row>
     <row r="121" ht="14.25">
-      <c r="A121" s="9" t="str">
+      <c r="A121" s="8" t="str">
         <f>IF(ISBLANK(raw!A119),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A119))</f>
         <v/>
       </c>
@@ -3370,7 +3341,7 @@
       </c>
     </row>
     <row r="122" ht="14.25">
-      <c r="A122" s="9" t="str">
+      <c r="A122" s="8" t="str">
         <f>IF(ISBLANK(raw!A120),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A120))</f>
         <v/>
       </c>
@@ -3392,7 +3363,7 @@
       </c>
     </row>
     <row r="123" ht="14.25">
-      <c r="A123" s="9" t="str">
+      <c r="A123" s="8" t="str">
         <f>IF(ISBLANK(raw!A121),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A121))</f>
         <v/>
       </c>
@@ -3414,7 +3385,7 @@
       </c>
     </row>
     <row r="124" ht="14.25">
-      <c r="A124" s="9" t="str">
+      <c r="A124" s="8" t="str">
         <f>IF(ISBLANK(raw!A122),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A122))</f>
         <v/>
       </c>
@@ -3436,7 +3407,7 @@
       </c>
     </row>
     <row r="125" ht="14.25">
-      <c r="A125" s="9" t="str">
+      <c r="A125" s="8" t="str">
         <f>IF(ISBLANK(raw!A123),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A123))</f>
         <v/>
       </c>
@@ -3458,7 +3429,7 @@
       </c>
     </row>
     <row r="126" ht="14.25">
-      <c r="A126" s="9" t="str">
+      <c r="A126" s="8" t="str">
         <f>IF(ISBLANK(raw!A124),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A124))</f>
         <v/>
       </c>
@@ -3480,7 +3451,7 @@
       </c>
     </row>
     <row r="127" ht="14.25">
-      <c r="A127" s="9" t="str">
+      <c r="A127" s="8" t="str">
         <f>IF(ISBLANK(raw!A125),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A125))</f>
         <v/>
       </c>
@@ -3502,7 +3473,7 @@
       </c>
     </row>
     <row r="128" ht="14.25">
-      <c r="A128" s="9" t="str">
+      <c r="A128" s="8" t="str">
         <f>IF(ISBLANK(raw!A126),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A126))</f>
         <v/>
       </c>
@@ -3524,7 +3495,7 @@
       </c>
     </row>
     <row r="129" ht="14.25">
-      <c r="A129" s="9" t="str">
+      <c r="A129" s="8" t="str">
         <f>IF(ISBLANK(raw!A127),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A127))</f>
         <v/>
       </c>
@@ -3546,7 +3517,7 @@
       </c>
     </row>
     <row r="130" ht="14.25">
-      <c r="A130" s="9" t="str">
+      <c r="A130" s="8" t="str">
         <f>IF(ISBLANK(raw!A128),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A128))</f>
         <v/>
       </c>
@@ -3568,7 +3539,7 @@
       </c>
     </row>
     <row r="131" ht="14.25">
-      <c r="A131" s="9" t="str">
+      <c r="A131" s="8" t="str">
         <f>IF(ISBLANK(raw!A129),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A129))</f>
         <v/>
       </c>
@@ -3590,7 +3561,7 @@
       </c>
     </row>
     <row r="132" ht="14.25">
-      <c r="A132" s="9" t="str">
+      <c r="A132" s="8" t="str">
         <f>IF(ISBLANK(raw!A130),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A130))</f>
         <v/>
       </c>
@@ -3612,7 +3583,7 @@
       </c>
     </row>
     <row r="133" ht="14.25">
-      <c r="A133" s="9" t="str">
+      <c r="A133" s="8" t="str">
         <f>IF(ISBLANK(raw!A131),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A131))</f>
         <v/>
       </c>
@@ -3634,7 +3605,7 @@
       </c>
     </row>
     <row r="134" ht="14.25">
-      <c r="A134" s="9" t="str">
+      <c r="A134" s="8" t="str">
         <f>IF(ISBLANK(raw!A132),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A132))</f>
         <v/>
       </c>
@@ -3656,7 +3627,7 @@
       </c>
     </row>
     <row r="135" ht="14.25">
-      <c r="A135" s="9" t="str">
+      <c r="A135" s="8" t="str">
         <f>IF(ISBLANK(raw!A133),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A133))</f>
         <v/>
       </c>
@@ -3678,7 +3649,7 @@
       </c>
     </row>
     <row r="136" ht="14.25">
-      <c r="A136" s="9" t="str">
+      <c r="A136" s="8" t="str">
         <f>IF(ISBLANK(raw!A134),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A134))</f>
         <v/>
       </c>
@@ -3700,7 +3671,7 @@
       </c>
     </row>
     <row r="137" ht="14.25">
-      <c r="A137" s="9" t="str">
+      <c r="A137" s="8" t="str">
         <f>IF(ISBLANK(raw!A135),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A135))</f>
         <v/>
       </c>
@@ -3722,7 +3693,7 @@
       </c>
     </row>
     <row r="138" ht="14.25">
-      <c r="A138" s="9" t="str">
+      <c r="A138" s="8" t="str">
         <f>IF(ISBLANK(raw!A136),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A136))</f>
         <v/>
       </c>
@@ -3744,7 +3715,7 @@
       </c>
     </row>
     <row r="139" ht="14.25">
-      <c r="A139" s="9" t="str">
+      <c r="A139" s="8" t="str">
         <f>IF(ISBLANK(raw!A137),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A137))</f>
         <v/>
       </c>
@@ -3766,7 +3737,7 @@
       </c>
     </row>
     <row r="140" ht="14.25">
-      <c r="A140" s="9" t="str">
+      <c r="A140" s="8" t="str">
         <f>IF(ISBLANK(raw!A138),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A138))</f>
         <v/>
       </c>
@@ -3788,7 +3759,7 @@
       </c>
     </row>
     <row r="141" ht="14.25">
-      <c r="A141" s="9" t="str">
+      <c r="A141" s="8" t="str">
         <f>IF(ISBLANK(raw!A139),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A139))</f>
         <v/>
       </c>
@@ -3810,7 +3781,7 @@
       </c>
     </row>
     <row r="142" ht="14.25">
-      <c r="A142" s="9" t="str">
+      <c r="A142" s="8" t="str">
         <f>IF(ISBLANK(raw!A140),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A140))</f>
         <v/>
       </c>
@@ -3832,7 +3803,7 @@
       </c>
     </row>
     <row r="143" ht="14.25">
-      <c r="A143" s="9" t="str">
+      <c r="A143" s="8" t="str">
         <f>IF(ISBLANK(raw!A141),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A141))</f>
         <v/>
       </c>
@@ -3854,7 +3825,7 @@
       </c>
     </row>
     <row r="144" ht="14.25">
-      <c r="A144" s="9" t="str">
+      <c r="A144" s="8" t="str">
         <f>IF(ISBLANK(raw!A142),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A142))</f>
         <v/>
       </c>
@@ -3876,7 +3847,7 @@
       </c>
     </row>
     <row r="145" ht="14.25">
-      <c r="A145" s="9" t="str">
+      <c r="A145" s="8" t="str">
         <f>IF(ISBLANK(raw!A143),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A143))</f>
         <v/>
       </c>
@@ -3898,7 +3869,7 @@
       </c>
     </row>
     <row r="146" ht="14.25">
-      <c r="A146" s="9" t="str">
+      <c r="A146" s="8" t="str">
         <f>IF(ISBLANK(raw!A144),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A144))</f>
         <v/>
       </c>
@@ -3920,7 +3891,7 @@
       </c>
     </row>
     <row r="147" ht="14.25">
-      <c r="A147" s="9" t="str">
+      <c r="A147" s="8" t="str">
         <f>IF(ISBLANK(raw!A145),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A145))</f>
         <v/>
       </c>
@@ -3942,7 +3913,7 @@
       </c>
     </row>
     <row r="148" ht="14.25">
-      <c r="A148" s="9" t="str">
+      <c r="A148" s="8" t="str">
         <f>IF(ISBLANK(raw!A146),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A146))</f>
         <v/>
       </c>
@@ -3964,7 +3935,7 @@
       </c>
     </row>
     <row r="149" ht="14.25">
-      <c r="A149" s="9" t="str">
+      <c r="A149" s="8" t="str">
         <f>IF(ISBLANK(raw!A147),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A147))</f>
         <v/>
       </c>
@@ -3986,7 +3957,7 @@
       </c>
     </row>
     <row r="150" ht="14.25">
-      <c r="A150" s="9" t="str">
+      <c r="A150" s="8" t="str">
         <f>IF(ISBLANK(raw!A148),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A148))</f>
         <v/>
       </c>
@@ -4008,7 +3979,7 @@
       </c>
     </row>
     <row r="151" ht="14.25">
-      <c r="A151" s="9" t="str">
+      <c r="A151" s="8" t="str">
         <f>IF(ISBLANK(raw!A149),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A149))</f>
         <v/>
       </c>
@@ -4030,7 +4001,7 @@
       </c>
     </row>
     <row r="152" ht="14.25">
-      <c r="A152" s="9" t="str">
+      <c r="A152" s="8" t="str">
         <f>IF(ISBLANK(raw!A150),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A150))</f>
         <v/>
       </c>
@@ -4052,7 +4023,7 @@
       </c>
     </row>
     <row r="153" ht="14.25">
-      <c r="A153" s="9" t="str">
+      <c r="A153" s="8" t="str">
         <f>IF(ISBLANK(raw!A151),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A151))</f>
         <v/>
       </c>
@@ -4074,7 +4045,7 @@
       </c>
     </row>
     <row r="154" ht="14.25">
-      <c r="A154" s="9" t="str">
+      <c r="A154" s="8" t="str">
         <f>IF(ISBLANK(raw!A152),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A152))</f>
         <v/>
       </c>
@@ -4096,7 +4067,7 @@
       </c>
     </row>
     <row r="155" ht="14.25">
-      <c r="A155" s="9" t="str">
+      <c r="A155" s="8" t="str">
         <f>IF(ISBLANK(raw!A153),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A153))</f>
         <v/>
       </c>
@@ -4118,7 +4089,7 @@
       </c>
     </row>
     <row r="156" ht="14.25">
-      <c r="A156" s="9" t="str">
+      <c r="A156" s="8" t="str">
         <f>IF(ISBLANK(raw!A154),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A154))</f>
         <v/>
       </c>
@@ -4140,7 +4111,7 @@
       </c>
     </row>
     <row r="157" ht="14.25">
-      <c r="A157" s="9" t="str">
+      <c r="A157" s="8" t="str">
         <f>IF(ISBLANK(raw!A155),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A155))</f>
         <v/>
       </c>
@@ -4162,7 +4133,7 @@
       </c>
     </row>
     <row r="158" ht="14.25">
-      <c r="A158" s="9" t="str">
+      <c r="A158" s="8" t="str">
         <f>IF(ISBLANK(raw!A156),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A156))</f>
         <v/>
       </c>
@@ -4184,7 +4155,7 @@
       </c>
     </row>
     <row r="159" ht="14.25">
-      <c r="A159" s="9" t="str">
+      <c r="A159" s="8" t="str">
         <f>IF(ISBLANK(raw!A157),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A157))</f>
         <v/>
       </c>
@@ -4206,7 +4177,7 @@
       </c>
     </row>
     <row r="160" ht="14.25">
-      <c r="A160" s="9" t="str">
+      <c r="A160" s="8" t="str">
         <f>IF(ISBLANK(raw!A158),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A158))</f>
         <v/>
       </c>
@@ -4228,7 +4199,7 @@
       </c>
     </row>
     <row r="161" ht="14.25">
-      <c r="A161" s="9" t="str">
+      <c r="A161" s="8" t="str">
         <f>IF(ISBLANK(raw!A159),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A159))</f>
         <v/>
       </c>
@@ -4250,7 +4221,7 @@
       </c>
     </row>
     <row r="162" ht="14.25">
-      <c r="A162" s="9" t="str">
+      <c r="A162" s="8" t="str">
         <f>IF(ISBLANK(raw!A160),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A160))</f>
         <v/>
       </c>
@@ -4272,7 +4243,7 @@
       </c>
     </row>
     <row r="163" ht="14.25">
-      <c r="A163" s="9" t="str">
+      <c r="A163" s="8" t="str">
         <f>IF(ISBLANK(raw!A161),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A161))</f>
         <v/>
       </c>
@@ -4294,7 +4265,7 @@
       </c>
     </row>
     <row r="164" ht="14.25">
-      <c r="A164" s="9" t="str">
+      <c r="A164" s="8" t="str">
         <f>IF(ISBLANK(raw!A162),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A162))</f>
         <v/>
       </c>
@@ -4316,7 +4287,7 @@
       </c>
     </row>
     <row r="165" ht="14.25">
-      <c r="A165" s="9" t="str">
+      <c r="A165" s="8" t="str">
         <f>IF(ISBLANK(raw!A163),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A163))</f>
         <v/>
       </c>
@@ -4338,7 +4309,7 @@
       </c>
     </row>
     <row r="166" ht="14.25">
-      <c r="A166" s="9" t="str">
+      <c r="A166" s="8" t="str">
         <f>IF(ISBLANK(raw!A164),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A164))</f>
         <v/>
       </c>
@@ -4360,7 +4331,7 @@
       </c>
     </row>
     <row r="167" ht="14.25">
-      <c r="A167" s="9" t="str">
+      <c r="A167" s="8" t="str">
         <f>IF(ISBLANK(raw!A165),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A165))</f>
         <v/>
       </c>
@@ -4382,7 +4353,7 @@
       </c>
     </row>
     <row r="168" ht="14.25">
-      <c r="A168" s="9" t="str">
+      <c r="A168" s="8" t="str">
         <f>IF(ISBLANK(raw!A166),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A166))</f>
         <v/>
       </c>
@@ -4404,7 +4375,7 @@
       </c>
     </row>
     <row r="169" ht="14.25">
-      <c r="A169" s="9" t="str">
+      <c r="A169" s="8" t="str">
         <f>IF(ISBLANK(raw!A167),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A167))</f>
         <v/>
       </c>
@@ -4426,7 +4397,7 @@
       </c>
     </row>
     <row r="170" ht="14.25">
-      <c r="A170" s="9" t="str">
+      <c r="A170" s="8" t="str">
         <f>IF(ISBLANK(raw!A168),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A168))</f>
         <v/>
       </c>
@@ -4448,7 +4419,7 @@
       </c>
     </row>
     <row r="171" ht="14.25">
-      <c r="A171" s="9" t="str">
+      <c r="A171" s="8" t="str">
         <f>IF(ISBLANK(raw!A169),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A169))</f>
         <v/>
       </c>
@@ -4470,7 +4441,7 @@
       </c>
     </row>
     <row r="172" ht="14.25">
-      <c r="A172" s="9" t="str">
+      <c r="A172" s="8" t="str">
         <f>IF(ISBLANK(raw!A170),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A170))</f>
         <v/>
       </c>
@@ -4492,7 +4463,7 @@
       </c>
     </row>
     <row r="173" ht="14.25">
-      <c r="A173" s="9" t="str">
+      <c r="A173" s="8" t="str">
         <f>IF(ISBLANK(raw!A171),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A171))</f>
         <v/>
       </c>
@@ -4514,7 +4485,7 @@
       </c>
     </row>
     <row r="174" ht="14.25">
-      <c r="A174" s="9" t="str">
+      <c r="A174" s="8" t="str">
         <f>IF(ISBLANK(raw!A172),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A172))</f>
         <v/>
       </c>
@@ -4536,7 +4507,7 @@
       </c>
     </row>
     <row r="175" ht="14.25">
-      <c r="A175" s="9" t="str">
+      <c r="A175" s="8" t="str">
         <f>IF(ISBLANK(raw!A173),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A173))</f>
         <v/>
       </c>
@@ -4558,7 +4529,7 @@
       </c>
     </row>
     <row r="176" ht="14.25">
-      <c r="A176" s="9" t="str">
+      <c r="A176" s="8" t="str">
         <f>IF(ISBLANK(raw!A174),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A174))</f>
         <v/>
       </c>
@@ -4580,7 +4551,7 @@
       </c>
     </row>
     <row r="177" ht="14.25">
-      <c r="A177" s="9" t="str">
+      <c r="A177" s="8" t="str">
         <f>IF(ISBLANK(raw!A175),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A175))</f>
         <v/>
       </c>
@@ -4602,7 +4573,7 @@
       </c>
     </row>
     <row r="178" ht="14.25">
-      <c r="A178" s="9" t="str">
+      <c r="A178" s="8" t="str">
         <f>IF(ISBLANK(raw!A176),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A176))</f>
         <v/>
       </c>
@@ -4624,7 +4595,7 @@
       </c>
     </row>
     <row r="179" ht="14.25">
-      <c r="A179" s="9" t="str">
+      <c r="A179" s="8" t="str">
         <f>IF(ISBLANK(raw!A177),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A177))</f>
         <v/>
       </c>
@@ -4646,7 +4617,7 @@
       </c>
     </row>
     <row r="180" ht="14.25">
-      <c r="A180" s="9" t="str">
+      <c r="A180" s="8" t="str">
         <f>IF(ISBLANK(raw!A178),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A178))</f>
         <v/>
       </c>
@@ -4668,7 +4639,7 @@
       </c>
     </row>
     <row r="181" ht="14.25">
-      <c r="A181" s="9" t="str">
+      <c r="A181" s="8" t="str">
         <f>IF(ISBLANK(raw!A179),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A179))</f>
         <v/>
       </c>
@@ -4690,7 +4661,7 @@
       </c>
     </row>
     <row r="182" ht="14.25">
-      <c r="A182" s="9" t="str">
+      <c r="A182" s="8" t="str">
         <f>IF(ISBLANK(raw!A180),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A180))</f>
         <v/>
       </c>
@@ -4712,7 +4683,7 @@
       </c>
     </row>
     <row r="183" ht="14.25">
-      <c r="A183" s="9" t="str">
+      <c r="A183" s="8" t="str">
         <f>IF(ISBLANK(raw!A181),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A181))</f>
         <v/>
       </c>
@@ -4734,7 +4705,7 @@
       </c>
     </row>
     <row r="184" ht="14.25">
-      <c r="A184" s="9" t="str">
+      <c r="A184" s="8" t="str">
         <f>IF(ISBLANK(raw!A182),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A182))</f>
         <v/>
       </c>
@@ -4756,7 +4727,7 @@
       </c>
     </row>
     <row r="185" ht="14.25">
-      <c r="A185" s="9" t="str">
+      <c r="A185" s="8" t="str">
         <f>IF(ISBLANK(raw!A183),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A183))</f>
         <v/>
       </c>
@@ -4778,7 +4749,7 @@
       </c>
     </row>
     <row r="186" ht="14.25">
-      <c r="A186" s="9" t="str">
+      <c r="A186" s="8" t="str">
         <f>IF(ISBLANK(raw!A184),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A184))</f>
         <v/>
       </c>
@@ -4800,7 +4771,7 @@
       </c>
     </row>
     <row r="187" ht="14.25">
-      <c r="A187" s="9" t="str">
+      <c r="A187" s="8" t="str">
         <f>IF(ISBLANK(raw!A185),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A185))</f>
         <v/>
       </c>
@@ -4822,7 +4793,7 @@
       </c>
     </row>
     <row r="188" ht="14.25">
-      <c r="A188" s="9" t="str">
+      <c r="A188" s="8" t="str">
         <f>IF(ISBLANK(raw!A186),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A186))</f>
         <v/>
       </c>
@@ -4844,7 +4815,7 @@
       </c>
     </row>
     <row r="189" ht="14.25">
-      <c r="A189" s="9" t="str">
+      <c r="A189" s="8" t="str">
         <f>IF(ISBLANK(raw!A187),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A187))</f>
         <v/>
       </c>
@@ -4866,7 +4837,7 @@
       </c>
     </row>
     <row r="190" ht="14.25">
-      <c r="A190" s="9" t="str">
+      <c r="A190" s="8" t="str">
         <f>IF(ISBLANK(raw!A188),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A188))</f>
         <v/>
       </c>
@@ -4888,7 +4859,7 @@
       </c>
     </row>
     <row r="191" ht="14.25">
-      <c r="A191" s="9" t="str">
+      <c r="A191" s="8" t="str">
         <f>IF(ISBLANK(raw!A189),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A189))</f>
         <v/>
       </c>
@@ -4910,7 +4881,7 @@
       </c>
     </row>
     <row r="192" ht="14.25">
-      <c r="A192" s="9" t="str">
+      <c r="A192" s="8" t="str">
         <f>IF(ISBLANK(raw!A190),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A190))</f>
         <v/>
       </c>
@@ -4932,7 +4903,7 @@
       </c>
     </row>
     <row r="193" ht="14.25">
-      <c r="A193" s="9" t="str">
+      <c r="A193" s="8" t="str">
         <f>IF(ISBLANK(raw!A191),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A191))</f>
         <v/>
       </c>
@@ -4954,7 +4925,7 @@
       </c>
     </row>
     <row r="194" ht="14.25">
-      <c r="A194" s="9" t="str">
+      <c r="A194" s="8" t="str">
         <f>IF(ISBLANK(raw!A192),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A192))</f>
         <v/>
       </c>
@@ -4976,7 +4947,7 @@
       </c>
     </row>
     <row r="195" ht="14.25">
-      <c r="A195" s="9" t="str">
+      <c r="A195" s="8" t="str">
         <f>IF(ISBLANK(raw!A193),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A193))</f>
         <v/>
       </c>
@@ -4998,7 +4969,7 @@
       </c>
     </row>
     <row r="196" ht="14.25">
-      <c r="A196" s="9" t="str">
+      <c r="A196" s="8" t="str">
         <f>IF(ISBLANK(raw!A194),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A194))</f>
         <v/>
       </c>
@@ -5020,7 +4991,7 @@
       </c>
     </row>
     <row r="197" ht="14.25">
-      <c r="A197" s="9" t="str">
+      <c r="A197" s="8" t="str">
         <f>IF(ISBLANK(raw!A195),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A195))</f>
         <v/>
       </c>
@@ -5042,7 +5013,7 @@
       </c>
     </row>
     <row r="198" ht="14.25">
-      <c r="A198" s="9" t="str">
+      <c r="A198" s="8" t="str">
         <f>IF(ISBLANK(raw!A196),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A196))</f>
         <v/>
       </c>
@@ -5064,7 +5035,7 @@
       </c>
     </row>
     <row r="199" ht="14.25">
-      <c r="A199" s="9" t="str">
+      <c r="A199" s="8" t="str">
         <f>IF(ISBLANK(raw!A197),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A197))</f>
         <v/>
       </c>
@@ -5086,7 +5057,7 @@
       </c>
     </row>
     <row r="200" ht="14.25">
-      <c r="A200" s="9" t="str">
+      <c r="A200" s="8" t="str">
         <f>IF(ISBLANK(raw!A198),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A198))</f>
         <v/>
       </c>
@@ -5108,7 +5079,7 @@
       </c>
     </row>
     <row r="201" ht="14.25">
-      <c r="A201" s="9" t="str">
+      <c r="A201" s="8" t="str">
         <f>IF(ISBLANK(raw!A199),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A199))</f>
         <v/>
       </c>
@@ -5130,7 +5101,7 @@
       </c>
     </row>
     <row r="202" ht="14.25">
-      <c r="A202" s="9" t="str">
+      <c r="A202" s="8" t="str">
         <f>IF(ISBLANK(raw!A200),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A200))</f>
         <v/>
       </c>
@@ -5152,7 +5123,7 @@
       </c>
     </row>
     <row r="203" ht="14.25">
-      <c r="A203" s="9" t="str">
+      <c r="A203" s="8" t="str">
         <f>IF(ISBLANK(raw!A201),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A201))</f>
         <v/>
       </c>
@@ -5174,7 +5145,7 @@
       </c>
     </row>
     <row r="204" ht="14.25">
-      <c r="A204" s="9" t="str">
+      <c r="A204" s="8" t="str">
         <f>IF(ISBLANK(raw!A202),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A202))</f>
         <v/>
       </c>
@@ -5196,7 +5167,7 @@
       </c>
     </row>
     <row r="205" ht="14.25">
-      <c r="A205" s="9" t="str">
+      <c r="A205" s="8" t="str">
         <f>IF(ISBLANK(raw!A203),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A203))</f>
         <v/>
       </c>
@@ -5218,7 +5189,7 @@
       </c>
     </row>
     <row r="206" ht="14.25">
-      <c r="A206" s="9" t="str">
+      <c r="A206" s="8" t="str">
         <f>IF(ISBLANK(raw!A204),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A204))</f>
         <v/>
       </c>
@@ -5240,7 +5211,7 @@
       </c>
     </row>
     <row r="207" ht="14.25">
-      <c r="A207" s="9" t="str">
+      <c r="A207" s="8" t="str">
         <f>IF(ISBLANK(raw!A205),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A205))</f>
         <v/>
       </c>
@@ -5262,7 +5233,7 @@
       </c>
     </row>
     <row r="208" ht="14.25">
-      <c r="A208" s="9" t="str">
+      <c r="A208" s="8" t="str">
         <f>IF(ISBLANK(raw!A206),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A206))</f>
         <v/>
       </c>
@@ -5284,7 +5255,7 @@
       </c>
     </row>
     <row r="209" ht="14.25">
-      <c r="A209" s="9" t="str">
+      <c r="A209" s="8" t="str">
         <f>IF(ISBLANK(raw!A207),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A207))</f>
         <v/>
       </c>
@@ -5306,7 +5277,7 @@
       </c>
     </row>
     <row r="210" ht="14.25">
-      <c r="A210" s="9" t="str">
+      <c r="A210" s="8" t="str">
         <f>IF(ISBLANK(raw!A208),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A208))</f>
         <v/>
       </c>
@@ -5328,7 +5299,7 @@
       </c>
     </row>
     <row r="211" ht="14.25">
-      <c r="A211" s="9" t="str">
+      <c r="A211" s="8" t="str">
         <f>IF(ISBLANK(raw!A209),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A209))</f>
         <v/>
       </c>
@@ -5350,7 +5321,7 @@
       </c>
     </row>
     <row r="212" ht="14.25">
-      <c r="A212" s="9" t="str">
+      <c r="A212" s="8" t="str">
         <f>IF(ISBLANK(raw!A210),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A210))</f>
         <v/>
       </c>
@@ -5372,7 +5343,7 @@
       </c>
     </row>
     <row r="213" ht="14.25">
-      <c r="A213" s="9" t="str">
+      <c r="A213" s="8" t="str">
         <f>IF(ISBLANK(raw!A211),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A211))</f>
         <v/>
       </c>
@@ -5394,7 +5365,7 @@
       </c>
     </row>
     <row r="214" ht="14.25">
-      <c r="A214" s="9" t="str">
+      <c r="A214" s="8" t="str">
         <f>IF(ISBLANK(raw!A212),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A212))</f>
         <v/>
       </c>
@@ -5416,7 +5387,7 @@
       </c>
     </row>
     <row r="215" ht="14.25">
-      <c r="A215" s="9" t="str">
+      <c r="A215" s="8" t="str">
         <f>IF(ISBLANK(raw!A213),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A213))</f>
         <v/>
       </c>
@@ -5438,7 +5409,7 @@
       </c>
     </row>
     <row r="216" ht="14.25">
-      <c r="A216" s="9" t="str">
+      <c r="A216" s="8" t="str">
         <f>IF(ISBLANK(raw!A214),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A214))</f>
         <v/>
       </c>
@@ -5460,7 +5431,7 @@
       </c>
     </row>
     <row r="217" ht="14.25">
-      <c r="A217" s="9" t="str">
+      <c r="A217" s="8" t="str">
         <f>IF(ISBLANK(raw!A215),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A215))</f>
         <v/>
       </c>
@@ -5482,7 +5453,7 @@
       </c>
     </row>
     <row r="218" ht="14.25">
-      <c r="A218" s="9" t="str">
+      <c r="A218" s="8" t="str">
         <f>IF(ISBLANK(raw!A216),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A216))</f>
         <v/>
       </c>
@@ -5504,7 +5475,7 @@
       </c>
     </row>
     <row r="219" ht="14.25">
-      <c r="A219" s="9" t="str">
+      <c r="A219" s="8" t="str">
         <f>IF(ISBLANK(raw!A217),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A217))</f>
         <v/>
       </c>
@@ -5526,7 +5497,7 @@
       </c>
     </row>
     <row r="220" ht="14.25">
-      <c r="A220" s="9" t="str">
+      <c r="A220" s="8" t="str">
         <f>IF(ISBLANK(raw!A218),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A218))</f>
         <v/>
       </c>
@@ -5548,7 +5519,7 @@
       </c>
     </row>
     <row r="221" ht="14.25">
-      <c r="A221" s="9" t="str">
+      <c r="A221" s="8" t="str">
         <f>IF(ISBLANK(raw!A219),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A219))</f>
         <v/>
       </c>
@@ -5570,7 +5541,7 @@
       </c>
     </row>
     <row r="222" ht="14.25">
-      <c r="A222" s="9" t="str">
+      <c r="A222" s="8" t="str">
         <f>IF(ISBLANK(raw!A220),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A220))</f>
         <v/>
       </c>
@@ -5592,7 +5563,7 @@
       </c>
     </row>
     <row r="223" ht="14.25">
-      <c r="A223" s="9" t="str">
+      <c r="A223" s="8" t="str">
         <f>IF(ISBLANK(raw!A221),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A221))</f>
         <v/>
       </c>
@@ -5614,7 +5585,7 @@
       </c>
     </row>
     <row r="224" ht="14.25">
-      <c r="A224" s="9" t="str">
+      <c r="A224" s="8" t="str">
         <f>IF(ISBLANK(raw!A222),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A222))</f>
         <v/>
       </c>
@@ -5636,7 +5607,7 @@
       </c>
     </row>
     <row r="225" ht="14.25">
-      <c r="A225" s="9" t="str">
+      <c r="A225" s="8" t="str">
         <f>IF(ISBLANK(raw!A223),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A223))</f>
         <v/>
       </c>
@@ -5658,7 +5629,7 @@
       </c>
     </row>
     <row r="226" ht="14.25">
-      <c r="A226" s="9" t="str">
+      <c r="A226" s="8" t="str">
         <f>IF(ISBLANK(raw!A224),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A224))</f>
         <v/>
       </c>
@@ -5680,7 +5651,7 @@
       </c>
     </row>
     <row r="227" ht="14.25">
-      <c r="A227" s="9" t="str">
+      <c r="A227" s="8" t="str">
         <f>IF(ISBLANK(raw!A225),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A225))</f>
         <v/>
       </c>
@@ -5702,7 +5673,7 @@
       </c>
     </row>
     <row r="228" ht="14.25">
-      <c r="A228" s="9" t="str">
+      <c r="A228" s="8" t="str">
         <f>IF(ISBLANK(raw!A226),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A226))</f>
         <v/>
       </c>
@@ -5724,7 +5695,7 @@
       </c>
     </row>
     <row r="229" ht="14.25">
-      <c r="A229" s="9" t="str">
+      <c r="A229" s="8" t="str">
         <f>IF(ISBLANK(raw!A227),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A227))</f>
         <v/>
       </c>
@@ -5746,7 +5717,7 @@
       </c>
     </row>
     <row r="230" ht="14.25">
-      <c r="A230" s="9" t="str">
+      <c r="A230" s="8" t="str">
         <f>IF(ISBLANK(raw!A228),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A228))</f>
         <v/>
       </c>
@@ -5768,7 +5739,7 @@
       </c>
     </row>
     <row r="231" ht="14.25">
-      <c r="A231" s="9" t="str">
+      <c r="A231" s="8" t="str">
         <f>IF(ISBLANK(raw!A229),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A229))</f>
         <v/>
       </c>
@@ -5790,7 +5761,7 @@
       </c>
     </row>
     <row r="232" ht="14.25">
-      <c r="A232" s="9" t="str">
+      <c r="A232" s="8" t="str">
         <f>IF(ISBLANK(raw!A230),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A230))</f>
         <v/>
       </c>
@@ -5812,7 +5783,7 @@
       </c>
     </row>
     <row r="233" ht="14.25">
-      <c r="A233" s="9" t="str">
+      <c r="A233" s="8" t="str">
         <f>IF(ISBLANK(raw!A231),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A231))</f>
         <v/>
       </c>
@@ -5834,7 +5805,7 @@
       </c>
     </row>
     <row r="234" ht="14.25">
-      <c r="A234" s="9" t="str">
+      <c r="A234" s="8" t="str">
         <f>IF(ISBLANK(raw!A232),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A232))</f>
         <v/>
       </c>
@@ -5856,7 +5827,7 @@
       </c>
     </row>
     <row r="235" ht="14.25">
-      <c r="A235" s="9" t="str">
+      <c r="A235" s="8" t="str">
         <f>IF(ISBLANK(raw!A233),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A233))</f>
         <v/>
       </c>
@@ -5878,7 +5849,7 @@
       </c>
     </row>
     <row r="236" ht="14.25">
-      <c r="A236" s="9" t="str">
+      <c r="A236" s="8" t="str">
         <f>IF(ISBLANK(raw!A234),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A234))</f>
         <v/>
       </c>
@@ -5900,7 +5871,7 @@
       </c>
     </row>
     <row r="237" ht="14.25">
-      <c r="A237" s="9" t="str">
+      <c r="A237" s="8" t="str">
         <f>IF(ISBLANK(raw!A235),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A235))</f>
         <v/>
       </c>
@@ -5922,7 +5893,7 @@
       </c>
     </row>
     <row r="238" ht="14.25">
-      <c r="A238" s="9" t="str">
+      <c r="A238" s="8" t="str">
         <f>IF(ISBLANK(raw!A236),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A236))</f>
         <v/>
       </c>
@@ -5944,7 +5915,7 @@
       </c>
     </row>
     <row r="239" ht="14.25">
-      <c r="A239" s="9" t="str">
+      <c r="A239" s="8" t="str">
         <f>IF(ISBLANK(raw!A237),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A237))</f>
         <v/>
       </c>
@@ -5966,7 +5937,7 @@
       </c>
     </row>
     <row r="240" ht="14.25">
-      <c r="A240" s="9" t="str">
+      <c r="A240" s="8" t="str">
         <f>IF(ISBLANK(raw!A238),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A238))</f>
         <v/>
       </c>
@@ -5988,7 +5959,7 @@
       </c>
     </row>
     <row r="241" ht="14.25">
-      <c r="A241" s="9" t="str">
+      <c r="A241" s="8" t="str">
         <f>IF(ISBLANK(raw!A239),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A239))</f>
         <v/>
       </c>
@@ -6010,7 +5981,7 @@
       </c>
     </row>
     <row r="242" ht="14.25">
-      <c r="A242" s="9" t="str">
+      <c r="A242" s="8" t="str">
         <f>IF(ISBLANK(raw!A240),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A240))</f>
         <v/>
       </c>
@@ -6032,7 +6003,7 @@
       </c>
     </row>
     <row r="243" ht="14.25">
-      <c r="A243" s="9" t="str">
+      <c r="A243" s="8" t="str">
         <f>IF(ISBLANK(raw!A241),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A241))</f>
         <v/>
       </c>
@@ -6054,7 +6025,7 @@
       </c>
     </row>
     <row r="244" ht="14.25">
-      <c r="A244" s="9" t="str">
+      <c r="A244" s="8" t="str">
         <f>IF(ISBLANK(raw!A242),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A242))</f>
         <v/>
       </c>
@@ -6076,7 +6047,7 @@
       </c>
     </row>
     <row r="245" ht="14.25">
-      <c r="A245" s="9" t="str">
+      <c r="A245" s="8" t="str">
         <f>IF(ISBLANK(raw!A243),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A243))</f>
         <v/>
       </c>
@@ -6098,7 +6069,7 @@
       </c>
     </row>
     <row r="246" ht="14.25">
-      <c r="A246" s="9" t="str">
+      <c r="A246" s="8" t="str">
         <f>IF(ISBLANK(raw!A244),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A244))</f>
         <v/>
       </c>
@@ -6120,7 +6091,7 @@
       </c>
     </row>
     <row r="247" ht="14.25">
-      <c r="A247" s="9" t="str">
+      <c r="A247" s="8" t="str">
         <f>IF(ISBLANK(raw!A245),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A245))</f>
         <v/>
       </c>
@@ -6142,7 +6113,7 @@
       </c>
     </row>
     <row r="248" ht="14.25">
-      <c r="A248" s="9" t="str">
+      <c r="A248" s="8" t="str">
         <f>IF(ISBLANK(raw!A246),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A246))</f>
         <v/>
       </c>
@@ -6164,7 +6135,7 @@
       </c>
     </row>
     <row r="249" ht="14.25">
-      <c r="A249" s="9" t="str">
+      <c r="A249" s="8" t="str">
         <f>IF(ISBLANK(raw!A247),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A247))</f>
         <v/>
       </c>
@@ -6186,7 +6157,7 @@
       </c>
     </row>
     <row r="250" ht="14.25">
-      <c r="A250" s="9" t="str">
+      <c r="A250" s="8" t="str">
         <f>IF(ISBLANK(raw!A248),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A248))</f>
         <v/>
       </c>
@@ -6208,7 +6179,7 @@
       </c>
     </row>
     <row r="251" ht="14.25">
-      <c r="A251" s="9" t="str">
+      <c r="A251" s="8" t="str">
         <f>IF(ISBLANK(raw!A249),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A249))</f>
         <v/>
       </c>
@@ -6230,7 +6201,7 @@
       </c>
     </row>
     <row r="252" ht="14.25">
-      <c r="A252" s="9" t="str">
+      <c r="A252" s="8" t="str">
         <f>IF(ISBLANK(raw!A250),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A250))</f>
         <v/>
       </c>
@@ -6252,7 +6223,7 @@
       </c>
     </row>
     <row r="253" ht="14.25">
-      <c r="A253" s="9" t="str">
+      <c r="A253" s="8" t="str">
         <f>IF(ISBLANK(raw!A251),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A251))</f>
         <v/>
       </c>
@@ -6274,7 +6245,7 @@
       </c>
     </row>
     <row r="254" ht="14.25">
-      <c r="A254" s="9" t="str">
+      <c r="A254" s="8" t="str">
         <f>IF(ISBLANK(raw!A252),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A252))</f>
         <v/>
       </c>
@@ -6296,7 +6267,7 @@
       </c>
     </row>
     <row r="255" ht="14.25">
-      <c r="A255" s="9" t="str">
+      <c r="A255" s="8" t="str">
         <f>IF(ISBLANK(raw!A253),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A253))</f>
         <v/>
       </c>
@@ -6318,7 +6289,7 @@
       </c>
     </row>
     <row r="256" ht="14.25">
-      <c r="A256" s="9" t="str">
+      <c r="A256" s="8" t="str">
         <f>IF(ISBLANK(raw!A254),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A254))</f>
         <v/>
       </c>
@@ -6340,7 +6311,7 @@
       </c>
     </row>
     <row r="257" ht="14.25">
-      <c r="A257" s="9" t="str">
+      <c r="A257" s="8" t="str">
         <f>IF(ISBLANK(raw!A255),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A255))</f>
         <v/>
       </c>
@@ -6362,7 +6333,7 @@
       </c>
     </row>
     <row r="258" ht="14.25">
-      <c r="A258" s="9" t="str">
+      <c r="A258" s="8" t="str">
         <f>IF(ISBLANK(raw!A256),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A256))</f>
         <v/>
       </c>
@@ -6384,7 +6355,7 @@
       </c>
     </row>
     <row r="259" ht="14.25">
-      <c r="A259" s="9" t="str">
+      <c r="A259" s="8" t="str">
         <f>IF(ISBLANK(raw!A257),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A257))</f>
         <v/>
       </c>
@@ -6406,7 +6377,7 @@
       </c>
     </row>
     <row r="260" ht="14.25">
-      <c r="A260" s="9" t="str">
+      <c r="A260" s="8" t="str">
         <f>IF(ISBLANK(raw!A258),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A258))</f>
         <v/>
       </c>
@@ -6428,7 +6399,7 @@
       </c>
     </row>
     <row r="261" ht="14.25">
-      <c r="A261" s="9" t="str">
+      <c r="A261" s="8" t="str">
         <f>IF(ISBLANK(raw!A259),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A259))</f>
         <v/>
       </c>
@@ -6450,7 +6421,7 @@
       </c>
     </row>
     <row r="262" ht="14.25">
-      <c r="A262" s="9" t="str">
+      <c r="A262" s="8" t="str">
         <f>IF(ISBLANK(raw!A260),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A260))</f>
         <v/>
       </c>
@@ -6472,7 +6443,7 @@
       </c>
     </row>
     <row r="263" ht="14.25">
-      <c r="A263" s="9" t="str">
+      <c r="A263" s="8" t="str">
         <f>IF(ISBLANK(raw!A261),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A261))</f>
         <v/>
       </c>
@@ -6494,7 +6465,7 @@
       </c>
     </row>
     <row r="264" ht="14.25">
-      <c r="A264" s="9" t="str">
+      <c r="A264" s="8" t="str">
         <f>IF(ISBLANK(raw!A262),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A262))</f>
         <v/>
       </c>
@@ -6516,7 +6487,7 @@
       </c>
     </row>
     <row r="265" ht="14.25">
-      <c r="A265" s="9" t="str">
+      <c r="A265" s="8" t="str">
         <f>IF(ISBLANK(raw!A263),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A263))</f>
         <v/>
       </c>
@@ -6538,7 +6509,7 @@
       </c>
     </row>
     <row r="266" ht="14.25">
-      <c r="A266" s="9" t="str">
+      <c r="A266" s="8" t="str">
         <f>IF(ISBLANK(raw!A264),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A264))</f>
         <v/>
       </c>
@@ -6560,7 +6531,7 @@
       </c>
     </row>
     <row r="267" ht="14.25">
-      <c r="A267" s="9" t="str">
+      <c r="A267" s="8" t="str">
         <f>IF(ISBLANK(raw!A265),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A265))</f>
         <v/>
       </c>
@@ -6582,7 +6553,7 @@
       </c>
     </row>
     <row r="268" ht="14.25">
-      <c r="A268" s="9" t="str">
+      <c r="A268" s="8" t="str">
         <f>IF(ISBLANK(raw!A266),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A266))</f>
         <v/>
       </c>
@@ -6604,7 +6575,7 @@
       </c>
     </row>
     <row r="269" ht="14.25">
-      <c r="A269" s="9" t="str">
+      <c r="A269" s="8" t="str">
         <f>IF(ISBLANK(raw!A267),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A267))</f>
         <v/>
       </c>
@@ -6626,7 +6597,7 @@
       </c>
     </row>
     <row r="270" ht="14.25">
-      <c r="A270" s="9" t="str">
+      <c r="A270" s="8" t="str">
         <f>IF(ISBLANK(raw!A268),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A268))</f>
         <v/>
       </c>
@@ -6648,7 +6619,7 @@
       </c>
     </row>
     <row r="271" ht="14.25">
-      <c r="A271" s="9" t="str">
+      <c r="A271" s="8" t="str">
         <f>IF(ISBLANK(raw!A269),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A269))</f>
         <v/>
       </c>
@@ -6670,7 +6641,7 @@
       </c>
     </row>
     <row r="272" ht="14.25">
-      <c r="A272" s="9" t="str">
+      <c r="A272" s="8" t="str">
         <f>IF(ISBLANK(raw!A270),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A270))</f>
         <v/>
       </c>
@@ -6692,7 +6663,7 @@
       </c>
     </row>
     <row r="273" ht="14.25">
-      <c r="A273" s="9" t="str">
+      <c r="A273" s="8" t="str">
         <f>IF(ISBLANK(raw!A271),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A271))</f>
         <v/>
       </c>
@@ -6714,7 +6685,7 @@
       </c>
     </row>
     <row r="274" ht="14.25">
-      <c r="A274" s="9" t="str">
+      <c r="A274" s="8" t="str">
         <f>IF(ISBLANK(raw!A272),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A272))</f>
         <v/>
       </c>
@@ -6736,7 +6707,7 @@
       </c>
     </row>
     <row r="275" ht="14.25">
-      <c r="A275" s="9" t="str">
+      <c r="A275" s="8" t="str">
         <f>IF(ISBLANK(raw!A273),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A273))</f>
         <v/>
       </c>
@@ -6758,7 +6729,7 @@
       </c>
     </row>
     <row r="276" ht="14.25">
-      <c r="A276" s="9" t="str">
+      <c r="A276" s="8" t="str">
         <f>IF(ISBLANK(raw!A274),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A274))</f>
         <v/>
       </c>
@@ -6780,7 +6751,7 @@
       </c>
     </row>
     <row r="277" ht="14.25">
-      <c r="A277" s="9" t="str">
+      <c r="A277" s="8" t="str">
         <f>IF(ISBLANK(raw!A275),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A275))</f>
         <v/>
       </c>
@@ -6802,7 +6773,7 @@
       </c>
     </row>
     <row r="278" ht="14.25">
-      <c r="A278" s="9" t="str">
+      <c r="A278" s="8" t="str">
         <f>IF(ISBLANK(raw!A276),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A276))</f>
         <v/>
       </c>
@@ -6824,7 +6795,7 @@
       </c>
     </row>
     <row r="279" ht="14.25">
-      <c r="A279" s="9" t="str">
+      <c r="A279" s="8" t="str">
         <f>IF(ISBLANK(raw!A277),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A277))</f>
         <v/>
       </c>
@@ -6846,7 +6817,7 @@
       </c>
     </row>
     <row r="280" ht="14.25">
-      <c r="A280" s="9" t="str">
+      <c r="A280" s="8" t="str">
         <f>IF(ISBLANK(raw!A278),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A278))</f>
         <v/>
       </c>
@@ -6868,7 +6839,7 @@
       </c>
     </row>
     <row r="281" ht="14.25">
-      <c r="A281" s="9" t="str">
+      <c r="A281" s="8" t="str">
         <f>IF(ISBLANK(raw!A279),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A279))</f>
         <v/>
       </c>
@@ -6890,7 +6861,7 @@
       </c>
     </row>
     <row r="282" ht="14.25">
-      <c r="A282" s="9" t="str">
+      <c r="A282" s="8" t="str">
         <f>IF(ISBLANK(raw!A280),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A280))</f>
         <v/>
       </c>
@@ -6912,7 +6883,7 @@
       </c>
     </row>
     <row r="283" ht="14.25">
-      <c r="A283" s="9" t="str">
+      <c r="A283" s="8" t="str">
         <f>IF(ISBLANK(raw!A281),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A281))</f>
         <v/>
       </c>
@@ -6934,7 +6905,7 @@
       </c>
     </row>
     <row r="284" ht="14.25">
-      <c r="A284" s="9" t="str">
+      <c r="A284" s="8" t="str">
         <f>IF(ISBLANK(raw!A282),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A282))</f>
         <v/>
       </c>
@@ -6956,7 +6927,7 @@
       </c>
     </row>
     <row r="285" ht="14.25">
-      <c r="A285" s="9" t="str">
+      <c r="A285" s="8" t="str">
         <f>IF(ISBLANK(raw!A283),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A283))</f>
         <v/>
       </c>
@@ -6978,7 +6949,7 @@
       </c>
     </row>
     <row r="286" ht="14.25">
-      <c r="A286" s="9" t="str">
+      <c r="A286" s="8" t="str">
         <f>IF(ISBLANK(raw!A284),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A284))</f>
         <v/>
       </c>
@@ -7000,7 +6971,7 @@
       </c>
     </row>
     <row r="287" ht="14.25">
-      <c r="A287" s="9" t="str">
+      <c r="A287" s="8" t="str">
         <f>IF(ISBLANK(raw!A285),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A285))</f>
         <v/>
       </c>
@@ -7022,7 +6993,7 @@
       </c>
     </row>
     <row r="288" ht="14.25">
-      <c r="A288" s="9" t="str">
+      <c r="A288" s="8" t="str">
         <f>IF(ISBLANK(raw!A286),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A286))</f>
         <v/>
       </c>
@@ -7044,7 +7015,7 @@
       </c>
     </row>
     <row r="289" ht="14.25">
-      <c r="A289" s="9" t="str">
+      <c r="A289" s="8" t="str">
         <f>IF(ISBLANK(raw!A287),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A287))</f>
         <v/>
       </c>
@@ -7066,7 +7037,7 @@
       </c>
     </row>
     <row r="290" ht="14.25">
-      <c r="A290" s="9" t="str">
+      <c r="A290" s="8" t="str">
         <f>IF(ISBLANK(raw!A288),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A288))</f>
         <v/>
       </c>
@@ -7088,7 +7059,7 @@
       </c>
     </row>
     <row r="291" ht="14.25">
-      <c r="A291" s="9" t="str">
+      <c r="A291" s="8" t="str">
         <f>IF(ISBLANK(raw!A289),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A289))</f>
         <v/>
       </c>
@@ -7110,7 +7081,7 @@
       </c>
     </row>
     <row r="292" ht="14.25">
-      <c r="A292" s="9" t="str">
+      <c r="A292" s="8" t="str">
         <f>IF(ISBLANK(raw!A290),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A290))</f>
         <v/>
       </c>
@@ -7132,7 +7103,7 @@
       </c>
     </row>
     <row r="293" ht="14.25">
-      <c r="A293" s="9" t="str">
+      <c r="A293" s="8" t="str">
         <f>IF(ISBLANK(raw!A291),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A291))</f>
         <v/>
       </c>
@@ -7154,7 +7125,7 @@
       </c>
     </row>
     <row r="294" ht="14.25">
-      <c r="A294" s="9" t="str">
+      <c r="A294" s="8" t="str">
         <f>IF(ISBLANK(raw!A292),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A292))</f>
         <v/>
       </c>
@@ -7176,7 +7147,7 @@
       </c>
     </row>
     <row r="295" ht="14.25">
-      <c r="A295" s="9" t="str">
+      <c r="A295" s="8" t="str">
         <f>IF(ISBLANK(raw!A293),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A293))</f>
         <v/>
       </c>
@@ -7198,7 +7169,7 @@
       </c>
     </row>
     <row r="296" ht="14.25">
-      <c r="A296" s="9" t="str">
+      <c r="A296" s="8" t="str">
         <f>IF(ISBLANK(raw!A294),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A294))</f>
         <v/>
       </c>
@@ -7220,7 +7191,7 @@
       </c>
     </row>
     <row r="297" ht="14.25">
-      <c r="A297" s="9" t="str">
+      <c r="A297" s="8" t="str">
         <f>IF(ISBLANK(raw!A295),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A295))</f>
         <v/>
       </c>
@@ -7242,7 +7213,7 @@
       </c>
     </row>
     <row r="298" ht="14.25">
-      <c r="A298" s="9" t="str">
+      <c r="A298" s="8" t="str">
         <f>IF(ISBLANK(raw!A296),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A296))</f>
         <v/>
       </c>
@@ -7264,7 +7235,7 @@
       </c>
     </row>
     <row r="299" ht="14.25">
-      <c r="A299" s="9" t="str">
+      <c r="A299" s="8" t="str">
         <f>IF(ISBLANK(raw!A297),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A297))</f>
         <v/>
       </c>
@@ -7286,7 +7257,7 @@
       </c>
     </row>
     <row r="300" ht="14.25">
-      <c r="A300" s="9" t="str">
+      <c r="A300" s="8" t="str">
         <f>IF(ISBLANK(raw!A298),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A298))</f>
         <v/>
       </c>
@@ -7308,7 +7279,7 @@
       </c>
     </row>
     <row r="301" ht="14.25">
-      <c r="A301" s="9" t="str">
+      <c r="A301" s="8" t="str">
         <f>IF(ISBLANK(raw!A299),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A299))</f>
         <v/>
       </c>
@@ -7330,7 +7301,7 @@
       </c>
     </row>
     <row r="302" ht="14.25">
-      <c r="A302" s="9" t="str">
+      <c r="A302" s="8" t="str">
         <f>IF(ISBLANK(raw!A300),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A300))</f>
         <v/>
       </c>
@@ -7352,7 +7323,7 @@
       </c>
     </row>
     <row r="303" ht="14.25">
-      <c r="A303" s="9" t="str">
+      <c r="A303" s="8" t="str">
         <f>IF(ISBLANK(raw!A301),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A301))</f>
         <v/>
       </c>
@@ -7374,7 +7345,7 @@
       </c>
     </row>
     <row r="304" ht="14.25">
-      <c r="A304" s="9" t="str">
+      <c r="A304" s="8" t="str">
         <f>IF(ISBLANK(raw!A302),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A302))</f>
         <v/>
       </c>
@@ -7396,7 +7367,7 @@
       </c>
     </row>
     <row r="305" ht="14.25">
-      <c r="A305" s="9" t="str">
+      <c r="A305" s="8" t="str">
         <f>IF(ISBLANK(raw!A303),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A303))</f>
         <v/>
       </c>
@@ -7418,7 +7389,7 @@
       </c>
     </row>
     <row r="306" ht="14.25">
-      <c r="A306" s="9" t="str">
+      <c r="A306" s="8" t="str">
         <f>IF(ISBLANK(raw!A304),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A304))</f>
         <v/>
       </c>
@@ -7440,7 +7411,7 @@
       </c>
     </row>
     <row r="307" ht="14.25">
-      <c r="A307" s="9" t="str">
+      <c r="A307" s="8" t="str">
         <f>IF(ISBLANK(raw!A305),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A305))</f>
         <v/>
       </c>
@@ -7462,7 +7433,7 @@
       </c>
     </row>
     <row r="308" ht="14.25">
-      <c r="A308" s="9" t="str">
+      <c r="A308" s="8" t="str">
         <f>IF(ISBLANK(raw!A306),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A306))</f>
         <v/>
       </c>
@@ -7484,7 +7455,7 @@
       </c>
     </row>
     <row r="309" ht="14.25">
-      <c r="A309" s="9" t="str">
+      <c r="A309" s="8" t="str">
         <f>IF(ISBLANK(raw!A307),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A307))</f>
         <v/>
       </c>
@@ -7506,7 +7477,7 @@
       </c>
     </row>
     <row r="310" ht="14.25">
-      <c r="A310" s="9" t="str">
+      <c r="A310" s="8" t="str">
         <f>IF(ISBLANK(raw!A308),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A308))</f>
         <v/>
       </c>
@@ -7528,7 +7499,7 @@
       </c>
     </row>
     <row r="311" ht="14.25">
-      <c r="A311" s="9" t="str">
+      <c r="A311" s="8" t="str">
         <f>IF(ISBLANK(raw!A309),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A309))</f>
         <v/>
       </c>
@@ -7550,7 +7521,7 @@
       </c>
     </row>
     <row r="312" ht="14.25">
-      <c r="A312" s="9" t="str">
+      <c r="A312" s="8" t="str">
         <f>IF(ISBLANK(raw!A310),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A310))</f>
         <v/>
       </c>
@@ -7572,7 +7543,7 @@
       </c>
     </row>
     <row r="313" ht="14.25">
-      <c r="A313" s="9" t="str">
+      <c r="A313" s="8" t="str">
         <f>IF(ISBLANK(raw!A311),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A311))</f>
         <v/>
       </c>
@@ -7594,7 +7565,7 @@
       </c>
     </row>
     <row r="314" ht="14.25">
-      <c r="A314" s="9" t="str">
+      <c r="A314" s="8" t="str">
         <f>IF(ISBLANK(raw!A312),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A312))</f>
         <v/>
       </c>
@@ -7616,7 +7587,7 @@
       </c>
     </row>
     <row r="315" ht="14.25">
-      <c r="A315" s="9" t="str">
+      <c r="A315" s="8" t="str">
         <f>IF(ISBLANK(raw!A313),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A313))</f>
         <v/>
       </c>
@@ -7638,7 +7609,7 @@
       </c>
     </row>
     <row r="316" ht="14.25">
-      <c r="A316" s="9" t="str">
+      <c r="A316" s="8" t="str">
         <f>IF(ISBLANK(raw!A314),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A314))</f>
         <v/>
       </c>
@@ -7660,7 +7631,7 @@
       </c>
     </row>
     <row r="317" ht="14.25">
-      <c r="A317" s="9" t="str">
+      <c r="A317" s="8" t="str">
         <f>IF(ISBLANK(raw!A315),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A315))</f>
         <v/>
       </c>
@@ -7682,7 +7653,7 @@
       </c>
     </row>
     <row r="318" ht="14.25">
-      <c r="A318" s="9" t="str">
+      <c r="A318" s="8" t="str">
         <f>IF(ISBLANK(raw!A316),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A316))</f>
         <v/>
       </c>
@@ -7704,7 +7675,7 @@
       </c>
     </row>
     <row r="319" ht="14.25">
-      <c r="A319" s="9" t="str">
+      <c r="A319" s="8" t="str">
         <f>IF(ISBLANK(raw!A317),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A317))</f>
         <v/>
       </c>
@@ -7726,7 +7697,7 @@
       </c>
     </row>
     <row r="320" ht="14.25">
-      <c r="A320" s="9" t="str">
+      <c r="A320" s="8" t="str">
         <f>IF(ISBLANK(raw!A318),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A318))</f>
         <v/>
       </c>
@@ -7748,7 +7719,7 @@
       </c>
     </row>
     <row r="321" ht="14.25">
-      <c r="A321" s="9" t="str">
+      <c r="A321" s="8" t="str">
         <f>IF(ISBLANK(raw!A319),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A319))</f>
         <v/>
       </c>
@@ -7770,7 +7741,7 @@
       </c>
     </row>
     <row r="322" ht="14.25">
-      <c r="A322" s="9" t="str">
+      <c r="A322" s="8" t="str">
         <f>IF(ISBLANK(raw!A320),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A320))</f>
         <v/>
       </c>
@@ -7792,7 +7763,7 @@
       </c>
     </row>
     <row r="323" ht="14.25">
-      <c r="A323" s="9" t="str">
+      <c r="A323" s="8" t="str">
         <f>IF(ISBLANK(raw!A321),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A321))</f>
         <v/>
       </c>
@@ -7814,7 +7785,7 @@
       </c>
     </row>
     <row r="324" ht="14.25">
-      <c r="A324" s="9" t="str">
+      <c r="A324" s="8" t="str">
         <f>IF(ISBLANK(raw!A322),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A322))</f>
         <v/>
       </c>
@@ -7836,7 +7807,7 @@
       </c>
     </row>
     <row r="325" ht="14.25">
-      <c r="A325" s="9" t="str">
+      <c r="A325" s="8" t="str">
         <f>IF(ISBLANK(raw!A323),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A323))</f>
         <v/>
       </c>
@@ -7858,7 +7829,7 @@
       </c>
     </row>
     <row r="326" ht="14.25">
-      <c r="A326" s="9" t="str">
+      <c r="A326" s="8" t="str">
         <f>IF(ISBLANK(raw!A324),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A324))</f>
         <v/>
       </c>
@@ -7880,7 +7851,7 @@
       </c>
     </row>
     <row r="327" ht="14.25">
-      <c r="A327" s="9" t="str">
+      <c r="A327" s="8" t="str">
         <f>IF(ISBLANK(raw!A325),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A325))</f>
         <v/>
       </c>
@@ -7902,7 +7873,7 @@
       </c>
     </row>
     <row r="328" ht="14.25">
-      <c r="A328" s="9" t="str">
+      <c r="A328" s="8" t="str">
         <f>IF(ISBLANK(raw!A326),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A326))</f>
         <v/>
       </c>
@@ -7924,7 +7895,7 @@
       </c>
     </row>
     <row r="329" ht="14.25">
-      <c r="A329" s="9" t="str">
+      <c r="A329" s="8" t="str">
         <f>IF(ISBLANK(raw!A327),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A327))</f>
         <v/>
       </c>
@@ -7946,7 +7917,7 @@
       </c>
     </row>
     <row r="330" ht="14.25">
-      <c r="A330" s="9" t="str">
+      <c r="A330" s="8" t="str">
         <f>IF(ISBLANK(raw!A328),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A328))</f>
         <v/>
       </c>
@@ -7968,7 +7939,7 @@
       </c>
     </row>
     <row r="331" ht="14.25">
-      <c r="A331" s="9" t="str">
+      <c r="A331" s="8" t="str">
         <f>IF(ISBLANK(raw!A329),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A329))</f>
         <v/>
       </c>
@@ -7990,7 +7961,7 @@
       </c>
     </row>
     <row r="332" ht="14.25">
-      <c r="A332" s="9" t="str">
+      <c r="A332" s="8" t="str">
         <f>IF(ISBLANK(raw!A330),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A330))</f>
         <v/>
       </c>
@@ -8012,7 +7983,7 @@
       </c>
     </row>
     <row r="333" ht="14.25">
-      <c r="A333" s="9" t="str">
+      <c r="A333" s="8" t="str">
         <f>IF(ISBLANK(raw!A331),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A331))</f>
         <v/>
       </c>
@@ -8034,7 +8005,7 @@
       </c>
     </row>
     <row r="334" ht="14.25">
-      <c r="A334" s="9" t="str">
+      <c r="A334" s="8" t="str">
         <f>IF(ISBLANK(raw!A332),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A332))</f>
         <v/>
       </c>
@@ -8056,7 +8027,7 @@
       </c>
     </row>
     <row r="335" ht="14.25">
-      <c r="A335" s="9" t="str">
+      <c r="A335" s="8" t="str">
         <f>IF(ISBLANK(raw!A333),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A333))</f>
         <v/>
       </c>
@@ -8078,7 +8049,7 @@
       </c>
     </row>
     <row r="336" ht="14.25">
-      <c r="A336" s="9" t="str">
+      <c r="A336" s="8" t="str">
         <f>IF(ISBLANK(raw!A334),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A334))</f>
         <v/>
       </c>
@@ -8100,7 +8071,7 @@
       </c>
     </row>
     <row r="337" ht="14.25">
-      <c r="A337" s="9" t="str">
+      <c r="A337" s="8" t="str">
         <f>IF(ISBLANK(raw!A335),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A335))</f>
         <v/>
       </c>
@@ -8122,7 +8093,7 @@
       </c>
     </row>
     <row r="338" ht="14.25">
-      <c r="A338" s="9" t="str">
+      <c r="A338" s="8" t="str">
         <f>IF(ISBLANK(raw!A336),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A336))</f>
         <v/>
       </c>
@@ -8144,7 +8115,7 @@
       </c>
     </row>
     <row r="339" ht="14.25">
-      <c r="A339" s="9" t="str">
+      <c r="A339" s="8" t="str">
         <f>IF(ISBLANK(raw!A337),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A337))</f>
         <v/>
       </c>
@@ -8166,7 +8137,7 @@
       </c>
     </row>
     <row r="340" ht="14.25">
-      <c r="A340" s="9" t="str">
+      <c r="A340" s="8" t="str">
         <f>IF(ISBLANK(raw!A338),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A338))</f>
         <v/>
       </c>
@@ -8188,7 +8159,7 @@
       </c>
     </row>
     <row r="341" ht="14.25">
-      <c r="A341" s="9" t="str">
+      <c r="A341" s="8" t="str">
         <f>IF(ISBLANK(raw!A339),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A339))</f>
         <v/>
       </c>
@@ -8210,7 +8181,7 @@
       </c>
     </row>
     <row r="342" ht="14.25">
-      <c r="A342" s="9" t="str">
+      <c r="A342" s="8" t="str">
         <f>IF(ISBLANK(raw!A340),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A340))</f>
         <v/>
       </c>
@@ -8232,7 +8203,7 @@
       </c>
     </row>
     <row r="343" ht="14.25">
-      <c r="A343" s="9" t="str">
+      <c r="A343" s="8" t="str">
         <f>IF(ISBLANK(raw!A341),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A341))</f>
         <v/>
       </c>
@@ -8254,7 +8225,7 @@
       </c>
     </row>
     <row r="344" ht="14.25">
-      <c r="A344" s="9" t="str">
+      <c r="A344" s="8" t="str">
         <f>IF(ISBLANK(raw!A342),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A342))</f>
         <v/>
       </c>
@@ -8276,7 +8247,7 @@
       </c>
     </row>
     <row r="345" ht="14.25">
-      <c r="A345" s="9" t="str">
+      <c r="A345" s="8" t="str">
         <f>IF(ISBLANK(raw!A343),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A343))</f>
         <v/>
       </c>
@@ -8298,7 +8269,7 @@
       </c>
     </row>
     <row r="346" ht="14.25">
-      <c r="A346" s="9" t="str">
+      <c r="A346" s="8" t="str">
         <f>IF(ISBLANK(raw!A344),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A344))</f>
         <v/>
       </c>
@@ -8320,7 +8291,7 @@
       </c>
     </row>
     <row r="347" ht="14.25">
-      <c r="A347" s="9" t="str">
+      <c r="A347" s="8" t="str">
         <f>IF(ISBLANK(raw!A345),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A345))</f>
         <v/>
       </c>
@@ -8342,7 +8313,7 @@
       </c>
     </row>
     <row r="348" ht="14.25">
-      <c r="A348" s="9" t="str">
+      <c r="A348" s="8" t="str">
         <f>IF(ISBLANK(raw!A346),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A346))</f>
         <v/>
       </c>
@@ -8364,7 +8335,7 @@
       </c>
     </row>
     <row r="349" ht="14.25">
-      <c r="A349" s="9" t="str">
+      <c r="A349" s="8" t="str">
         <f>IF(ISBLANK(raw!A347),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A347))</f>
         <v/>
       </c>
@@ -8386,7 +8357,7 @@
       </c>
     </row>
     <row r="350" ht="14.25">
-      <c r="A350" s="9" t="str">
+      <c r="A350" s="8" t="str">
         <f>IF(ISBLANK(raw!A348),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A348))</f>
         <v/>
       </c>
@@ -8408,7 +8379,7 @@
       </c>
     </row>
     <row r="351" ht="14.25">
-      <c r="A351" s="9" t="str">
+      <c r="A351" s="8" t="str">
         <f>IF(ISBLANK(raw!A349),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A349))</f>
         <v/>
       </c>
@@ -8430,7 +8401,7 @@
       </c>
     </row>
     <row r="352" ht="14.25">
-      <c r="A352" s="9" t="str">
+      <c r="A352" s="8" t="str">
         <f>IF(ISBLANK(raw!A350),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A350))</f>
         <v/>
       </c>
@@ -8452,7 +8423,7 @@
       </c>
     </row>
     <row r="353" ht="14.25">
-      <c r="A353" s="9" t="str">
+      <c r="A353" s="8" t="str">
         <f>IF(ISBLANK(raw!A351),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A351))</f>
         <v/>
       </c>
@@ -8474,7 +8445,7 @@
       </c>
     </row>
     <row r="354" ht="14.25">
-      <c r="A354" s="9" t="str">
+      <c r="A354" s="8" t="str">
         <f>IF(ISBLANK(raw!A352),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A352))</f>
         <v/>
       </c>
@@ -8496,7 +8467,7 @@
       </c>
     </row>
     <row r="355" ht="14.25">
-      <c r="A355" s="9" t="str">
+      <c r="A355" s="8" t="str">
         <f>IF(ISBLANK(raw!A353),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A353))</f>
         <v/>
       </c>
@@ -8518,7 +8489,7 @@
       </c>
     </row>
     <row r="356" ht="14.25">
-      <c r="A356" s="9" t="str">
+      <c r="A356" s="8" t="str">
         <f>IF(ISBLANK(raw!A354),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A354))</f>
         <v/>
       </c>
@@ -8540,7 +8511,7 @@
       </c>
     </row>
     <row r="357" ht="14.25">
-      <c r="A357" s="9" t="str">
+      <c r="A357" s="8" t="str">
         <f>IF(ISBLANK(raw!A355),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A355))</f>
         <v/>
       </c>
@@ -8562,7 +8533,7 @@
       </c>
     </row>
     <row r="358" ht="14.25">
-      <c r="A358" s="9" t="str">
+      <c r="A358" s="8" t="str">
         <f>IF(ISBLANK(raw!A356),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A356))</f>
         <v/>
       </c>
@@ -8584,7 +8555,7 @@
       </c>
     </row>
     <row r="359" ht="14.25">
-      <c r="A359" s="9" t="str">
+      <c r="A359" s="8" t="str">
         <f>IF(ISBLANK(raw!A357),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A357))</f>
         <v/>
       </c>
@@ -8606,7 +8577,7 @@
       </c>
     </row>
     <row r="360" ht="14.25">
-      <c r="A360" s="9" t="str">
+      <c r="A360" s="8" t="str">
         <f>IF(ISBLANK(raw!A358),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A358))</f>
         <v/>
       </c>
@@ -8628,7 +8599,7 @@
       </c>
     </row>
     <row r="361" ht="14.25">
-      <c r="A361" s="9" t="str">
+      <c r="A361" s="8" t="str">
         <f>IF(ISBLANK(raw!A359),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A359))</f>
         <v/>
       </c>
@@ -8650,7 +8621,7 @@
       </c>
     </row>
     <row r="362" ht="14.25">
-      <c r="A362" s="9" t="str">
+      <c r="A362" s="8" t="str">
         <f>IF(ISBLANK(raw!A360),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A360))</f>
         <v/>
       </c>
@@ -8672,7 +8643,7 @@
       </c>
     </row>
     <row r="363" ht="14.25">
-      <c r="A363" s="9" t="str">
+      <c r="A363" s="8" t="str">
         <f>IF(ISBLANK(raw!A361),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A361))</f>
         <v/>
       </c>
@@ -8694,7 +8665,7 @@
       </c>
     </row>
     <row r="364" ht="14.25">
-      <c r="A364" s="9" t="str">
+      <c r="A364" s="8" t="str">
         <f>IF(ISBLANK(raw!A362),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A362))</f>
         <v/>
       </c>
@@ -8716,7 +8687,7 @@
       </c>
     </row>
     <row r="365" ht="14.25">
-      <c r="A365" s="9" t="str">
+      <c r="A365" s="8" t="str">
         <f>IF(ISBLANK(raw!A363),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A363))</f>
         <v/>
       </c>
@@ -8738,7 +8709,7 @@
       </c>
     </row>
     <row r="366" ht="14.25">
-      <c r="A366" s="9" t="str">
+      <c r="A366" s="8" t="str">
         <f>IF(ISBLANK(raw!A364),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A364))</f>
         <v/>
       </c>
@@ -8760,7 +8731,7 @@
       </c>
     </row>
     <row r="367" ht="14.25">
-      <c r="A367" s="9" t="str">
+      <c r="A367" s="8" t="str">
         <f>IF(ISBLANK(raw!A365),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A365))</f>
         <v/>
       </c>
@@ -8782,7 +8753,7 @@
       </c>
     </row>
     <row r="368" ht="14.25">
-      <c r="A368" s="9" t="str">
+      <c r="A368" s="8" t="str">
         <f>IF(ISBLANK(raw!A366),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A366))</f>
         <v/>
       </c>
@@ -8804,7 +8775,7 @@
       </c>
     </row>
     <row r="369" ht="14.25">
-      <c r="A369" s="9" t="str">
+      <c r="A369" s="8" t="str">
         <f>IF(ISBLANK(raw!A367),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A367))</f>
         <v/>
       </c>
@@ -8826,7 +8797,7 @@
       </c>
     </row>
     <row r="370" ht="14.25">
-      <c r="A370" s="9" t="str">
+      <c r="A370" s="8" t="str">
         <f>IF(ISBLANK(raw!A368),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A368))</f>
         <v/>
       </c>
@@ -8848,7 +8819,7 @@
       </c>
     </row>
     <row r="371" ht="14.25">
-      <c r="A371" s="9" t="str">
+      <c r="A371" s="8" t="str">
         <f>IF(ISBLANK(raw!A369),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A369))</f>
         <v/>
       </c>
@@ -8870,7 +8841,7 @@
       </c>
     </row>
     <row r="372" ht="14.25">
-      <c r="A372" s="9" t="str">
+      <c r="A372" s="8" t="str">
         <f>IF(ISBLANK(raw!A370),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A370))</f>
         <v/>
       </c>
@@ -8892,7 +8863,7 @@
       </c>
     </row>
     <row r="373" ht="14.25">
-      <c r="A373" s="9" t="str">
+      <c r="A373" s="8" t="str">
         <f>IF(ISBLANK(raw!A371),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A371))</f>
         <v/>
       </c>
@@ -8914,7 +8885,7 @@
       </c>
     </row>
     <row r="374" ht="14.25">
-      <c r="A374" s="9" t="str">
+      <c r="A374" s="8" t="str">
         <f>IF(ISBLANK(raw!A372),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A372))</f>
         <v/>
       </c>
@@ -8936,7 +8907,7 @@
       </c>
     </row>
     <row r="375" ht="14.25">
-      <c r="A375" s="9" t="str">
+      <c r="A375" s="8" t="str">
         <f>IF(ISBLANK(raw!A373),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A373))</f>
         <v/>
       </c>
@@ -8958,7 +8929,7 @@
       </c>
     </row>
     <row r="376" ht="14.25">
-      <c r="A376" s="9" t="str">
+      <c r="A376" s="8" t="str">
         <f>IF(ISBLANK(raw!A374),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A374))</f>
         <v/>
       </c>
@@ -8980,7 +8951,7 @@
       </c>
     </row>
     <row r="377" ht="14.25">
-      <c r="A377" s="9" t="str">
+      <c r="A377" s="8" t="str">
         <f>IF(ISBLANK(raw!A375),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A375))</f>
         <v/>
       </c>
@@ -9002,7 +8973,7 @@
       </c>
     </row>
     <row r="378" ht="14.25">
-      <c r="A378" s="9" t="str">
+      <c r="A378" s="8" t="str">
         <f>IF(ISBLANK(raw!A376),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A376))</f>
         <v/>
       </c>
@@ -9024,7 +8995,7 @@
       </c>
     </row>
     <row r="379" ht="14.25">
-      <c r="A379" s="9" t="str">
+      <c r="A379" s="8" t="str">
         <f>IF(ISBLANK(raw!A377),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A377))</f>
         <v/>
       </c>
@@ -9046,7 +9017,7 @@
       </c>
     </row>
     <row r="380" ht="14.25">
-      <c r="A380" s="9" t="str">
+      <c r="A380" s="8" t="str">
         <f>IF(ISBLANK(raw!A378),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A378))</f>
         <v/>
       </c>
@@ -9068,7 +9039,7 @@
       </c>
     </row>
     <row r="381" ht="14.25">
-      <c r="A381" s="9" t="str">
+      <c r="A381" s="8" t="str">
         <f>IF(ISBLANK(raw!A379),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A379))</f>
         <v/>
       </c>
@@ -9090,7 +9061,7 @@
       </c>
     </row>
     <row r="382" ht="14.25">
-      <c r="A382" s="9" t="str">
+      <c r="A382" s="8" t="str">
         <f>IF(ISBLANK(raw!A380),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A380))</f>
         <v/>
       </c>
@@ -9112,7 +9083,7 @@
       </c>
     </row>
     <row r="383" ht="14.25">
-      <c r="A383" s="9" t="str">
+      <c r="A383" s="8" t="str">
         <f>IF(ISBLANK(raw!A381),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A381))</f>
         <v/>
       </c>
@@ -9134,7 +9105,7 @@
       </c>
     </row>
     <row r="384" ht="14.25">
-      <c r="A384" s="9" t="str">
+      <c r="A384" s="8" t="str">
         <f>IF(ISBLANK(raw!A382),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A382))</f>
         <v/>
       </c>
@@ -9156,7 +9127,7 @@
       </c>
     </row>
     <row r="385" ht="14.25">
-      <c r="A385" s="9" t="str">
+      <c r="A385" s="8" t="str">
         <f>IF(ISBLANK(raw!A383),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A383))</f>
         <v/>
       </c>
@@ -9178,7 +9149,7 @@
       </c>
     </row>
     <row r="386" ht="14.25">
-      <c r="A386" s="9" t="str">
+      <c r="A386" s="8" t="str">
         <f>IF(ISBLANK(raw!A384),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A384))</f>
         <v/>
       </c>
@@ -9200,7 +9171,7 @@
       </c>
     </row>
     <row r="387" ht="14.25">
-      <c r="A387" s="9" t="str">
+      <c r="A387" s="8" t="str">
         <f>IF(ISBLANK(raw!A385),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A385))</f>
         <v/>
       </c>
@@ -9222,7 +9193,7 @@
       </c>
     </row>
     <row r="388" ht="14.25">
-      <c r="A388" s="9" t="str">
+      <c r="A388" s="8" t="str">
         <f>IF(ISBLANK(raw!A386),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A386))</f>
         <v/>
       </c>
@@ -9244,7 +9215,7 @@
       </c>
     </row>
     <row r="389" ht="14.25">
-      <c r="A389" s="9" t="str">
+      <c r="A389" s="8" t="str">
         <f>IF(ISBLANK(raw!A387),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A387))</f>
         <v/>
       </c>
@@ -9266,7 +9237,7 @@
       </c>
     </row>
     <row r="390" ht="14.25">
-      <c r="A390" s="9" t="str">
+      <c r="A390" s="8" t="str">
         <f>IF(ISBLANK(raw!A388),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A388))</f>
         <v/>
       </c>
@@ -9288,7 +9259,7 @@
       </c>
     </row>
     <row r="391" ht="14.25">
-      <c r="A391" s="9" t="str">
+      <c r="A391" s="8" t="str">
         <f>IF(ISBLANK(raw!A389),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A389))</f>
         <v/>
       </c>
@@ -9310,7 +9281,7 @@
       </c>
     </row>
     <row r="392" ht="14.25">
-      <c r="A392" s="9" t="str">
+      <c r="A392" s="8" t="str">
         <f>IF(ISBLANK(raw!A390),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A390))</f>
         <v/>
       </c>
@@ -9332,7 +9303,7 @@
       </c>
     </row>
     <row r="393" ht="14.25">
-      <c r="A393" s="9" t="str">
+      <c r="A393" s="8" t="str">
         <f>IF(ISBLANK(raw!A391),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A391))</f>
         <v/>
       </c>
@@ -9354,7 +9325,7 @@
       </c>
     </row>
     <row r="394" ht="14.25">
-      <c r="A394" s="9" t="str">
+      <c r="A394" s="8" t="str">
         <f>IF(ISBLANK(raw!A392),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A392))</f>
         <v/>
       </c>
@@ -9376,7 +9347,7 @@
       </c>
     </row>
     <row r="395" ht="14.25">
-      <c r="A395" s="9" t="str">
+      <c r="A395" s="8" t="str">
         <f>IF(ISBLANK(raw!A393),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A393))</f>
         <v/>
       </c>
@@ -9398,7 +9369,7 @@
       </c>
     </row>
     <row r="396" ht="14.25">
-      <c r="A396" s="9" t="str">
+      <c r="A396" s="8" t="str">
         <f>IF(ISBLANK(raw!A394),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A394))</f>
         <v/>
       </c>
@@ -9420,7 +9391,7 @@
       </c>
     </row>
     <row r="397" ht="14.25">
-      <c r="A397" s="9" t="str">
+      <c r="A397" s="8" t="str">
         <f>IF(ISBLANK(raw!A395),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A395))</f>
         <v/>
       </c>
@@ -9442,7 +9413,7 @@
       </c>
     </row>
     <row r="398" ht="14.25">
-      <c r="A398" s="9" t="str">
+      <c r="A398" s="8" t="str">
         <f>IF(ISBLANK(raw!A396),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A396))</f>
         <v/>
       </c>
@@ -9464,7 +9435,7 @@
       </c>
     </row>
     <row r="399" ht="14.25">
-      <c r="A399" s="9" t="str">
+      <c r="A399" s="8" t="str">
         <f>IF(ISBLANK(raw!A397),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A397))</f>
         <v/>
       </c>
@@ -9486,7 +9457,7 @@
       </c>
     </row>
     <row r="400" ht="14.25">
-      <c r="A400" s="9" t="str">
+      <c r="A400" s="8" t="str">
         <f>IF(ISBLANK(raw!A398),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A398))</f>
         <v/>
       </c>
@@ -9508,7 +9479,7 @@
       </c>
     </row>
     <row r="401" ht="14.25">
-      <c r="A401" s="9" t="str">
+      <c r="A401" s="8" t="str">
         <f>IF(ISBLANK(raw!A399),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A399))</f>
         <v/>
       </c>
@@ -9530,7 +9501,7 @@
       </c>
     </row>
     <row r="402" ht="14.25">
-      <c r="A402" s="9" t="str">
+      <c r="A402" s="8" t="str">
         <f>IF(ISBLANK(raw!A400),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A400))</f>
         <v/>
       </c>
@@ -9552,7 +9523,7 @@
       </c>
     </row>
     <row r="403" ht="14.25">
-      <c r="A403" s="9" t="str">
+      <c r="A403" s="8" t="str">
         <f>IF(ISBLANK(raw!A401),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A401))</f>
         <v/>
       </c>
@@ -9574,7 +9545,7 @@
       </c>
     </row>
     <row r="404" ht="14.25">
-      <c r="A404" s="9" t="str">
+      <c r="A404" s="8" t="str">
         <f>IF(ISBLANK(raw!A402),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A402))</f>
         <v/>
       </c>
@@ -9596,7 +9567,7 @@
       </c>
     </row>
     <row r="405" ht="14.25">
-      <c r="A405" s="9" t="str">
+      <c r="A405" s="8" t="str">
         <f>IF(ISBLANK(raw!A403),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A403))</f>
         <v/>
       </c>
@@ -9618,7 +9589,7 @@
       </c>
     </row>
     <row r="406" ht="14.25">
-      <c r="A406" s="9" t="str">
+      <c r="A406" s="8" t="str">
         <f>IF(ISBLANK(raw!A404),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A404))</f>
         <v/>
       </c>
@@ -9640,7 +9611,7 @@
       </c>
     </row>
     <row r="407" ht="14.25">
-      <c r="A407" s="9" t="str">
+      <c r="A407" s="8" t="str">
         <f>IF(ISBLANK(raw!A405),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A405))</f>
         <v/>
       </c>
@@ -9662,7 +9633,7 @@
       </c>
     </row>
     <row r="408" ht="14.25">
-      <c r="A408" s="9" t="str">
+      <c r="A408" s="8" t="str">
         <f>IF(ISBLANK(raw!A406),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A406))</f>
         <v/>
       </c>
@@ -9684,7 +9655,7 @@
       </c>
     </row>
     <row r="409" ht="14.25">
-      <c r="A409" s="9" t="str">
+      <c r="A409" s="8" t="str">
         <f>IF(ISBLANK(raw!A407),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A407))</f>
         <v/>
       </c>
@@ -9706,7 +9677,7 @@
       </c>
     </row>
     <row r="410" ht="14.25">
-      <c r="A410" s="9" t="str">
+      <c r="A410" s="8" t="str">
         <f>IF(ISBLANK(raw!A408),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A408))</f>
         <v/>
       </c>
@@ -9728,7 +9699,7 @@
       </c>
     </row>
     <row r="411" ht="14.25">
-      <c r="A411" s="9" t="str">
+      <c r="A411" s="8" t="str">
         <f>IF(ISBLANK(raw!A409),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A409))</f>
         <v/>
       </c>
@@ -9750,7 +9721,7 @@
       </c>
     </row>
     <row r="412" ht="14.25">
-      <c r="A412" s="9" t="str">
+      <c r="A412" s="8" t="str">
         <f>IF(ISBLANK(raw!A410),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A410))</f>
         <v/>
       </c>
@@ -9772,7 +9743,7 @@
       </c>
     </row>
     <row r="413" ht="14.25">
-      <c r="A413" s="9" t="str">
+      <c r="A413" s="8" t="str">
         <f>IF(ISBLANK(raw!A411),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A411))</f>
         <v/>
       </c>
@@ -9794,7 +9765,7 @@
       </c>
     </row>
     <row r="414" ht="14.25">
-      <c r="A414" s="9" t="str">
+      <c r="A414" s="8" t="str">
         <f>IF(ISBLANK(raw!A412),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A412))</f>
         <v/>
       </c>
@@ -9816,7 +9787,7 @@
       </c>
     </row>
     <row r="415" ht="14.25">
-      <c r="A415" s="9" t="str">
+      <c r="A415" s="8" t="str">
         <f>IF(ISBLANK(raw!A413),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A413))</f>
         <v/>
       </c>
@@ -9838,7 +9809,7 @@
       </c>
     </row>
     <row r="416" ht="14.25">
-      <c r="A416" s="9" t="str">
+      <c r="A416" s="8" t="str">
         <f>IF(ISBLANK(raw!A414),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A414))</f>
         <v/>
       </c>
@@ -9860,7 +9831,7 @@
       </c>
     </row>
     <row r="417" ht="14.25">
-      <c r="A417" s="9" t="str">
+      <c r="A417" s="8" t="str">
         <f>IF(ISBLANK(raw!A415),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A415))</f>
         <v/>
       </c>
@@ -9882,7 +9853,7 @@
       </c>
     </row>
     <row r="418" ht="14.25">
-      <c r="A418" s="9" t="str">
+      <c r="A418" s="8" t="str">
         <f>IF(ISBLANK(raw!A416),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A416))</f>
         <v/>
       </c>
@@ -9904,7 +9875,7 @@
       </c>
     </row>
     <row r="419" ht="14.25">
-      <c r="A419" s="9" t="str">
+      <c r="A419" s="8" t="str">
         <f>IF(ISBLANK(raw!A417),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A417))</f>
         <v/>
       </c>
@@ -9926,7 +9897,7 @@
       </c>
     </row>
     <row r="420" ht="14.25">
-      <c r="A420" s="9" t="str">
+      <c r="A420" s="8" t="str">
         <f>IF(ISBLANK(raw!A418),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A418))</f>
         <v/>
       </c>
@@ -9948,7 +9919,7 @@
       </c>
     </row>
     <row r="421" ht="14.25">
-      <c r="A421" s="9" t="str">
+      <c r="A421" s="8" t="str">
         <f>IF(ISBLANK(raw!A419),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A419))</f>
         <v/>
       </c>
@@ -9970,7 +9941,7 @@
       </c>
     </row>
     <row r="422" ht="14.25">
-      <c r="A422" s="9" t="str">
+      <c r="A422" s="8" t="str">
         <f>IF(ISBLANK(raw!A420),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A420))</f>
         <v/>
       </c>
@@ -9992,7 +9963,7 @@
       </c>
     </row>
     <row r="423" ht="14.25">
-      <c r="A423" s="9" t="str">
+      <c r="A423" s="8" t="str">
         <f>IF(ISBLANK(raw!A421),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A421))</f>
         <v/>
       </c>
@@ -10014,7 +9985,7 @@
       </c>
     </row>
     <row r="424" ht="14.25">
-      <c r="A424" s="9" t="str">
+      <c r="A424" s="8" t="str">
         <f>IF(ISBLANK(raw!A422),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A422))</f>
         <v/>
       </c>
@@ -10036,7 +10007,7 @@
       </c>
     </row>
     <row r="425" ht="14.25">
-      <c r="A425" s="9" t="str">
+      <c r="A425" s="8" t="str">
         <f>IF(ISBLANK(raw!A423),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A423))</f>
         <v/>
       </c>
@@ -10058,7 +10029,7 @@
       </c>
     </row>
     <row r="426" ht="14.25">
-      <c r="A426" s="9" t="str">
+      <c r="A426" s="8" t="str">
         <f>IF(ISBLANK(raw!A424),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A424))</f>
         <v/>
       </c>
@@ -10080,7 +10051,7 @@
       </c>
     </row>
     <row r="427" ht="14.25">
-      <c r="A427" s="9" t="str">
+      <c r="A427" s="8" t="str">
         <f>IF(ISBLANK(raw!A425),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A425))</f>
         <v/>
       </c>
@@ -10102,7 +10073,7 @@
       </c>
     </row>
     <row r="428" ht="14.25">
-      <c r="A428" s="9" t="str">
+      <c r="A428" s="8" t="str">
         <f>IF(ISBLANK(raw!A426),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A426))</f>
         <v/>
       </c>
@@ -10124,7 +10095,7 @@
       </c>
     </row>
     <row r="429" ht="14.25">
-      <c r="A429" s="9" t="str">
+      <c r="A429" s="8" t="str">
         <f>IF(ISBLANK(raw!A427),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A427))</f>
         <v/>
       </c>
@@ -10146,7 +10117,7 @@
       </c>
     </row>
     <row r="430" ht="14.25">
-      <c r="A430" s="9" t="str">
+      <c r="A430" s="8" t="str">
         <f>IF(ISBLANK(raw!A428),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A428))</f>
         <v/>
       </c>
@@ -10168,7 +10139,7 @@
       </c>
     </row>
     <row r="431" ht="14.25">
-      <c r="A431" s="9" t="str">
+      <c r="A431" s="8" t="str">
         <f>IF(ISBLANK(raw!A429),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A429))</f>
         <v/>
       </c>
@@ -10190,7 +10161,7 @@
       </c>
     </row>
     <row r="432" ht="14.25">
-      <c r="A432" s="9" t="str">
+      <c r="A432" s="8" t="str">
         <f>IF(ISBLANK(raw!A430),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A430))</f>
         <v/>
       </c>
@@ -10212,7 +10183,7 @@
       </c>
     </row>
     <row r="433" ht="14.25">
-      <c r="A433" s="9" t="str">
+      <c r="A433" s="8" t="str">
         <f>IF(ISBLANK(raw!A431),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A431))</f>
         <v/>
       </c>
@@ -10234,7 +10205,7 @@
       </c>
     </row>
     <row r="434" ht="14.25">
-      <c r="A434" s="9" t="str">
+      <c r="A434" s="8" t="str">
         <f>IF(ISBLANK(raw!A432),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A432))</f>
         <v/>
       </c>
@@ -10256,7 +10227,7 @@
       </c>
     </row>
     <row r="435" ht="14.25">
-      <c r="A435" s="9" t="str">
+      <c r="A435" s="8" t="str">
         <f>IF(ISBLANK(raw!A433),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A433))</f>
         <v/>
       </c>
@@ -10278,7 +10249,7 @@
       </c>
     </row>
     <row r="436" ht="14.25">
-      <c r="A436" s="9" t="str">
+      <c r="A436" s="8" t="str">
         <f>IF(ISBLANK(raw!A434),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A434))</f>
         <v/>
       </c>
@@ -10300,7 +10271,7 @@
       </c>
     </row>
     <row r="437" ht="14.25">
-      <c r="A437" s="9" t="str">
+      <c r="A437" s="8" t="str">
         <f>IF(ISBLANK(raw!A435),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A435))</f>
         <v/>
       </c>
@@ -10322,7 +10293,7 @@
       </c>
     </row>
     <row r="438" ht="14.25">
-      <c r="A438" s="9" t="str">
+      <c r="A438" s="8" t="str">
         <f>IF(ISBLANK(raw!A436),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A436))</f>
         <v/>
       </c>
@@ -10344,7 +10315,7 @@
       </c>
     </row>
     <row r="439" ht="14.25">
-      <c r="A439" s="9" t="str">
+      <c r="A439" s="8" t="str">
         <f>IF(ISBLANK(raw!A437),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A437))</f>
         <v/>
       </c>
@@ -10366,7 +10337,7 @@
       </c>
     </row>
     <row r="440" ht="14.25">
-      <c r="A440" s="9" t="str">
+      <c r="A440" s="8" t="str">
         <f>IF(ISBLANK(raw!A438),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A438))</f>
         <v/>
       </c>
@@ -10388,7 +10359,7 @@
       </c>
     </row>
     <row r="441" ht="14.25">
-      <c r="A441" s="9" t="str">
+      <c r="A441" s="8" t="str">
         <f>IF(ISBLANK(raw!A439),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A439))</f>
         <v/>
       </c>
@@ -10410,7 +10381,7 @@
       </c>
     </row>
     <row r="442" ht="14.25">
-      <c r="A442" s="9" t="str">
+      <c r="A442" s="8" t="str">
         <f>IF(ISBLANK(raw!A440),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A440))</f>
         <v/>
       </c>
@@ -10432,7 +10403,7 @@
       </c>
     </row>
     <row r="443" ht="14.25">
-      <c r="A443" s="9" t="str">
+      <c r="A443" s="8" t="str">
         <f>IF(ISBLANK(raw!A441),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A441))</f>
         <v/>
       </c>
@@ -10454,7 +10425,7 @@
       </c>
     </row>
     <row r="444" ht="14.25">
-      <c r="A444" s="9" t="str">
+      <c r="A444" s="8" t="str">
         <f>IF(ISBLANK(raw!A442),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A442))</f>
         <v/>
       </c>
@@ -10476,7 +10447,7 @@
       </c>
     </row>
     <row r="445" ht="14.25">
-      <c r="A445" s="9" t="str">
+      <c r="A445" s="8" t="str">
         <f>IF(ISBLANK(raw!A443),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A443))</f>
         <v/>
       </c>
@@ -10498,7 +10469,7 @@
       </c>
     </row>
     <row r="446" ht="14.25">
-      <c r="A446" s="9" t="str">
+      <c r="A446" s="8" t="str">
         <f>IF(ISBLANK(raw!A444),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A444))</f>
         <v/>
       </c>
@@ -10520,7 +10491,7 @@
       </c>
     </row>
     <row r="447" ht="14.25">
-      <c r="A447" s="9" t="str">
+      <c r="A447" s="8" t="str">
         <f>IF(ISBLANK(raw!A445),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A445))</f>
         <v/>
       </c>
@@ -10542,7 +10513,7 @@
       </c>
     </row>
     <row r="448" ht="14.25">
-      <c r="A448" s="9" t="str">
+      <c r="A448" s="8" t="str">
         <f>IF(ISBLANK(raw!A446),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A446))</f>
         <v/>
       </c>
@@ -10564,7 +10535,7 @@
       </c>
     </row>
     <row r="449" ht="14.25">
-      <c r="A449" s="9" t="str">
+      <c r="A449" s="8" t="str">
         <f>IF(ISBLANK(raw!A447),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A447))</f>
         <v/>
       </c>
@@ -10586,7 +10557,7 @@
       </c>
     </row>
     <row r="450" ht="14.25">
-      <c r="A450" s="9" t="str">
+      <c r="A450" s="8" t="str">
         <f>IF(ISBLANK(raw!A448),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A448))</f>
         <v/>
       </c>
@@ -10608,7 +10579,7 @@
       </c>
     </row>
     <row r="451" ht="14.25">
-      <c r="A451" s="9" t="str">
+      <c r="A451" s="8" t="str">
         <f>IF(ISBLANK(raw!A449),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A449))</f>
         <v/>
       </c>
@@ -10630,7 +10601,7 @@
       </c>
     </row>
     <row r="452" ht="14.25">
-      <c r="A452" s="9" t="str">
+      <c r="A452" s="8" t="str">
         <f>IF(ISBLANK(raw!A450),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A450))</f>
         <v/>
       </c>
@@ -10652,7 +10623,7 @@
       </c>
     </row>
     <row r="453" ht="14.25">
-      <c r="A453" s="9" t="str">
+      <c r="A453" s="8" t="str">
         <f>IF(ISBLANK(raw!A451),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A451))</f>
         <v/>
       </c>
@@ -10674,7 +10645,7 @@
       </c>
     </row>
     <row r="454" ht="14.25">
-      <c r="A454" s="9" t="str">
+      <c r="A454" s="8" t="str">
         <f>IF(ISBLANK(raw!A452),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A452))</f>
         <v/>
       </c>
@@ -10696,7 +10667,7 @@
       </c>
     </row>
     <row r="455" ht="14.25">
-      <c r="A455" s="9" t="str">
+      <c r="A455" s="8" t="str">
         <f>IF(ISBLANK(raw!A453),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A453))</f>
         <v/>
       </c>
@@ -10718,7 +10689,7 @@
       </c>
     </row>
     <row r="456" ht="14.25">
-      <c r="A456" s="9" t="str">
+      <c r="A456" s="8" t="str">
         <f>IF(ISBLANK(raw!A454),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A454))</f>
         <v/>
       </c>
@@ -10740,7 +10711,7 @@
       </c>
     </row>
     <row r="457" ht="14.25">
-      <c r="A457" s="9" t="str">
+      <c r="A457" s="8" t="str">
         <f>IF(ISBLANK(raw!A455),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A455))</f>
         <v/>
       </c>
@@ -10762,7 +10733,7 @@
       </c>
     </row>
     <row r="458" ht="14.25">
-      <c r="A458" s="9" t="str">
+      <c r="A458" s="8" t="str">
         <f>IF(ISBLANK(raw!A456),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A456))</f>
         <v/>
       </c>
@@ -10784,7 +10755,7 @@
       </c>
     </row>
     <row r="459" ht="14.25">
-      <c r="A459" s="9" t="str">
+      <c r="A459" s="8" t="str">
         <f>IF(ISBLANK(raw!A457),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A457))</f>
         <v/>
       </c>
@@ -10806,7 +10777,7 @@
       </c>
     </row>
     <row r="460" ht="14.25">
-      <c r="A460" s="9" t="str">
+      <c r="A460" s="8" t="str">
         <f>IF(ISBLANK(raw!A458),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A458))</f>
         <v/>
       </c>
@@ -10828,7 +10799,7 @@
       </c>
     </row>
     <row r="461" ht="14.25">
-      <c r="A461" s="9" t="str">
+      <c r="A461" s="8" t="str">
         <f>IF(ISBLANK(raw!A459),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A459))</f>
         <v/>
       </c>
@@ -10850,7 +10821,7 @@
       </c>
     </row>
     <row r="462" ht="14.25">
-      <c r="A462" s="9" t="str">
+      <c r="A462" s="8" t="str">
         <f>IF(ISBLANK(raw!A460),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A460))</f>
         <v/>
       </c>
@@ -10872,7 +10843,7 @@
       </c>
     </row>
     <row r="463" ht="14.25">
-      <c r="A463" s="9" t="str">
+      <c r="A463" s="8" t="str">
         <f>IF(ISBLANK(raw!A461),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A461))</f>
         <v/>
       </c>
@@ -10894,7 +10865,7 @@
       </c>
     </row>
     <row r="464" ht="14.25">
-      <c r="A464" s="9" t="str">
+      <c r="A464" s="8" t="str">
         <f>IF(ISBLANK(raw!A462),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A462))</f>
         <v/>
       </c>
@@ -10916,7 +10887,7 @@
       </c>
     </row>
     <row r="465" ht="14.25">
-      <c r="A465" s="9" t="str">
+      <c r="A465" s="8" t="str">
         <f>IF(ISBLANK(raw!A463),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A463))</f>
         <v/>
       </c>
@@ -10938,7 +10909,7 @@
       </c>
     </row>
     <row r="466" ht="14.25">
-      <c r="A466" s="9" t="str">
+      <c r="A466" s="8" t="str">
         <f>IF(ISBLANK(raw!A464),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A464))</f>
         <v/>
       </c>
@@ -10960,7 +10931,7 @@
       </c>
     </row>
     <row r="467" ht="14.25">
-      <c r="A467" s="9" t="str">
+      <c r="A467" s="8" t="str">
         <f>IF(ISBLANK(raw!A465),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A465))</f>
         <v/>
       </c>
@@ -10982,7 +10953,7 @@
       </c>
     </row>
     <row r="468" ht="14.25">
-      <c r="A468" s="9" t="str">
+      <c r="A468" s="8" t="str">
         <f>IF(ISBLANK(raw!A466),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A466))</f>
         <v/>
       </c>
@@ -11004,7 +10975,7 @@
       </c>
     </row>
     <row r="469" ht="14.25">
-      <c r="A469" s="9" t="str">
+      <c r="A469" s="8" t="str">
         <f>IF(ISBLANK(raw!A467),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A467))</f>
         <v/>
       </c>
@@ -11026,7 +10997,7 @@
       </c>
     </row>
     <row r="470" ht="14.25">
-      <c r="A470" s="9" t="str">
+      <c r="A470" s="8" t="str">
         <f>IF(ISBLANK(raw!A468),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A468))</f>
         <v/>
       </c>
@@ -11048,7 +11019,7 @@
       </c>
     </row>
     <row r="471" ht="14.25">
-      <c r="A471" s="9" t="str">
+      <c r="A471" s="8" t="str">
         <f>IF(ISBLANK(raw!A469),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A469))</f>
         <v/>
       </c>
@@ -11070,7 +11041,7 @@
       </c>
     </row>
     <row r="472" ht="14.25">
-      <c r="A472" s="9" t="str">
+      <c r="A472" s="8" t="str">
         <f>IF(ISBLANK(raw!A470),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A470))</f>
         <v/>
       </c>
@@ -11092,7 +11063,7 @@
       </c>
     </row>
     <row r="473" ht="14.25">
-      <c r="A473" s="9" t="str">
+      <c r="A473" s="8" t="str">
         <f>IF(ISBLANK(raw!A471),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A471))</f>
         <v/>
       </c>
@@ -11114,7 +11085,7 @@
       </c>
     </row>
     <row r="474" ht="14.25">
-      <c r="A474" s="9" t="str">
+      <c r="A474" s="8" t="str">
         <f>IF(ISBLANK(raw!A472),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A472))</f>
         <v/>
       </c>
@@ -11136,7 +11107,7 @@
       </c>
     </row>
     <row r="475" ht="14.25">
-      <c r="A475" s="9" t="str">
+      <c r="A475" s="8" t="str">
         <f>IF(ISBLANK(raw!A473),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A473))</f>
         <v/>
       </c>
@@ -11158,7 +11129,7 @@
       </c>
     </row>
     <row r="476" ht="14.25">
-      <c r="A476" s="9" t="str">
+      <c r="A476" s="8" t="str">
         <f>IF(ISBLANK(raw!A474),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A474))</f>
         <v/>
       </c>
@@ -11180,7 +11151,7 @@
       </c>
     </row>
     <row r="477" ht="14.25">
-      <c r="A477" s="9" t="str">
+      <c r="A477" s="8" t="str">
         <f>IF(ISBLANK(raw!A475),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A475))</f>
         <v/>
       </c>
@@ -11202,7 +11173,7 @@
       </c>
     </row>
     <row r="478" ht="14.25">
-      <c r="A478" s="9" t="str">
+      <c r="A478" s="8" t="str">
         <f>IF(ISBLANK(raw!A476),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A476))</f>
         <v/>
       </c>
@@ -11224,7 +11195,7 @@
       </c>
     </row>
     <row r="479" ht="14.25">
-      <c r="A479" s="9" t="str">
+      <c r="A479" s="8" t="str">
         <f>IF(ISBLANK(raw!A477),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A477))</f>
         <v/>
       </c>
@@ -11246,7 +11217,7 @@
       </c>
     </row>
     <row r="480" ht="14.25">
-      <c r="A480" s="9" t="str">
+      <c r="A480" s="8" t="str">
         <f>IF(ISBLANK(raw!A478),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A478))</f>
         <v/>
       </c>
@@ -11268,7 +11239,7 @@
       </c>
     </row>
     <row r="481" ht="14.25">
-      <c r="A481" s="9" t="str">
+      <c r="A481" s="8" t="str">
         <f>IF(ISBLANK(raw!A479),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A479))</f>
         <v/>
       </c>
@@ -11290,7 +11261,7 @@
       </c>
     </row>
     <row r="482" ht="14.25">
-      <c r="A482" s="9" t="str">
+      <c r="A482" s="8" t="str">
         <f>IF(ISBLANK(raw!A480),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A480))</f>
         <v/>
       </c>
@@ -11312,7 +11283,7 @@
       </c>
     </row>
     <row r="483" ht="14.25">
-      <c r="A483" s="9" t="str">
+      <c r="A483" s="8" t="str">
         <f>IF(ISBLANK(raw!A481),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A481))</f>
         <v/>
       </c>
@@ -11334,7 +11305,7 @@
       </c>
     </row>
     <row r="484" ht="14.25">
-      <c r="A484" s="9" t="str">
+      <c r="A484" s="8" t="str">
         <f>IF(ISBLANK(raw!A482),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A482))</f>
         <v/>
       </c>
@@ -11356,7 +11327,7 @@
       </c>
     </row>
     <row r="485" ht="14.25">
-      <c r="A485" s="9" t="str">
+      <c r="A485" s="8" t="str">
         <f>IF(ISBLANK(raw!A483),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A483))</f>
         <v/>
       </c>
@@ -11378,7 +11349,7 @@
       </c>
     </row>
     <row r="486" ht="14.25">
-      <c r="A486" s="9" t="str">
+      <c r="A486" s="8" t="str">
         <f>IF(ISBLANK(raw!A484),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A484))</f>
         <v/>
       </c>
@@ -11400,7 +11371,7 @@
       </c>
     </row>
     <row r="487" ht="14.25">
-      <c r="A487" s="9" t="str">
+      <c r="A487" s="8" t="str">
         <f>IF(ISBLANK(raw!A485),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A485))</f>
         <v/>
       </c>
@@ -11422,7 +11393,7 @@
       </c>
     </row>
     <row r="488" ht="14.25">
-      <c r="A488" s="9" t="str">
+      <c r="A488" s="8" t="str">
         <f>IF(ISBLANK(raw!A486),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A486))</f>
         <v/>
       </c>
@@ -11444,7 +11415,7 @@
       </c>
     </row>
     <row r="489" ht="14.25">
-      <c r="A489" s="9" t="str">
+      <c r="A489" s="8" t="str">
         <f>IF(ISBLANK(raw!A487),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A487))</f>
         <v/>
       </c>
@@ -11466,7 +11437,7 @@
       </c>
     </row>
     <row r="490" ht="14.25">
-      <c r="A490" s="9" t="str">
+      <c r="A490" s="8" t="str">
         <f>IF(ISBLANK(raw!A488),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A488))</f>
         <v/>
       </c>
@@ -11488,7 +11459,7 @@
       </c>
     </row>
     <row r="491" ht="14.25">
-      <c r="A491" s="9" t="str">
+      <c r="A491" s="8" t="str">
         <f>IF(ISBLANK(raw!A489),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A489))</f>
         <v/>
       </c>
@@ -11510,7 +11481,7 @@
       </c>
     </row>
     <row r="492" ht="14.25">
-      <c r="A492" s="9" t="str">
+      <c r="A492" s="8" t="str">
         <f>IF(ISBLANK(raw!A490),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A490))</f>
         <v/>
       </c>
@@ -11532,7 +11503,7 @@
       </c>
     </row>
     <row r="493" ht="14.25">
-      <c r="A493" s="9" t="str">
+      <c r="A493" s="8" t="str">
         <f>IF(ISBLANK(raw!A491),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A491))</f>
         <v/>
       </c>
@@ -11554,7 +11525,7 @@
       </c>
     </row>
     <row r="494" ht="14.25">
-      <c r="A494" s="9" t="str">
+      <c r="A494" s="8" t="str">
         <f>IF(ISBLANK(raw!A492),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A492))</f>
         <v/>
       </c>
@@ -11576,7 +11547,7 @@
       </c>
     </row>
     <row r="495" ht="14.25">
-      <c r="A495" s="9" t="str">
+      <c r="A495" s="8" t="str">
         <f>IF(ISBLANK(raw!A493),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A493))</f>
         <v/>
       </c>
@@ -11598,7 +11569,7 @@
       </c>
     </row>
     <row r="496" ht="14.25">
-      <c r="A496" s="9" t="str">
+      <c r="A496" s="8" t="str">
         <f>IF(ISBLANK(raw!A494),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A494))</f>
         <v/>
       </c>
@@ -11620,7 +11591,7 @@
       </c>
     </row>
     <row r="497" ht="14.25">
-      <c r="A497" s="9" t="str">
+      <c r="A497" s="8" t="str">
         <f>IF(ISBLANK(raw!A495),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A495))</f>
         <v/>
       </c>
@@ -11642,7 +11613,7 @@
       </c>
     </row>
     <row r="498" ht="14.25">
-      <c r="A498" s="9" t="str">
+      <c r="A498" s="8" t="str">
         <f>IF(ISBLANK(raw!A496),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A496))</f>
         <v/>
       </c>
@@ -11664,7 +11635,7 @@
       </c>
     </row>
     <row r="499" ht="14.25">
-      <c r="A499" s="9" t="str">
+      <c r="A499" s="8" t="str">
         <f>IF(ISBLANK(raw!A497),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A497))</f>
         <v/>
       </c>
@@ -11686,7 +11657,7 @@
       </c>
     </row>
     <row r="500" ht="14.25">
-      <c r="A500" s="9" t="str">
+      <c r="A500" s="8" t="str">
         <f>IF(ISBLANK(raw!A498),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A498))</f>
         <v/>
       </c>
@@ -11708,7 +11679,7 @@
       </c>
     </row>
     <row r="501" ht="14.25">
-      <c r="A501" s="9" t="str">
+      <c r="A501" s="8" t="str">
         <f>IF(ISBLANK(raw!A499),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A499))</f>
         <v/>
       </c>
@@ -11730,7 +11701,7 @@
       </c>
     </row>
     <row r="502" ht="14.25">
-      <c r="A502" s="9" t="str">
+      <c r="A502" s="8" t="str">
         <f>IF(ISBLANK(raw!A500),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A500))</f>
         <v/>
       </c>
@@ -11752,7 +11723,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="B2:E2"/>
   </mergeCells>
@@ -11770,7 +11742,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A478" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -11780,820 +11752,820 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
     </row>
     <row r="3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
     </row>
     <row r="5">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
     </row>
     <row r="6">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
     </row>
     <row r="8">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
     </row>
     <row r="9">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
     </row>
     <row r="10">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
     </row>
     <row r="11">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
     </row>
     <row r="12">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
     </row>
     <row r="13">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
     </row>
     <row r="14">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
     </row>
     <row r="15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
     </row>
     <row r="17">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
     </row>
     <row r="18">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
     </row>
     <row r="19">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
     </row>
     <row r="20">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
     </row>
     <row r="21">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
     </row>
     <row r="22">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
     </row>
     <row r="23">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
     </row>
     <row r="24">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
     </row>
     <row r="25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
     </row>
     <row r="26">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
     </row>
     <row r="27">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
     </row>
     <row r="28">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
     </row>
     <row r="29">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
     </row>
     <row r="30">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
     </row>
     <row r="31">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
     </row>
     <row r="32">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
     </row>
     <row r="33">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
     </row>
     <row r="34">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
     </row>
     <row r="35">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
     </row>
     <row r="36">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
     </row>
     <row r="37">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
     </row>
     <row r="38">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
     </row>
     <row r="39">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
     </row>
     <row r="40">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
     </row>
     <row r="41">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
     </row>
     <row r="42">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
     </row>
     <row r="43">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
     </row>
     <row r="44">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
     </row>
     <row r="45">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
     </row>
     <row r="46">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
     </row>
     <row r="47">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
     </row>
     <row r="48">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
     </row>
     <row r="49">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
     </row>
     <row r="50">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
     </row>
     <row r="51">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
     </row>
     <row r="52"/>
   </sheetData>
@@ -12615,47 +12587,47 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Einsatzsuche.xlsx
+++ b/Einsatzsuche.xlsx
@@ -102,22 +102,13 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left style="none"/>
       <right style="none"/>
       <top style="none"/>
       <bottom style="none"/>
       <diagonal style="none"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFDFE4E9"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="none"/>
@@ -128,11 +119,31 @@
       </bottom>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="thick">
+        <color rgb="FFDFE4E9"/>
+      </right>
+      <top style="none"/>
+      <bottom style="thick">
+        <color rgb="FFDFE4E9"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thick">
+        <color rgb="FFDFE4E9"/>
+      </right>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -153,6 +164,10 @@
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf fontId="0" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -221,7 +236,7 @@
     <tableColumn id="4" name="Titel"/>
     <tableColumn id="5" name="Betrieb"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -725,7 +740,7 @@
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" t="s">
@@ -740,12 +755,12 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="8" t="str">
+      <c r="A4" s="10" t="str">
         <f>IF(ISBLANK(raw!A2),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A2))</f>
         <v/>
       </c>
@@ -761,13 +776,13 @@
         <f>IF(ISBLANK(raw!$B2),"",raw!$B2)</f>
         <v/>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" s="9" t="str">
         <f>IF(ISBLANK(raw!M2),"",raw!$M2)</f>
         <v/>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="8" t="str">
+      <c r="A5" s="10" t="str">
         <f>IF(ISBLANK(raw!A3),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A3))</f>
         <v/>
       </c>
@@ -783,13 +798,13 @@
         <f>IF(ISBLANK(raw!$B3),"",raw!$B3)</f>
         <v/>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" s="9" t="str">
         <f>IF(ISBLANK(raw!M3),"",raw!$M3)</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="8" t="str">
+      <c r="A6" s="10" t="str">
         <f>IF(ISBLANK(raw!A4),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A4))</f>
         <v/>
       </c>
@@ -805,13 +820,13 @@
         <f>IF(ISBLANK(raw!$B4),"",raw!$B4)</f>
         <v/>
       </c>
-      <c r="E6" t="str">
+      <c r="E6" s="9" t="str">
         <f>IF(ISBLANK(raw!M4),"",raw!$M4)</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="8" t="str">
+      <c r="A7" s="10" t="str">
         <f>IF(ISBLANK(raw!A5),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A5))</f>
         <v/>
       </c>
@@ -827,13 +842,13 @@
         <f>IF(ISBLANK(raw!$B5),"",raw!$B5)</f>
         <v/>
       </c>
-      <c r="E7" t="str">
+      <c r="E7" s="9" t="str">
         <f>IF(ISBLANK(raw!M5),"",raw!$M5)</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="8" t="str">
+      <c r="A8" s="10" t="str">
         <f>IF(ISBLANK(raw!A6),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A6))</f>
         <v/>
       </c>
@@ -849,13 +864,13 @@
         <f>IF(ISBLANK(raw!$B6),"",raw!$B6)</f>
         <v/>
       </c>
-      <c r="E8" t="str">
+      <c r="E8" s="9" t="str">
         <f>IF(ISBLANK(raw!M6),"",raw!$M6)</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="8" t="str">
+      <c r="A9" s="10" t="str">
         <f>IF(ISBLANK(raw!A7),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A7))</f>
         <v/>
       </c>
@@ -871,13 +886,13 @@
         <f>IF(ISBLANK(raw!$B7),"",raw!$B7)</f>
         <v/>
       </c>
-      <c r="E9" t="str">
+      <c r="E9" s="9" t="str">
         <f>IF(ISBLANK(raw!M7),"",raw!$M7)</f>
         <v/>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="8" t="str">
+      <c r="A10" s="10" t="str">
         <f>IF(ISBLANK(raw!A8),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A8))</f>
         <v/>
       </c>
@@ -893,13 +908,13 @@
         <f>IF(ISBLANK(raw!$B8),"",raw!$B8)</f>
         <v/>
       </c>
-      <c r="E10" t="str">
+      <c r="E10" s="9" t="str">
         <f>IF(ISBLANK(raw!M8),"",raw!$M8)</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="8" t="str">
+      <c r="A11" s="10" t="str">
         <f>IF(ISBLANK(raw!A9),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A9))</f>
         <v/>
       </c>
@@ -915,13 +930,13 @@
         <f>IF(ISBLANK(raw!$B9),"",raw!$B9)</f>
         <v/>
       </c>
-      <c r="E11" t="str">
+      <c r="E11" s="9" t="str">
         <f>IF(ISBLANK(raw!M9),"",raw!$M9)</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="8" t="str">
+      <c r="A12" s="10" t="str">
         <f>IF(ISBLANK(raw!A10),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A10))</f>
         <v/>
       </c>
@@ -937,13 +952,13 @@
         <f>IF(ISBLANK(raw!$B10),"",raw!$B10)</f>
         <v/>
       </c>
-      <c r="E12" t="str">
+      <c r="E12" s="9" t="str">
         <f>IF(ISBLANK(raw!M10),"",raw!$M10)</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="8" t="str">
+      <c r="A13" s="10" t="str">
         <f>IF(ISBLANK(raw!A11),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A11))</f>
         <v/>
       </c>
@@ -959,13 +974,13 @@
         <f>IF(ISBLANK(raw!$B11),"",raw!$B11)</f>
         <v/>
       </c>
-      <c r="E13" t="str">
+      <c r="E13" s="9" t="str">
         <f>IF(ISBLANK(raw!M11),"",raw!$M11)</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="8" t="str">
+      <c r="A14" s="10" t="str">
         <f>IF(ISBLANK(raw!A12),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A12))</f>
         <v/>
       </c>
@@ -981,13 +996,13 @@
         <f>IF(ISBLANK(raw!$B12),"",raw!$B12)</f>
         <v/>
       </c>
-      <c r="E14" t="str">
+      <c r="E14" s="9" t="str">
         <f>IF(ISBLANK(raw!M12),"",raw!$M12)</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="8" t="str">
+      <c r="A15" s="10" t="str">
         <f>IF(ISBLANK(raw!A13),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A13))</f>
         <v/>
       </c>
@@ -1003,13 +1018,13 @@
         <f>IF(ISBLANK(raw!$B13),"",raw!$B13)</f>
         <v/>
       </c>
-      <c r="E15" t="str">
+      <c r="E15" s="9" t="str">
         <f>IF(ISBLANK(raw!M13),"",raw!$M13)</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="8" t="str">
+      <c r="A16" s="10" t="str">
         <f>IF(ISBLANK(raw!A14),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A14))</f>
         <v/>
       </c>
@@ -1025,13 +1040,13 @@
         <f>IF(ISBLANK(raw!$B14),"",raw!$B14)</f>
         <v/>
       </c>
-      <c r="E16" t="str">
+      <c r="E16" s="9" t="str">
         <f>IF(ISBLANK(raw!M14),"",raw!$M14)</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="8" t="str">
+      <c r="A17" s="10" t="str">
         <f>IF(ISBLANK(raw!A15),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A15))</f>
         <v/>
       </c>
@@ -1047,13 +1062,13 @@
         <f>IF(ISBLANK(raw!$B15),"",raw!$B15)</f>
         <v/>
       </c>
-      <c r="E17" t="str">
+      <c r="E17" s="9" t="str">
         <f>IF(ISBLANK(raw!M15),"",raw!$M15)</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="8" t="str">
+      <c r="A18" s="10" t="str">
         <f>IF(ISBLANK(raw!A16),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A16))</f>
         <v/>
       </c>
@@ -1069,13 +1084,13 @@
         <f>IF(ISBLANK(raw!$B16),"",raw!$B16)</f>
         <v/>
       </c>
-      <c r="E18" t="str">
+      <c r="E18" s="9" t="str">
         <f>IF(ISBLANK(raw!M16),"",raw!$M16)</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="8" t="str">
+      <c r="A19" s="10" t="str">
         <f>IF(ISBLANK(raw!A17),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A17))</f>
         <v/>
       </c>
@@ -1091,13 +1106,13 @@
         <f>IF(ISBLANK(raw!$B17),"",raw!$B17)</f>
         <v/>
       </c>
-      <c r="E19" t="str">
+      <c r="E19" s="9" t="str">
         <f>IF(ISBLANK(raw!M17),"",raw!$M17)</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="8" t="str">
+      <c r="A20" s="10" t="str">
         <f>IF(ISBLANK(raw!A18),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A18))</f>
         <v/>
       </c>
@@ -1113,13 +1128,13 @@
         <f>IF(ISBLANK(raw!$B18),"",raw!$B18)</f>
         <v/>
       </c>
-      <c r="E20" t="str">
+      <c r="E20" s="9" t="str">
         <f>IF(ISBLANK(raw!M18),"",raw!$M18)</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="8" t="str">
+      <c r="A21" s="10" t="str">
         <f>IF(ISBLANK(raw!A19),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A19))</f>
         <v/>
       </c>
@@ -1135,13 +1150,13 @@
         <f>IF(ISBLANK(raw!$B19),"",raw!$B19)</f>
         <v/>
       </c>
-      <c r="E21" t="str">
+      <c r="E21" s="9" t="str">
         <f>IF(ISBLANK(raw!M19),"",raw!$M19)</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="8" t="str">
+      <c r="A22" s="10" t="str">
         <f>IF(ISBLANK(raw!A20),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A20))</f>
         <v/>
       </c>
@@ -1157,13 +1172,13 @@
         <f>IF(ISBLANK(raw!$B20),"",raw!$B20)</f>
         <v/>
       </c>
-      <c r="E22" t="str">
+      <c r="E22" s="9" t="str">
         <f>IF(ISBLANK(raw!M20),"",raw!$M20)</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="8" t="str">
+      <c r="A23" s="10" t="str">
         <f>IF(ISBLANK(raw!A21),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A21))</f>
         <v/>
       </c>
@@ -1179,13 +1194,13 @@
         <f>IF(ISBLANK(raw!$B21),"",raw!$B21)</f>
         <v/>
       </c>
-      <c r="E23" t="str">
+      <c r="E23" s="9" t="str">
         <f>IF(ISBLANK(raw!M21),"",raw!$M21)</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="8" t="str">
+      <c r="A24" s="10" t="str">
         <f>IF(ISBLANK(raw!A22),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A22))</f>
         <v/>
       </c>
@@ -1201,13 +1216,13 @@
         <f>IF(ISBLANK(raw!$B22),"",raw!$B22)</f>
         <v/>
       </c>
-      <c r="E24" t="str">
+      <c r="E24" s="9" t="str">
         <f>IF(ISBLANK(raw!M22),"",raw!$M22)</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="8" t="str">
+      <c r="A25" s="10" t="str">
         <f>IF(ISBLANK(raw!A23),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A23))</f>
         <v/>
       </c>
@@ -1223,13 +1238,13 @@
         <f>IF(ISBLANK(raw!$B23),"",raw!$B23)</f>
         <v/>
       </c>
-      <c r="E25" t="str">
+      <c r="E25" s="9" t="str">
         <f>IF(ISBLANK(raw!M23),"",raw!$M23)</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="8" t="str">
+      <c r="A26" s="10" t="str">
         <f>IF(ISBLANK(raw!A24),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A24))</f>
         <v/>
       </c>
@@ -1245,13 +1260,13 @@
         <f>IF(ISBLANK(raw!$B24),"",raw!$B24)</f>
         <v/>
       </c>
-      <c r="E26" t="str">
+      <c r="E26" s="9" t="str">
         <f>IF(ISBLANK(raw!M24),"",raw!$M24)</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="8" t="str">
+      <c r="A27" s="10" t="str">
         <f>IF(ISBLANK(raw!A25),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A25))</f>
         <v/>
       </c>
@@ -1267,13 +1282,13 @@
         <f>IF(ISBLANK(raw!$B25),"",raw!$B25)</f>
         <v/>
       </c>
-      <c r="E27" t="str">
+      <c r="E27" s="9" t="str">
         <f>IF(ISBLANK(raw!M25),"",raw!$M25)</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="8" t="str">
+      <c r="A28" s="10" t="str">
         <f>IF(ISBLANK(raw!A26),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A26))</f>
         <v/>
       </c>
@@ -1289,13 +1304,13 @@
         <f>IF(ISBLANK(raw!$B26),"",raw!$B26)</f>
         <v/>
       </c>
-      <c r="E28" t="str">
+      <c r="E28" s="9" t="str">
         <f>IF(ISBLANK(raw!M26),"",raw!$M26)</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="8" t="str">
+      <c r="A29" s="10" t="str">
         <f>IF(ISBLANK(raw!A27),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A27))</f>
         <v/>
       </c>
@@ -1311,13 +1326,13 @@
         <f>IF(ISBLANK(raw!$B27),"",raw!$B27)</f>
         <v/>
       </c>
-      <c r="E29" t="str">
+      <c r="E29" s="9" t="str">
         <f>IF(ISBLANK(raw!M27),"",raw!$M27)</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="8" t="str">
+      <c r="A30" s="10" t="str">
         <f>IF(ISBLANK(raw!A28),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A28))</f>
         <v/>
       </c>
@@ -1333,13 +1348,13 @@
         <f>IF(ISBLANK(raw!$B28),"",raw!$B28)</f>
         <v/>
       </c>
-      <c r="E30" t="str">
+      <c r="E30" s="9" t="str">
         <f>IF(ISBLANK(raw!M28),"",raw!$M28)</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" s="8" t="str">
+      <c r="A31" s="10" t="str">
         <f>IF(ISBLANK(raw!A29),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A29))</f>
         <v/>
       </c>
@@ -1355,13 +1370,13 @@
         <f>IF(ISBLANK(raw!$B29),"",raw!$B29)</f>
         <v/>
       </c>
-      <c r="E31" t="str">
+      <c r="E31" s="9" t="str">
         <f>IF(ISBLANK(raw!M29),"",raw!$M29)</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="14.25">
-      <c r="A32" s="8" t="str">
+      <c r="A32" s="10" t="str">
         <f>IF(ISBLANK(raw!A30),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A30))</f>
         <v/>
       </c>
@@ -1377,13 +1392,13 @@
         <f>IF(ISBLANK(raw!$B30),"",raw!$B30)</f>
         <v/>
       </c>
-      <c r="E32" t="str">
+      <c r="E32" s="9" t="str">
         <f>IF(ISBLANK(raw!M30),"",raw!$M30)</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="8" t="str">
+      <c r="A33" s="10" t="str">
         <f>IF(ISBLANK(raw!A31),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A31))</f>
         <v/>
       </c>
@@ -1399,13 +1414,13 @@
         <f>IF(ISBLANK(raw!$B31),"",raw!$B31)</f>
         <v/>
       </c>
-      <c r="E33" t="str">
+      <c r="E33" s="9" t="str">
         <f>IF(ISBLANK(raw!M31),"",raw!$M31)</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" s="8" t="str">
+      <c r="A34" s="10" t="str">
         <f>IF(ISBLANK(raw!A32),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A32))</f>
         <v/>
       </c>
@@ -1421,13 +1436,13 @@
         <f>IF(ISBLANK(raw!$B32),"",raw!$B32)</f>
         <v/>
       </c>
-      <c r="E34" t="str">
+      <c r="E34" s="9" t="str">
         <f>IF(ISBLANK(raw!M32),"",raw!$M32)</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="14.25">
-      <c r="A35" s="8" t="str">
+      <c r="A35" s="10" t="str">
         <f>IF(ISBLANK(raw!A33),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A33))</f>
         <v/>
       </c>
@@ -1443,13 +1458,13 @@
         <f>IF(ISBLANK(raw!$B33),"",raw!$B33)</f>
         <v/>
       </c>
-      <c r="E35" t="str">
+      <c r="E35" s="9" t="str">
         <f>IF(ISBLANK(raw!M33),"",raw!$M33)</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="14.25">
-      <c r="A36" s="8" t="str">
+      <c r="A36" s="10" t="str">
         <f>IF(ISBLANK(raw!A34),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A34))</f>
         <v/>
       </c>
@@ -1465,13 +1480,13 @@
         <f>IF(ISBLANK(raw!$B34),"",raw!$B34)</f>
         <v/>
       </c>
-      <c r="E36" t="str">
+      <c r="E36" s="9" t="str">
         <f>IF(ISBLANK(raw!M34),"",raw!$M34)</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="14.25">
-      <c r="A37" s="8" t="str">
+      <c r="A37" s="10" t="str">
         <f>IF(ISBLANK(raw!A35),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A35))</f>
         <v/>
       </c>
@@ -1487,13 +1502,13 @@
         <f>IF(ISBLANK(raw!$B35),"",raw!$B35)</f>
         <v/>
       </c>
-      <c r="E37" t="str">
+      <c r="E37" s="9" t="str">
         <f>IF(ISBLANK(raw!M35),"",raw!$M35)</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="14.25">
-      <c r="A38" s="8" t="str">
+      <c r="A38" s="10" t="str">
         <f>IF(ISBLANK(raw!A36),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A36))</f>
         <v/>
       </c>
@@ -1509,13 +1524,13 @@
         <f>IF(ISBLANK(raw!$B36),"",raw!$B36)</f>
         <v/>
       </c>
-      <c r="E38" t="str">
+      <c r="E38" s="9" t="str">
         <f>IF(ISBLANK(raw!M36),"",raw!$M36)</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="14.25">
-      <c r="A39" s="8" t="str">
+      <c r="A39" s="10" t="str">
         <f>IF(ISBLANK(raw!A37),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A37))</f>
         <v/>
       </c>
@@ -1531,13 +1546,13 @@
         <f>IF(ISBLANK(raw!$B37),"",raw!$B37)</f>
         <v/>
       </c>
-      <c r="E39" t="str">
+      <c r="E39" s="9" t="str">
         <f>IF(ISBLANK(raw!M37),"",raw!$M37)</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="14.25">
-      <c r="A40" s="8" t="str">
+      <c r="A40" s="10" t="str">
         <f>IF(ISBLANK(raw!A38),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A38))</f>
         <v/>
       </c>
@@ -1553,13 +1568,13 @@
         <f>IF(ISBLANK(raw!$B38),"",raw!$B38)</f>
         <v/>
       </c>
-      <c r="E40" t="str">
+      <c r="E40" s="9" t="str">
         <f>IF(ISBLANK(raw!M38),"",raw!$M38)</f>
         <v/>
       </c>
     </row>
     <row r="41" ht="14.25">
-      <c r="A41" s="8" t="str">
+      <c r="A41" s="10" t="str">
         <f>IF(ISBLANK(raw!A39),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A39))</f>
         <v/>
       </c>
@@ -1575,13 +1590,13 @@
         <f>IF(ISBLANK(raw!$B39),"",raw!$B39)</f>
         <v/>
       </c>
-      <c r="E41" t="str">
+      <c r="E41" s="9" t="str">
         <f>IF(ISBLANK(raw!M39),"",raw!$M39)</f>
         <v/>
       </c>
     </row>
     <row r="42" ht="14.25">
-      <c r="A42" s="8" t="str">
+      <c r="A42" s="10" t="str">
         <f>IF(ISBLANK(raw!A40),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A40))</f>
         <v/>
       </c>
@@ -1597,13 +1612,13 @@
         <f>IF(ISBLANK(raw!$B40),"",raw!$B40)</f>
         <v/>
       </c>
-      <c r="E42" t="str">
+      <c r="E42" s="9" t="str">
         <f>IF(ISBLANK(raw!M40),"",raw!$M40)</f>
         <v/>
       </c>
     </row>
     <row r="43" ht="14.25">
-      <c r="A43" s="8" t="str">
+      <c r="A43" s="10" t="str">
         <f>IF(ISBLANK(raw!A41),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A41))</f>
         <v/>
       </c>
@@ -1619,13 +1634,13 @@
         <f>IF(ISBLANK(raw!$B41),"",raw!$B41)</f>
         <v/>
       </c>
-      <c r="E43" t="str">
+      <c r="E43" s="9" t="str">
         <f>IF(ISBLANK(raw!M41),"",raw!$M41)</f>
         <v/>
       </c>
     </row>
     <row r="44" ht="14.25">
-      <c r="A44" s="8" t="str">
+      <c r="A44" s="10" t="str">
         <f>IF(ISBLANK(raw!A42),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A42))</f>
         <v/>
       </c>
@@ -1641,13 +1656,13 @@
         <f>IF(ISBLANK(raw!$B42),"",raw!$B42)</f>
         <v/>
       </c>
-      <c r="E44" t="str">
+      <c r="E44" s="9" t="str">
         <f>IF(ISBLANK(raw!M42),"",raw!$M42)</f>
         <v/>
       </c>
     </row>
     <row r="45" ht="14.25">
-      <c r="A45" s="8" t="str">
+      <c r="A45" s="10" t="str">
         <f>IF(ISBLANK(raw!A43),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A43))</f>
         <v/>
       </c>
@@ -1663,13 +1678,13 @@
         <f>IF(ISBLANK(raw!$B43),"",raw!$B43)</f>
         <v/>
       </c>
-      <c r="E45" t="str">
+      <c r="E45" s="9" t="str">
         <f>IF(ISBLANK(raw!M43),"",raw!$M43)</f>
         <v/>
       </c>
     </row>
     <row r="46" ht="14.25">
-      <c r="A46" s="8" t="str">
+      <c r="A46" s="10" t="str">
         <f>IF(ISBLANK(raw!A44),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A44))</f>
         <v/>
       </c>
@@ -1685,13 +1700,13 @@
         <f>IF(ISBLANK(raw!$B44),"",raw!$B44)</f>
         <v/>
       </c>
-      <c r="E46" t="str">
+      <c r="E46" s="9" t="str">
         <f>IF(ISBLANK(raw!M44),"",raw!$M44)</f>
         <v/>
       </c>
     </row>
     <row r="47" ht="14.25">
-      <c r="A47" s="8" t="str">
+      <c r="A47" s="10" t="str">
         <f>IF(ISBLANK(raw!A45),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A45))</f>
         <v/>
       </c>
@@ -1707,13 +1722,13 @@
         <f>IF(ISBLANK(raw!$B45),"",raw!$B45)</f>
         <v/>
       </c>
-      <c r="E47" t="str">
+      <c r="E47" s="9" t="str">
         <f>IF(ISBLANK(raw!M45),"",raw!$M45)</f>
         <v/>
       </c>
     </row>
     <row r="48" ht="14.25">
-      <c r="A48" s="8" t="str">
+      <c r="A48" s="10" t="str">
         <f>IF(ISBLANK(raw!A46),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A46))</f>
         <v/>
       </c>
@@ -1729,13 +1744,13 @@
         <f>IF(ISBLANK(raw!$B46),"",raw!$B46)</f>
         <v/>
       </c>
-      <c r="E48" t="str">
+      <c r="E48" s="9" t="str">
         <f>IF(ISBLANK(raw!M46),"",raw!$M46)</f>
         <v/>
       </c>
     </row>
     <row r="49" ht="14.25">
-      <c r="A49" s="8" t="str">
+      <c r="A49" s="10" t="str">
         <f>IF(ISBLANK(raw!A47),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A47))</f>
         <v/>
       </c>
@@ -1751,13 +1766,13 @@
         <f>IF(ISBLANK(raw!$B47),"",raw!$B47)</f>
         <v/>
       </c>
-      <c r="E49" t="str">
+      <c r="E49" s="9" t="str">
         <f>IF(ISBLANK(raw!M47),"",raw!$M47)</f>
         <v/>
       </c>
     </row>
     <row r="50" ht="14.25">
-      <c r="A50" s="8" t="str">
+      <c r="A50" s="10" t="str">
         <f>IF(ISBLANK(raw!A48),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A48))</f>
         <v/>
       </c>
@@ -1773,13 +1788,13 @@
         <f>IF(ISBLANK(raw!$B48),"",raw!$B48)</f>
         <v/>
       </c>
-      <c r="E50" t="str">
+      <c r="E50" s="9" t="str">
         <f>IF(ISBLANK(raw!M48),"",raw!$M48)</f>
         <v/>
       </c>
     </row>
     <row r="51" ht="14.25">
-      <c r="A51" s="8" t="str">
+      <c r="A51" s="10" t="str">
         <f>IF(ISBLANK(raw!A49),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A49))</f>
         <v/>
       </c>
@@ -1795,13 +1810,13 @@
         <f>IF(ISBLANK(raw!$B49),"",raw!$B49)</f>
         <v/>
       </c>
-      <c r="E51" t="str">
+      <c r="E51" s="9" t="str">
         <f>IF(ISBLANK(raw!M49),"",raw!$M49)</f>
         <v/>
       </c>
     </row>
     <row r="52" ht="14.25">
-      <c r="A52" s="8" t="str">
+      <c r="A52" s="10" t="str">
         <f>IF(ISBLANK(raw!A50),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A50))</f>
         <v/>
       </c>
@@ -1817,13 +1832,13 @@
         <f>IF(ISBLANK(raw!$B50),"",raw!$B50)</f>
         <v/>
       </c>
-      <c r="E52" t="str">
+      <c r="E52" s="9" t="str">
         <f>IF(ISBLANK(raw!M50),"",raw!$M50)</f>
         <v/>
       </c>
     </row>
     <row r="53" ht="14.25">
-      <c r="A53" s="8" t="str">
+      <c r="A53" s="10" t="str">
         <f>IF(ISBLANK(raw!A51),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A51))</f>
         <v/>
       </c>
@@ -1839,13 +1854,13 @@
         <f>IF(ISBLANK(raw!$B51),"",raw!$B51)</f>
         <v/>
       </c>
-      <c r="E53" t="str">
+      <c r="E53" s="9" t="str">
         <f>IF(ISBLANK(raw!M51),"",raw!$M51)</f>
         <v/>
       </c>
     </row>
     <row r="54" ht="14.25">
-      <c r="A54" s="8" t="str">
+      <c r="A54" s="10" t="str">
         <f>IF(ISBLANK(raw!A52),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A52))</f>
         <v/>
       </c>
@@ -1861,13 +1876,13 @@
         <f>IF(ISBLANK(raw!$B52),"",raw!$B52)</f>
         <v/>
       </c>
-      <c r="E54" t="str">
+      <c r="E54" s="9" t="str">
         <f>IF(ISBLANK(raw!M52),"",raw!$M52)</f>
         <v/>
       </c>
     </row>
     <row r="55" ht="14.25">
-      <c r="A55" s="8" t="str">
+      <c r="A55" s="10" t="str">
         <f>IF(ISBLANK(raw!A53),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A53))</f>
         <v/>
       </c>
@@ -1883,13 +1898,13 @@
         <f>IF(ISBLANK(raw!$B53),"",raw!$B53)</f>
         <v/>
       </c>
-      <c r="E55" t="str">
+      <c r="E55" s="9" t="str">
         <f>IF(ISBLANK(raw!M53),"",raw!$M53)</f>
         <v/>
       </c>
     </row>
     <row r="56" ht="14.25">
-      <c r="A56" s="8" t="str">
+      <c r="A56" s="10" t="str">
         <f>IF(ISBLANK(raw!A54),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A54))</f>
         <v/>
       </c>
@@ -1905,13 +1920,13 @@
         <f>IF(ISBLANK(raw!$B54),"",raw!$B54)</f>
         <v/>
       </c>
-      <c r="E56" t="str">
+      <c r="E56" s="9" t="str">
         <f>IF(ISBLANK(raw!M54),"",raw!$M54)</f>
         <v/>
       </c>
     </row>
     <row r="57" ht="14.25">
-      <c r="A57" s="8" t="str">
+      <c r="A57" s="10" t="str">
         <f>IF(ISBLANK(raw!A55),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A55))</f>
         <v/>
       </c>
@@ -1927,13 +1942,13 @@
         <f>IF(ISBLANK(raw!$B55),"",raw!$B55)</f>
         <v/>
       </c>
-      <c r="E57" t="str">
+      <c r="E57" s="9" t="str">
         <f>IF(ISBLANK(raw!M55),"",raw!$M55)</f>
         <v/>
       </c>
     </row>
     <row r="58" ht="14.25">
-      <c r="A58" s="8" t="str">
+      <c r="A58" s="10" t="str">
         <f>IF(ISBLANK(raw!A56),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A56))</f>
         <v/>
       </c>
@@ -1949,13 +1964,13 @@
         <f>IF(ISBLANK(raw!$B56),"",raw!$B56)</f>
         <v/>
       </c>
-      <c r="E58" t="str">
+      <c r="E58" s="9" t="str">
         <f>IF(ISBLANK(raw!M56),"",raw!$M56)</f>
         <v/>
       </c>
     </row>
     <row r="59" ht="14.25">
-      <c r="A59" s="8" t="str">
+      <c r="A59" s="10" t="str">
         <f>IF(ISBLANK(raw!A57),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A57))</f>
         <v/>
       </c>
@@ -1971,13 +1986,13 @@
         <f>IF(ISBLANK(raw!$B57),"",raw!$B57)</f>
         <v/>
       </c>
-      <c r="E59" t="str">
+      <c r="E59" s="9" t="str">
         <f>IF(ISBLANK(raw!M57),"",raw!$M57)</f>
         <v/>
       </c>
     </row>
     <row r="60" ht="14.25">
-      <c r="A60" s="8" t="str">
+      <c r="A60" s="10" t="str">
         <f>IF(ISBLANK(raw!A58),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A58))</f>
         <v/>
       </c>
@@ -1993,13 +2008,13 @@
         <f>IF(ISBLANK(raw!$B58),"",raw!$B58)</f>
         <v/>
       </c>
-      <c r="E60" t="str">
+      <c r="E60" s="9" t="str">
         <f>IF(ISBLANK(raw!M58),"",raw!$M58)</f>
         <v/>
       </c>
     </row>
     <row r="61" ht="14.25">
-      <c r="A61" s="8" t="str">
+      <c r="A61" s="10" t="str">
         <f>IF(ISBLANK(raw!A59),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A59))</f>
         <v/>
       </c>
@@ -2015,13 +2030,13 @@
         <f>IF(ISBLANK(raw!$B59),"",raw!$B59)</f>
         <v/>
       </c>
-      <c r="E61" t="str">
+      <c r="E61" s="9" t="str">
         <f>IF(ISBLANK(raw!M59),"",raw!$M59)</f>
         <v/>
       </c>
     </row>
     <row r="62" ht="14.25">
-      <c r="A62" s="8" t="str">
+      <c r="A62" s="10" t="str">
         <f>IF(ISBLANK(raw!A60),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A60))</f>
         <v/>
       </c>
@@ -2037,13 +2052,13 @@
         <f>IF(ISBLANK(raw!$B60),"",raw!$B60)</f>
         <v/>
       </c>
-      <c r="E62" t="str">
+      <c r="E62" s="9" t="str">
         <f>IF(ISBLANK(raw!M60),"",raw!$M60)</f>
         <v/>
       </c>
     </row>
     <row r="63" ht="14.25">
-      <c r="A63" s="8" t="str">
+      <c r="A63" s="10" t="str">
         <f>IF(ISBLANK(raw!A61),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A61))</f>
         <v/>
       </c>
@@ -2059,13 +2074,13 @@
         <f>IF(ISBLANK(raw!$B61),"",raw!$B61)</f>
         <v/>
       </c>
-      <c r="E63" t="str">
+      <c r="E63" s="9" t="str">
         <f>IF(ISBLANK(raw!M61),"",raw!$M61)</f>
         <v/>
       </c>
     </row>
     <row r="64" ht="14.25">
-      <c r="A64" s="8" t="str">
+      <c r="A64" s="10" t="str">
         <f>IF(ISBLANK(raw!A62),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A62))</f>
         <v/>
       </c>
@@ -2081,13 +2096,13 @@
         <f>IF(ISBLANK(raw!$B62),"",raw!$B62)</f>
         <v/>
       </c>
-      <c r="E64" t="str">
+      <c r="E64" s="9" t="str">
         <f>IF(ISBLANK(raw!M62),"",raw!$M62)</f>
         <v/>
       </c>
     </row>
     <row r="65" ht="14.25">
-      <c r="A65" s="8" t="str">
+      <c r="A65" s="10" t="str">
         <f>IF(ISBLANK(raw!A63),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A63))</f>
         <v/>
       </c>
@@ -2103,13 +2118,13 @@
         <f>IF(ISBLANK(raw!$B63),"",raw!$B63)</f>
         <v/>
       </c>
-      <c r="E65" t="str">
+      <c r="E65" s="9" t="str">
         <f>IF(ISBLANK(raw!M63),"",raw!$M63)</f>
         <v/>
       </c>
     </row>
     <row r="66" ht="14.25">
-      <c r="A66" s="8" t="str">
+      <c r="A66" s="10" t="str">
         <f>IF(ISBLANK(raw!A64),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A64))</f>
         <v/>
       </c>
@@ -2125,13 +2140,13 @@
         <f>IF(ISBLANK(raw!$B64),"",raw!$B64)</f>
         <v/>
       </c>
-      <c r="E66" t="str">
+      <c r="E66" s="9" t="str">
         <f>IF(ISBLANK(raw!M64),"",raw!$M64)</f>
         <v/>
       </c>
     </row>
     <row r="67" ht="14.25">
-      <c r="A67" s="8" t="str">
+      <c r="A67" s="10" t="str">
         <f>IF(ISBLANK(raw!A65),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A65))</f>
         <v/>
       </c>
@@ -2147,13 +2162,13 @@
         <f>IF(ISBLANK(raw!$B65),"",raw!$B65)</f>
         <v/>
       </c>
-      <c r="E67" t="str">
+      <c r="E67" s="9" t="str">
         <f>IF(ISBLANK(raw!M65),"",raw!$M65)</f>
         <v/>
       </c>
     </row>
     <row r="68" ht="14.25">
-      <c r="A68" s="8" t="str">
+      <c r="A68" s="10" t="str">
         <f>IF(ISBLANK(raw!A66),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A66))</f>
         <v/>
       </c>
@@ -2169,13 +2184,13 @@
         <f>IF(ISBLANK(raw!$B66),"",raw!$B66)</f>
         <v/>
       </c>
-      <c r="E68" t="str">
+      <c r="E68" s="9" t="str">
         <f>IF(ISBLANK(raw!M66),"",raw!$M66)</f>
         <v/>
       </c>
     </row>
     <row r="69" ht="14.25">
-      <c r="A69" s="8" t="str">
+      <c r="A69" s="10" t="str">
         <f>IF(ISBLANK(raw!A67),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A67))</f>
         <v/>
       </c>
@@ -2191,13 +2206,13 @@
         <f>IF(ISBLANK(raw!$B67),"",raw!$B67)</f>
         <v/>
       </c>
-      <c r="E69" t="str">
+      <c r="E69" s="9" t="str">
         <f>IF(ISBLANK(raw!M67),"",raw!$M67)</f>
         <v/>
       </c>
     </row>
     <row r="70" ht="14.25">
-      <c r="A70" s="8" t="str">
+      <c r="A70" s="10" t="str">
         <f>IF(ISBLANK(raw!A68),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A68))</f>
         <v/>
       </c>
@@ -2213,13 +2228,13 @@
         <f>IF(ISBLANK(raw!$B68),"",raw!$B68)</f>
         <v/>
       </c>
-      <c r="E70" t="str">
+      <c r="E70" s="9" t="str">
         <f>IF(ISBLANK(raw!M68),"",raw!$M68)</f>
         <v/>
       </c>
     </row>
     <row r="71" ht="14.25">
-      <c r="A71" s="8" t="str">
+      <c r="A71" s="10" t="str">
         <f>IF(ISBLANK(raw!A69),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A69))</f>
         <v/>
       </c>
@@ -2235,13 +2250,13 @@
         <f>IF(ISBLANK(raw!$B69),"",raw!$B69)</f>
         <v/>
       </c>
-      <c r="E71" t="str">
+      <c r="E71" s="9" t="str">
         <f>IF(ISBLANK(raw!M69),"",raw!$M69)</f>
         <v/>
       </c>
     </row>
     <row r="72" ht="14.25">
-      <c r="A72" s="8" t="str">
+      <c r="A72" s="10" t="str">
         <f>IF(ISBLANK(raw!A70),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A70))</f>
         <v/>
       </c>
@@ -2257,13 +2272,13 @@
         <f>IF(ISBLANK(raw!$B70),"",raw!$B70)</f>
         <v/>
       </c>
-      <c r="E72" t="str">
+      <c r="E72" s="9" t="str">
         <f>IF(ISBLANK(raw!M70),"",raw!$M70)</f>
         <v/>
       </c>
     </row>
     <row r="73" ht="14.25">
-      <c r="A73" s="8" t="str">
+      <c r="A73" s="10" t="str">
         <f>IF(ISBLANK(raw!A71),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A71))</f>
         <v/>
       </c>
@@ -2279,13 +2294,13 @@
         <f>IF(ISBLANK(raw!$B71),"",raw!$B71)</f>
         <v/>
       </c>
-      <c r="E73" t="str">
+      <c r="E73" s="9" t="str">
         <f>IF(ISBLANK(raw!M71),"",raw!$M71)</f>
         <v/>
       </c>
     </row>
     <row r="74" ht="14.25">
-      <c r="A74" s="8" t="str">
+      <c r="A74" s="10" t="str">
         <f>IF(ISBLANK(raw!A72),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A72))</f>
         <v/>
       </c>
@@ -2301,13 +2316,13 @@
         <f>IF(ISBLANK(raw!$B72),"",raw!$B72)</f>
         <v/>
       </c>
-      <c r="E74" t="str">
+      <c r="E74" s="9" t="str">
         <f>IF(ISBLANK(raw!M72),"",raw!$M72)</f>
         <v/>
       </c>
     </row>
     <row r="75" ht="14.25">
-      <c r="A75" s="8" t="str">
+      <c r="A75" s="10" t="str">
         <f>IF(ISBLANK(raw!A73),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A73))</f>
         <v/>
       </c>
@@ -2323,13 +2338,13 @@
         <f>IF(ISBLANK(raw!$B73),"",raw!$B73)</f>
         <v/>
       </c>
-      <c r="E75" t="str">
+      <c r="E75" s="9" t="str">
         <f>IF(ISBLANK(raw!M73),"",raw!$M73)</f>
         <v/>
       </c>
     </row>
     <row r="76" ht="14.25">
-      <c r="A76" s="8" t="str">
+      <c r="A76" s="10" t="str">
         <f>IF(ISBLANK(raw!A74),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A74))</f>
         <v/>
       </c>
@@ -2345,13 +2360,13 @@
         <f>IF(ISBLANK(raw!$B74),"",raw!$B74)</f>
         <v/>
       </c>
-      <c r="E76" t="str">
+      <c r="E76" s="9" t="str">
         <f>IF(ISBLANK(raw!M74),"",raw!$M74)</f>
         <v/>
       </c>
     </row>
     <row r="77" ht="14.25">
-      <c r="A77" s="8" t="str">
+      <c r="A77" s="10" t="str">
         <f>IF(ISBLANK(raw!A75),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A75))</f>
         <v/>
       </c>
@@ -2367,13 +2382,13 @@
         <f>IF(ISBLANK(raw!$B75),"",raw!$B75)</f>
         <v/>
       </c>
-      <c r="E77" t="str">
+      <c r="E77" s="9" t="str">
         <f>IF(ISBLANK(raw!M75),"",raw!$M75)</f>
         <v/>
       </c>
     </row>
     <row r="78" ht="14.25">
-      <c r="A78" s="8" t="str">
+      <c r="A78" s="10" t="str">
         <f>IF(ISBLANK(raw!A76),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A76))</f>
         <v/>
       </c>
@@ -2389,13 +2404,13 @@
         <f>IF(ISBLANK(raw!$B76),"",raw!$B76)</f>
         <v/>
       </c>
-      <c r="E78" t="str">
+      <c r="E78" s="9" t="str">
         <f>IF(ISBLANK(raw!M76),"",raw!$M76)</f>
         <v/>
       </c>
     </row>
     <row r="79" ht="14.25">
-      <c r="A79" s="8" t="str">
+      <c r="A79" s="10" t="str">
         <f>IF(ISBLANK(raw!A77),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A77))</f>
         <v/>
       </c>
@@ -2411,13 +2426,13 @@
         <f>IF(ISBLANK(raw!$B77),"",raw!$B77)</f>
         <v/>
       </c>
-      <c r="E79" t="str">
+      <c r="E79" s="9" t="str">
         <f>IF(ISBLANK(raw!M77),"",raw!$M77)</f>
         <v/>
       </c>
     </row>
     <row r="80" ht="14.25">
-      <c r="A80" s="8" t="str">
+      <c r="A80" s="10" t="str">
         <f>IF(ISBLANK(raw!A78),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A78))</f>
         <v/>
       </c>
@@ -2433,13 +2448,13 @@
         <f>IF(ISBLANK(raw!$B78),"",raw!$B78)</f>
         <v/>
       </c>
-      <c r="E80" t="str">
+      <c r="E80" s="9" t="str">
         <f>IF(ISBLANK(raw!M78),"",raw!$M78)</f>
         <v/>
       </c>
     </row>
     <row r="81" ht="14.25">
-      <c r="A81" s="8" t="str">
+      <c r="A81" s="10" t="str">
         <f>IF(ISBLANK(raw!A79),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A79))</f>
         <v/>
       </c>
@@ -2455,13 +2470,13 @@
         <f>IF(ISBLANK(raw!$B79),"",raw!$B79)</f>
         <v/>
       </c>
-      <c r="E81" t="str">
+      <c r="E81" s="9" t="str">
         <f>IF(ISBLANK(raw!M79),"",raw!$M79)</f>
         <v/>
       </c>
     </row>
     <row r="82" ht="14.25">
-      <c r="A82" s="8" t="str">
+      <c r="A82" s="10" t="str">
         <f>IF(ISBLANK(raw!A80),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A80))</f>
         <v/>
       </c>
@@ -2477,13 +2492,13 @@
         <f>IF(ISBLANK(raw!$B80),"",raw!$B80)</f>
         <v/>
       </c>
-      <c r="E82" t="str">
+      <c r="E82" s="9" t="str">
         <f>IF(ISBLANK(raw!M80),"",raw!$M80)</f>
         <v/>
       </c>
     </row>
     <row r="83" ht="14.25">
-      <c r="A83" s="8" t="str">
+      <c r="A83" s="10" t="str">
         <f>IF(ISBLANK(raw!A81),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A81))</f>
         <v/>
       </c>
@@ -2499,13 +2514,13 @@
         <f>IF(ISBLANK(raw!$B81),"",raw!$B81)</f>
         <v/>
       </c>
-      <c r="E83" t="str">
+      <c r="E83" s="9" t="str">
         <f>IF(ISBLANK(raw!M81),"",raw!$M81)</f>
         <v/>
       </c>
     </row>
     <row r="84" ht="14.25">
-      <c r="A84" s="8" t="str">
+      <c r="A84" s="10" t="str">
         <f>IF(ISBLANK(raw!A82),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A82))</f>
         <v/>
       </c>
@@ -2521,13 +2536,13 @@
         <f>IF(ISBLANK(raw!$B82),"",raw!$B82)</f>
         <v/>
       </c>
-      <c r="E84" t="str">
+      <c r="E84" s="9" t="str">
         <f>IF(ISBLANK(raw!M82),"",raw!$M82)</f>
         <v/>
       </c>
     </row>
     <row r="85" ht="14.25">
-      <c r="A85" s="8" t="str">
+      <c r="A85" s="10" t="str">
         <f>IF(ISBLANK(raw!A83),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A83))</f>
         <v/>
       </c>
@@ -2543,13 +2558,13 @@
         <f>IF(ISBLANK(raw!$B83),"",raw!$B83)</f>
         <v/>
       </c>
-      <c r="E85" t="str">
+      <c r="E85" s="9" t="str">
         <f>IF(ISBLANK(raw!M83),"",raw!$M83)</f>
         <v/>
       </c>
     </row>
     <row r="86" ht="14.25">
-      <c r="A86" s="8" t="str">
+      <c r="A86" s="10" t="str">
         <f>IF(ISBLANK(raw!A84),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A84))</f>
         <v/>
       </c>
@@ -2565,13 +2580,13 @@
         <f>IF(ISBLANK(raw!$B84),"",raw!$B84)</f>
         <v/>
       </c>
-      <c r="E86" t="str">
+      <c r="E86" s="9" t="str">
         <f>IF(ISBLANK(raw!M84),"",raw!$M84)</f>
         <v/>
       </c>
     </row>
     <row r="87" ht="14.25">
-      <c r="A87" s="8" t="str">
+      <c r="A87" s="10" t="str">
         <f>IF(ISBLANK(raw!A85),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A85))</f>
         <v/>
       </c>
@@ -2587,13 +2602,13 @@
         <f>IF(ISBLANK(raw!$B85),"",raw!$B85)</f>
         <v/>
       </c>
-      <c r="E87" t="str">
+      <c r="E87" s="9" t="str">
         <f>IF(ISBLANK(raw!M85),"",raw!$M85)</f>
         <v/>
       </c>
     </row>
     <row r="88" ht="14.25">
-      <c r="A88" s="8" t="str">
+      <c r="A88" s="10" t="str">
         <f>IF(ISBLANK(raw!A86),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A86))</f>
         <v/>
       </c>
@@ -2609,13 +2624,13 @@
         <f>IF(ISBLANK(raw!$B86),"",raw!$B86)</f>
         <v/>
       </c>
-      <c r="E88" t="str">
+      <c r="E88" s="9" t="str">
         <f>IF(ISBLANK(raw!M86),"",raw!$M86)</f>
         <v/>
       </c>
     </row>
     <row r="89" ht="14.25">
-      <c r="A89" s="8" t="str">
+      <c r="A89" s="10" t="str">
         <f>IF(ISBLANK(raw!A87),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A87))</f>
         <v/>
       </c>
@@ -2631,13 +2646,13 @@
         <f>IF(ISBLANK(raw!$B87),"",raw!$B87)</f>
         <v/>
       </c>
-      <c r="E89" t="str">
+      <c r="E89" s="9" t="str">
         <f>IF(ISBLANK(raw!M87),"",raw!$M87)</f>
         <v/>
       </c>
     </row>
     <row r="90" ht="14.25">
-      <c r="A90" s="8" t="str">
+      <c r="A90" s="10" t="str">
         <f>IF(ISBLANK(raw!A88),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A88))</f>
         <v/>
       </c>
@@ -2653,13 +2668,13 @@
         <f>IF(ISBLANK(raw!$B88),"",raw!$B88)</f>
         <v/>
       </c>
-      <c r="E90" t="str">
+      <c r="E90" s="9" t="str">
         <f>IF(ISBLANK(raw!M88),"",raw!$M88)</f>
         <v/>
       </c>
     </row>
     <row r="91" ht="14.25">
-      <c r="A91" s="8" t="str">
+      <c r="A91" s="10" t="str">
         <f>IF(ISBLANK(raw!A89),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A89))</f>
         <v/>
       </c>
@@ -2675,13 +2690,13 @@
         <f>IF(ISBLANK(raw!$B89),"",raw!$B89)</f>
         <v/>
       </c>
-      <c r="E91" t="str">
+      <c r="E91" s="9" t="str">
         <f>IF(ISBLANK(raw!M89),"",raw!$M89)</f>
         <v/>
       </c>
     </row>
     <row r="92" ht="14.25">
-      <c r="A92" s="8" t="str">
+      <c r="A92" s="10" t="str">
         <f>IF(ISBLANK(raw!A90),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A90))</f>
         <v/>
       </c>
@@ -2697,13 +2712,13 @@
         <f>IF(ISBLANK(raw!$B90),"",raw!$B90)</f>
         <v/>
       </c>
-      <c r="E92" t="str">
+      <c r="E92" s="9" t="str">
         <f>IF(ISBLANK(raw!M90),"",raw!$M90)</f>
         <v/>
       </c>
     </row>
     <row r="93" ht="14.25">
-      <c r="A93" s="8" t="str">
+      <c r="A93" s="10" t="str">
         <f>IF(ISBLANK(raw!A91),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A91))</f>
         <v/>
       </c>
@@ -2719,13 +2734,13 @@
         <f>IF(ISBLANK(raw!$B91),"",raw!$B91)</f>
         <v/>
       </c>
-      <c r="E93" t="str">
+      <c r="E93" s="9" t="str">
         <f>IF(ISBLANK(raw!M91),"",raw!$M91)</f>
         <v/>
       </c>
     </row>
     <row r="94" ht="14.25">
-      <c r="A94" s="8" t="str">
+      <c r="A94" s="10" t="str">
         <f>IF(ISBLANK(raw!A92),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A92))</f>
         <v/>
       </c>
@@ -2741,13 +2756,13 @@
         <f>IF(ISBLANK(raw!$B92),"",raw!$B92)</f>
         <v/>
       </c>
-      <c r="E94" t="str">
+      <c r="E94" s="9" t="str">
         <f>IF(ISBLANK(raw!M92),"",raw!$M92)</f>
         <v/>
       </c>
     </row>
     <row r="95" ht="14.25">
-      <c r="A95" s="8" t="str">
+      <c r="A95" s="10" t="str">
         <f>IF(ISBLANK(raw!A93),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A93))</f>
         <v/>
       </c>
@@ -2763,13 +2778,13 @@
         <f>IF(ISBLANK(raw!$B93),"",raw!$B93)</f>
         <v/>
       </c>
-      <c r="E95" t="str">
+      <c r="E95" s="9" t="str">
         <f>IF(ISBLANK(raw!M93),"",raw!$M93)</f>
         <v/>
       </c>
     </row>
     <row r="96" ht="14.25">
-      <c r="A96" s="8" t="str">
+      <c r="A96" s="10" t="str">
         <f>IF(ISBLANK(raw!A94),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A94))</f>
         <v/>
       </c>
@@ -2785,13 +2800,13 @@
         <f>IF(ISBLANK(raw!$B94),"",raw!$B94)</f>
         <v/>
       </c>
-      <c r="E96" t="str">
+      <c r="E96" s="9" t="str">
         <f>IF(ISBLANK(raw!M94),"",raw!$M94)</f>
         <v/>
       </c>
     </row>
     <row r="97" ht="14.25">
-      <c r="A97" s="8" t="str">
+      <c r="A97" s="10" t="str">
         <f>IF(ISBLANK(raw!A95),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A95))</f>
         <v/>
       </c>
@@ -2807,13 +2822,13 @@
         <f>IF(ISBLANK(raw!$B95),"",raw!$B95)</f>
         <v/>
       </c>
-      <c r="E97" t="str">
+      <c r="E97" s="9" t="str">
         <f>IF(ISBLANK(raw!M95),"",raw!$M95)</f>
         <v/>
       </c>
     </row>
     <row r="98" ht="14.25">
-      <c r="A98" s="8" t="str">
+      <c r="A98" s="10" t="str">
         <f>IF(ISBLANK(raw!A96),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A96))</f>
         <v/>
       </c>
@@ -2829,13 +2844,13 @@
         <f>IF(ISBLANK(raw!$B96),"",raw!$B96)</f>
         <v/>
       </c>
-      <c r="E98" t="str">
+      <c r="E98" s="9" t="str">
         <f>IF(ISBLANK(raw!M96),"",raw!$M96)</f>
         <v/>
       </c>
     </row>
     <row r="99" ht="14.25">
-      <c r="A99" s="8" t="str">
+      <c r="A99" s="10" t="str">
         <f>IF(ISBLANK(raw!A97),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A97))</f>
         <v/>
       </c>
@@ -2851,13 +2866,13 @@
         <f>IF(ISBLANK(raw!$B97),"",raw!$B97)</f>
         <v/>
       </c>
-      <c r="E99" t="str">
+      <c r="E99" s="9" t="str">
         <f>IF(ISBLANK(raw!M97),"",raw!$M97)</f>
         <v/>
       </c>
     </row>
     <row r="100" ht="14.25">
-      <c r="A100" s="8" t="str">
+      <c r="A100" s="10" t="str">
         <f>IF(ISBLANK(raw!A98),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A98))</f>
         <v/>
       </c>
@@ -2873,13 +2888,13 @@
         <f>IF(ISBLANK(raw!$B98),"",raw!$B98)</f>
         <v/>
       </c>
-      <c r="E100" t="str">
+      <c r="E100" s="9" t="str">
         <f>IF(ISBLANK(raw!M98),"",raw!$M98)</f>
         <v/>
       </c>
     </row>
     <row r="101" ht="14.25">
-      <c r="A101" s="8" t="str">
+      <c r="A101" s="10" t="str">
         <f>IF(ISBLANK(raw!A99),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A99))</f>
         <v/>
       </c>
@@ -2895,13 +2910,13 @@
         <f>IF(ISBLANK(raw!$B99),"",raw!$B99)</f>
         <v/>
       </c>
-      <c r="E101" t="str">
+      <c r="E101" s="9" t="str">
         <f>IF(ISBLANK(raw!M99),"",raw!$M99)</f>
         <v/>
       </c>
     </row>
     <row r="102" ht="14.25">
-      <c r="A102" s="8" t="str">
+      <c r="A102" s="10" t="str">
         <f>IF(ISBLANK(raw!A100),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A100))</f>
         <v/>
       </c>
@@ -2917,13 +2932,13 @@
         <f>IF(ISBLANK(raw!$B100),"",raw!$B100)</f>
         <v/>
       </c>
-      <c r="E102" t="str">
+      <c r="E102" s="9" t="str">
         <f>IF(ISBLANK(raw!M100),"",raw!$M100)</f>
         <v/>
       </c>
     </row>
     <row r="103" ht="14.25">
-      <c r="A103" s="8" t="str">
+      <c r="A103" s="10" t="str">
         <f>IF(ISBLANK(raw!A101),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A101))</f>
         <v/>
       </c>
@@ -2939,13 +2954,13 @@
         <f>IF(ISBLANK(raw!$B101),"",raw!$B101)</f>
         <v/>
       </c>
-      <c r="E103" t="str">
+      <c r="E103" s="9" t="str">
         <f>IF(ISBLANK(raw!M101),"",raw!$M101)</f>
         <v/>
       </c>
     </row>
     <row r="104" ht="14.25">
-      <c r="A104" s="8" t="str">
+      <c r="A104" s="10" t="str">
         <f>IF(ISBLANK(raw!A102),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A102))</f>
         <v/>
       </c>
@@ -2961,13 +2976,13 @@
         <f>IF(ISBLANK(raw!$B102),"",raw!$B102)</f>
         <v/>
       </c>
-      <c r="E104" t="str">
+      <c r="E104" s="9" t="str">
         <f>IF(ISBLANK(raw!M102),"",raw!$M102)</f>
         <v/>
       </c>
     </row>
     <row r="105" ht="14.25">
-      <c r="A105" s="8" t="str">
+      <c r="A105" s="10" t="str">
         <f>IF(ISBLANK(raw!A103),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A103))</f>
         <v/>
       </c>
@@ -2983,13 +2998,13 @@
         <f>IF(ISBLANK(raw!$B103),"",raw!$B103)</f>
         <v/>
       </c>
-      <c r="E105" t="str">
+      <c r="E105" s="9" t="str">
         <f>IF(ISBLANK(raw!M103),"",raw!$M103)</f>
         <v/>
       </c>
     </row>
     <row r="106" ht="14.25">
-      <c r="A106" s="8" t="str">
+      <c r="A106" s="10" t="str">
         <f>IF(ISBLANK(raw!A104),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A104))</f>
         <v/>
       </c>
@@ -3005,13 +3020,13 @@
         <f>IF(ISBLANK(raw!$B104),"",raw!$B104)</f>
         <v/>
       </c>
-      <c r="E106" t="str">
+      <c r="E106" s="9" t="str">
         <f>IF(ISBLANK(raw!M104),"",raw!$M104)</f>
         <v/>
       </c>
     </row>
     <row r="107" ht="14.25">
-      <c r="A107" s="8" t="str">
+      <c r="A107" s="10" t="str">
         <f>IF(ISBLANK(raw!A105),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A105))</f>
         <v/>
       </c>
@@ -3027,13 +3042,13 @@
         <f>IF(ISBLANK(raw!$B105),"",raw!$B105)</f>
         <v/>
       </c>
-      <c r="E107" t="str">
+      <c r="E107" s="9" t="str">
         <f>IF(ISBLANK(raw!M105),"",raw!$M105)</f>
         <v/>
       </c>
     </row>
     <row r="108" ht="14.25">
-      <c r="A108" s="8" t="str">
+      <c r="A108" s="10" t="str">
         <f>IF(ISBLANK(raw!A106),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A106))</f>
         <v/>
       </c>
@@ -3049,13 +3064,13 @@
         <f>IF(ISBLANK(raw!$B106),"",raw!$B106)</f>
         <v/>
       </c>
-      <c r="E108" t="str">
+      <c r="E108" s="9" t="str">
         <f>IF(ISBLANK(raw!M106),"",raw!$M106)</f>
         <v/>
       </c>
     </row>
     <row r="109" ht="14.25">
-      <c r="A109" s="8" t="str">
+      <c r="A109" s="10" t="str">
         <f>IF(ISBLANK(raw!A107),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A107))</f>
         <v/>
       </c>
@@ -3071,13 +3086,13 @@
         <f>IF(ISBLANK(raw!$B107),"",raw!$B107)</f>
         <v/>
       </c>
-      <c r="E109" t="str">
+      <c r="E109" s="9" t="str">
         <f>IF(ISBLANK(raw!M107),"",raw!$M107)</f>
         <v/>
       </c>
     </row>
     <row r="110" ht="14.25">
-      <c r="A110" s="8" t="str">
+      <c r="A110" s="10" t="str">
         <f>IF(ISBLANK(raw!A108),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A108))</f>
         <v/>
       </c>
@@ -3093,13 +3108,13 @@
         <f>IF(ISBLANK(raw!$B108),"",raw!$B108)</f>
         <v/>
       </c>
-      <c r="E110" t="str">
+      <c r="E110" s="9" t="str">
         <f>IF(ISBLANK(raw!M108),"",raw!$M108)</f>
         <v/>
       </c>
     </row>
     <row r="111" ht="14.25">
-      <c r="A111" s="8" t="str">
+      <c r="A111" s="10" t="str">
         <f>IF(ISBLANK(raw!A109),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A109))</f>
         <v/>
       </c>
@@ -3115,13 +3130,13 @@
         <f>IF(ISBLANK(raw!$B109),"",raw!$B109)</f>
         <v/>
       </c>
-      <c r="E111" t="str">
+      <c r="E111" s="9" t="str">
         <f>IF(ISBLANK(raw!M109),"",raw!$M109)</f>
         <v/>
       </c>
     </row>
     <row r="112" ht="14.25">
-      <c r="A112" s="8" t="str">
+      <c r="A112" s="10" t="str">
         <f>IF(ISBLANK(raw!A110),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A110))</f>
         <v/>
       </c>
@@ -3137,13 +3152,13 @@
         <f>IF(ISBLANK(raw!$B110),"",raw!$B110)</f>
         <v/>
       </c>
-      <c r="E112" t="str">
+      <c r="E112" s="9" t="str">
         <f>IF(ISBLANK(raw!M110),"",raw!$M110)</f>
         <v/>
       </c>
     </row>
     <row r="113" ht="14.25">
-      <c r="A113" s="8" t="str">
+      <c r="A113" s="10" t="str">
         <f>IF(ISBLANK(raw!A111),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A111))</f>
         <v/>
       </c>
@@ -3159,13 +3174,13 @@
         <f>IF(ISBLANK(raw!$B111),"",raw!$B111)</f>
         <v/>
       </c>
-      <c r="E113" t="str">
+      <c r="E113" s="9" t="str">
         <f>IF(ISBLANK(raw!M111),"",raw!$M111)</f>
         <v/>
       </c>
     </row>
     <row r="114" ht="14.25">
-      <c r="A114" s="8" t="str">
+      <c r="A114" s="10" t="str">
         <f>IF(ISBLANK(raw!A112),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A112))</f>
         <v/>
       </c>
@@ -3181,13 +3196,13 @@
         <f>IF(ISBLANK(raw!$B112),"",raw!$B112)</f>
         <v/>
       </c>
-      <c r="E114" t="str">
+      <c r="E114" s="9" t="str">
         <f>IF(ISBLANK(raw!M112),"",raw!$M112)</f>
         <v/>
       </c>
     </row>
     <row r="115" ht="14.25">
-      <c r="A115" s="8" t="str">
+      <c r="A115" s="10" t="str">
         <f>IF(ISBLANK(raw!A113),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A113))</f>
         <v/>
       </c>
@@ -3203,13 +3218,13 @@
         <f>IF(ISBLANK(raw!$B113),"",raw!$B113)</f>
         <v/>
       </c>
-      <c r="E115" t="str">
+      <c r="E115" s="9" t="str">
         <f>IF(ISBLANK(raw!M113),"",raw!$M113)</f>
         <v/>
       </c>
     </row>
     <row r="116" ht="14.25">
-      <c r="A116" s="8" t="str">
+      <c r="A116" s="10" t="str">
         <f>IF(ISBLANK(raw!A114),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A114))</f>
         <v/>
       </c>
@@ -3225,13 +3240,13 @@
         <f>IF(ISBLANK(raw!$B114),"",raw!$B114)</f>
         <v/>
       </c>
-      <c r="E116" t="str">
+      <c r="E116" s="9" t="str">
         <f>IF(ISBLANK(raw!M114),"",raw!$M114)</f>
         <v/>
       </c>
     </row>
     <row r="117" ht="14.25">
-      <c r="A117" s="8" t="str">
+      <c r="A117" s="10" t="str">
         <f>IF(ISBLANK(raw!A115),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A115))</f>
         <v/>
       </c>
@@ -3247,13 +3262,13 @@
         <f>IF(ISBLANK(raw!$B115),"",raw!$B115)</f>
         <v/>
       </c>
-      <c r="E117" t="str">
+      <c r="E117" s="9" t="str">
         <f>IF(ISBLANK(raw!M115),"",raw!$M115)</f>
         <v/>
       </c>
     </row>
     <row r="118" ht="14.25">
-      <c r="A118" s="8" t="str">
+      <c r="A118" s="10" t="str">
         <f>IF(ISBLANK(raw!A116),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A116))</f>
         <v/>
       </c>
@@ -3269,13 +3284,13 @@
         <f>IF(ISBLANK(raw!$B116),"",raw!$B116)</f>
         <v/>
       </c>
-      <c r="E118" t="str">
+      <c r="E118" s="9" t="str">
         <f>IF(ISBLANK(raw!M116),"",raw!$M116)</f>
         <v/>
       </c>
     </row>
     <row r="119" ht="14.25">
-      <c r="A119" s="8" t="str">
+      <c r="A119" s="10" t="str">
         <f>IF(ISBLANK(raw!A117),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A117))</f>
         <v/>
       </c>
@@ -3291,13 +3306,13 @@
         <f>IF(ISBLANK(raw!$B117),"",raw!$B117)</f>
         <v/>
       </c>
-      <c r="E119" t="str">
+      <c r="E119" s="9" t="str">
         <f>IF(ISBLANK(raw!M117),"",raw!$M117)</f>
         <v/>
       </c>
     </row>
     <row r="120" ht="14.25">
-      <c r="A120" s="8" t="str">
+      <c r="A120" s="10" t="str">
         <f>IF(ISBLANK(raw!A118),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A118))</f>
         <v/>
       </c>
@@ -3313,13 +3328,13 @@
         <f>IF(ISBLANK(raw!$B118),"",raw!$B118)</f>
         <v/>
       </c>
-      <c r="E120" t="str">
+      <c r="E120" s="9" t="str">
         <f>IF(ISBLANK(raw!M118),"",raw!$M118)</f>
         <v/>
       </c>
     </row>
     <row r="121" ht="14.25">
-      <c r="A121" s="8" t="str">
+      <c r="A121" s="10" t="str">
         <f>IF(ISBLANK(raw!A119),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A119))</f>
         <v/>
       </c>
@@ -3335,13 +3350,13 @@
         <f>IF(ISBLANK(raw!$B119),"",raw!$B119)</f>
         <v/>
       </c>
-      <c r="E121" t="str">
+      <c r="E121" s="9" t="str">
         <f>IF(ISBLANK(raw!M119),"",raw!$M119)</f>
         <v/>
       </c>
     </row>
     <row r="122" ht="14.25">
-      <c r="A122" s="8" t="str">
+      <c r="A122" s="10" t="str">
         <f>IF(ISBLANK(raw!A120),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A120))</f>
         <v/>
       </c>
@@ -3357,13 +3372,13 @@
         <f>IF(ISBLANK(raw!$B120),"",raw!$B120)</f>
         <v/>
       </c>
-      <c r="E122" t="str">
+      <c r="E122" s="9" t="str">
         <f>IF(ISBLANK(raw!M120),"",raw!$M120)</f>
         <v/>
       </c>
     </row>
     <row r="123" ht="14.25">
-      <c r="A123" s="8" t="str">
+      <c r="A123" s="10" t="str">
         <f>IF(ISBLANK(raw!A121),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A121))</f>
         <v/>
       </c>
@@ -3379,13 +3394,13 @@
         <f>IF(ISBLANK(raw!$B121),"",raw!$B121)</f>
         <v/>
       </c>
-      <c r="E123" t="str">
+      <c r="E123" s="9" t="str">
         <f>IF(ISBLANK(raw!M121),"",raw!$M121)</f>
         <v/>
       </c>
     </row>
     <row r="124" ht="14.25">
-      <c r="A124" s="8" t="str">
+      <c r="A124" s="10" t="str">
         <f>IF(ISBLANK(raw!A122),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A122))</f>
         <v/>
       </c>
@@ -3401,13 +3416,13 @@
         <f>IF(ISBLANK(raw!$B122),"",raw!$B122)</f>
         <v/>
       </c>
-      <c r="E124" t="str">
+      <c r="E124" s="9" t="str">
         <f>IF(ISBLANK(raw!M122),"",raw!$M122)</f>
         <v/>
       </c>
     </row>
     <row r="125" ht="14.25">
-      <c r="A125" s="8" t="str">
+      <c r="A125" s="10" t="str">
         <f>IF(ISBLANK(raw!A123),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A123))</f>
         <v/>
       </c>
@@ -3423,13 +3438,13 @@
         <f>IF(ISBLANK(raw!$B123),"",raw!$B123)</f>
         <v/>
       </c>
-      <c r="E125" t="str">
+      <c r="E125" s="9" t="str">
         <f>IF(ISBLANK(raw!M123),"",raw!$M123)</f>
         <v/>
       </c>
     </row>
     <row r="126" ht="14.25">
-      <c r="A126" s="8" t="str">
+      <c r="A126" s="10" t="str">
         <f>IF(ISBLANK(raw!A124),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A124))</f>
         <v/>
       </c>
@@ -3445,13 +3460,13 @@
         <f>IF(ISBLANK(raw!$B124),"",raw!$B124)</f>
         <v/>
       </c>
-      <c r="E126" t="str">
+      <c r="E126" s="9" t="str">
         <f>IF(ISBLANK(raw!M124),"",raw!$M124)</f>
         <v/>
       </c>
     </row>
     <row r="127" ht="14.25">
-      <c r="A127" s="8" t="str">
+      <c r="A127" s="10" t="str">
         <f>IF(ISBLANK(raw!A125),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A125))</f>
         <v/>
       </c>
@@ -3467,13 +3482,13 @@
         <f>IF(ISBLANK(raw!$B125),"",raw!$B125)</f>
         <v/>
       </c>
-      <c r="E127" t="str">
+      <c r="E127" s="9" t="str">
         <f>IF(ISBLANK(raw!M125),"",raw!$M125)</f>
         <v/>
       </c>
     </row>
     <row r="128" ht="14.25">
-      <c r="A128" s="8" t="str">
+      <c r="A128" s="10" t="str">
         <f>IF(ISBLANK(raw!A126),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A126))</f>
         <v/>
       </c>
@@ -3489,13 +3504,13 @@
         <f>IF(ISBLANK(raw!$B126),"",raw!$B126)</f>
         <v/>
       </c>
-      <c r="E128" t="str">
+      <c r="E128" s="9" t="str">
         <f>IF(ISBLANK(raw!M126),"",raw!$M126)</f>
         <v/>
       </c>
     </row>
     <row r="129" ht="14.25">
-      <c r="A129" s="8" t="str">
+      <c r="A129" s="10" t="str">
         <f>IF(ISBLANK(raw!A127),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A127))</f>
         <v/>
       </c>
@@ -3511,13 +3526,13 @@
         <f>IF(ISBLANK(raw!$B127),"",raw!$B127)</f>
         <v/>
       </c>
-      <c r="E129" t="str">
+      <c r="E129" s="9" t="str">
         <f>IF(ISBLANK(raw!M127),"",raw!$M127)</f>
         <v/>
       </c>
     </row>
     <row r="130" ht="14.25">
-      <c r="A130" s="8" t="str">
+      <c r="A130" s="10" t="str">
         <f>IF(ISBLANK(raw!A128),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A128))</f>
         <v/>
       </c>
@@ -3533,13 +3548,13 @@
         <f>IF(ISBLANK(raw!$B128),"",raw!$B128)</f>
         <v/>
       </c>
-      <c r="E130" t="str">
+      <c r="E130" s="9" t="str">
         <f>IF(ISBLANK(raw!M128),"",raw!$M128)</f>
         <v/>
       </c>
     </row>
     <row r="131" ht="14.25">
-      <c r="A131" s="8" t="str">
+      <c r="A131" s="10" t="str">
         <f>IF(ISBLANK(raw!A129),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A129))</f>
         <v/>
       </c>
@@ -3555,13 +3570,13 @@
         <f>IF(ISBLANK(raw!$B129),"",raw!$B129)</f>
         <v/>
       </c>
-      <c r="E131" t="str">
+      <c r="E131" s="9" t="str">
         <f>IF(ISBLANK(raw!M129),"",raw!$M129)</f>
         <v/>
       </c>
     </row>
     <row r="132" ht="14.25">
-      <c r="A132" s="8" t="str">
+      <c r="A132" s="10" t="str">
         <f>IF(ISBLANK(raw!A130),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A130))</f>
         <v/>
       </c>
@@ -3577,13 +3592,13 @@
         <f>IF(ISBLANK(raw!$B130),"",raw!$B130)</f>
         <v/>
       </c>
-      <c r="E132" t="str">
+      <c r="E132" s="9" t="str">
         <f>IF(ISBLANK(raw!M130),"",raw!$M130)</f>
         <v/>
       </c>
     </row>
     <row r="133" ht="14.25">
-      <c r="A133" s="8" t="str">
+      <c r="A133" s="10" t="str">
         <f>IF(ISBLANK(raw!A131),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A131))</f>
         <v/>
       </c>
@@ -3599,13 +3614,13 @@
         <f>IF(ISBLANK(raw!$B131),"",raw!$B131)</f>
         <v/>
       </c>
-      <c r="E133" t="str">
+      <c r="E133" s="9" t="str">
         <f>IF(ISBLANK(raw!M131),"",raw!$M131)</f>
         <v/>
       </c>
     </row>
     <row r="134" ht="14.25">
-      <c r="A134" s="8" t="str">
+      <c r="A134" s="10" t="str">
         <f>IF(ISBLANK(raw!A132),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A132))</f>
         <v/>
       </c>
@@ -3621,13 +3636,13 @@
         <f>IF(ISBLANK(raw!$B132),"",raw!$B132)</f>
         <v/>
       </c>
-      <c r="E134" t="str">
+      <c r="E134" s="9" t="str">
         <f>IF(ISBLANK(raw!M132),"",raw!$M132)</f>
         <v/>
       </c>
     </row>
     <row r="135" ht="14.25">
-      <c r="A135" s="8" t="str">
+      <c r="A135" s="10" t="str">
         <f>IF(ISBLANK(raw!A133),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A133))</f>
         <v/>
       </c>
@@ -3643,13 +3658,13 @@
         <f>IF(ISBLANK(raw!$B133),"",raw!$B133)</f>
         <v/>
       </c>
-      <c r="E135" t="str">
+      <c r="E135" s="9" t="str">
         <f>IF(ISBLANK(raw!M133),"",raw!$M133)</f>
         <v/>
       </c>
     </row>
     <row r="136" ht="14.25">
-      <c r="A136" s="8" t="str">
+      <c r="A136" s="10" t="str">
         <f>IF(ISBLANK(raw!A134),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A134))</f>
         <v/>
       </c>
@@ -3665,13 +3680,13 @@
         <f>IF(ISBLANK(raw!$B134),"",raw!$B134)</f>
         <v/>
       </c>
-      <c r="E136" t="str">
+      <c r="E136" s="9" t="str">
         <f>IF(ISBLANK(raw!M134),"",raw!$M134)</f>
         <v/>
       </c>
     </row>
     <row r="137" ht="14.25">
-      <c r="A137" s="8" t="str">
+      <c r="A137" s="10" t="str">
         <f>IF(ISBLANK(raw!A135),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A135))</f>
         <v/>
       </c>
@@ -3687,13 +3702,13 @@
         <f>IF(ISBLANK(raw!$B135),"",raw!$B135)</f>
         <v/>
       </c>
-      <c r="E137" t="str">
+      <c r="E137" s="9" t="str">
         <f>IF(ISBLANK(raw!M135),"",raw!$M135)</f>
         <v/>
       </c>
     </row>
     <row r="138" ht="14.25">
-      <c r="A138" s="8" t="str">
+      <c r="A138" s="10" t="str">
         <f>IF(ISBLANK(raw!A136),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A136))</f>
         <v/>
       </c>
@@ -3709,13 +3724,13 @@
         <f>IF(ISBLANK(raw!$B136),"",raw!$B136)</f>
         <v/>
       </c>
-      <c r="E138" t="str">
+      <c r="E138" s="9" t="str">
         <f>IF(ISBLANK(raw!M136),"",raw!$M136)</f>
         <v/>
       </c>
     </row>
     <row r="139" ht="14.25">
-      <c r="A139" s="8" t="str">
+      <c r="A139" s="10" t="str">
         <f>IF(ISBLANK(raw!A137),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A137))</f>
         <v/>
       </c>
@@ -3731,13 +3746,13 @@
         <f>IF(ISBLANK(raw!$B137),"",raw!$B137)</f>
         <v/>
       </c>
-      <c r="E139" t="str">
+      <c r="E139" s="9" t="str">
         <f>IF(ISBLANK(raw!M137),"",raw!$M137)</f>
         <v/>
       </c>
     </row>
     <row r="140" ht="14.25">
-      <c r="A140" s="8" t="str">
+      <c r="A140" s="10" t="str">
         <f>IF(ISBLANK(raw!A138),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A138))</f>
         <v/>
       </c>
@@ -3753,13 +3768,13 @@
         <f>IF(ISBLANK(raw!$B138),"",raw!$B138)</f>
         <v/>
       </c>
-      <c r="E140" t="str">
+      <c r="E140" s="9" t="str">
         <f>IF(ISBLANK(raw!M138),"",raw!$M138)</f>
         <v/>
       </c>
     </row>
     <row r="141" ht="14.25">
-      <c r="A141" s="8" t="str">
+      <c r="A141" s="10" t="str">
         <f>IF(ISBLANK(raw!A139),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A139))</f>
         <v/>
       </c>
@@ -3775,13 +3790,13 @@
         <f>IF(ISBLANK(raw!$B139),"",raw!$B139)</f>
         <v/>
       </c>
-      <c r="E141" t="str">
+      <c r="E141" s="9" t="str">
         <f>IF(ISBLANK(raw!M139),"",raw!$M139)</f>
         <v/>
       </c>
     </row>
     <row r="142" ht="14.25">
-      <c r="A142" s="8" t="str">
+      <c r="A142" s="10" t="str">
         <f>IF(ISBLANK(raw!A140),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A140))</f>
         <v/>
       </c>
@@ -3797,13 +3812,13 @@
         <f>IF(ISBLANK(raw!$B140),"",raw!$B140)</f>
         <v/>
       </c>
-      <c r="E142" t="str">
+      <c r="E142" s="9" t="str">
         <f>IF(ISBLANK(raw!M140),"",raw!$M140)</f>
         <v/>
       </c>
     </row>
     <row r="143" ht="14.25">
-      <c r="A143" s="8" t="str">
+      <c r="A143" s="10" t="str">
         <f>IF(ISBLANK(raw!A141),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A141))</f>
         <v/>
       </c>
@@ -3819,13 +3834,13 @@
         <f>IF(ISBLANK(raw!$B141),"",raw!$B141)</f>
         <v/>
       </c>
-      <c r="E143" t="str">
+      <c r="E143" s="9" t="str">
         <f>IF(ISBLANK(raw!M141),"",raw!$M141)</f>
         <v/>
       </c>
     </row>
     <row r="144" ht="14.25">
-      <c r="A144" s="8" t="str">
+      <c r="A144" s="10" t="str">
         <f>IF(ISBLANK(raw!A142),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A142))</f>
         <v/>
       </c>
@@ -3841,13 +3856,13 @@
         <f>IF(ISBLANK(raw!$B142),"",raw!$B142)</f>
         <v/>
       </c>
-      <c r="E144" t="str">
+      <c r="E144" s="9" t="str">
         <f>IF(ISBLANK(raw!M142),"",raw!$M142)</f>
         <v/>
       </c>
     </row>
     <row r="145" ht="14.25">
-      <c r="A145" s="8" t="str">
+      <c r="A145" s="10" t="str">
         <f>IF(ISBLANK(raw!A143),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A143))</f>
         <v/>
       </c>
@@ -3863,13 +3878,13 @@
         <f>IF(ISBLANK(raw!$B143),"",raw!$B143)</f>
         <v/>
       </c>
-      <c r="E145" t="str">
+      <c r="E145" s="9" t="str">
         <f>IF(ISBLANK(raw!M143),"",raw!$M143)</f>
         <v/>
       </c>
     </row>
     <row r="146" ht="14.25">
-      <c r="A146" s="8" t="str">
+      <c r="A146" s="10" t="str">
         <f>IF(ISBLANK(raw!A144),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A144))</f>
         <v/>
       </c>
@@ -3885,13 +3900,13 @@
         <f>IF(ISBLANK(raw!$B144),"",raw!$B144)</f>
         <v/>
       </c>
-      <c r="E146" t="str">
+      <c r="E146" s="9" t="str">
         <f>IF(ISBLANK(raw!M144),"",raw!$M144)</f>
         <v/>
       </c>
     </row>
     <row r="147" ht="14.25">
-      <c r="A147" s="8" t="str">
+      <c r="A147" s="10" t="str">
         <f>IF(ISBLANK(raw!A145),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A145))</f>
         <v/>
       </c>
@@ -3907,13 +3922,13 @@
         <f>IF(ISBLANK(raw!$B145),"",raw!$B145)</f>
         <v/>
       </c>
-      <c r="E147" t="str">
+      <c r="E147" s="9" t="str">
         <f>IF(ISBLANK(raw!M145),"",raw!$M145)</f>
         <v/>
       </c>
     </row>
     <row r="148" ht="14.25">
-      <c r="A148" s="8" t="str">
+      <c r="A148" s="10" t="str">
         <f>IF(ISBLANK(raw!A146),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A146))</f>
         <v/>
       </c>
@@ -3929,13 +3944,13 @@
         <f>IF(ISBLANK(raw!$B146),"",raw!$B146)</f>
         <v/>
       </c>
-      <c r="E148" t="str">
+      <c r="E148" s="9" t="str">
         <f>IF(ISBLANK(raw!M146),"",raw!$M146)</f>
         <v/>
       </c>
     </row>
     <row r="149" ht="14.25">
-      <c r="A149" s="8" t="str">
+      <c r="A149" s="10" t="str">
         <f>IF(ISBLANK(raw!A147),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A147))</f>
         <v/>
       </c>
@@ -3951,13 +3966,13 @@
         <f>IF(ISBLANK(raw!$B147),"",raw!$B147)</f>
         <v/>
       </c>
-      <c r="E149" t="str">
+      <c r="E149" s="9" t="str">
         <f>IF(ISBLANK(raw!M147),"",raw!$M147)</f>
         <v/>
       </c>
     </row>
     <row r="150" ht="14.25">
-      <c r="A150" s="8" t="str">
+      <c r="A150" s="10" t="str">
         <f>IF(ISBLANK(raw!A148),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A148))</f>
         <v/>
       </c>
@@ -3973,13 +3988,13 @@
         <f>IF(ISBLANK(raw!$B148),"",raw!$B148)</f>
         <v/>
       </c>
-      <c r="E150" t="str">
+      <c r="E150" s="9" t="str">
         <f>IF(ISBLANK(raw!M148),"",raw!$M148)</f>
         <v/>
       </c>
     </row>
     <row r="151" ht="14.25">
-      <c r="A151" s="8" t="str">
+      <c r="A151" s="10" t="str">
         <f>IF(ISBLANK(raw!A149),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A149))</f>
         <v/>
       </c>
@@ -3995,13 +4010,13 @@
         <f>IF(ISBLANK(raw!$B149),"",raw!$B149)</f>
         <v/>
       </c>
-      <c r="E151" t="str">
+      <c r="E151" s="9" t="str">
         <f>IF(ISBLANK(raw!M149),"",raw!$M149)</f>
         <v/>
       </c>
     </row>
     <row r="152" ht="14.25">
-      <c r="A152" s="8" t="str">
+      <c r="A152" s="10" t="str">
         <f>IF(ISBLANK(raw!A150),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A150))</f>
         <v/>
       </c>
@@ -4017,13 +4032,13 @@
         <f>IF(ISBLANK(raw!$B150),"",raw!$B150)</f>
         <v/>
       </c>
-      <c r="E152" t="str">
+      <c r="E152" s="9" t="str">
         <f>IF(ISBLANK(raw!M150),"",raw!$M150)</f>
         <v/>
       </c>
     </row>
     <row r="153" ht="14.25">
-      <c r="A153" s="8" t="str">
+      <c r="A153" s="10" t="str">
         <f>IF(ISBLANK(raw!A151),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A151))</f>
         <v/>
       </c>
@@ -4039,13 +4054,13 @@
         <f>IF(ISBLANK(raw!$B151),"",raw!$B151)</f>
         <v/>
       </c>
-      <c r="E153" t="str">
+      <c r="E153" s="9" t="str">
         <f>IF(ISBLANK(raw!M151),"",raw!$M151)</f>
         <v/>
       </c>
     </row>
     <row r="154" ht="14.25">
-      <c r="A154" s="8" t="str">
+      <c r="A154" s="10" t="str">
         <f>IF(ISBLANK(raw!A152),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A152))</f>
         <v/>
       </c>
@@ -4061,13 +4076,13 @@
         <f>IF(ISBLANK(raw!$B152),"",raw!$B152)</f>
         <v/>
       </c>
-      <c r="E154" t="str">
+      <c r="E154" s="9" t="str">
         <f>IF(ISBLANK(raw!M152),"",raw!$M152)</f>
         <v/>
       </c>
     </row>
     <row r="155" ht="14.25">
-      <c r="A155" s="8" t="str">
+      <c r="A155" s="10" t="str">
         <f>IF(ISBLANK(raw!A153),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A153))</f>
         <v/>
       </c>
@@ -4083,13 +4098,13 @@
         <f>IF(ISBLANK(raw!$B153),"",raw!$B153)</f>
         <v/>
       </c>
-      <c r="E155" t="str">
+      <c r="E155" s="9" t="str">
         <f>IF(ISBLANK(raw!M153),"",raw!$M153)</f>
         <v/>
       </c>
     </row>
     <row r="156" ht="14.25">
-      <c r="A156" s="8" t="str">
+      <c r="A156" s="10" t="str">
         <f>IF(ISBLANK(raw!A154),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A154))</f>
         <v/>
       </c>
@@ -4105,13 +4120,13 @@
         <f>IF(ISBLANK(raw!$B154),"",raw!$B154)</f>
         <v/>
       </c>
-      <c r="E156" t="str">
+      <c r="E156" s="9" t="str">
         <f>IF(ISBLANK(raw!M154),"",raw!$M154)</f>
         <v/>
       </c>
     </row>
     <row r="157" ht="14.25">
-      <c r="A157" s="8" t="str">
+      <c r="A157" s="10" t="str">
         <f>IF(ISBLANK(raw!A155),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A155))</f>
         <v/>
       </c>
@@ -4127,13 +4142,13 @@
         <f>IF(ISBLANK(raw!$B155),"",raw!$B155)</f>
         <v/>
       </c>
-      <c r="E157" t="str">
+      <c r="E157" s="9" t="str">
         <f>IF(ISBLANK(raw!M155),"",raw!$M155)</f>
         <v/>
       </c>
     </row>
     <row r="158" ht="14.25">
-      <c r="A158" s="8" t="str">
+      <c r="A158" s="10" t="str">
         <f>IF(ISBLANK(raw!A156),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A156))</f>
         <v/>
       </c>
@@ -4149,13 +4164,13 @@
         <f>IF(ISBLANK(raw!$B156),"",raw!$B156)</f>
         <v/>
       </c>
-      <c r="E158" t="str">
+      <c r="E158" s="9" t="str">
         <f>IF(ISBLANK(raw!M156),"",raw!$M156)</f>
         <v/>
       </c>
     </row>
     <row r="159" ht="14.25">
-      <c r="A159" s="8" t="str">
+      <c r="A159" s="10" t="str">
         <f>IF(ISBLANK(raw!A157),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A157))</f>
         <v/>
       </c>
@@ -4171,13 +4186,13 @@
         <f>IF(ISBLANK(raw!$B157),"",raw!$B157)</f>
         <v/>
       </c>
-      <c r="E159" t="str">
+      <c r="E159" s="9" t="str">
         <f>IF(ISBLANK(raw!M157),"",raw!$M157)</f>
         <v/>
       </c>
     </row>
     <row r="160" ht="14.25">
-      <c r="A160" s="8" t="str">
+      <c r="A160" s="10" t="str">
         <f>IF(ISBLANK(raw!A158),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A158))</f>
         <v/>
       </c>
@@ -4193,13 +4208,13 @@
         <f>IF(ISBLANK(raw!$B158),"",raw!$B158)</f>
         <v/>
       </c>
-      <c r="E160" t="str">
+      <c r="E160" s="9" t="str">
         <f>IF(ISBLANK(raw!M158),"",raw!$M158)</f>
         <v/>
       </c>
     </row>
     <row r="161" ht="14.25">
-      <c r="A161" s="8" t="str">
+      <c r="A161" s="10" t="str">
         <f>IF(ISBLANK(raw!A159),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A159))</f>
         <v/>
       </c>
@@ -4215,13 +4230,13 @@
         <f>IF(ISBLANK(raw!$B159),"",raw!$B159)</f>
         <v/>
       </c>
-      <c r="E161" t="str">
+      <c r="E161" s="9" t="str">
         <f>IF(ISBLANK(raw!M159),"",raw!$M159)</f>
         <v/>
       </c>
     </row>
     <row r="162" ht="14.25">
-      <c r="A162" s="8" t="str">
+      <c r="A162" s="10" t="str">
         <f>IF(ISBLANK(raw!A160),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A160))</f>
         <v/>
       </c>
@@ -4237,13 +4252,13 @@
         <f>IF(ISBLANK(raw!$B160),"",raw!$B160)</f>
         <v/>
       </c>
-      <c r="E162" t="str">
+      <c r="E162" s="9" t="str">
         <f>IF(ISBLANK(raw!M160),"",raw!$M160)</f>
         <v/>
       </c>
     </row>
     <row r="163" ht="14.25">
-      <c r="A163" s="8" t="str">
+      <c r="A163" s="10" t="str">
         <f>IF(ISBLANK(raw!A161),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A161))</f>
         <v/>
       </c>
@@ -4259,13 +4274,13 @@
         <f>IF(ISBLANK(raw!$B161),"",raw!$B161)</f>
         <v/>
       </c>
-      <c r="E163" t="str">
+      <c r="E163" s="9" t="str">
         <f>IF(ISBLANK(raw!M161),"",raw!$M161)</f>
         <v/>
       </c>
     </row>
     <row r="164" ht="14.25">
-      <c r="A164" s="8" t="str">
+      <c r="A164" s="10" t="str">
         <f>IF(ISBLANK(raw!A162),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A162))</f>
         <v/>
       </c>
@@ -4281,13 +4296,13 @@
         <f>IF(ISBLANK(raw!$B162),"",raw!$B162)</f>
         <v/>
       </c>
-      <c r="E164" t="str">
+      <c r="E164" s="9" t="str">
         <f>IF(ISBLANK(raw!M162),"",raw!$M162)</f>
         <v/>
       </c>
     </row>
     <row r="165" ht="14.25">
-      <c r="A165" s="8" t="str">
+      <c r="A165" s="10" t="str">
         <f>IF(ISBLANK(raw!A163),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A163))</f>
         <v/>
       </c>
@@ -4303,13 +4318,13 @@
         <f>IF(ISBLANK(raw!$B163),"",raw!$B163)</f>
         <v/>
       </c>
-      <c r="E165" t="str">
+      <c r="E165" s="9" t="str">
         <f>IF(ISBLANK(raw!M163),"",raw!$M163)</f>
         <v/>
       </c>
     </row>
     <row r="166" ht="14.25">
-      <c r="A166" s="8" t="str">
+      <c r="A166" s="10" t="str">
         <f>IF(ISBLANK(raw!A164),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A164))</f>
         <v/>
       </c>
@@ -4325,13 +4340,13 @@
         <f>IF(ISBLANK(raw!$B164),"",raw!$B164)</f>
         <v/>
       </c>
-      <c r="E166" t="str">
+      <c r="E166" s="9" t="str">
         <f>IF(ISBLANK(raw!M164),"",raw!$M164)</f>
         <v/>
       </c>
     </row>
     <row r="167" ht="14.25">
-      <c r="A167" s="8" t="str">
+      <c r="A167" s="10" t="str">
         <f>IF(ISBLANK(raw!A165),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A165))</f>
         <v/>
       </c>
@@ -4347,13 +4362,13 @@
         <f>IF(ISBLANK(raw!$B165),"",raw!$B165)</f>
         <v/>
       </c>
-      <c r="E167" t="str">
+      <c r="E167" s="9" t="str">
         <f>IF(ISBLANK(raw!M165),"",raw!$M165)</f>
         <v/>
       </c>
     </row>
     <row r="168" ht="14.25">
-      <c r="A168" s="8" t="str">
+      <c r="A168" s="10" t="str">
         <f>IF(ISBLANK(raw!A166),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A166))</f>
         <v/>
       </c>
@@ -4369,13 +4384,13 @@
         <f>IF(ISBLANK(raw!$B166),"",raw!$B166)</f>
         <v/>
       </c>
-      <c r="E168" t="str">
+      <c r="E168" s="9" t="str">
         <f>IF(ISBLANK(raw!M166),"",raw!$M166)</f>
         <v/>
       </c>
     </row>
     <row r="169" ht="14.25">
-      <c r="A169" s="8" t="str">
+      <c r="A169" s="10" t="str">
         <f>IF(ISBLANK(raw!A167),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A167))</f>
         <v/>
       </c>
@@ -4391,13 +4406,13 @@
         <f>IF(ISBLANK(raw!$B167),"",raw!$B167)</f>
         <v/>
       </c>
-      <c r="E169" t="str">
+      <c r="E169" s="9" t="str">
         <f>IF(ISBLANK(raw!M167),"",raw!$M167)</f>
         <v/>
       </c>
     </row>
     <row r="170" ht="14.25">
-      <c r="A170" s="8" t="str">
+      <c r="A170" s="10" t="str">
         <f>IF(ISBLANK(raw!A168),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A168))</f>
         <v/>
       </c>
@@ -4413,13 +4428,13 @@
         <f>IF(ISBLANK(raw!$B168),"",raw!$B168)</f>
         <v/>
       </c>
-      <c r="E170" t="str">
+      <c r="E170" s="9" t="str">
         <f>IF(ISBLANK(raw!M168),"",raw!$M168)</f>
         <v/>
       </c>
     </row>
     <row r="171" ht="14.25">
-      <c r="A171" s="8" t="str">
+      <c r="A171" s="10" t="str">
         <f>IF(ISBLANK(raw!A169),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A169))</f>
         <v/>
       </c>
@@ -4435,13 +4450,13 @@
         <f>IF(ISBLANK(raw!$B169),"",raw!$B169)</f>
         <v/>
       </c>
-      <c r="E171" t="str">
+      <c r="E171" s="9" t="str">
         <f>IF(ISBLANK(raw!M169),"",raw!$M169)</f>
         <v/>
       </c>
     </row>
     <row r="172" ht="14.25">
-      <c r="A172" s="8" t="str">
+      <c r="A172" s="10" t="str">
         <f>IF(ISBLANK(raw!A170),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A170))</f>
         <v/>
       </c>
@@ -4457,13 +4472,13 @@
         <f>IF(ISBLANK(raw!$B170),"",raw!$B170)</f>
         <v/>
       </c>
-      <c r="E172" t="str">
+      <c r="E172" s="9" t="str">
         <f>IF(ISBLANK(raw!M170),"",raw!$M170)</f>
         <v/>
       </c>
     </row>
     <row r="173" ht="14.25">
-      <c r="A173" s="8" t="str">
+      <c r="A173" s="10" t="str">
         <f>IF(ISBLANK(raw!A171),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A171))</f>
         <v/>
       </c>
@@ -4479,13 +4494,13 @@
         <f>IF(ISBLANK(raw!$B171),"",raw!$B171)</f>
         <v/>
       </c>
-      <c r="E173" t="str">
+      <c r="E173" s="9" t="str">
         <f>IF(ISBLANK(raw!M171),"",raw!$M171)</f>
         <v/>
       </c>
     </row>
     <row r="174" ht="14.25">
-      <c r="A174" s="8" t="str">
+      <c r="A174" s="10" t="str">
         <f>IF(ISBLANK(raw!A172),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A172))</f>
         <v/>
       </c>
@@ -4501,13 +4516,13 @@
         <f>IF(ISBLANK(raw!$B172),"",raw!$B172)</f>
         <v/>
       </c>
-      <c r="E174" t="str">
+      <c r="E174" s="9" t="str">
         <f>IF(ISBLANK(raw!M172),"",raw!$M172)</f>
         <v/>
       </c>
     </row>
     <row r="175" ht="14.25">
-      <c r="A175" s="8" t="str">
+      <c r="A175" s="10" t="str">
         <f>IF(ISBLANK(raw!A173),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A173))</f>
         <v/>
       </c>
@@ -4523,13 +4538,13 @@
         <f>IF(ISBLANK(raw!$B173),"",raw!$B173)</f>
         <v/>
       </c>
-      <c r="E175" t="str">
+      <c r="E175" s="9" t="str">
         <f>IF(ISBLANK(raw!M173),"",raw!$M173)</f>
         <v/>
       </c>
     </row>
     <row r="176" ht="14.25">
-      <c r="A176" s="8" t="str">
+      <c r="A176" s="10" t="str">
         <f>IF(ISBLANK(raw!A174),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A174))</f>
         <v/>
       </c>
@@ -4545,13 +4560,13 @@
         <f>IF(ISBLANK(raw!$B174),"",raw!$B174)</f>
         <v/>
       </c>
-      <c r="E176" t="str">
+      <c r="E176" s="9" t="str">
         <f>IF(ISBLANK(raw!M174),"",raw!$M174)</f>
         <v/>
       </c>
     </row>
     <row r="177" ht="14.25">
-      <c r="A177" s="8" t="str">
+      <c r="A177" s="10" t="str">
         <f>IF(ISBLANK(raw!A175),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A175))</f>
         <v/>
       </c>
@@ -4567,13 +4582,13 @@
         <f>IF(ISBLANK(raw!$B175),"",raw!$B175)</f>
         <v/>
       </c>
-      <c r="E177" t="str">
+      <c r="E177" s="9" t="str">
         <f>IF(ISBLANK(raw!M175),"",raw!$M175)</f>
         <v/>
       </c>
     </row>
     <row r="178" ht="14.25">
-      <c r="A178" s="8" t="str">
+      <c r="A178" s="10" t="str">
         <f>IF(ISBLANK(raw!A176),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A176))</f>
         <v/>
       </c>
@@ -4589,13 +4604,13 @@
         <f>IF(ISBLANK(raw!$B176),"",raw!$B176)</f>
         <v/>
       </c>
-      <c r="E178" t="str">
+      <c r="E178" s="9" t="str">
         <f>IF(ISBLANK(raw!M176),"",raw!$M176)</f>
         <v/>
       </c>
     </row>
     <row r="179" ht="14.25">
-      <c r="A179" s="8" t="str">
+      <c r="A179" s="10" t="str">
         <f>IF(ISBLANK(raw!A177),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A177))</f>
         <v/>
       </c>
@@ -4611,13 +4626,13 @@
         <f>IF(ISBLANK(raw!$B177),"",raw!$B177)</f>
         <v/>
       </c>
-      <c r="E179" t="str">
+      <c r="E179" s="9" t="str">
         <f>IF(ISBLANK(raw!M177),"",raw!$M177)</f>
         <v/>
       </c>
     </row>
     <row r="180" ht="14.25">
-      <c r="A180" s="8" t="str">
+      <c r="A180" s="10" t="str">
         <f>IF(ISBLANK(raw!A178),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A178))</f>
         <v/>
       </c>
@@ -4633,13 +4648,13 @@
         <f>IF(ISBLANK(raw!$B178),"",raw!$B178)</f>
         <v/>
       </c>
-      <c r="E180" t="str">
+      <c r="E180" s="9" t="str">
         <f>IF(ISBLANK(raw!M178),"",raw!$M178)</f>
         <v/>
       </c>
     </row>
     <row r="181" ht="14.25">
-      <c r="A181" s="8" t="str">
+      <c r="A181" s="10" t="str">
         <f>IF(ISBLANK(raw!A179),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A179))</f>
         <v/>
       </c>
@@ -4655,13 +4670,13 @@
         <f>IF(ISBLANK(raw!$B179),"",raw!$B179)</f>
         <v/>
       </c>
-      <c r="E181" t="str">
+      <c r="E181" s="9" t="str">
         <f>IF(ISBLANK(raw!M179),"",raw!$M179)</f>
         <v/>
       </c>
     </row>
     <row r="182" ht="14.25">
-      <c r="A182" s="8" t="str">
+      <c r="A182" s="10" t="str">
         <f>IF(ISBLANK(raw!A180),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A180))</f>
         <v/>
       </c>
@@ -4677,13 +4692,13 @@
         <f>IF(ISBLANK(raw!$B180),"",raw!$B180)</f>
         <v/>
       </c>
-      <c r="E182" t="str">
+      <c r="E182" s="9" t="str">
         <f>IF(ISBLANK(raw!M180),"",raw!$M180)</f>
         <v/>
       </c>
     </row>
     <row r="183" ht="14.25">
-      <c r="A183" s="8" t="str">
+      <c r="A183" s="10" t="str">
         <f>IF(ISBLANK(raw!A181),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A181))</f>
         <v/>
       </c>
@@ -4699,13 +4714,13 @@
         <f>IF(ISBLANK(raw!$B181),"",raw!$B181)</f>
         <v/>
       </c>
-      <c r="E183" t="str">
+      <c r="E183" s="9" t="str">
         <f>IF(ISBLANK(raw!M181),"",raw!$M181)</f>
         <v/>
       </c>
     </row>
     <row r="184" ht="14.25">
-      <c r="A184" s="8" t="str">
+      <c r="A184" s="10" t="str">
         <f>IF(ISBLANK(raw!A182),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A182))</f>
         <v/>
       </c>
@@ -4721,13 +4736,13 @@
         <f>IF(ISBLANK(raw!$B182),"",raw!$B182)</f>
         <v/>
       </c>
-      <c r="E184" t="str">
+      <c r="E184" s="9" t="str">
         <f>IF(ISBLANK(raw!M182),"",raw!$M182)</f>
         <v/>
       </c>
     </row>
     <row r="185" ht="14.25">
-      <c r="A185" s="8" t="str">
+      <c r="A185" s="10" t="str">
         <f>IF(ISBLANK(raw!A183),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A183))</f>
         <v/>
       </c>
@@ -4743,13 +4758,13 @@
         <f>IF(ISBLANK(raw!$B183),"",raw!$B183)</f>
         <v/>
       </c>
-      <c r="E185" t="str">
+      <c r="E185" s="9" t="str">
         <f>IF(ISBLANK(raw!M183),"",raw!$M183)</f>
         <v/>
       </c>
     </row>
     <row r="186" ht="14.25">
-      <c r="A186" s="8" t="str">
+      <c r="A186" s="10" t="str">
         <f>IF(ISBLANK(raw!A184),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A184))</f>
         <v/>
       </c>
@@ -4765,13 +4780,13 @@
         <f>IF(ISBLANK(raw!$B184),"",raw!$B184)</f>
         <v/>
       </c>
-      <c r="E186" t="str">
+      <c r="E186" s="9" t="str">
         <f>IF(ISBLANK(raw!M184),"",raw!$M184)</f>
         <v/>
       </c>
     </row>
     <row r="187" ht="14.25">
-      <c r="A187" s="8" t="str">
+      <c r="A187" s="10" t="str">
         <f>IF(ISBLANK(raw!A185),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A185))</f>
         <v/>
       </c>
@@ -4787,13 +4802,13 @@
         <f>IF(ISBLANK(raw!$B185),"",raw!$B185)</f>
         <v/>
       </c>
-      <c r="E187" t="str">
+      <c r="E187" s="9" t="str">
         <f>IF(ISBLANK(raw!M185),"",raw!$M185)</f>
         <v/>
       </c>
     </row>
     <row r="188" ht="14.25">
-      <c r="A188" s="8" t="str">
+      <c r="A188" s="10" t="str">
         <f>IF(ISBLANK(raw!A186),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A186))</f>
         <v/>
       </c>
@@ -4809,13 +4824,13 @@
         <f>IF(ISBLANK(raw!$B186),"",raw!$B186)</f>
         <v/>
       </c>
-      <c r="E188" t="str">
+      <c r="E188" s="9" t="str">
         <f>IF(ISBLANK(raw!M186),"",raw!$M186)</f>
         <v/>
       </c>
     </row>
     <row r="189" ht="14.25">
-      <c r="A189" s="8" t="str">
+      <c r="A189" s="10" t="str">
         <f>IF(ISBLANK(raw!A187),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A187))</f>
         <v/>
       </c>
@@ -4831,13 +4846,13 @@
         <f>IF(ISBLANK(raw!$B187),"",raw!$B187)</f>
         <v/>
       </c>
-      <c r="E189" t="str">
+      <c r="E189" s="9" t="str">
         <f>IF(ISBLANK(raw!M187),"",raw!$M187)</f>
         <v/>
       </c>
     </row>
     <row r="190" ht="14.25">
-      <c r="A190" s="8" t="str">
+      <c r="A190" s="10" t="str">
         <f>IF(ISBLANK(raw!A188),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A188))</f>
         <v/>
       </c>
@@ -4853,13 +4868,13 @@
         <f>IF(ISBLANK(raw!$B188),"",raw!$B188)</f>
         <v/>
       </c>
-      <c r="E190" t="str">
+      <c r="E190" s="9" t="str">
         <f>IF(ISBLANK(raw!M188),"",raw!$M188)</f>
         <v/>
       </c>
     </row>
     <row r="191" ht="14.25">
-      <c r="A191" s="8" t="str">
+      <c r="A191" s="10" t="str">
         <f>IF(ISBLANK(raw!A189),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A189))</f>
         <v/>
       </c>
@@ -4875,13 +4890,13 @@
         <f>IF(ISBLANK(raw!$B189),"",raw!$B189)</f>
         <v/>
       </c>
-      <c r="E191" t="str">
+      <c r="E191" s="9" t="str">
         <f>IF(ISBLANK(raw!M189),"",raw!$M189)</f>
         <v/>
       </c>
     </row>
     <row r="192" ht="14.25">
-      <c r="A192" s="8" t="str">
+      <c r="A192" s="10" t="str">
         <f>IF(ISBLANK(raw!A190),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A190))</f>
         <v/>
       </c>
@@ -4897,13 +4912,13 @@
         <f>IF(ISBLANK(raw!$B190),"",raw!$B190)</f>
         <v/>
       </c>
-      <c r="E192" t="str">
+      <c r="E192" s="9" t="str">
         <f>IF(ISBLANK(raw!M190),"",raw!$M190)</f>
         <v/>
       </c>
     </row>
     <row r="193" ht="14.25">
-      <c r="A193" s="8" t="str">
+      <c r="A193" s="10" t="str">
         <f>IF(ISBLANK(raw!A191),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A191))</f>
         <v/>
       </c>
@@ -4919,13 +4934,13 @@
         <f>IF(ISBLANK(raw!$B191),"",raw!$B191)</f>
         <v/>
       </c>
-      <c r="E193" t="str">
+      <c r="E193" s="9" t="str">
         <f>IF(ISBLANK(raw!M191),"",raw!$M191)</f>
         <v/>
       </c>
     </row>
     <row r="194" ht="14.25">
-      <c r="A194" s="8" t="str">
+      <c r="A194" s="10" t="str">
         <f>IF(ISBLANK(raw!A192),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A192))</f>
         <v/>
       </c>
@@ -4941,13 +4956,13 @@
         <f>IF(ISBLANK(raw!$B192),"",raw!$B192)</f>
         <v/>
       </c>
-      <c r="E194" t="str">
+      <c r="E194" s="9" t="str">
         <f>IF(ISBLANK(raw!M192),"",raw!$M192)</f>
         <v/>
       </c>
     </row>
     <row r="195" ht="14.25">
-      <c r="A195" s="8" t="str">
+      <c r="A195" s="10" t="str">
         <f>IF(ISBLANK(raw!A193),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A193))</f>
         <v/>
       </c>
@@ -4963,13 +4978,13 @@
         <f>IF(ISBLANK(raw!$B193),"",raw!$B193)</f>
         <v/>
       </c>
-      <c r="E195" t="str">
+      <c r="E195" s="9" t="str">
         <f>IF(ISBLANK(raw!M193),"",raw!$M193)</f>
         <v/>
       </c>
     </row>
     <row r="196" ht="14.25">
-      <c r="A196" s="8" t="str">
+      <c r="A196" s="10" t="str">
         <f>IF(ISBLANK(raw!A194),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A194))</f>
         <v/>
       </c>
@@ -4985,13 +5000,13 @@
         <f>IF(ISBLANK(raw!$B194),"",raw!$B194)</f>
         <v/>
       </c>
-      <c r="E196" t="str">
+      <c r="E196" s="9" t="str">
         <f>IF(ISBLANK(raw!M194),"",raw!$M194)</f>
         <v/>
       </c>
     </row>
     <row r="197" ht="14.25">
-      <c r="A197" s="8" t="str">
+      <c r="A197" s="10" t="str">
         <f>IF(ISBLANK(raw!A195),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A195))</f>
         <v/>
       </c>
@@ -5007,13 +5022,13 @@
         <f>IF(ISBLANK(raw!$B195),"",raw!$B195)</f>
         <v/>
       </c>
-      <c r="E197" t="str">
+      <c r="E197" s="9" t="str">
         <f>IF(ISBLANK(raw!M195),"",raw!$M195)</f>
         <v/>
       </c>
     </row>
     <row r="198" ht="14.25">
-      <c r="A198" s="8" t="str">
+      <c r="A198" s="10" t="str">
         <f>IF(ISBLANK(raw!A196),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A196))</f>
         <v/>
       </c>
@@ -5029,13 +5044,13 @@
         <f>IF(ISBLANK(raw!$B196),"",raw!$B196)</f>
         <v/>
       </c>
-      <c r="E198" t="str">
+      <c r="E198" s="9" t="str">
         <f>IF(ISBLANK(raw!M196),"",raw!$M196)</f>
         <v/>
       </c>
     </row>
     <row r="199" ht="14.25">
-      <c r="A199" s="8" t="str">
+      <c r="A199" s="10" t="str">
         <f>IF(ISBLANK(raw!A197),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A197))</f>
         <v/>
       </c>
@@ -5051,13 +5066,13 @@
         <f>IF(ISBLANK(raw!$B197),"",raw!$B197)</f>
         <v/>
       </c>
-      <c r="E199" t="str">
+      <c r="E199" s="9" t="str">
         <f>IF(ISBLANK(raw!M197),"",raw!$M197)</f>
         <v/>
       </c>
     </row>
     <row r="200" ht="14.25">
-      <c r="A200" s="8" t="str">
+      <c r="A200" s="10" t="str">
         <f>IF(ISBLANK(raw!A198),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A198))</f>
         <v/>
       </c>
@@ -5073,13 +5088,13 @@
         <f>IF(ISBLANK(raw!$B198),"",raw!$B198)</f>
         <v/>
       </c>
-      <c r="E200" t="str">
+      <c r="E200" s="9" t="str">
         <f>IF(ISBLANK(raw!M198),"",raw!$M198)</f>
         <v/>
       </c>
     </row>
     <row r="201" ht="14.25">
-      <c r="A201" s="8" t="str">
+      <c r="A201" s="10" t="str">
         <f>IF(ISBLANK(raw!A199),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A199))</f>
         <v/>
       </c>
@@ -5095,13 +5110,13 @@
         <f>IF(ISBLANK(raw!$B199),"",raw!$B199)</f>
         <v/>
       </c>
-      <c r="E201" t="str">
+      <c r="E201" s="9" t="str">
         <f>IF(ISBLANK(raw!M199),"",raw!$M199)</f>
         <v/>
       </c>
     </row>
     <row r="202" ht="14.25">
-      <c r="A202" s="8" t="str">
+      <c r="A202" s="10" t="str">
         <f>IF(ISBLANK(raw!A200),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A200))</f>
         <v/>
       </c>
@@ -5117,13 +5132,13 @@
         <f>IF(ISBLANK(raw!$B200),"",raw!$B200)</f>
         <v/>
       </c>
-      <c r="E202" t="str">
+      <c r="E202" s="9" t="str">
         <f>IF(ISBLANK(raw!M200),"",raw!$M200)</f>
         <v/>
       </c>
     </row>
     <row r="203" ht="14.25">
-      <c r="A203" s="8" t="str">
+      <c r="A203" s="10" t="str">
         <f>IF(ISBLANK(raw!A201),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A201))</f>
         <v/>
       </c>
@@ -5139,13 +5154,13 @@
         <f>IF(ISBLANK(raw!$B201),"",raw!$B201)</f>
         <v/>
       </c>
-      <c r="E203" t="str">
+      <c r="E203" s="9" t="str">
         <f>IF(ISBLANK(raw!M201),"",raw!$M201)</f>
         <v/>
       </c>
     </row>
     <row r="204" ht="14.25">
-      <c r="A204" s="8" t="str">
+      <c r="A204" s="10" t="str">
         <f>IF(ISBLANK(raw!A202),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A202))</f>
         <v/>
       </c>
@@ -5161,13 +5176,13 @@
         <f>IF(ISBLANK(raw!$B202),"",raw!$B202)</f>
         <v/>
       </c>
-      <c r="E204" t="str">
+      <c r="E204" s="9" t="str">
         <f>IF(ISBLANK(raw!M202),"",raw!$M202)</f>
         <v/>
       </c>
     </row>
     <row r="205" ht="14.25">
-      <c r="A205" s="8" t="str">
+      <c r="A205" s="10" t="str">
         <f>IF(ISBLANK(raw!A203),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A203))</f>
         <v/>
       </c>
@@ -5183,13 +5198,13 @@
         <f>IF(ISBLANK(raw!$B203),"",raw!$B203)</f>
         <v/>
       </c>
-      <c r="E205" t="str">
+      <c r="E205" s="9" t="str">
         <f>IF(ISBLANK(raw!M203),"",raw!$M203)</f>
         <v/>
       </c>
     </row>
     <row r="206" ht="14.25">
-      <c r="A206" s="8" t="str">
+      <c r="A206" s="10" t="str">
         <f>IF(ISBLANK(raw!A204),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A204))</f>
         <v/>
       </c>
@@ -5205,13 +5220,13 @@
         <f>IF(ISBLANK(raw!$B204),"",raw!$B204)</f>
         <v/>
       </c>
-      <c r="E206" t="str">
+      <c r="E206" s="9" t="str">
         <f>IF(ISBLANK(raw!M204),"",raw!$M204)</f>
         <v/>
       </c>
     </row>
     <row r="207" ht="14.25">
-      <c r="A207" s="8" t="str">
+      <c r="A207" s="10" t="str">
         <f>IF(ISBLANK(raw!A205),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A205))</f>
         <v/>
       </c>
@@ -5227,13 +5242,13 @@
         <f>IF(ISBLANK(raw!$B205),"",raw!$B205)</f>
         <v/>
       </c>
-      <c r="E207" t="str">
+      <c r="E207" s="9" t="str">
         <f>IF(ISBLANK(raw!M205),"",raw!$M205)</f>
         <v/>
       </c>
     </row>
     <row r="208" ht="14.25">
-      <c r="A208" s="8" t="str">
+      <c r="A208" s="10" t="str">
         <f>IF(ISBLANK(raw!A206),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A206))</f>
         <v/>
       </c>
@@ -5249,13 +5264,13 @@
         <f>IF(ISBLANK(raw!$B206),"",raw!$B206)</f>
         <v/>
       </c>
-      <c r="E208" t="str">
+      <c r="E208" s="9" t="str">
         <f>IF(ISBLANK(raw!M206),"",raw!$M206)</f>
         <v/>
       </c>
     </row>
     <row r="209" ht="14.25">
-      <c r="A209" s="8" t="str">
+      <c r="A209" s="10" t="str">
         <f>IF(ISBLANK(raw!A207),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A207))</f>
         <v/>
       </c>
@@ -5271,13 +5286,13 @@
         <f>IF(ISBLANK(raw!$B207),"",raw!$B207)</f>
         <v/>
       </c>
-      <c r="E209" t="str">
+      <c r="E209" s="9" t="str">
         <f>IF(ISBLANK(raw!M207),"",raw!$M207)</f>
         <v/>
       </c>
     </row>
     <row r="210" ht="14.25">
-      <c r="A210" s="8" t="str">
+      <c r="A210" s="10" t="str">
         <f>IF(ISBLANK(raw!A208),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A208))</f>
         <v/>
       </c>
@@ -5293,13 +5308,13 @@
         <f>IF(ISBLANK(raw!$B208),"",raw!$B208)</f>
         <v/>
       </c>
-      <c r="E210" t="str">
+      <c r="E210" s="9" t="str">
         <f>IF(ISBLANK(raw!M208),"",raw!$M208)</f>
         <v/>
       </c>
     </row>
     <row r="211" ht="14.25">
-      <c r="A211" s="8" t="str">
+      <c r="A211" s="10" t="str">
         <f>IF(ISBLANK(raw!A209),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A209))</f>
         <v/>
       </c>
@@ -5315,13 +5330,13 @@
         <f>IF(ISBLANK(raw!$B209),"",raw!$B209)</f>
         <v/>
       </c>
-      <c r="E211" t="str">
+      <c r="E211" s="9" t="str">
         <f>IF(ISBLANK(raw!M209),"",raw!$M209)</f>
         <v/>
       </c>
     </row>
     <row r="212" ht="14.25">
-      <c r="A212" s="8" t="str">
+      <c r="A212" s="10" t="str">
         <f>IF(ISBLANK(raw!A210),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A210))</f>
         <v/>
       </c>
@@ -5337,13 +5352,13 @@
         <f>IF(ISBLANK(raw!$B210),"",raw!$B210)</f>
         <v/>
       </c>
-      <c r="E212" t="str">
+      <c r="E212" s="9" t="str">
         <f>IF(ISBLANK(raw!M210),"",raw!$M210)</f>
         <v/>
       </c>
     </row>
     <row r="213" ht="14.25">
-      <c r="A213" s="8" t="str">
+      <c r="A213" s="10" t="str">
         <f>IF(ISBLANK(raw!A211),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A211))</f>
         <v/>
       </c>
@@ -5359,13 +5374,13 @@
         <f>IF(ISBLANK(raw!$B211),"",raw!$B211)</f>
         <v/>
       </c>
-      <c r="E213" t="str">
+      <c r="E213" s="9" t="str">
         <f>IF(ISBLANK(raw!M211),"",raw!$M211)</f>
         <v/>
       </c>
     </row>
     <row r="214" ht="14.25">
-      <c r="A214" s="8" t="str">
+      <c r="A214" s="10" t="str">
         <f>IF(ISBLANK(raw!A212),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A212))</f>
         <v/>
       </c>
@@ -5381,13 +5396,13 @@
         <f>IF(ISBLANK(raw!$B212),"",raw!$B212)</f>
         <v/>
       </c>
-      <c r="E214" t="str">
+      <c r="E214" s="9" t="str">
         <f>IF(ISBLANK(raw!M212),"",raw!$M212)</f>
         <v/>
       </c>
     </row>
     <row r="215" ht="14.25">
-      <c r="A215" s="8" t="str">
+      <c r="A215" s="10" t="str">
         <f>IF(ISBLANK(raw!A213),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A213))</f>
         <v/>
       </c>
@@ -5403,13 +5418,13 @@
         <f>IF(ISBLANK(raw!$B213),"",raw!$B213)</f>
         <v/>
       </c>
-      <c r="E215" t="str">
+      <c r="E215" s="9" t="str">
         <f>IF(ISBLANK(raw!M213),"",raw!$M213)</f>
         <v/>
       </c>
     </row>
     <row r="216" ht="14.25">
-      <c r="A216" s="8" t="str">
+      <c r="A216" s="10" t="str">
         <f>IF(ISBLANK(raw!A214),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A214))</f>
         <v/>
       </c>
@@ -5425,13 +5440,13 @@
         <f>IF(ISBLANK(raw!$B214),"",raw!$B214)</f>
         <v/>
       </c>
-      <c r="E216" t="str">
+      <c r="E216" s="9" t="str">
         <f>IF(ISBLANK(raw!M214),"",raw!$M214)</f>
         <v/>
       </c>
     </row>
     <row r="217" ht="14.25">
-      <c r="A217" s="8" t="str">
+      <c r="A217" s="10" t="str">
         <f>IF(ISBLANK(raw!A215),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A215))</f>
         <v/>
       </c>
@@ -5447,13 +5462,13 @@
         <f>IF(ISBLANK(raw!$B215),"",raw!$B215)</f>
         <v/>
       </c>
-      <c r="E217" t="str">
+      <c r="E217" s="9" t="str">
         <f>IF(ISBLANK(raw!M215),"",raw!$M215)</f>
         <v/>
       </c>
     </row>
     <row r="218" ht="14.25">
-      <c r="A218" s="8" t="str">
+      <c r="A218" s="10" t="str">
         <f>IF(ISBLANK(raw!A216),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A216))</f>
         <v/>
       </c>
@@ -5469,13 +5484,13 @@
         <f>IF(ISBLANK(raw!$B216),"",raw!$B216)</f>
         <v/>
       </c>
-      <c r="E218" t="str">
+      <c r="E218" s="9" t="str">
         <f>IF(ISBLANK(raw!M216),"",raw!$M216)</f>
         <v/>
       </c>
     </row>
     <row r="219" ht="14.25">
-      <c r="A219" s="8" t="str">
+      <c r="A219" s="10" t="str">
         <f>IF(ISBLANK(raw!A217),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A217))</f>
         <v/>
       </c>
@@ -5491,13 +5506,13 @@
         <f>IF(ISBLANK(raw!$B217),"",raw!$B217)</f>
         <v/>
       </c>
-      <c r="E219" t="str">
+      <c r="E219" s="9" t="str">
         <f>IF(ISBLANK(raw!M217),"",raw!$M217)</f>
         <v/>
       </c>
     </row>
     <row r="220" ht="14.25">
-      <c r="A220" s="8" t="str">
+      <c r="A220" s="10" t="str">
         <f>IF(ISBLANK(raw!A218),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A218))</f>
         <v/>
       </c>
@@ -5513,13 +5528,13 @@
         <f>IF(ISBLANK(raw!$B218),"",raw!$B218)</f>
         <v/>
       </c>
-      <c r="E220" t="str">
+      <c r="E220" s="9" t="str">
         <f>IF(ISBLANK(raw!M218),"",raw!$M218)</f>
         <v/>
       </c>
     </row>
     <row r="221" ht="14.25">
-      <c r="A221" s="8" t="str">
+      <c r="A221" s="10" t="str">
         <f>IF(ISBLANK(raw!A219),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A219))</f>
         <v/>
       </c>
@@ -5535,13 +5550,13 @@
         <f>IF(ISBLANK(raw!$B219),"",raw!$B219)</f>
         <v/>
       </c>
-      <c r="E221" t="str">
+      <c r="E221" s="9" t="str">
         <f>IF(ISBLANK(raw!M219),"",raw!$M219)</f>
         <v/>
       </c>
     </row>
     <row r="222" ht="14.25">
-      <c r="A222" s="8" t="str">
+      <c r="A222" s="10" t="str">
         <f>IF(ISBLANK(raw!A220),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A220))</f>
         <v/>
       </c>
@@ -5557,13 +5572,13 @@
         <f>IF(ISBLANK(raw!$B220),"",raw!$B220)</f>
         <v/>
       </c>
-      <c r="E222" t="str">
+      <c r="E222" s="9" t="str">
         <f>IF(ISBLANK(raw!M220),"",raw!$M220)</f>
         <v/>
       </c>
     </row>
     <row r="223" ht="14.25">
-      <c r="A223" s="8" t="str">
+      <c r="A223" s="10" t="str">
         <f>IF(ISBLANK(raw!A221),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A221))</f>
         <v/>
       </c>
@@ -5579,13 +5594,13 @@
         <f>IF(ISBLANK(raw!$B221),"",raw!$B221)</f>
         <v/>
       </c>
-      <c r="E223" t="str">
+      <c r="E223" s="9" t="str">
         <f>IF(ISBLANK(raw!M221),"",raw!$M221)</f>
         <v/>
       </c>
     </row>
     <row r="224" ht="14.25">
-      <c r="A224" s="8" t="str">
+      <c r="A224" s="10" t="str">
         <f>IF(ISBLANK(raw!A222),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A222))</f>
         <v/>
       </c>
@@ -5601,13 +5616,13 @@
         <f>IF(ISBLANK(raw!$B222),"",raw!$B222)</f>
         <v/>
       </c>
-      <c r="E224" t="str">
+      <c r="E224" s="9" t="str">
         <f>IF(ISBLANK(raw!M222),"",raw!$M222)</f>
         <v/>
       </c>
     </row>
     <row r="225" ht="14.25">
-      <c r="A225" s="8" t="str">
+      <c r="A225" s="10" t="str">
         <f>IF(ISBLANK(raw!A223),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A223))</f>
         <v/>
       </c>
@@ -5623,13 +5638,13 @@
         <f>IF(ISBLANK(raw!$B223),"",raw!$B223)</f>
         <v/>
       </c>
-      <c r="E225" t="str">
+      <c r="E225" s="9" t="str">
         <f>IF(ISBLANK(raw!M223),"",raw!$M223)</f>
         <v/>
       </c>
     </row>
     <row r="226" ht="14.25">
-      <c r="A226" s="8" t="str">
+      <c r="A226" s="10" t="str">
         <f>IF(ISBLANK(raw!A224),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A224))</f>
         <v/>
       </c>
@@ -5645,13 +5660,13 @@
         <f>IF(ISBLANK(raw!$B224),"",raw!$B224)</f>
         <v/>
       </c>
-      <c r="E226" t="str">
+      <c r="E226" s="9" t="str">
         <f>IF(ISBLANK(raw!M224),"",raw!$M224)</f>
         <v/>
       </c>
     </row>
     <row r="227" ht="14.25">
-      <c r="A227" s="8" t="str">
+      <c r="A227" s="10" t="str">
         <f>IF(ISBLANK(raw!A225),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A225))</f>
         <v/>
       </c>
@@ -5667,13 +5682,13 @@
         <f>IF(ISBLANK(raw!$B225),"",raw!$B225)</f>
         <v/>
       </c>
-      <c r="E227" t="str">
+      <c r="E227" s="9" t="str">
         <f>IF(ISBLANK(raw!M225),"",raw!$M225)</f>
         <v/>
       </c>
     </row>
     <row r="228" ht="14.25">
-      <c r="A228" s="8" t="str">
+      <c r="A228" s="10" t="str">
         <f>IF(ISBLANK(raw!A226),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A226))</f>
         <v/>
       </c>
@@ -5689,13 +5704,13 @@
         <f>IF(ISBLANK(raw!$B226),"",raw!$B226)</f>
         <v/>
       </c>
-      <c r="E228" t="str">
+      <c r="E228" s="9" t="str">
         <f>IF(ISBLANK(raw!M226),"",raw!$M226)</f>
         <v/>
       </c>
     </row>
     <row r="229" ht="14.25">
-      <c r="A229" s="8" t="str">
+      <c r="A229" s="10" t="str">
         <f>IF(ISBLANK(raw!A227),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A227))</f>
         <v/>
       </c>
@@ -5711,13 +5726,13 @@
         <f>IF(ISBLANK(raw!$B227),"",raw!$B227)</f>
         <v/>
       </c>
-      <c r="E229" t="str">
+      <c r="E229" s="9" t="str">
         <f>IF(ISBLANK(raw!M227),"",raw!$M227)</f>
         <v/>
       </c>
     </row>
     <row r="230" ht="14.25">
-      <c r="A230" s="8" t="str">
+      <c r="A230" s="10" t="str">
         <f>IF(ISBLANK(raw!A228),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A228))</f>
         <v/>
       </c>
@@ -5733,13 +5748,13 @@
         <f>IF(ISBLANK(raw!$B228),"",raw!$B228)</f>
         <v/>
       </c>
-      <c r="E230" t="str">
+      <c r="E230" s="9" t="str">
         <f>IF(ISBLANK(raw!M228),"",raw!$M228)</f>
         <v/>
       </c>
     </row>
     <row r="231" ht="14.25">
-      <c r="A231" s="8" t="str">
+      <c r="A231" s="10" t="str">
         <f>IF(ISBLANK(raw!A229),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A229))</f>
         <v/>
       </c>
@@ -5755,13 +5770,13 @@
         <f>IF(ISBLANK(raw!$B229),"",raw!$B229)</f>
         <v/>
       </c>
-      <c r="E231" t="str">
+      <c r="E231" s="9" t="str">
         <f>IF(ISBLANK(raw!M229),"",raw!$M229)</f>
         <v/>
       </c>
     </row>
     <row r="232" ht="14.25">
-      <c r="A232" s="8" t="str">
+      <c r="A232" s="10" t="str">
         <f>IF(ISBLANK(raw!A230),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A230))</f>
         <v/>
       </c>
@@ -5777,13 +5792,13 @@
         <f>IF(ISBLANK(raw!$B230),"",raw!$B230)</f>
         <v/>
       </c>
-      <c r="E232" t="str">
+      <c r="E232" s="9" t="str">
         <f>IF(ISBLANK(raw!M230),"",raw!$M230)</f>
         <v/>
       </c>
     </row>
     <row r="233" ht="14.25">
-      <c r="A233" s="8" t="str">
+      <c r="A233" s="10" t="str">
         <f>IF(ISBLANK(raw!A231),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A231))</f>
         <v/>
       </c>
@@ -5799,13 +5814,13 @@
         <f>IF(ISBLANK(raw!$B231),"",raw!$B231)</f>
         <v/>
       </c>
-      <c r="E233" t="str">
+      <c r="E233" s="9" t="str">
         <f>IF(ISBLANK(raw!M231),"",raw!$M231)</f>
         <v/>
       </c>
     </row>
     <row r="234" ht="14.25">
-      <c r="A234" s="8" t="str">
+      <c r="A234" s="10" t="str">
         <f>IF(ISBLANK(raw!A232),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A232))</f>
         <v/>
       </c>
@@ -5821,13 +5836,13 @@
         <f>IF(ISBLANK(raw!$B232),"",raw!$B232)</f>
         <v/>
       </c>
-      <c r="E234" t="str">
+      <c r="E234" s="9" t="str">
         <f>IF(ISBLANK(raw!M232),"",raw!$M232)</f>
         <v/>
       </c>
     </row>
     <row r="235" ht="14.25">
-      <c r="A235" s="8" t="str">
+      <c r="A235" s="10" t="str">
         <f>IF(ISBLANK(raw!A233),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A233))</f>
         <v/>
       </c>
@@ -5843,13 +5858,13 @@
         <f>IF(ISBLANK(raw!$B233),"",raw!$B233)</f>
         <v/>
       </c>
-      <c r="E235" t="str">
+      <c r="E235" s="9" t="str">
         <f>IF(ISBLANK(raw!M233),"",raw!$M233)</f>
         <v/>
       </c>
     </row>
     <row r="236" ht="14.25">
-      <c r="A236" s="8" t="str">
+      <c r="A236" s="10" t="str">
         <f>IF(ISBLANK(raw!A234),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A234))</f>
         <v/>
       </c>
@@ -5865,13 +5880,13 @@
         <f>IF(ISBLANK(raw!$B234),"",raw!$B234)</f>
         <v/>
       </c>
-      <c r="E236" t="str">
+      <c r="E236" s="9" t="str">
         <f>IF(ISBLANK(raw!M234),"",raw!$M234)</f>
         <v/>
       </c>
     </row>
     <row r="237" ht="14.25">
-      <c r="A237" s="8" t="str">
+      <c r="A237" s="10" t="str">
         <f>IF(ISBLANK(raw!A235),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A235))</f>
         <v/>
       </c>
@@ -5887,13 +5902,13 @@
         <f>IF(ISBLANK(raw!$B235),"",raw!$B235)</f>
         <v/>
       </c>
-      <c r="E237" t="str">
+      <c r="E237" s="9" t="str">
         <f>IF(ISBLANK(raw!M235),"",raw!$M235)</f>
         <v/>
       </c>
     </row>
     <row r="238" ht="14.25">
-      <c r="A238" s="8" t="str">
+      <c r="A238" s="10" t="str">
         <f>IF(ISBLANK(raw!A236),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A236))</f>
         <v/>
       </c>
@@ -5909,13 +5924,13 @@
         <f>IF(ISBLANK(raw!$B236),"",raw!$B236)</f>
         <v/>
       </c>
-      <c r="E238" t="str">
+      <c r="E238" s="9" t="str">
         <f>IF(ISBLANK(raw!M236),"",raw!$M236)</f>
         <v/>
       </c>
     </row>
     <row r="239" ht="14.25">
-      <c r="A239" s="8" t="str">
+      <c r="A239" s="10" t="str">
         <f>IF(ISBLANK(raw!A237),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A237))</f>
         <v/>
       </c>
@@ -5931,13 +5946,13 @@
         <f>IF(ISBLANK(raw!$B237),"",raw!$B237)</f>
         <v/>
       </c>
-      <c r="E239" t="str">
+      <c r="E239" s="9" t="str">
         <f>IF(ISBLANK(raw!M237),"",raw!$M237)</f>
         <v/>
       </c>
     </row>
     <row r="240" ht="14.25">
-      <c r="A240" s="8" t="str">
+      <c r="A240" s="10" t="str">
         <f>IF(ISBLANK(raw!A238),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A238))</f>
         <v/>
       </c>
@@ -5953,13 +5968,13 @@
         <f>IF(ISBLANK(raw!$B238),"",raw!$B238)</f>
         <v/>
       </c>
-      <c r="E240" t="str">
+      <c r="E240" s="9" t="str">
         <f>IF(ISBLANK(raw!M238),"",raw!$M238)</f>
         <v/>
       </c>
     </row>
     <row r="241" ht="14.25">
-      <c r="A241" s="8" t="str">
+      <c r="A241" s="10" t="str">
         <f>IF(ISBLANK(raw!A239),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A239))</f>
         <v/>
       </c>
@@ -5975,13 +5990,13 @@
         <f>IF(ISBLANK(raw!$B239),"",raw!$B239)</f>
         <v/>
       </c>
-      <c r="E241" t="str">
+      <c r="E241" s="9" t="str">
         <f>IF(ISBLANK(raw!M239),"",raw!$M239)</f>
         <v/>
       </c>
     </row>
     <row r="242" ht="14.25">
-      <c r="A242" s="8" t="str">
+      <c r="A242" s="10" t="str">
         <f>IF(ISBLANK(raw!A240),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A240))</f>
         <v/>
       </c>
@@ -5997,13 +6012,13 @@
         <f>IF(ISBLANK(raw!$B240),"",raw!$B240)</f>
         <v/>
       </c>
-      <c r="E242" t="str">
+      <c r="E242" s="9" t="str">
         <f>IF(ISBLANK(raw!M240),"",raw!$M240)</f>
         <v/>
       </c>
     </row>
     <row r="243" ht="14.25">
-      <c r="A243" s="8" t="str">
+      <c r="A243" s="10" t="str">
         <f>IF(ISBLANK(raw!A241),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A241))</f>
         <v/>
       </c>
@@ -6019,13 +6034,13 @@
         <f>IF(ISBLANK(raw!$B241),"",raw!$B241)</f>
         <v/>
       </c>
-      <c r="E243" t="str">
+      <c r="E243" s="9" t="str">
         <f>IF(ISBLANK(raw!M241),"",raw!$M241)</f>
         <v/>
       </c>
     </row>
     <row r="244" ht="14.25">
-      <c r="A244" s="8" t="str">
+      <c r="A244" s="10" t="str">
         <f>IF(ISBLANK(raw!A242),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A242))</f>
         <v/>
       </c>
@@ -6041,13 +6056,13 @@
         <f>IF(ISBLANK(raw!$B242),"",raw!$B242)</f>
         <v/>
       </c>
-      <c r="E244" t="str">
+      <c r="E244" s="9" t="str">
         <f>IF(ISBLANK(raw!M242),"",raw!$M242)</f>
         <v/>
       </c>
     </row>
     <row r="245" ht="14.25">
-      <c r="A245" s="8" t="str">
+      <c r="A245" s="10" t="str">
         <f>IF(ISBLANK(raw!A243),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A243))</f>
         <v/>
       </c>
@@ -6063,13 +6078,13 @@
         <f>IF(ISBLANK(raw!$B243),"",raw!$B243)</f>
         <v/>
       </c>
-      <c r="E245" t="str">
+      <c r="E245" s="9" t="str">
         <f>IF(ISBLANK(raw!M243),"",raw!$M243)</f>
         <v/>
       </c>
     </row>
     <row r="246" ht="14.25">
-      <c r="A246" s="8" t="str">
+      <c r="A246" s="10" t="str">
         <f>IF(ISBLANK(raw!A244),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A244))</f>
         <v/>
       </c>
@@ -6085,13 +6100,13 @@
         <f>IF(ISBLANK(raw!$B244),"",raw!$B244)</f>
         <v/>
       </c>
-      <c r="E246" t="str">
+      <c r="E246" s="9" t="str">
         <f>IF(ISBLANK(raw!M244),"",raw!$M244)</f>
         <v/>
       </c>
     </row>
     <row r="247" ht="14.25">
-      <c r="A247" s="8" t="str">
+      <c r="A247" s="10" t="str">
         <f>IF(ISBLANK(raw!A245),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A245))</f>
         <v/>
       </c>
@@ -6107,13 +6122,13 @@
         <f>IF(ISBLANK(raw!$B245),"",raw!$B245)</f>
         <v/>
       </c>
-      <c r="E247" t="str">
+      <c r="E247" s="9" t="str">
         <f>IF(ISBLANK(raw!M245),"",raw!$M245)</f>
         <v/>
       </c>
     </row>
     <row r="248" ht="14.25">
-      <c r="A248" s="8" t="str">
+      <c r="A248" s="10" t="str">
         <f>IF(ISBLANK(raw!A246),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A246))</f>
         <v/>
       </c>
@@ -6129,13 +6144,13 @@
         <f>IF(ISBLANK(raw!$B246),"",raw!$B246)</f>
         <v/>
       </c>
-      <c r="E248" t="str">
+      <c r="E248" s="9" t="str">
         <f>IF(ISBLANK(raw!M246),"",raw!$M246)</f>
         <v/>
       </c>
     </row>
     <row r="249" ht="14.25">
-      <c r="A249" s="8" t="str">
+      <c r="A249" s="10" t="str">
         <f>IF(ISBLANK(raw!A247),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A247))</f>
         <v/>
       </c>
@@ -6151,13 +6166,13 @@
         <f>IF(ISBLANK(raw!$B247),"",raw!$B247)</f>
         <v/>
       </c>
-      <c r="E249" t="str">
+      <c r="E249" s="9" t="str">
         <f>IF(ISBLANK(raw!M247),"",raw!$M247)</f>
         <v/>
       </c>
     </row>
     <row r="250" ht="14.25">
-      <c r="A250" s="8" t="str">
+      <c r="A250" s="10" t="str">
         <f>IF(ISBLANK(raw!A248),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A248))</f>
         <v/>
       </c>
@@ -6173,13 +6188,13 @@
         <f>IF(ISBLANK(raw!$B248),"",raw!$B248)</f>
         <v/>
       </c>
-      <c r="E250" t="str">
+      <c r="E250" s="9" t="str">
         <f>IF(ISBLANK(raw!M248),"",raw!$M248)</f>
         <v/>
       </c>
     </row>
     <row r="251" ht="14.25">
-      <c r="A251" s="8" t="str">
+      <c r="A251" s="10" t="str">
         <f>IF(ISBLANK(raw!A249),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A249))</f>
         <v/>
       </c>
@@ -6195,13 +6210,13 @@
         <f>IF(ISBLANK(raw!$B249),"",raw!$B249)</f>
         <v/>
       </c>
-      <c r="E251" t="str">
+      <c r="E251" s="9" t="str">
         <f>IF(ISBLANK(raw!M249),"",raw!$M249)</f>
         <v/>
       </c>
     </row>
     <row r="252" ht="14.25">
-      <c r="A252" s="8" t="str">
+      <c r="A252" s="10" t="str">
         <f>IF(ISBLANK(raw!A250),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A250))</f>
         <v/>
       </c>
@@ -6217,13 +6232,13 @@
         <f>IF(ISBLANK(raw!$B250),"",raw!$B250)</f>
         <v/>
       </c>
-      <c r="E252" t="str">
+      <c r="E252" s="9" t="str">
         <f>IF(ISBLANK(raw!M250),"",raw!$M250)</f>
         <v/>
       </c>
     </row>
     <row r="253" ht="14.25">
-      <c r="A253" s="8" t="str">
+      <c r="A253" s="10" t="str">
         <f>IF(ISBLANK(raw!A251),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A251))</f>
         <v/>
       </c>
@@ -6239,13 +6254,13 @@
         <f>IF(ISBLANK(raw!$B251),"",raw!$B251)</f>
         <v/>
       </c>
-      <c r="E253" t="str">
+      <c r="E253" s="9" t="str">
         <f>IF(ISBLANK(raw!M251),"",raw!$M251)</f>
         <v/>
       </c>
     </row>
     <row r="254" ht="14.25">
-      <c r="A254" s="8" t="str">
+      <c r="A254" s="10" t="str">
         <f>IF(ISBLANK(raw!A252),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A252))</f>
         <v/>
       </c>
@@ -6261,13 +6276,13 @@
         <f>IF(ISBLANK(raw!$B252),"",raw!$B252)</f>
         <v/>
       </c>
-      <c r="E254" t="str">
+      <c r="E254" s="9" t="str">
         <f>IF(ISBLANK(raw!M252),"",raw!$M252)</f>
         <v/>
       </c>
     </row>
     <row r="255" ht="14.25">
-      <c r="A255" s="8" t="str">
+      <c r="A255" s="10" t="str">
         <f>IF(ISBLANK(raw!A253),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A253))</f>
         <v/>
       </c>
@@ -6283,13 +6298,13 @@
         <f>IF(ISBLANK(raw!$B253),"",raw!$B253)</f>
         <v/>
       </c>
-      <c r="E255" t="str">
+      <c r="E255" s="9" t="str">
         <f>IF(ISBLANK(raw!M253),"",raw!$M253)</f>
         <v/>
       </c>
     </row>
     <row r="256" ht="14.25">
-      <c r="A256" s="8" t="str">
+      <c r="A256" s="10" t="str">
         <f>IF(ISBLANK(raw!A254),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A254))</f>
         <v/>
       </c>
@@ -6305,13 +6320,13 @@
         <f>IF(ISBLANK(raw!$B254),"",raw!$B254)</f>
         <v/>
       </c>
-      <c r="E256" t="str">
+      <c r="E256" s="9" t="str">
         <f>IF(ISBLANK(raw!M254),"",raw!$M254)</f>
         <v/>
       </c>
     </row>
     <row r="257" ht="14.25">
-      <c r="A257" s="8" t="str">
+      <c r="A257" s="10" t="str">
         <f>IF(ISBLANK(raw!A255),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A255))</f>
         <v/>
       </c>
@@ -6327,13 +6342,13 @@
         <f>IF(ISBLANK(raw!$B255),"",raw!$B255)</f>
         <v/>
       </c>
-      <c r="E257" t="str">
+      <c r="E257" s="9" t="str">
         <f>IF(ISBLANK(raw!M255),"",raw!$M255)</f>
         <v/>
       </c>
     </row>
     <row r="258" ht="14.25">
-      <c r="A258" s="8" t="str">
+      <c r="A258" s="10" t="str">
         <f>IF(ISBLANK(raw!A256),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A256))</f>
         <v/>
       </c>
@@ -6349,13 +6364,13 @@
         <f>IF(ISBLANK(raw!$B256),"",raw!$B256)</f>
         <v/>
       </c>
-      <c r="E258" t="str">
+      <c r="E258" s="9" t="str">
         <f>IF(ISBLANK(raw!M256),"",raw!$M256)</f>
         <v/>
       </c>
     </row>
     <row r="259" ht="14.25">
-      <c r="A259" s="8" t="str">
+      <c r="A259" s="10" t="str">
         <f>IF(ISBLANK(raw!A257),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A257))</f>
         <v/>
       </c>
@@ -6371,13 +6386,13 @@
         <f>IF(ISBLANK(raw!$B257),"",raw!$B257)</f>
         <v/>
       </c>
-      <c r="E259" t="str">
+      <c r="E259" s="9" t="str">
         <f>IF(ISBLANK(raw!M257),"",raw!$M257)</f>
         <v/>
       </c>
     </row>
     <row r="260" ht="14.25">
-      <c r="A260" s="8" t="str">
+      <c r="A260" s="10" t="str">
         <f>IF(ISBLANK(raw!A258),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A258))</f>
         <v/>
       </c>
@@ -6393,13 +6408,13 @@
         <f>IF(ISBLANK(raw!$B258),"",raw!$B258)</f>
         <v/>
       </c>
-      <c r="E260" t="str">
+      <c r="E260" s="9" t="str">
         <f>IF(ISBLANK(raw!M258),"",raw!$M258)</f>
         <v/>
       </c>
     </row>
     <row r="261" ht="14.25">
-      <c r="A261" s="8" t="str">
+      <c r="A261" s="10" t="str">
         <f>IF(ISBLANK(raw!A259),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A259))</f>
         <v/>
       </c>
@@ -6415,13 +6430,13 @@
         <f>IF(ISBLANK(raw!$B259),"",raw!$B259)</f>
         <v/>
       </c>
-      <c r="E261" t="str">
+      <c r="E261" s="9" t="str">
         <f>IF(ISBLANK(raw!M259),"",raw!$M259)</f>
         <v/>
       </c>
     </row>
     <row r="262" ht="14.25">
-      <c r="A262" s="8" t="str">
+      <c r="A262" s="10" t="str">
         <f>IF(ISBLANK(raw!A260),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A260))</f>
         <v/>
       </c>
@@ -6437,13 +6452,13 @@
         <f>IF(ISBLANK(raw!$B260),"",raw!$B260)</f>
         <v/>
       </c>
-      <c r="E262" t="str">
+      <c r="E262" s="9" t="str">
         <f>IF(ISBLANK(raw!M260),"",raw!$M260)</f>
         <v/>
       </c>
     </row>
     <row r="263" ht="14.25">
-      <c r="A263" s="8" t="str">
+      <c r="A263" s="10" t="str">
         <f>IF(ISBLANK(raw!A261),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A261))</f>
         <v/>
       </c>
@@ -6459,13 +6474,13 @@
         <f>IF(ISBLANK(raw!$B261),"",raw!$B261)</f>
         <v/>
       </c>
-      <c r="E263" t="str">
+      <c r="E263" s="9" t="str">
         <f>IF(ISBLANK(raw!M261),"",raw!$M261)</f>
         <v/>
       </c>
     </row>
     <row r="264" ht="14.25">
-      <c r="A264" s="8" t="str">
+      <c r="A264" s="10" t="str">
         <f>IF(ISBLANK(raw!A262),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A262))</f>
         <v/>
       </c>
@@ -6481,13 +6496,13 @@
         <f>IF(ISBLANK(raw!$B262),"",raw!$B262)</f>
         <v/>
       </c>
-      <c r="E264" t="str">
+      <c r="E264" s="9" t="str">
         <f>IF(ISBLANK(raw!M262),"",raw!$M262)</f>
         <v/>
       </c>
     </row>
     <row r="265" ht="14.25">
-      <c r="A265" s="8" t="str">
+      <c r="A265" s="10" t="str">
         <f>IF(ISBLANK(raw!A263),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A263))</f>
         <v/>
       </c>
@@ -6503,13 +6518,13 @@
         <f>IF(ISBLANK(raw!$B263),"",raw!$B263)</f>
         <v/>
       </c>
-      <c r="E265" t="str">
+      <c r="E265" s="9" t="str">
         <f>IF(ISBLANK(raw!M263),"",raw!$M263)</f>
         <v/>
       </c>
     </row>
     <row r="266" ht="14.25">
-      <c r="A266" s="8" t="str">
+      <c r="A266" s="10" t="str">
         <f>IF(ISBLANK(raw!A264),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A264))</f>
         <v/>
       </c>
@@ -6525,13 +6540,13 @@
         <f>IF(ISBLANK(raw!$B264),"",raw!$B264)</f>
         <v/>
       </c>
-      <c r="E266" t="str">
+      <c r="E266" s="9" t="str">
         <f>IF(ISBLANK(raw!M264),"",raw!$M264)</f>
         <v/>
       </c>
     </row>
     <row r="267" ht="14.25">
-      <c r="A267" s="8" t="str">
+      <c r="A267" s="10" t="str">
         <f>IF(ISBLANK(raw!A265),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A265))</f>
         <v/>
       </c>
@@ -6547,13 +6562,13 @@
         <f>IF(ISBLANK(raw!$B265),"",raw!$B265)</f>
         <v/>
       </c>
-      <c r="E267" t="str">
+      <c r="E267" s="9" t="str">
         <f>IF(ISBLANK(raw!M265),"",raw!$M265)</f>
         <v/>
       </c>
     </row>
     <row r="268" ht="14.25">
-      <c r="A268" s="8" t="str">
+      <c r="A268" s="10" t="str">
         <f>IF(ISBLANK(raw!A266),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A266))</f>
         <v/>
       </c>
@@ -6569,13 +6584,13 @@
         <f>IF(ISBLANK(raw!$B266),"",raw!$B266)</f>
         <v/>
       </c>
-      <c r="E268" t="str">
+      <c r="E268" s="9" t="str">
         <f>IF(ISBLANK(raw!M266),"",raw!$M266)</f>
         <v/>
       </c>
     </row>
     <row r="269" ht="14.25">
-      <c r="A269" s="8" t="str">
+      <c r="A269" s="10" t="str">
         <f>IF(ISBLANK(raw!A267),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A267))</f>
         <v/>
       </c>
@@ -6591,13 +6606,13 @@
         <f>IF(ISBLANK(raw!$B267),"",raw!$B267)</f>
         <v/>
       </c>
-      <c r="E269" t="str">
+      <c r="E269" s="9" t="str">
         <f>IF(ISBLANK(raw!M267),"",raw!$M267)</f>
         <v/>
       </c>
     </row>
     <row r="270" ht="14.25">
-      <c r="A270" s="8" t="str">
+      <c r="A270" s="10" t="str">
         <f>IF(ISBLANK(raw!A268),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A268))</f>
         <v/>
       </c>
@@ -6613,13 +6628,13 @@
         <f>IF(ISBLANK(raw!$B268),"",raw!$B268)</f>
         <v/>
       </c>
-      <c r="E270" t="str">
+      <c r="E270" s="9" t="str">
         <f>IF(ISBLANK(raw!M268),"",raw!$M268)</f>
         <v/>
       </c>
     </row>
     <row r="271" ht="14.25">
-      <c r="A271" s="8" t="str">
+      <c r="A271" s="10" t="str">
         <f>IF(ISBLANK(raw!A269),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A269))</f>
         <v/>
       </c>
@@ -6635,13 +6650,13 @@
         <f>IF(ISBLANK(raw!$B269),"",raw!$B269)</f>
         <v/>
       </c>
-      <c r="E271" t="str">
+      <c r="E271" s="9" t="str">
         <f>IF(ISBLANK(raw!M269),"",raw!$M269)</f>
         <v/>
       </c>
     </row>
     <row r="272" ht="14.25">
-      <c r="A272" s="8" t="str">
+      <c r="A272" s="10" t="str">
         <f>IF(ISBLANK(raw!A270),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A270))</f>
         <v/>
       </c>
@@ -6657,13 +6672,13 @@
         <f>IF(ISBLANK(raw!$B270),"",raw!$B270)</f>
         <v/>
       </c>
-      <c r="E272" t="str">
+      <c r="E272" s="9" t="str">
         <f>IF(ISBLANK(raw!M270),"",raw!$M270)</f>
         <v/>
       </c>
     </row>
     <row r="273" ht="14.25">
-      <c r="A273" s="8" t="str">
+      <c r="A273" s="10" t="str">
         <f>IF(ISBLANK(raw!A271),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A271))</f>
         <v/>
       </c>
@@ -6679,13 +6694,13 @@
         <f>IF(ISBLANK(raw!$B271),"",raw!$B271)</f>
         <v/>
       </c>
-      <c r="E273" t="str">
+      <c r="E273" s="9" t="str">
         <f>IF(ISBLANK(raw!M271),"",raw!$M271)</f>
         <v/>
       </c>
     </row>
     <row r="274" ht="14.25">
-      <c r="A274" s="8" t="str">
+      <c r="A274" s="10" t="str">
         <f>IF(ISBLANK(raw!A272),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A272))</f>
         <v/>
       </c>
@@ -6701,13 +6716,13 @@
         <f>IF(ISBLANK(raw!$B272),"",raw!$B272)</f>
         <v/>
       </c>
-      <c r="E274" t="str">
+      <c r="E274" s="9" t="str">
         <f>IF(ISBLANK(raw!M272),"",raw!$M272)</f>
         <v/>
       </c>
     </row>
     <row r="275" ht="14.25">
-      <c r="A275" s="8" t="str">
+      <c r="A275" s="10" t="str">
         <f>IF(ISBLANK(raw!A273),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A273))</f>
         <v/>
       </c>
@@ -6723,13 +6738,13 @@
         <f>IF(ISBLANK(raw!$B273),"",raw!$B273)</f>
         <v/>
       </c>
-      <c r="E275" t="str">
+      <c r="E275" s="9" t="str">
         <f>IF(ISBLANK(raw!M273),"",raw!$M273)</f>
         <v/>
       </c>
     </row>
     <row r="276" ht="14.25">
-      <c r="A276" s="8" t="str">
+      <c r="A276" s="10" t="str">
         <f>IF(ISBLANK(raw!A274),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A274))</f>
         <v/>
       </c>
@@ -6745,13 +6760,13 @@
         <f>IF(ISBLANK(raw!$B274),"",raw!$B274)</f>
         <v/>
       </c>
-      <c r="E276" t="str">
+      <c r="E276" s="9" t="str">
         <f>IF(ISBLANK(raw!M274),"",raw!$M274)</f>
         <v/>
       </c>
     </row>
     <row r="277" ht="14.25">
-      <c r="A277" s="8" t="str">
+      <c r="A277" s="10" t="str">
         <f>IF(ISBLANK(raw!A275),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A275))</f>
         <v/>
       </c>
@@ -6767,13 +6782,13 @@
         <f>IF(ISBLANK(raw!$B275),"",raw!$B275)</f>
         <v/>
       </c>
-      <c r="E277" t="str">
+      <c r="E277" s="9" t="str">
         <f>IF(ISBLANK(raw!M275),"",raw!$M275)</f>
         <v/>
       </c>
     </row>
     <row r="278" ht="14.25">
-      <c r="A278" s="8" t="str">
+      <c r="A278" s="10" t="str">
         <f>IF(ISBLANK(raw!A276),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A276))</f>
         <v/>
       </c>
@@ -6789,13 +6804,13 @@
         <f>IF(ISBLANK(raw!$B276),"",raw!$B276)</f>
         <v/>
       </c>
-      <c r="E278" t="str">
+      <c r="E278" s="9" t="str">
         <f>IF(ISBLANK(raw!M276),"",raw!$M276)</f>
         <v/>
       </c>
     </row>
     <row r="279" ht="14.25">
-      <c r="A279" s="8" t="str">
+      <c r="A279" s="10" t="str">
         <f>IF(ISBLANK(raw!A277),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A277))</f>
         <v/>
       </c>
@@ -6811,13 +6826,13 @@
         <f>IF(ISBLANK(raw!$B277),"",raw!$B277)</f>
         <v/>
       </c>
-      <c r="E279" t="str">
+      <c r="E279" s="9" t="str">
         <f>IF(ISBLANK(raw!M277),"",raw!$M277)</f>
         <v/>
       </c>
     </row>
     <row r="280" ht="14.25">
-      <c r="A280" s="8" t="str">
+      <c r="A280" s="10" t="str">
         <f>IF(ISBLANK(raw!A278),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A278))</f>
         <v/>
       </c>
@@ -6833,13 +6848,13 @@
         <f>IF(ISBLANK(raw!$B278),"",raw!$B278)</f>
         <v/>
       </c>
-      <c r="E280" t="str">
+      <c r="E280" s="9" t="str">
         <f>IF(ISBLANK(raw!M278),"",raw!$M278)</f>
         <v/>
       </c>
     </row>
     <row r="281" ht="14.25">
-      <c r="A281" s="8" t="str">
+      <c r="A281" s="10" t="str">
         <f>IF(ISBLANK(raw!A279),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A279))</f>
         <v/>
       </c>
@@ -6855,13 +6870,13 @@
         <f>IF(ISBLANK(raw!$B279),"",raw!$B279)</f>
         <v/>
       </c>
-      <c r="E281" t="str">
+      <c r="E281" s="9" t="str">
         <f>IF(ISBLANK(raw!M279),"",raw!$M279)</f>
         <v/>
       </c>
     </row>
     <row r="282" ht="14.25">
-      <c r="A282" s="8" t="str">
+      <c r="A282" s="10" t="str">
         <f>IF(ISBLANK(raw!A280),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A280))</f>
         <v/>
       </c>
@@ -6877,13 +6892,13 @@
         <f>IF(ISBLANK(raw!$B280),"",raw!$B280)</f>
         <v/>
       </c>
-      <c r="E282" t="str">
+      <c r="E282" s="9" t="str">
         <f>IF(ISBLANK(raw!M280),"",raw!$M280)</f>
         <v/>
       </c>
     </row>
     <row r="283" ht="14.25">
-      <c r="A283" s="8" t="str">
+      <c r="A283" s="10" t="str">
         <f>IF(ISBLANK(raw!A281),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A281))</f>
         <v/>
       </c>
@@ -6899,13 +6914,13 @@
         <f>IF(ISBLANK(raw!$B281),"",raw!$B281)</f>
         <v/>
       </c>
-      <c r="E283" t="str">
+      <c r="E283" s="9" t="str">
         <f>IF(ISBLANK(raw!M281),"",raw!$M281)</f>
         <v/>
       </c>
     </row>
     <row r="284" ht="14.25">
-      <c r="A284" s="8" t="str">
+      <c r="A284" s="10" t="str">
         <f>IF(ISBLANK(raw!A282),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A282))</f>
         <v/>
       </c>
@@ -6921,13 +6936,13 @@
         <f>IF(ISBLANK(raw!$B282),"",raw!$B282)</f>
         <v/>
       </c>
-      <c r="E284" t="str">
+      <c r="E284" s="9" t="str">
         <f>IF(ISBLANK(raw!M282),"",raw!$M282)</f>
         <v/>
       </c>
     </row>
     <row r="285" ht="14.25">
-      <c r="A285" s="8" t="str">
+      <c r="A285" s="10" t="str">
         <f>IF(ISBLANK(raw!A283),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A283))</f>
         <v/>
       </c>
@@ -6943,13 +6958,13 @@
         <f>IF(ISBLANK(raw!$B283),"",raw!$B283)</f>
         <v/>
       </c>
-      <c r="E285" t="str">
+      <c r="E285" s="9" t="str">
         <f>IF(ISBLANK(raw!M283),"",raw!$M283)</f>
         <v/>
       </c>
     </row>
     <row r="286" ht="14.25">
-      <c r="A286" s="8" t="str">
+      <c r="A286" s="10" t="str">
         <f>IF(ISBLANK(raw!A284),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A284))</f>
         <v/>
       </c>
@@ -6965,13 +6980,13 @@
         <f>IF(ISBLANK(raw!$B284),"",raw!$B284)</f>
         <v/>
       </c>
-      <c r="E286" t="str">
+      <c r="E286" s="9" t="str">
         <f>IF(ISBLANK(raw!M284),"",raw!$M284)</f>
         <v/>
       </c>
     </row>
     <row r="287" ht="14.25">
-      <c r="A287" s="8" t="str">
+      <c r="A287" s="10" t="str">
         <f>IF(ISBLANK(raw!A285),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A285))</f>
         <v/>
       </c>
@@ -6987,13 +7002,13 @@
         <f>IF(ISBLANK(raw!$B285),"",raw!$B285)</f>
         <v/>
       </c>
-      <c r="E287" t="str">
+      <c r="E287" s="9" t="str">
         <f>IF(ISBLANK(raw!M285),"",raw!$M285)</f>
         <v/>
       </c>
     </row>
     <row r="288" ht="14.25">
-      <c r="A288" s="8" t="str">
+      <c r="A288" s="10" t="str">
         <f>IF(ISBLANK(raw!A286),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A286))</f>
         <v/>
       </c>
@@ -7009,13 +7024,13 @@
         <f>IF(ISBLANK(raw!$B286),"",raw!$B286)</f>
         <v/>
       </c>
-      <c r="E288" t="str">
+      <c r="E288" s="9" t="str">
         <f>IF(ISBLANK(raw!M286),"",raw!$M286)</f>
         <v/>
       </c>
     </row>
     <row r="289" ht="14.25">
-      <c r="A289" s="8" t="str">
+      <c r="A289" s="10" t="str">
         <f>IF(ISBLANK(raw!A287),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A287))</f>
         <v/>
       </c>
@@ -7031,13 +7046,13 @@
         <f>IF(ISBLANK(raw!$B287),"",raw!$B287)</f>
         <v/>
       </c>
-      <c r="E289" t="str">
+      <c r="E289" s="9" t="str">
         <f>IF(ISBLANK(raw!M287),"",raw!$M287)</f>
         <v/>
       </c>
     </row>
     <row r="290" ht="14.25">
-      <c r="A290" s="8" t="str">
+      <c r="A290" s="10" t="str">
         <f>IF(ISBLANK(raw!A288),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A288))</f>
         <v/>
       </c>
@@ -7053,13 +7068,13 @@
         <f>IF(ISBLANK(raw!$B288),"",raw!$B288)</f>
         <v/>
       </c>
-      <c r="E290" t="str">
+      <c r="E290" s="9" t="str">
         <f>IF(ISBLANK(raw!M288),"",raw!$M288)</f>
         <v/>
       </c>
     </row>
     <row r="291" ht="14.25">
-      <c r="A291" s="8" t="str">
+      <c r="A291" s="10" t="str">
         <f>IF(ISBLANK(raw!A289),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A289))</f>
         <v/>
       </c>
@@ -7075,13 +7090,13 @@
         <f>IF(ISBLANK(raw!$B289),"",raw!$B289)</f>
         <v/>
       </c>
-      <c r="E291" t="str">
+      <c r="E291" s="9" t="str">
         <f>IF(ISBLANK(raw!M289),"",raw!$M289)</f>
         <v/>
       </c>
     </row>
     <row r="292" ht="14.25">
-      <c r="A292" s="8" t="str">
+      <c r="A292" s="10" t="str">
         <f>IF(ISBLANK(raw!A290),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A290))</f>
         <v/>
       </c>
@@ -7097,13 +7112,13 @@
         <f>IF(ISBLANK(raw!$B290),"",raw!$B290)</f>
         <v/>
       </c>
-      <c r="E292" t="str">
+      <c r="E292" s="9" t="str">
         <f>IF(ISBLANK(raw!M290),"",raw!$M290)</f>
         <v/>
       </c>
     </row>
     <row r="293" ht="14.25">
-      <c r="A293" s="8" t="str">
+      <c r="A293" s="10" t="str">
         <f>IF(ISBLANK(raw!A291),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A291))</f>
         <v/>
       </c>
@@ -7119,13 +7134,13 @@
         <f>IF(ISBLANK(raw!$B291),"",raw!$B291)</f>
         <v/>
       </c>
-      <c r="E293" t="str">
+      <c r="E293" s="9" t="str">
         <f>IF(ISBLANK(raw!M291),"",raw!$M291)</f>
         <v/>
       </c>
     </row>
     <row r="294" ht="14.25">
-      <c r="A294" s="8" t="str">
+      <c r="A294" s="10" t="str">
         <f>IF(ISBLANK(raw!A292),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A292))</f>
         <v/>
       </c>
@@ -7141,13 +7156,13 @@
         <f>IF(ISBLANK(raw!$B292),"",raw!$B292)</f>
         <v/>
       </c>
-      <c r="E294" t="str">
+      <c r="E294" s="9" t="str">
         <f>IF(ISBLANK(raw!M292),"",raw!$M292)</f>
         <v/>
       </c>
     </row>
     <row r="295" ht="14.25">
-      <c r="A295" s="8" t="str">
+      <c r="A295" s="10" t="str">
         <f>IF(ISBLANK(raw!A293),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A293))</f>
         <v/>
       </c>
@@ -7163,13 +7178,13 @@
         <f>IF(ISBLANK(raw!$B293),"",raw!$B293)</f>
         <v/>
       </c>
-      <c r="E295" t="str">
+      <c r="E295" s="9" t="str">
         <f>IF(ISBLANK(raw!M293),"",raw!$M293)</f>
         <v/>
       </c>
     </row>
     <row r="296" ht="14.25">
-      <c r="A296" s="8" t="str">
+      <c r="A296" s="10" t="str">
         <f>IF(ISBLANK(raw!A294),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A294))</f>
         <v/>
       </c>
@@ -7185,13 +7200,13 @@
         <f>IF(ISBLANK(raw!$B294),"",raw!$B294)</f>
         <v/>
       </c>
-      <c r="E296" t="str">
+      <c r="E296" s="9" t="str">
         <f>IF(ISBLANK(raw!M294),"",raw!$M294)</f>
         <v/>
       </c>
     </row>
     <row r="297" ht="14.25">
-      <c r="A297" s="8" t="str">
+      <c r="A297" s="10" t="str">
         <f>IF(ISBLANK(raw!A295),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A295))</f>
         <v/>
       </c>
@@ -7207,13 +7222,13 @@
         <f>IF(ISBLANK(raw!$B295),"",raw!$B295)</f>
         <v/>
       </c>
-      <c r="E297" t="str">
+      <c r="E297" s="9" t="str">
         <f>IF(ISBLANK(raw!M295),"",raw!$M295)</f>
         <v/>
       </c>
     </row>
     <row r="298" ht="14.25">
-      <c r="A298" s="8" t="str">
+      <c r="A298" s="10" t="str">
         <f>IF(ISBLANK(raw!A296),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A296))</f>
         <v/>
       </c>
@@ -7229,13 +7244,13 @@
         <f>IF(ISBLANK(raw!$B296),"",raw!$B296)</f>
         <v/>
       </c>
-      <c r="E298" t="str">
+      <c r="E298" s="9" t="str">
         <f>IF(ISBLANK(raw!M296),"",raw!$M296)</f>
         <v/>
       </c>
     </row>
     <row r="299" ht="14.25">
-      <c r="A299" s="8" t="str">
+      <c r="A299" s="10" t="str">
         <f>IF(ISBLANK(raw!A297),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A297))</f>
         <v/>
       </c>
@@ -7251,13 +7266,13 @@
         <f>IF(ISBLANK(raw!$B297),"",raw!$B297)</f>
         <v/>
       </c>
-      <c r="E299" t="str">
+      <c r="E299" s="9" t="str">
         <f>IF(ISBLANK(raw!M297),"",raw!$M297)</f>
         <v/>
       </c>
     </row>
     <row r="300" ht="14.25">
-      <c r="A300" s="8" t="str">
+      <c r="A300" s="10" t="str">
         <f>IF(ISBLANK(raw!A298),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A298))</f>
         <v/>
       </c>
@@ -7273,13 +7288,13 @@
         <f>IF(ISBLANK(raw!$B298),"",raw!$B298)</f>
         <v/>
       </c>
-      <c r="E300" t="str">
+      <c r="E300" s="9" t="str">
         <f>IF(ISBLANK(raw!M298),"",raw!$M298)</f>
         <v/>
       </c>
     </row>
     <row r="301" ht="14.25">
-      <c r="A301" s="8" t="str">
+      <c r="A301" s="10" t="str">
         <f>IF(ISBLANK(raw!A299),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A299))</f>
         <v/>
       </c>
@@ -7295,13 +7310,13 @@
         <f>IF(ISBLANK(raw!$B299),"",raw!$B299)</f>
         <v/>
       </c>
-      <c r="E301" t="str">
+      <c r="E301" s="9" t="str">
         <f>IF(ISBLANK(raw!M299),"",raw!$M299)</f>
         <v/>
       </c>
     </row>
     <row r="302" ht="14.25">
-      <c r="A302" s="8" t="str">
+      <c r="A302" s="10" t="str">
         <f>IF(ISBLANK(raw!A300),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A300))</f>
         <v/>
       </c>
@@ -7317,13 +7332,13 @@
         <f>IF(ISBLANK(raw!$B300),"",raw!$B300)</f>
         <v/>
       </c>
-      <c r="E302" t="str">
+      <c r="E302" s="9" t="str">
         <f>IF(ISBLANK(raw!M300),"",raw!$M300)</f>
         <v/>
       </c>
     </row>
     <row r="303" ht="14.25">
-      <c r="A303" s="8" t="str">
+      <c r="A303" s="10" t="str">
         <f>IF(ISBLANK(raw!A301),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A301))</f>
         <v/>
       </c>
@@ -7339,13 +7354,13 @@
         <f>IF(ISBLANK(raw!$B301),"",raw!$B301)</f>
         <v/>
       </c>
-      <c r="E303" t="str">
+      <c r="E303" s="9" t="str">
         <f>IF(ISBLANK(raw!M301),"",raw!$M301)</f>
         <v/>
       </c>
     </row>
     <row r="304" ht="14.25">
-      <c r="A304" s="8" t="str">
+      <c r="A304" s="10" t="str">
         <f>IF(ISBLANK(raw!A302),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A302))</f>
         <v/>
       </c>
@@ -7361,13 +7376,13 @@
         <f>IF(ISBLANK(raw!$B302),"",raw!$B302)</f>
         <v/>
       </c>
-      <c r="E304" t="str">
+      <c r="E304" s="9" t="str">
         <f>IF(ISBLANK(raw!M302),"",raw!$M302)</f>
         <v/>
       </c>
     </row>
     <row r="305" ht="14.25">
-      <c r="A305" s="8" t="str">
+      <c r="A305" s="10" t="str">
         <f>IF(ISBLANK(raw!A303),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A303))</f>
         <v/>
       </c>
@@ -7383,13 +7398,13 @@
         <f>IF(ISBLANK(raw!$B303),"",raw!$B303)</f>
         <v/>
       </c>
-      <c r="E305" t="str">
+      <c r="E305" s="9" t="str">
         <f>IF(ISBLANK(raw!M303),"",raw!$M303)</f>
         <v/>
       </c>
     </row>
     <row r="306" ht="14.25">
-      <c r="A306" s="8" t="str">
+      <c r="A306" s="10" t="str">
         <f>IF(ISBLANK(raw!A304),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A304))</f>
         <v/>
       </c>
@@ -7405,13 +7420,13 @@
         <f>IF(ISBLANK(raw!$B304),"",raw!$B304)</f>
         <v/>
       </c>
-      <c r="E306" t="str">
+      <c r="E306" s="9" t="str">
         <f>IF(ISBLANK(raw!M304),"",raw!$M304)</f>
         <v/>
       </c>
     </row>
     <row r="307" ht="14.25">
-      <c r="A307" s="8" t="str">
+      <c r="A307" s="10" t="str">
         <f>IF(ISBLANK(raw!A305),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A305))</f>
         <v/>
       </c>
@@ -7427,13 +7442,13 @@
         <f>IF(ISBLANK(raw!$B305),"",raw!$B305)</f>
         <v/>
       </c>
-      <c r="E307" t="str">
+      <c r="E307" s="9" t="str">
         <f>IF(ISBLANK(raw!M305),"",raw!$M305)</f>
         <v/>
       </c>
     </row>
     <row r="308" ht="14.25">
-      <c r="A308" s="8" t="str">
+      <c r="A308" s="10" t="str">
         <f>IF(ISBLANK(raw!A306),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A306))</f>
         <v/>
       </c>
@@ -7449,13 +7464,13 @@
         <f>IF(ISBLANK(raw!$B306),"",raw!$B306)</f>
         <v/>
       </c>
-      <c r="E308" t="str">
+      <c r="E308" s="9" t="str">
         <f>IF(ISBLANK(raw!M306),"",raw!$M306)</f>
         <v/>
       </c>
     </row>
     <row r="309" ht="14.25">
-      <c r="A309" s="8" t="str">
+      <c r="A309" s="10" t="str">
         <f>IF(ISBLANK(raw!A307),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A307))</f>
         <v/>
       </c>
@@ -7471,13 +7486,13 @@
         <f>IF(ISBLANK(raw!$B307),"",raw!$B307)</f>
         <v/>
       </c>
-      <c r="E309" t="str">
+      <c r="E309" s="9" t="str">
         <f>IF(ISBLANK(raw!M307),"",raw!$M307)</f>
         <v/>
       </c>
     </row>
     <row r="310" ht="14.25">
-      <c r="A310" s="8" t="str">
+      <c r="A310" s="10" t="str">
         <f>IF(ISBLANK(raw!A308),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A308))</f>
         <v/>
       </c>
@@ -7493,13 +7508,13 @@
         <f>IF(ISBLANK(raw!$B308),"",raw!$B308)</f>
         <v/>
       </c>
-      <c r="E310" t="str">
+      <c r="E310" s="9" t="str">
         <f>IF(ISBLANK(raw!M308),"",raw!$M308)</f>
         <v/>
       </c>
     </row>
     <row r="311" ht="14.25">
-      <c r="A311" s="8" t="str">
+      <c r="A311" s="10" t="str">
         <f>IF(ISBLANK(raw!A309),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A309))</f>
         <v/>
       </c>
@@ -7515,13 +7530,13 @@
         <f>IF(ISBLANK(raw!$B309),"",raw!$B309)</f>
         <v/>
       </c>
-      <c r="E311" t="str">
+      <c r="E311" s="9" t="str">
         <f>IF(ISBLANK(raw!M309),"",raw!$M309)</f>
         <v/>
       </c>
     </row>
     <row r="312" ht="14.25">
-      <c r="A312" s="8" t="str">
+      <c r="A312" s="10" t="str">
         <f>IF(ISBLANK(raw!A310),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A310))</f>
         <v/>
       </c>
@@ -7537,13 +7552,13 @@
         <f>IF(ISBLANK(raw!$B310),"",raw!$B310)</f>
         <v/>
       </c>
-      <c r="E312" t="str">
+      <c r="E312" s="9" t="str">
         <f>IF(ISBLANK(raw!M310),"",raw!$M310)</f>
         <v/>
       </c>
     </row>
     <row r="313" ht="14.25">
-      <c r="A313" s="8" t="str">
+      <c r="A313" s="10" t="str">
         <f>IF(ISBLANK(raw!A311),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A311))</f>
         <v/>
       </c>
@@ -7559,13 +7574,13 @@
         <f>IF(ISBLANK(raw!$B311),"",raw!$B311)</f>
         <v/>
       </c>
-      <c r="E313" t="str">
+      <c r="E313" s="9" t="str">
         <f>IF(ISBLANK(raw!M311),"",raw!$M311)</f>
         <v/>
       </c>
     </row>
     <row r="314" ht="14.25">
-      <c r="A314" s="8" t="str">
+      <c r="A314" s="10" t="str">
         <f>IF(ISBLANK(raw!A312),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A312))</f>
         <v/>
       </c>
@@ -7581,13 +7596,13 @@
         <f>IF(ISBLANK(raw!$B312),"",raw!$B312)</f>
         <v/>
       </c>
-      <c r="E314" t="str">
+      <c r="E314" s="9" t="str">
         <f>IF(ISBLANK(raw!M312),"",raw!$M312)</f>
         <v/>
       </c>
     </row>
     <row r="315" ht="14.25">
-      <c r="A315" s="8" t="str">
+      <c r="A315" s="10" t="str">
         <f>IF(ISBLANK(raw!A313),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A313))</f>
         <v/>
       </c>
@@ -7603,13 +7618,13 @@
         <f>IF(ISBLANK(raw!$B313),"",raw!$B313)</f>
         <v/>
       </c>
-      <c r="E315" t="str">
+      <c r="E315" s="9" t="str">
         <f>IF(ISBLANK(raw!M313),"",raw!$M313)</f>
         <v/>
       </c>
     </row>
     <row r="316" ht="14.25">
-      <c r="A316" s="8" t="str">
+      <c r="A316" s="10" t="str">
         <f>IF(ISBLANK(raw!A314),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A314))</f>
         <v/>
       </c>
@@ -7625,13 +7640,13 @@
         <f>IF(ISBLANK(raw!$B314),"",raw!$B314)</f>
         <v/>
       </c>
-      <c r="E316" t="str">
+      <c r="E316" s="9" t="str">
         <f>IF(ISBLANK(raw!M314),"",raw!$M314)</f>
         <v/>
       </c>
     </row>
     <row r="317" ht="14.25">
-      <c r="A317" s="8" t="str">
+      <c r="A317" s="10" t="str">
         <f>IF(ISBLANK(raw!A315),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A315))</f>
         <v/>
       </c>
@@ -7647,13 +7662,13 @@
         <f>IF(ISBLANK(raw!$B315),"",raw!$B315)</f>
         <v/>
       </c>
-      <c r="E317" t="str">
+      <c r="E317" s="9" t="str">
         <f>IF(ISBLANK(raw!M315),"",raw!$M315)</f>
         <v/>
       </c>
     </row>
     <row r="318" ht="14.25">
-      <c r="A318" s="8" t="str">
+      <c r="A318" s="10" t="str">
         <f>IF(ISBLANK(raw!A316),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A316))</f>
         <v/>
       </c>
@@ -7669,13 +7684,13 @@
         <f>IF(ISBLANK(raw!$B316),"",raw!$B316)</f>
         <v/>
       </c>
-      <c r="E318" t="str">
+      <c r="E318" s="9" t="str">
         <f>IF(ISBLANK(raw!M316),"",raw!$M316)</f>
         <v/>
       </c>
     </row>
     <row r="319" ht="14.25">
-      <c r="A319" s="8" t="str">
+      <c r="A319" s="10" t="str">
         <f>IF(ISBLANK(raw!A317),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A317))</f>
         <v/>
       </c>
@@ -7691,13 +7706,13 @@
         <f>IF(ISBLANK(raw!$B317),"",raw!$B317)</f>
         <v/>
       </c>
-      <c r="E319" t="str">
+      <c r="E319" s="9" t="str">
         <f>IF(ISBLANK(raw!M317),"",raw!$M317)</f>
         <v/>
       </c>
     </row>
     <row r="320" ht="14.25">
-      <c r="A320" s="8" t="str">
+      <c r="A320" s="10" t="str">
         <f>IF(ISBLANK(raw!A318),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A318))</f>
         <v/>
       </c>
@@ -7713,13 +7728,13 @@
         <f>IF(ISBLANK(raw!$B318),"",raw!$B318)</f>
         <v/>
       </c>
-      <c r="E320" t="str">
+      <c r="E320" s="9" t="str">
         <f>IF(ISBLANK(raw!M318),"",raw!$M318)</f>
         <v/>
       </c>
     </row>
     <row r="321" ht="14.25">
-      <c r="A321" s="8" t="str">
+      <c r="A321" s="10" t="str">
         <f>IF(ISBLANK(raw!A319),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A319))</f>
         <v/>
       </c>
@@ -7735,13 +7750,13 @@
         <f>IF(ISBLANK(raw!$B319),"",raw!$B319)</f>
         <v/>
       </c>
-      <c r="E321" t="str">
+      <c r="E321" s="9" t="str">
         <f>IF(ISBLANK(raw!M319),"",raw!$M319)</f>
         <v/>
       </c>
     </row>
     <row r="322" ht="14.25">
-      <c r="A322" s="8" t="str">
+      <c r="A322" s="10" t="str">
         <f>IF(ISBLANK(raw!A320),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A320))</f>
         <v/>
       </c>
@@ -7757,13 +7772,13 @@
         <f>IF(ISBLANK(raw!$B320),"",raw!$B320)</f>
         <v/>
       </c>
-      <c r="E322" t="str">
+      <c r="E322" s="9" t="str">
         <f>IF(ISBLANK(raw!M320),"",raw!$M320)</f>
         <v/>
       </c>
     </row>
     <row r="323" ht="14.25">
-      <c r="A323" s="8" t="str">
+      <c r="A323" s="10" t="str">
         <f>IF(ISBLANK(raw!A321),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A321))</f>
         <v/>
       </c>
@@ -7779,13 +7794,13 @@
         <f>IF(ISBLANK(raw!$B321),"",raw!$B321)</f>
         <v/>
       </c>
-      <c r="E323" t="str">
+      <c r="E323" s="9" t="str">
         <f>IF(ISBLANK(raw!M321),"",raw!$M321)</f>
         <v/>
       </c>
     </row>
     <row r="324" ht="14.25">
-      <c r="A324" s="8" t="str">
+      <c r="A324" s="10" t="str">
         <f>IF(ISBLANK(raw!A322),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A322))</f>
         <v/>
       </c>
@@ -7801,13 +7816,13 @@
         <f>IF(ISBLANK(raw!$B322),"",raw!$B322)</f>
         <v/>
       </c>
-      <c r="E324" t="str">
+      <c r="E324" s="9" t="str">
         <f>IF(ISBLANK(raw!M322),"",raw!$M322)</f>
         <v/>
       </c>
     </row>
     <row r="325" ht="14.25">
-      <c r="A325" s="8" t="str">
+      <c r="A325" s="10" t="str">
         <f>IF(ISBLANK(raw!A323),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A323))</f>
         <v/>
       </c>
@@ -7823,13 +7838,13 @@
         <f>IF(ISBLANK(raw!$B323),"",raw!$B323)</f>
         <v/>
       </c>
-      <c r="E325" t="str">
+      <c r="E325" s="9" t="str">
         <f>IF(ISBLANK(raw!M323),"",raw!$M323)</f>
         <v/>
       </c>
     </row>
     <row r="326" ht="14.25">
-      <c r="A326" s="8" t="str">
+      <c r="A326" s="10" t="str">
         <f>IF(ISBLANK(raw!A324),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A324))</f>
         <v/>
       </c>
@@ -7845,13 +7860,13 @@
         <f>IF(ISBLANK(raw!$B324),"",raw!$B324)</f>
         <v/>
       </c>
-      <c r="E326" t="str">
+      <c r="E326" s="9" t="str">
         <f>IF(ISBLANK(raw!M324),"",raw!$M324)</f>
         <v/>
       </c>
     </row>
     <row r="327" ht="14.25">
-      <c r="A327" s="8" t="str">
+      <c r="A327" s="10" t="str">
         <f>IF(ISBLANK(raw!A325),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A325))</f>
         <v/>
       </c>
@@ -7867,13 +7882,13 @@
         <f>IF(ISBLANK(raw!$B325),"",raw!$B325)</f>
         <v/>
       </c>
-      <c r="E327" t="str">
+      <c r="E327" s="9" t="str">
         <f>IF(ISBLANK(raw!M325),"",raw!$M325)</f>
         <v/>
       </c>
     </row>
     <row r="328" ht="14.25">
-      <c r="A328" s="8" t="str">
+      <c r="A328" s="10" t="str">
         <f>IF(ISBLANK(raw!A326),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A326))</f>
         <v/>
       </c>
@@ -7889,13 +7904,13 @@
         <f>IF(ISBLANK(raw!$B326),"",raw!$B326)</f>
         <v/>
       </c>
-      <c r="E328" t="str">
+      <c r="E328" s="9" t="str">
         <f>IF(ISBLANK(raw!M326),"",raw!$M326)</f>
         <v/>
       </c>
     </row>
     <row r="329" ht="14.25">
-      <c r="A329" s="8" t="str">
+      <c r="A329" s="10" t="str">
         <f>IF(ISBLANK(raw!A327),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A327))</f>
         <v/>
       </c>
@@ -7911,13 +7926,13 @@
         <f>IF(ISBLANK(raw!$B327),"",raw!$B327)</f>
         <v/>
       </c>
-      <c r="E329" t="str">
+      <c r="E329" s="9" t="str">
         <f>IF(ISBLANK(raw!M327),"",raw!$M327)</f>
         <v/>
       </c>
     </row>
     <row r="330" ht="14.25">
-      <c r="A330" s="8" t="str">
+      <c r="A330" s="10" t="str">
         <f>IF(ISBLANK(raw!A328),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A328))</f>
         <v/>
       </c>
@@ -7933,13 +7948,13 @@
         <f>IF(ISBLANK(raw!$B328),"",raw!$B328)</f>
         <v/>
       </c>
-      <c r="E330" t="str">
+      <c r="E330" s="9" t="str">
         <f>IF(ISBLANK(raw!M328),"",raw!$M328)</f>
         <v/>
       </c>
     </row>
     <row r="331" ht="14.25">
-      <c r="A331" s="8" t="str">
+      <c r="A331" s="10" t="str">
         <f>IF(ISBLANK(raw!A329),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A329))</f>
         <v/>
       </c>
@@ -7955,13 +7970,13 @@
         <f>IF(ISBLANK(raw!$B329),"",raw!$B329)</f>
         <v/>
       </c>
-      <c r="E331" t="str">
+      <c r="E331" s="9" t="str">
         <f>IF(ISBLANK(raw!M329),"",raw!$M329)</f>
         <v/>
       </c>
     </row>
     <row r="332" ht="14.25">
-      <c r="A332" s="8" t="str">
+      <c r="A332" s="10" t="str">
         <f>IF(ISBLANK(raw!A330),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A330))</f>
         <v/>
       </c>
@@ -7977,13 +7992,13 @@
         <f>IF(ISBLANK(raw!$B330),"",raw!$B330)</f>
         <v/>
       </c>
-      <c r="E332" t="str">
+      <c r="E332" s="9" t="str">
         <f>IF(ISBLANK(raw!M330),"",raw!$M330)</f>
         <v/>
       </c>
     </row>
     <row r="333" ht="14.25">
-      <c r="A333" s="8" t="str">
+      <c r="A333" s="10" t="str">
         <f>IF(ISBLANK(raw!A331),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A331))</f>
         <v/>
       </c>
@@ -7999,13 +8014,13 @@
         <f>IF(ISBLANK(raw!$B331),"",raw!$B331)</f>
         <v/>
       </c>
-      <c r="E333" t="str">
+      <c r="E333" s="9" t="str">
         <f>IF(ISBLANK(raw!M331),"",raw!$M331)</f>
         <v/>
       </c>
     </row>
     <row r="334" ht="14.25">
-      <c r="A334" s="8" t="str">
+      <c r="A334" s="10" t="str">
         <f>IF(ISBLANK(raw!A332),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A332))</f>
         <v/>
       </c>
@@ -8021,13 +8036,13 @@
         <f>IF(ISBLANK(raw!$B332),"",raw!$B332)</f>
         <v/>
       </c>
-      <c r="E334" t="str">
+      <c r="E334" s="9" t="str">
         <f>IF(ISBLANK(raw!M332),"",raw!$M332)</f>
         <v/>
       </c>
     </row>
     <row r="335" ht="14.25">
-      <c r="A335" s="8" t="str">
+      <c r="A335" s="10" t="str">
         <f>IF(ISBLANK(raw!A333),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A333))</f>
         <v/>
       </c>
@@ -8043,13 +8058,13 @@
         <f>IF(ISBLANK(raw!$B333),"",raw!$B333)</f>
         <v/>
       </c>
-      <c r="E335" t="str">
+      <c r="E335" s="9" t="str">
         <f>IF(ISBLANK(raw!M333),"",raw!$M333)</f>
         <v/>
       </c>
     </row>
     <row r="336" ht="14.25">
-      <c r="A336" s="8" t="str">
+      <c r="A336" s="10" t="str">
         <f>IF(ISBLANK(raw!A334),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A334))</f>
         <v/>
       </c>
@@ -8065,13 +8080,13 @@
         <f>IF(ISBLANK(raw!$B334),"",raw!$B334)</f>
         <v/>
       </c>
-      <c r="E336" t="str">
+      <c r="E336" s="9" t="str">
         <f>IF(ISBLANK(raw!M334),"",raw!$M334)</f>
         <v/>
       </c>
     </row>
     <row r="337" ht="14.25">
-      <c r="A337" s="8" t="str">
+      <c r="A337" s="10" t="str">
         <f>IF(ISBLANK(raw!A335),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A335))</f>
         <v/>
       </c>
@@ -8087,13 +8102,13 @@
         <f>IF(ISBLANK(raw!$B335),"",raw!$B335)</f>
         <v/>
       </c>
-      <c r="E337" t="str">
+      <c r="E337" s="9" t="str">
         <f>IF(ISBLANK(raw!M335),"",raw!$M335)</f>
         <v/>
       </c>
     </row>
     <row r="338" ht="14.25">
-      <c r="A338" s="8" t="str">
+      <c r="A338" s="10" t="str">
         <f>IF(ISBLANK(raw!A336),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A336))</f>
         <v/>
       </c>
@@ -8109,13 +8124,13 @@
         <f>IF(ISBLANK(raw!$B336),"",raw!$B336)</f>
         <v/>
       </c>
-      <c r="E338" t="str">
+      <c r="E338" s="9" t="str">
         <f>IF(ISBLANK(raw!M336),"",raw!$M336)</f>
         <v/>
       </c>
     </row>
     <row r="339" ht="14.25">
-      <c r="A339" s="8" t="str">
+      <c r="A339" s="10" t="str">
         <f>IF(ISBLANK(raw!A337),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A337))</f>
         <v/>
       </c>
@@ -8131,13 +8146,13 @@
         <f>IF(ISBLANK(raw!$B337),"",raw!$B337)</f>
         <v/>
       </c>
-      <c r="E339" t="str">
+      <c r="E339" s="9" t="str">
         <f>IF(ISBLANK(raw!M337),"",raw!$M337)</f>
         <v/>
       </c>
     </row>
     <row r="340" ht="14.25">
-      <c r="A340" s="8" t="str">
+      <c r="A340" s="10" t="str">
         <f>IF(ISBLANK(raw!A338),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A338))</f>
         <v/>
       </c>
@@ -8153,13 +8168,13 @@
         <f>IF(ISBLANK(raw!$B338),"",raw!$B338)</f>
         <v/>
       </c>
-      <c r="E340" t="str">
+      <c r="E340" s="9" t="str">
         <f>IF(ISBLANK(raw!M338),"",raw!$M338)</f>
         <v/>
       </c>
     </row>
     <row r="341" ht="14.25">
-      <c r="A341" s="8" t="str">
+      <c r="A341" s="10" t="str">
         <f>IF(ISBLANK(raw!A339),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A339))</f>
         <v/>
       </c>
@@ -8175,13 +8190,13 @@
         <f>IF(ISBLANK(raw!$B339),"",raw!$B339)</f>
         <v/>
       </c>
-      <c r="E341" t="str">
+      <c r="E341" s="9" t="str">
         <f>IF(ISBLANK(raw!M339),"",raw!$M339)</f>
         <v/>
       </c>
     </row>
     <row r="342" ht="14.25">
-      <c r="A342" s="8" t="str">
+      <c r="A342" s="10" t="str">
         <f>IF(ISBLANK(raw!A340),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A340))</f>
         <v/>
       </c>
@@ -8197,13 +8212,13 @@
         <f>IF(ISBLANK(raw!$B340),"",raw!$B340)</f>
         <v/>
       </c>
-      <c r="E342" t="str">
+      <c r="E342" s="9" t="str">
         <f>IF(ISBLANK(raw!M340),"",raw!$M340)</f>
         <v/>
       </c>
     </row>
     <row r="343" ht="14.25">
-      <c r="A343" s="8" t="str">
+      <c r="A343" s="10" t="str">
         <f>IF(ISBLANK(raw!A341),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A341))</f>
         <v/>
       </c>
@@ -8219,13 +8234,13 @@
         <f>IF(ISBLANK(raw!$B341),"",raw!$B341)</f>
         <v/>
       </c>
-      <c r="E343" t="str">
+      <c r="E343" s="9" t="str">
         <f>IF(ISBLANK(raw!M341),"",raw!$M341)</f>
         <v/>
       </c>
     </row>
     <row r="344" ht="14.25">
-      <c r="A344" s="8" t="str">
+      <c r="A344" s="10" t="str">
         <f>IF(ISBLANK(raw!A342),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A342))</f>
         <v/>
       </c>
@@ -8241,13 +8256,13 @@
         <f>IF(ISBLANK(raw!$B342),"",raw!$B342)</f>
         <v/>
       </c>
-      <c r="E344" t="str">
+      <c r="E344" s="9" t="str">
         <f>IF(ISBLANK(raw!M342),"",raw!$M342)</f>
         <v/>
       </c>
     </row>
     <row r="345" ht="14.25">
-      <c r="A345" s="8" t="str">
+      <c r="A345" s="10" t="str">
         <f>IF(ISBLANK(raw!A343),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A343))</f>
         <v/>
       </c>
@@ -8263,13 +8278,13 @@
         <f>IF(ISBLANK(raw!$B343),"",raw!$B343)</f>
         <v/>
       </c>
-      <c r="E345" t="str">
+      <c r="E345" s="9" t="str">
         <f>IF(ISBLANK(raw!M343),"",raw!$M343)</f>
         <v/>
       </c>
     </row>
     <row r="346" ht="14.25">
-      <c r="A346" s="8" t="str">
+      <c r="A346" s="10" t="str">
         <f>IF(ISBLANK(raw!A344),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A344))</f>
         <v/>
       </c>
@@ -8285,13 +8300,13 @@
         <f>IF(ISBLANK(raw!$B344),"",raw!$B344)</f>
         <v/>
       </c>
-      <c r="E346" t="str">
+      <c r="E346" s="9" t="str">
         <f>IF(ISBLANK(raw!M344),"",raw!$M344)</f>
         <v/>
       </c>
     </row>
     <row r="347" ht="14.25">
-      <c r="A347" s="8" t="str">
+      <c r="A347" s="10" t="str">
         <f>IF(ISBLANK(raw!A345),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A345))</f>
         <v/>
       </c>
@@ -8307,13 +8322,13 @@
         <f>IF(ISBLANK(raw!$B345),"",raw!$B345)</f>
         <v/>
       </c>
-      <c r="E347" t="str">
+      <c r="E347" s="9" t="str">
         <f>IF(ISBLANK(raw!M345),"",raw!$M345)</f>
         <v/>
       </c>
     </row>
     <row r="348" ht="14.25">
-      <c r="A348" s="8" t="str">
+      <c r="A348" s="10" t="str">
         <f>IF(ISBLANK(raw!A346),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A346))</f>
         <v/>
       </c>
@@ -8329,13 +8344,13 @@
         <f>IF(ISBLANK(raw!$B346),"",raw!$B346)</f>
         <v/>
       </c>
-      <c r="E348" t="str">
+      <c r="E348" s="9" t="str">
         <f>IF(ISBLANK(raw!M346),"",raw!$M346)</f>
         <v/>
       </c>
     </row>
     <row r="349" ht="14.25">
-      <c r="A349" s="8" t="str">
+      <c r="A349" s="10" t="str">
         <f>IF(ISBLANK(raw!A347),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A347))</f>
         <v/>
       </c>
@@ -8351,13 +8366,13 @@
         <f>IF(ISBLANK(raw!$B347),"",raw!$B347)</f>
         <v/>
       </c>
-      <c r="E349" t="str">
+      <c r="E349" s="9" t="str">
         <f>IF(ISBLANK(raw!M347),"",raw!$M347)</f>
         <v/>
       </c>
     </row>
     <row r="350" ht="14.25">
-      <c r="A350" s="8" t="str">
+      <c r="A350" s="10" t="str">
         <f>IF(ISBLANK(raw!A348),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A348))</f>
         <v/>
       </c>
@@ -8373,13 +8388,13 @@
         <f>IF(ISBLANK(raw!$B348),"",raw!$B348)</f>
         <v/>
       </c>
-      <c r="E350" t="str">
+      <c r="E350" s="9" t="str">
         <f>IF(ISBLANK(raw!M348),"",raw!$M348)</f>
         <v/>
       </c>
     </row>
     <row r="351" ht="14.25">
-      <c r="A351" s="8" t="str">
+      <c r="A351" s="10" t="str">
         <f>IF(ISBLANK(raw!A349),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A349))</f>
         <v/>
       </c>
@@ -8395,13 +8410,13 @@
         <f>IF(ISBLANK(raw!$B349),"",raw!$B349)</f>
         <v/>
       </c>
-      <c r="E351" t="str">
+      <c r="E351" s="9" t="str">
         <f>IF(ISBLANK(raw!M349),"",raw!$M349)</f>
         <v/>
       </c>
     </row>
     <row r="352" ht="14.25">
-      <c r="A352" s="8" t="str">
+      <c r="A352" s="10" t="str">
         <f>IF(ISBLANK(raw!A350),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A350))</f>
         <v/>
       </c>
@@ -8417,13 +8432,13 @@
         <f>IF(ISBLANK(raw!$B350),"",raw!$B350)</f>
         <v/>
       </c>
-      <c r="E352" t="str">
+      <c r="E352" s="9" t="str">
         <f>IF(ISBLANK(raw!M350),"",raw!$M350)</f>
         <v/>
       </c>
     </row>
     <row r="353" ht="14.25">
-      <c r="A353" s="8" t="str">
+      <c r="A353" s="10" t="str">
         <f>IF(ISBLANK(raw!A351),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A351))</f>
         <v/>
       </c>
@@ -8439,13 +8454,13 @@
         <f>IF(ISBLANK(raw!$B351),"",raw!$B351)</f>
         <v/>
       </c>
-      <c r="E353" t="str">
+      <c r="E353" s="9" t="str">
         <f>IF(ISBLANK(raw!M351),"",raw!$M351)</f>
         <v/>
       </c>
     </row>
     <row r="354" ht="14.25">
-      <c r="A354" s="8" t="str">
+      <c r="A354" s="10" t="str">
         <f>IF(ISBLANK(raw!A352),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A352))</f>
         <v/>
       </c>
@@ -8461,13 +8476,13 @@
         <f>IF(ISBLANK(raw!$B352),"",raw!$B352)</f>
         <v/>
       </c>
-      <c r="E354" t="str">
+      <c r="E354" s="9" t="str">
         <f>IF(ISBLANK(raw!M352),"",raw!$M352)</f>
         <v/>
       </c>
     </row>
     <row r="355" ht="14.25">
-      <c r="A355" s="8" t="str">
+      <c r="A355" s="10" t="str">
         <f>IF(ISBLANK(raw!A353),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A353))</f>
         <v/>
       </c>
@@ -8483,13 +8498,13 @@
         <f>IF(ISBLANK(raw!$B353),"",raw!$B353)</f>
         <v/>
       </c>
-      <c r="E355" t="str">
+      <c r="E355" s="9" t="str">
         <f>IF(ISBLANK(raw!M353),"",raw!$M353)</f>
         <v/>
       </c>
     </row>
     <row r="356" ht="14.25">
-      <c r="A356" s="8" t="str">
+      <c r="A356" s="10" t="str">
         <f>IF(ISBLANK(raw!A354),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A354))</f>
         <v/>
       </c>
@@ -8505,13 +8520,13 @@
         <f>IF(ISBLANK(raw!$B354),"",raw!$B354)</f>
         <v/>
       </c>
-      <c r="E356" t="str">
+      <c r="E356" s="9" t="str">
         <f>IF(ISBLANK(raw!M354),"",raw!$M354)</f>
         <v/>
       </c>
     </row>
     <row r="357" ht="14.25">
-      <c r="A357" s="8" t="str">
+      <c r="A357" s="10" t="str">
         <f>IF(ISBLANK(raw!A355),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A355))</f>
         <v/>
       </c>
@@ -8527,13 +8542,13 @@
         <f>IF(ISBLANK(raw!$B355),"",raw!$B355)</f>
         <v/>
       </c>
-      <c r="E357" t="str">
+      <c r="E357" s="9" t="str">
         <f>IF(ISBLANK(raw!M355),"",raw!$M355)</f>
         <v/>
       </c>
     </row>
     <row r="358" ht="14.25">
-      <c r="A358" s="8" t="str">
+      <c r="A358" s="10" t="str">
         <f>IF(ISBLANK(raw!A356),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A356))</f>
         <v/>
       </c>
@@ -8549,13 +8564,13 @@
         <f>IF(ISBLANK(raw!$B356),"",raw!$B356)</f>
         <v/>
       </c>
-      <c r="E358" t="str">
+      <c r="E358" s="9" t="str">
         <f>IF(ISBLANK(raw!M356),"",raw!$M356)</f>
         <v/>
       </c>
     </row>
     <row r="359" ht="14.25">
-      <c r="A359" s="8" t="str">
+      <c r="A359" s="10" t="str">
         <f>IF(ISBLANK(raw!A357),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A357))</f>
         <v/>
       </c>
@@ -8571,13 +8586,13 @@
         <f>IF(ISBLANK(raw!$B357),"",raw!$B357)</f>
         <v/>
       </c>
-      <c r="E359" t="str">
+      <c r="E359" s="9" t="str">
         <f>IF(ISBLANK(raw!M357),"",raw!$M357)</f>
         <v/>
       </c>
     </row>
     <row r="360" ht="14.25">
-      <c r="A360" s="8" t="str">
+      <c r="A360" s="10" t="str">
         <f>IF(ISBLANK(raw!A358),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A358))</f>
         <v/>
       </c>
@@ -8593,13 +8608,13 @@
         <f>IF(ISBLANK(raw!$B358),"",raw!$B358)</f>
         <v/>
       </c>
-      <c r="E360" t="str">
+      <c r="E360" s="9" t="str">
         <f>IF(ISBLANK(raw!M358),"",raw!$M358)</f>
         <v/>
       </c>
     </row>
     <row r="361" ht="14.25">
-      <c r="A361" s="8" t="str">
+      <c r="A361" s="10" t="str">
         <f>IF(ISBLANK(raw!A359),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A359))</f>
         <v/>
       </c>
@@ -8615,13 +8630,13 @@
         <f>IF(ISBLANK(raw!$B359),"",raw!$B359)</f>
         <v/>
       </c>
-      <c r="E361" t="str">
+      <c r="E361" s="9" t="str">
         <f>IF(ISBLANK(raw!M359),"",raw!$M359)</f>
         <v/>
       </c>
     </row>
     <row r="362" ht="14.25">
-      <c r="A362" s="8" t="str">
+      <c r="A362" s="10" t="str">
         <f>IF(ISBLANK(raw!A360),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A360))</f>
         <v/>
       </c>
@@ -8637,13 +8652,13 @@
         <f>IF(ISBLANK(raw!$B360),"",raw!$B360)</f>
         <v/>
       </c>
-      <c r="E362" t="str">
+      <c r="E362" s="9" t="str">
         <f>IF(ISBLANK(raw!M360),"",raw!$M360)</f>
         <v/>
       </c>
     </row>
     <row r="363" ht="14.25">
-      <c r="A363" s="8" t="str">
+      <c r="A363" s="10" t="str">
         <f>IF(ISBLANK(raw!A361),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A361))</f>
         <v/>
       </c>
@@ -8659,13 +8674,13 @@
         <f>IF(ISBLANK(raw!$B361),"",raw!$B361)</f>
         <v/>
       </c>
-      <c r="E363" t="str">
+      <c r="E363" s="9" t="str">
         <f>IF(ISBLANK(raw!M361),"",raw!$M361)</f>
         <v/>
       </c>
     </row>
     <row r="364" ht="14.25">
-      <c r="A364" s="8" t="str">
+      <c r="A364" s="10" t="str">
         <f>IF(ISBLANK(raw!A362),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A362))</f>
         <v/>
       </c>
@@ -8681,13 +8696,13 @@
         <f>IF(ISBLANK(raw!$B362),"",raw!$B362)</f>
         <v/>
       </c>
-      <c r="E364" t="str">
+      <c r="E364" s="9" t="str">
         <f>IF(ISBLANK(raw!M362),"",raw!$M362)</f>
         <v/>
       </c>
     </row>
     <row r="365" ht="14.25">
-      <c r="A365" s="8" t="str">
+      <c r="A365" s="10" t="str">
         <f>IF(ISBLANK(raw!A363),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A363))</f>
         <v/>
       </c>
@@ -8703,13 +8718,13 @@
         <f>IF(ISBLANK(raw!$B363),"",raw!$B363)</f>
         <v/>
       </c>
-      <c r="E365" t="str">
+      <c r="E365" s="9" t="str">
         <f>IF(ISBLANK(raw!M363),"",raw!$M363)</f>
         <v/>
       </c>
     </row>
     <row r="366" ht="14.25">
-      <c r="A366" s="8" t="str">
+      <c r="A366" s="10" t="str">
         <f>IF(ISBLANK(raw!A364),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A364))</f>
         <v/>
       </c>
@@ -8725,13 +8740,13 @@
         <f>IF(ISBLANK(raw!$B364),"",raw!$B364)</f>
         <v/>
       </c>
-      <c r="E366" t="str">
+      <c r="E366" s="9" t="str">
         <f>IF(ISBLANK(raw!M364),"",raw!$M364)</f>
         <v/>
       </c>
     </row>
     <row r="367" ht="14.25">
-      <c r="A367" s="8" t="str">
+      <c r="A367" s="10" t="str">
         <f>IF(ISBLANK(raw!A365),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A365))</f>
         <v/>
       </c>
@@ -8747,13 +8762,13 @@
         <f>IF(ISBLANK(raw!$B365),"",raw!$B365)</f>
         <v/>
       </c>
-      <c r="E367" t="str">
+      <c r="E367" s="9" t="str">
         <f>IF(ISBLANK(raw!M365),"",raw!$M365)</f>
         <v/>
       </c>
     </row>
     <row r="368" ht="14.25">
-      <c r="A368" s="8" t="str">
+      <c r="A368" s="10" t="str">
         <f>IF(ISBLANK(raw!A366),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A366))</f>
         <v/>
       </c>
@@ -8769,13 +8784,13 @@
         <f>IF(ISBLANK(raw!$B366),"",raw!$B366)</f>
         <v/>
       </c>
-      <c r="E368" t="str">
+      <c r="E368" s="9" t="str">
         <f>IF(ISBLANK(raw!M366),"",raw!$M366)</f>
         <v/>
       </c>
     </row>
     <row r="369" ht="14.25">
-      <c r="A369" s="8" t="str">
+      <c r="A369" s="10" t="str">
         <f>IF(ISBLANK(raw!A367),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A367))</f>
         <v/>
       </c>
@@ -8791,13 +8806,13 @@
         <f>IF(ISBLANK(raw!$B367),"",raw!$B367)</f>
         <v/>
       </c>
-      <c r="E369" t="str">
+      <c r="E369" s="9" t="str">
         <f>IF(ISBLANK(raw!M367),"",raw!$M367)</f>
         <v/>
       </c>
     </row>
     <row r="370" ht="14.25">
-      <c r="A370" s="8" t="str">
+      <c r="A370" s="10" t="str">
         <f>IF(ISBLANK(raw!A368),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A368))</f>
         <v/>
       </c>
@@ -8813,13 +8828,13 @@
         <f>IF(ISBLANK(raw!$B368),"",raw!$B368)</f>
         <v/>
       </c>
-      <c r="E370" t="str">
+      <c r="E370" s="9" t="str">
         <f>IF(ISBLANK(raw!M368),"",raw!$M368)</f>
         <v/>
       </c>
     </row>
     <row r="371" ht="14.25">
-      <c r="A371" s="8" t="str">
+      <c r="A371" s="10" t="str">
         <f>IF(ISBLANK(raw!A369),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A369))</f>
         <v/>
       </c>
@@ -8835,13 +8850,13 @@
         <f>IF(ISBLANK(raw!$B369),"",raw!$B369)</f>
         <v/>
       </c>
-      <c r="E371" t="str">
+      <c r="E371" s="9" t="str">
         <f>IF(ISBLANK(raw!M369),"",raw!$M369)</f>
         <v/>
       </c>
     </row>
     <row r="372" ht="14.25">
-      <c r="A372" s="8" t="str">
+      <c r="A372" s="10" t="str">
         <f>IF(ISBLANK(raw!A370),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A370))</f>
         <v/>
       </c>
@@ -8857,13 +8872,13 @@
         <f>IF(ISBLANK(raw!$B370),"",raw!$B370)</f>
         <v/>
       </c>
-      <c r="E372" t="str">
+      <c r="E372" s="9" t="str">
         <f>IF(ISBLANK(raw!M370),"",raw!$M370)</f>
         <v/>
       </c>
     </row>
     <row r="373" ht="14.25">
-      <c r="A373" s="8" t="str">
+      <c r="A373" s="10" t="str">
         <f>IF(ISBLANK(raw!A371),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A371))</f>
         <v/>
       </c>
@@ -8879,13 +8894,13 @@
         <f>IF(ISBLANK(raw!$B371),"",raw!$B371)</f>
         <v/>
       </c>
-      <c r="E373" t="str">
+      <c r="E373" s="9" t="str">
         <f>IF(ISBLANK(raw!M371),"",raw!$M371)</f>
         <v/>
       </c>
     </row>
     <row r="374" ht="14.25">
-      <c r="A374" s="8" t="str">
+      <c r="A374" s="10" t="str">
         <f>IF(ISBLANK(raw!A372),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A372))</f>
         <v/>
       </c>
@@ -8901,13 +8916,13 @@
         <f>IF(ISBLANK(raw!$B372),"",raw!$B372)</f>
         <v/>
       </c>
-      <c r="E374" t="str">
+      <c r="E374" s="9" t="str">
         <f>IF(ISBLANK(raw!M372),"",raw!$M372)</f>
         <v/>
       </c>
     </row>
     <row r="375" ht="14.25">
-      <c r="A375" s="8" t="str">
+      <c r="A375" s="10" t="str">
         <f>IF(ISBLANK(raw!A373),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A373))</f>
         <v/>
       </c>
@@ -8923,13 +8938,13 @@
         <f>IF(ISBLANK(raw!$B373),"",raw!$B373)</f>
         <v/>
       </c>
-      <c r="E375" t="str">
+      <c r="E375" s="9" t="str">
         <f>IF(ISBLANK(raw!M373),"",raw!$M373)</f>
         <v/>
       </c>
     </row>
     <row r="376" ht="14.25">
-      <c r="A376" s="8" t="str">
+      <c r="A376" s="10" t="str">
         <f>IF(ISBLANK(raw!A374),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A374))</f>
         <v/>
       </c>
@@ -8945,13 +8960,13 @@
         <f>IF(ISBLANK(raw!$B374),"",raw!$B374)</f>
         <v/>
       </c>
-      <c r="E376" t="str">
+      <c r="E376" s="9" t="str">
         <f>IF(ISBLANK(raw!M374),"",raw!$M374)</f>
         <v/>
       </c>
     </row>
     <row r="377" ht="14.25">
-      <c r="A377" s="8" t="str">
+      <c r="A377" s="10" t="str">
         <f>IF(ISBLANK(raw!A375),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A375))</f>
         <v/>
       </c>
@@ -8967,13 +8982,13 @@
         <f>IF(ISBLANK(raw!$B375),"",raw!$B375)</f>
         <v/>
       </c>
-      <c r="E377" t="str">
+      <c r="E377" s="9" t="str">
         <f>IF(ISBLANK(raw!M375),"",raw!$M375)</f>
         <v/>
       </c>
     </row>
     <row r="378" ht="14.25">
-      <c r="A378" s="8" t="str">
+      <c r="A378" s="10" t="str">
         <f>IF(ISBLANK(raw!A376),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A376))</f>
         <v/>
       </c>
@@ -8989,13 +9004,13 @@
         <f>IF(ISBLANK(raw!$B376),"",raw!$B376)</f>
         <v/>
       </c>
-      <c r="E378" t="str">
+      <c r="E378" s="9" t="str">
         <f>IF(ISBLANK(raw!M376),"",raw!$M376)</f>
         <v/>
       </c>
     </row>
     <row r="379" ht="14.25">
-      <c r="A379" s="8" t="str">
+      <c r="A379" s="10" t="str">
         <f>IF(ISBLANK(raw!A377),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A377))</f>
         <v/>
       </c>
@@ -9011,13 +9026,13 @@
         <f>IF(ISBLANK(raw!$B377),"",raw!$B377)</f>
         <v/>
       </c>
-      <c r="E379" t="str">
+      <c r="E379" s="9" t="str">
         <f>IF(ISBLANK(raw!M377),"",raw!$M377)</f>
         <v/>
       </c>
     </row>
     <row r="380" ht="14.25">
-      <c r="A380" s="8" t="str">
+      <c r="A380" s="10" t="str">
         <f>IF(ISBLANK(raw!A378),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A378))</f>
         <v/>
       </c>
@@ -9033,13 +9048,13 @@
         <f>IF(ISBLANK(raw!$B378),"",raw!$B378)</f>
         <v/>
       </c>
-      <c r="E380" t="str">
+      <c r="E380" s="9" t="str">
         <f>IF(ISBLANK(raw!M378),"",raw!$M378)</f>
         <v/>
       </c>
     </row>
     <row r="381" ht="14.25">
-      <c r="A381" s="8" t="str">
+      <c r="A381" s="10" t="str">
         <f>IF(ISBLANK(raw!A379),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A379))</f>
         <v/>
       </c>
@@ -9055,13 +9070,13 @@
         <f>IF(ISBLANK(raw!$B379),"",raw!$B379)</f>
         <v/>
       </c>
-      <c r="E381" t="str">
+      <c r="E381" s="9" t="str">
         <f>IF(ISBLANK(raw!M379),"",raw!$M379)</f>
         <v/>
       </c>
     </row>
     <row r="382" ht="14.25">
-      <c r="A382" s="8" t="str">
+      <c r="A382" s="10" t="str">
         <f>IF(ISBLANK(raw!A380),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A380))</f>
         <v/>
       </c>
@@ -9077,13 +9092,13 @@
         <f>IF(ISBLANK(raw!$B380),"",raw!$B380)</f>
         <v/>
       </c>
-      <c r="E382" t="str">
+      <c r="E382" s="9" t="str">
         <f>IF(ISBLANK(raw!M380),"",raw!$M380)</f>
         <v/>
       </c>
     </row>
     <row r="383" ht="14.25">
-      <c r="A383" s="8" t="str">
+      <c r="A383" s="10" t="str">
         <f>IF(ISBLANK(raw!A381),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A381))</f>
         <v/>
       </c>
@@ -9099,13 +9114,13 @@
         <f>IF(ISBLANK(raw!$B381),"",raw!$B381)</f>
         <v/>
       </c>
-      <c r="E383" t="str">
+      <c r="E383" s="9" t="str">
         <f>IF(ISBLANK(raw!M381),"",raw!$M381)</f>
         <v/>
       </c>
     </row>
     <row r="384" ht="14.25">
-      <c r="A384" s="8" t="str">
+      <c r="A384" s="10" t="str">
         <f>IF(ISBLANK(raw!A382),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A382))</f>
         <v/>
       </c>
@@ -9121,13 +9136,13 @@
         <f>IF(ISBLANK(raw!$B382),"",raw!$B382)</f>
         <v/>
       </c>
-      <c r="E384" t="str">
+      <c r="E384" s="9" t="str">
         <f>IF(ISBLANK(raw!M382),"",raw!$M382)</f>
         <v/>
       </c>
     </row>
     <row r="385" ht="14.25">
-      <c r="A385" s="8" t="str">
+      <c r="A385" s="10" t="str">
         <f>IF(ISBLANK(raw!A383),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A383))</f>
         <v/>
       </c>
@@ -9143,13 +9158,13 @@
         <f>IF(ISBLANK(raw!$B383),"",raw!$B383)</f>
         <v/>
       </c>
-      <c r="E385" t="str">
+      <c r="E385" s="9" t="str">
         <f>IF(ISBLANK(raw!M383),"",raw!$M383)</f>
         <v/>
       </c>
     </row>
     <row r="386" ht="14.25">
-      <c r="A386" s="8" t="str">
+      <c r="A386" s="10" t="str">
         <f>IF(ISBLANK(raw!A384),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A384))</f>
         <v/>
       </c>
@@ -9165,13 +9180,13 @@
         <f>IF(ISBLANK(raw!$B384),"",raw!$B384)</f>
         <v/>
       </c>
-      <c r="E386" t="str">
+      <c r="E386" s="9" t="str">
         <f>IF(ISBLANK(raw!M384),"",raw!$M384)</f>
         <v/>
       </c>
     </row>
     <row r="387" ht="14.25">
-      <c r="A387" s="8" t="str">
+      <c r="A387" s="10" t="str">
         <f>IF(ISBLANK(raw!A385),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A385))</f>
         <v/>
       </c>
@@ -9187,13 +9202,13 @@
         <f>IF(ISBLANK(raw!$B385),"",raw!$B385)</f>
         <v/>
       </c>
-      <c r="E387" t="str">
+      <c r="E387" s="9" t="str">
         <f>IF(ISBLANK(raw!M385),"",raw!$M385)</f>
         <v/>
       </c>
     </row>
     <row r="388" ht="14.25">
-      <c r="A388" s="8" t="str">
+      <c r="A388" s="10" t="str">
         <f>IF(ISBLANK(raw!A386),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A386))</f>
         <v/>
       </c>
@@ -9209,13 +9224,13 @@
         <f>IF(ISBLANK(raw!$B386),"",raw!$B386)</f>
         <v/>
       </c>
-      <c r="E388" t="str">
+      <c r="E388" s="9" t="str">
         <f>IF(ISBLANK(raw!M386),"",raw!$M386)</f>
         <v/>
       </c>
     </row>
     <row r="389" ht="14.25">
-      <c r="A389" s="8" t="str">
+      <c r="A389" s="10" t="str">
         <f>IF(ISBLANK(raw!A387),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A387))</f>
         <v/>
       </c>
@@ -9231,13 +9246,13 @@
         <f>IF(ISBLANK(raw!$B387),"",raw!$B387)</f>
         <v/>
       </c>
-      <c r="E389" t="str">
+      <c r="E389" s="9" t="str">
         <f>IF(ISBLANK(raw!M387),"",raw!$M387)</f>
         <v/>
       </c>
     </row>
     <row r="390" ht="14.25">
-      <c r="A390" s="8" t="str">
+      <c r="A390" s="10" t="str">
         <f>IF(ISBLANK(raw!A388),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A388))</f>
         <v/>
       </c>
@@ -9253,13 +9268,13 @@
         <f>IF(ISBLANK(raw!$B388),"",raw!$B388)</f>
         <v/>
       </c>
-      <c r="E390" t="str">
+      <c r="E390" s="9" t="str">
         <f>IF(ISBLANK(raw!M388),"",raw!$M388)</f>
         <v/>
       </c>
     </row>
     <row r="391" ht="14.25">
-      <c r="A391" s="8" t="str">
+      <c r="A391" s="10" t="str">
         <f>IF(ISBLANK(raw!A389),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A389))</f>
         <v/>
       </c>
@@ -9275,13 +9290,13 @@
         <f>IF(ISBLANK(raw!$B389),"",raw!$B389)</f>
         <v/>
       </c>
-      <c r="E391" t="str">
+      <c r="E391" s="9" t="str">
         <f>IF(ISBLANK(raw!M389),"",raw!$M389)</f>
         <v/>
       </c>
     </row>
     <row r="392" ht="14.25">
-      <c r="A392" s="8" t="str">
+      <c r="A392" s="10" t="str">
         <f>IF(ISBLANK(raw!A390),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A390))</f>
         <v/>
       </c>
@@ -9297,13 +9312,13 @@
         <f>IF(ISBLANK(raw!$B390),"",raw!$B390)</f>
         <v/>
       </c>
-      <c r="E392" t="str">
+      <c r="E392" s="9" t="str">
         <f>IF(ISBLANK(raw!M390),"",raw!$M390)</f>
         <v/>
       </c>
     </row>
     <row r="393" ht="14.25">
-      <c r="A393" s="8" t="str">
+      <c r="A393" s="10" t="str">
         <f>IF(ISBLANK(raw!A391),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A391))</f>
         <v/>
       </c>
@@ -9319,13 +9334,13 @@
         <f>IF(ISBLANK(raw!$B391),"",raw!$B391)</f>
         <v/>
       </c>
-      <c r="E393" t="str">
+      <c r="E393" s="9" t="str">
         <f>IF(ISBLANK(raw!M391),"",raw!$M391)</f>
         <v/>
       </c>
     </row>
     <row r="394" ht="14.25">
-      <c r="A394" s="8" t="str">
+      <c r="A394" s="10" t="str">
         <f>IF(ISBLANK(raw!A392),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A392))</f>
         <v/>
       </c>
@@ -9341,13 +9356,13 @@
         <f>IF(ISBLANK(raw!$B392),"",raw!$B392)</f>
         <v/>
       </c>
-      <c r="E394" t="str">
+      <c r="E394" s="9" t="str">
         <f>IF(ISBLANK(raw!M392),"",raw!$M392)</f>
         <v/>
       </c>
     </row>
     <row r="395" ht="14.25">
-      <c r="A395" s="8" t="str">
+      <c r="A395" s="10" t="str">
         <f>IF(ISBLANK(raw!A393),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A393))</f>
         <v/>
       </c>
@@ -9363,13 +9378,13 @@
         <f>IF(ISBLANK(raw!$B393),"",raw!$B393)</f>
         <v/>
       </c>
-      <c r="E395" t="str">
+      <c r="E395" s="9" t="str">
         <f>IF(ISBLANK(raw!M393),"",raw!$M393)</f>
         <v/>
       </c>
     </row>
     <row r="396" ht="14.25">
-      <c r="A396" s="8" t="str">
+      <c r="A396" s="10" t="str">
         <f>IF(ISBLANK(raw!A394),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A394))</f>
         <v/>
       </c>
@@ -9385,13 +9400,13 @@
         <f>IF(ISBLANK(raw!$B394),"",raw!$B394)</f>
         <v/>
       </c>
-      <c r="E396" t="str">
+      <c r="E396" s="9" t="str">
         <f>IF(ISBLANK(raw!M394),"",raw!$M394)</f>
         <v/>
       </c>
     </row>
     <row r="397" ht="14.25">
-      <c r="A397" s="8" t="str">
+      <c r="A397" s="10" t="str">
         <f>IF(ISBLANK(raw!A395),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A395))</f>
         <v/>
       </c>
@@ -9407,13 +9422,13 @@
         <f>IF(ISBLANK(raw!$B395),"",raw!$B395)</f>
         <v/>
       </c>
-      <c r="E397" t="str">
+      <c r="E397" s="9" t="str">
         <f>IF(ISBLANK(raw!M395),"",raw!$M395)</f>
         <v/>
       </c>
     </row>
     <row r="398" ht="14.25">
-      <c r="A398" s="8" t="str">
+      <c r="A398" s="10" t="str">
         <f>IF(ISBLANK(raw!A396),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A396))</f>
         <v/>
       </c>
@@ -9429,13 +9444,13 @@
         <f>IF(ISBLANK(raw!$B396),"",raw!$B396)</f>
         <v/>
       </c>
-      <c r="E398" t="str">
+      <c r="E398" s="9" t="str">
         <f>IF(ISBLANK(raw!M396),"",raw!$M396)</f>
         <v/>
       </c>
     </row>
     <row r="399" ht="14.25">
-      <c r="A399" s="8" t="str">
+      <c r="A399" s="10" t="str">
         <f>IF(ISBLANK(raw!A397),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A397))</f>
         <v/>
       </c>
@@ -9451,13 +9466,13 @@
         <f>IF(ISBLANK(raw!$B397),"",raw!$B397)</f>
         <v/>
       </c>
-      <c r="E399" t="str">
+      <c r="E399" s="9" t="str">
         <f>IF(ISBLANK(raw!M397),"",raw!$M397)</f>
         <v/>
       </c>
     </row>
     <row r="400" ht="14.25">
-      <c r="A400" s="8" t="str">
+      <c r="A400" s="10" t="str">
         <f>IF(ISBLANK(raw!A398),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A398))</f>
         <v/>
       </c>
@@ -9473,13 +9488,13 @@
         <f>IF(ISBLANK(raw!$B398),"",raw!$B398)</f>
         <v/>
       </c>
-      <c r="E400" t="str">
+      <c r="E400" s="9" t="str">
         <f>IF(ISBLANK(raw!M398),"",raw!$M398)</f>
         <v/>
       </c>
     </row>
     <row r="401" ht="14.25">
-      <c r="A401" s="8" t="str">
+      <c r="A401" s="10" t="str">
         <f>IF(ISBLANK(raw!A399),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A399))</f>
         <v/>
       </c>
@@ -9495,13 +9510,13 @@
         <f>IF(ISBLANK(raw!$B399),"",raw!$B399)</f>
         <v/>
       </c>
-      <c r="E401" t="str">
+      <c r="E401" s="9" t="str">
         <f>IF(ISBLANK(raw!M399),"",raw!$M399)</f>
         <v/>
       </c>
     </row>
     <row r="402" ht="14.25">
-      <c r="A402" s="8" t="str">
+      <c r="A402" s="10" t="str">
         <f>IF(ISBLANK(raw!A400),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A400))</f>
         <v/>
       </c>
@@ -9517,13 +9532,13 @@
         <f>IF(ISBLANK(raw!$B400),"",raw!$B400)</f>
         <v/>
       </c>
-      <c r="E402" t="str">
+      <c r="E402" s="9" t="str">
         <f>IF(ISBLANK(raw!M400),"",raw!$M400)</f>
         <v/>
       </c>
     </row>
     <row r="403" ht="14.25">
-      <c r="A403" s="8" t="str">
+      <c r="A403" s="10" t="str">
         <f>IF(ISBLANK(raw!A401),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A401))</f>
         <v/>
       </c>
@@ -9539,13 +9554,13 @@
         <f>IF(ISBLANK(raw!$B401),"",raw!$B401)</f>
         <v/>
       </c>
-      <c r="E403" t="str">
+      <c r="E403" s="9" t="str">
         <f>IF(ISBLANK(raw!M401),"",raw!$M401)</f>
         <v/>
       </c>
     </row>
     <row r="404" ht="14.25">
-      <c r="A404" s="8" t="str">
+      <c r="A404" s="10" t="str">
         <f>IF(ISBLANK(raw!A402),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A402))</f>
         <v/>
       </c>
@@ -9561,13 +9576,13 @@
         <f>IF(ISBLANK(raw!$B402),"",raw!$B402)</f>
         <v/>
       </c>
-      <c r="E404" t="str">
+      <c r="E404" s="9" t="str">
         <f>IF(ISBLANK(raw!M402),"",raw!$M402)</f>
         <v/>
       </c>
     </row>
     <row r="405" ht="14.25">
-      <c r="A405" s="8" t="str">
+      <c r="A405" s="10" t="str">
         <f>IF(ISBLANK(raw!A403),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A403))</f>
         <v/>
       </c>
@@ -9583,13 +9598,13 @@
         <f>IF(ISBLANK(raw!$B403),"",raw!$B403)</f>
         <v/>
       </c>
-      <c r="E405" t="str">
+      <c r="E405" s="9" t="str">
         <f>IF(ISBLANK(raw!M403),"",raw!$M403)</f>
         <v/>
       </c>
     </row>
     <row r="406" ht="14.25">
-      <c r="A406" s="8" t="str">
+      <c r="A406" s="10" t="str">
         <f>IF(ISBLANK(raw!A404),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A404))</f>
         <v/>
       </c>
@@ -9605,13 +9620,13 @@
         <f>IF(ISBLANK(raw!$B404),"",raw!$B404)</f>
         <v/>
       </c>
-      <c r="E406" t="str">
+      <c r="E406" s="9" t="str">
         <f>IF(ISBLANK(raw!M404),"",raw!$M404)</f>
         <v/>
       </c>
     </row>
     <row r="407" ht="14.25">
-      <c r="A407" s="8" t="str">
+      <c r="A407" s="10" t="str">
         <f>IF(ISBLANK(raw!A405),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A405))</f>
         <v/>
       </c>
@@ -9627,13 +9642,13 @@
         <f>IF(ISBLANK(raw!$B405),"",raw!$B405)</f>
         <v/>
       </c>
-      <c r="E407" t="str">
+      <c r="E407" s="9" t="str">
         <f>IF(ISBLANK(raw!M405),"",raw!$M405)</f>
         <v/>
       </c>
     </row>
     <row r="408" ht="14.25">
-      <c r="A408" s="8" t="str">
+      <c r="A408" s="10" t="str">
         <f>IF(ISBLANK(raw!A406),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A406))</f>
         <v/>
       </c>
@@ -9649,13 +9664,13 @@
         <f>IF(ISBLANK(raw!$B406),"",raw!$B406)</f>
         <v/>
       </c>
-      <c r="E408" t="str">
+      <c r="E408" s="9" t="str">
         <f>IF(ISBLANK(raw!M406),"",raw!$M406)</f>
         <v/>
       </c>
     </row>
     <row r="409" ht="14.25">
-      <c r="A409" s="8" t="str">
+      <c r="A409" s="10" t="str">
         <f>IF(ISBLANK(raw!A407),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A407))</f>
         <v/>
       </c>
@@ -9671,13 +9686,13 @@
         <f>IF(ISBLANK(raw!$B407),"",raw!$B407)</f>
         <v/>
       </c>
-      <c r="E409" t="str">
+      <c r="E409" s="9" t="str">
         <f>IF(ISBLANK(raw!M407),"",raw!$M407)</f>
         <v/>
       </c>
     </row>
     <row r="410" ht="14.25">
-      <c r="A410" s="8" t="str">
+      <c r="A410" s="10" t="str">
         <f>IF(ISBLANK(raw!A408),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A408))</f>
         <v/>
       </c>
@@ -9693,13 +9708,13 @@
         <f>IF(ISBLANK(raw!$B408),"",raw!$B408)</f>
         <v/>
       </c>
-      <c r="E410" t="str">
+      <c r="E410" s="9" t="str">
         <f>IF(ISBLANK(raw!M408),"",raw!$M408)</f>
         <v/>
       </c>
     </row>
     <row r="411" ht="14.25">
-      <c r="A411" s="8" t="str">
+      <c r="A411" s="10" t="str">
         <f>IF(ISBLANK(raw!A409),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A409))</f>
         <v/>
       </c>
@@ -9715,13 +9730,13 @@
         <f>IF(ISBLANK(raw!$B409),"",raw!$B409)</f>
         <v/>
       </c>
-      <c r="E411" t="str">
+      <c r="E411" s="9" t="str">
         <f>IF(ISBLANK(raw!M409),"",raw!$M409)</f>
         <v/>
       </c>
     </row>
     <row r="412" ht="14.25">
-      <c r="A412" s="8" t="str">
+      <c r="A412" s="10" t="str">
         <f>IF(ISBLANK(raw!A410),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A410))</f>
         <v/>
       </c>
@@ -9737,13 +9752,13 @@
         <f>IF(ISBLANK(raw!$B410),"",raw!$B410)</f>
         <v/>
       </c>
-      <c r="E412" t="str">
+      <c r="E412" s="9" t="str">
         <f>IF(ISBLANK(raw!M410),"",raw!$M410)</f>
         <v/>
       </c>
     </row>
     <row r="413" ht="14.25">
-      <c r="A413" s="8" t="str">
+      <c r="A413" s="10" t="str">
         <f>IF(ISBLANK(raw!A411),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A411))</f>
         <v/>
       </c>
@@ -9759,13 +9774,13 @@
         <f>IF(ISBLANK(raw!$B411),"",raw!$B411)</f>
         <v/>
       </c>
-      <c r="E413" t="str">
+      <c r="E413" s="9" t="str">
         <f>IF(ISBLANK(raw!M411),"",raw!$M411)</f>
         <v/>
       </c>
     </row>
     <row r="414" ht="14.25">
-      <c r="A414" s="8" t="str">
+      <c r="A414" s="10" t="str">
         <f>IF(ISBLANK(raw!A412),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A412))</f>
         <v/>
       </c>
@@ -9781,13 +9796,13 @@
         <f>IF(ISBLANK(raw!$B412),"",raw!$B412)</f>
         <v/>
       </c>
-      <c r="E414" t="str">
+      <c r="E414" s="9" t="str">
         <f>IF(ISBLANK(raw!M412),"",raw!$M412)</f>
         <v/>
       </c>
     </row>
     <row r="415" ht="14.25">
-      <c r="A415" s="8" t="str">
+      <c r="A415" s="10" t="str">
         <f>IF(ISBLANK(raw!A413),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A413))</f>
         <v/>
       </c>
@@ -9803,13 +9818,13 @@
         <f>IF(ISBLANK(raw!$B413),"",raw!$B413)</f>
         <v/>
       </c>
-      <c r="E415" t="str">
+      <c r="E415" s="9" t="str">
         <f>IF(ISBLANK(raw!M413),"",raw!$M413)</f>
         <v/>
       </c>
     </row>
     <row r="416" ht="14.25">
-      <c r="A416" s="8" t="str">
+      <c r="A416" s="10" t="str">
         <f>IF(ISBLANK(raw!A414),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A414))</f>
         <v/>
       </c>
@@ -9825,13 +9840,13 @@
         <f>IF(ISBLANK(raw!$B414),"",raw!$B414)</f>
         <v/>
       </c>
-      <c r="E416" t="str">
+      <c r="E416" s="9" t="str">
         <f>IF(ISBLANK(raw!M414),"",raw!$M414)</f>
         <v/>
       </c>
     </row>
     <row r="417" ht="14.25">
-      <c r="A417" s="8" t="str">
+      <c r="A417" s="10" t="str">
         <f>IF(ISBLANK(raw!A415),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A415))</f>
         <v/>
       </c>
@@ -9847,13 +9862,13 @@
         <f>IF(ISBLANK(raw!$B415),"",raw!$B415)</f>
         <v/>
       </c>
-      <c r="E417" t="str">
+      <c r="E417" s="9" t="str">
         <f>IF(ISBLANK(raw!M415),"",raw!$M415)</f>
         <v/>
       </c>
     </row>
     <row r="418" ht="14.25">
-      <c r="A418" s="8" t="str">
+      <c r="A418" s="10" t="str">
         <f>IF(ISBLANK(raw!A416),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A416))</f>
         <v/>
       </c>
@@ -9869,13 +9884,13 @@
         <f>IF(ISBLANK(raw!$B416),"",raw!$B416)</f>
         <v/>
       </c>
-      <c r="E418" t="str">
+      <c r="E418" s="9" t="str">
         <f>IF(ISBLANK(raw!M416),"",raw!$M416)</f>
         <v/>
       </c>
     </row>
     <row r="419" ht="14.25">
-      <c r="A419" s="8" t="str">
+      <c r="A419" s="10" t="str">
         <f>IF(ISBLANK(raw!A417),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A417))</f>
         <v/>
       </c>
@@ -9891,13 +9906,13 @@
         <f>IF(ISBLANK(raw!$B417),"",raw!$B417)</f>
         <v/>
       </c>
-      <c r="E419" t="str">
+      <c r="E419" s="9" t="str">
         <f>IF(ISBLANK(raw!M417),"",raw!$M417)</f>
         <v/>
       </c>
     </row>
     <row r="420" ht="14.25">
-      <c r="A420" s="8" t="str">
+      <c r="A420" s="10" t="str">
         <f>IF(ISBLANK(raw!A418),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A418))</f>
         <v/>
       </c>
@@ -9913,13 +9928,13 @@
         <f>IF(ISBLANK(raw!$B418),"",raw!$B418)</f>
         <v/>
       </c>
-      <c r="E420" t="str">
+      <c r="E420" s="9" t="str">
         <f>IF(ISBLANK(raw!M418),"",raw!$M418)</f>
         <v/>
       </c>
     </row>
     <row r="421" ht="14.25">
-      <c r="A421" s="8" t="str">
+      <c r="A421" s="10" t="str">
         <f>IF(ISBLANK(raw!A419),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A419))</f>
         <v/>
       </c>
@@ -9935,13 +9950,13 @@
         <f>IF(ISBLANK(raw!$B419),"",raw!$B419)</f>
         <v/>
       </c>
-      <c r="E421" t="str">
+      <c r="E421" s="9" t="str">
         <f>IF(ISBLANK(raw!M419),"",raw!$M419)</f>
         <v/>
       </c>
     </row>
     <row r="422" ht="14.25">
-      <c r="A422" s="8" t="str">
+      <c r="A422" s="10" t="str">
         <f>IF(ISBLANK(raw!A420),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A420))</f>
         <v/>
       </c>
@@ -9957,13 +9972,13 @@
         <f>IF(ISBLANK(raw!$B420),"",raw!$B420)</f>
         <v/>
       </c>
-      <c r="E422" t="str">
+      <c r="E422" s="9" t="str">
         <f>IF(ISBLANK(raw!M420),"",raw!$M420)</f>
         <v/>
       </c>
     </row>
     <row r="423" ht="14.25">
-      <c r="A423" s="8" t="str">
+      <c r="A423" s="10" t="str">
         <f>IF(ISBLANK(raw!A421),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A421))</f>
         <v/>
       </c>
@@ -9979,13 +9994,13 @@
         <f>IF(ISBLANK(raw!$B421),"",raw!$B421)</f>
         <v/>
       </c>
-      <c r="E423" t="str">
+      <c r="E423" s="9" t="str">
         <f>IF(ISBLANK(raw!M421),"",raw!$M421)</f>
         <v/>
       </c>
     </row>
     <row r="424" ht="14.25">
-      <c r="A424" s="8" t="str">
+      <c r="A424" s="10" t="str">
         <f>IF(ISBLANK(raw!A422),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A422))</f>
         <v/>
       </c>
@@ -10001,13 +10016,13 @@
         <f>IF(ISBLANK(raw!$B422),"",raw!$B422)</f>
         <v/>
       </c>
-      <c r="E424" t="str">
+      <c r="E424" s="9" t="str">
         <f>IF(ISBLANK(raw!M422),"",raw!$M422)</f>
         <v/>
       </c>
     </row>
     <row r="425" ht="14.25">
-      <c r="A425" s="8" t="str">
+      <c r="A425" s="10" t="str">
         <f>IF(ISBLANK(raw!A423),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A423))</f>
         <v/>
       </c>
@@ -10023,13 +10038,13 @@
         <f>IF(ISBLANK(raw!$B423),"",raw!$B423)</f>
         <v/>
       </c>
-      <c r="E425" t="str">
+      <c r="E425" s="9" t="str">
         <f>IF(ISBLANK(raw!M423),"",raw!$M423)</f>
         <v/>
       </c>
     </row>
     <row r="426" ht="14.25">
-      <c r="A426" s="8" t="str">
+      <c r="A426" s="10" t="str">
         <f>IF(ISBLANK(raw!A424),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A424))</f>
         <v/>
       </c>
@@ -10045,13 +10060,13 @@
         <f>IF(ISBLANK(raw!$B424),"",raw!$B424)</f>
         <v/>
       </c>
-      <c r="E426" t="str">
+      <c r="E426" s="9" t="str">
         <f>IF(ISBLANK(raw!M424),"",raw!$M424)</f>
         <v/>
       </c>
     </row>
     <row r="427" ht="14.25">
-      <c r="A427" s="8" t="str">
+      <c r="A427" s="10" t="str">
         <f>IF(ISBLANK(raw!A425),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A425))</f>
         <v/>
       </c>
@@ -10067,13 +10082,13 @@
         <f>IF(ISBLANK(raw!$B425),"",raw!$B425)</f>
         <v/>
       </c>
-      <c r="E427" t="str">
+      <c r="E427" s="9" t="str">
         <f>IF(ISBLANK(raw!M425),"",raw!$M425)</f>
         <v/>
       </c>
     </row>
     <row r="428" ht="14.25">
-      <c r="A428" s="8" t="str">
+      <c r="A428" s="10" t="str">
         <f>IF(ISBLANK(raw!A426),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A426))</f>
         <v/>
       </c>
@@ -10089,13 +10104,13 @@
         <f>IF(ISBLANK(raw!$B426),"",raw!$B426)</f>
         <v/>
       </c>
-      <c r="E428" t="str">
+      <c r="E428" s="9" t="str">
         <f>IF(ISBLANK(raw!M426),"",raw!$M426)</f>
         <v/>
       </c>
     </row>
     <row r="429" ht="14.25">
-      <c r="A429" s="8" t="str">
+      <c r="A429" s="10" t="str">
         <f>IF(ISBLANK(raw!A427),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A427))</f>
         <v/>
       </c>
@@ -10111,13 +10126,13 @@
         <f>IF(ISBLANK(raw!$B427),"",raw!$B427)</f>
         <v/>
       </c>
-      <c r="E429" t="str">
+      <c r="E429" s="9" t="str">
         <f>IF(ISBLANK(raw!M427),"",raw!$M427)</f>
         <v/>
       </c>
     </row>
     <row r="430" ht="14.25">
-      <c r="A430" s="8" t="str">
+      <c r="A430" s="10" t="str">
         <f>IF(ISBLANK(raw!A428),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A428))</f>
         <v/>
       </c>
@@ -10133,13 +10148,13 @@
         <f>IF(ISBLANK(raw!$B428),"",raw!$B428)</f>
         <v/>
       </c>
-      <c r="E430" t="str">
+      <c r="E430" s="9" t="str">
         <f>IF(ISBLANK(raw!M428),"",raw!$M428)</f>
         <v/>
       </c>
     </row>
     <row r="431" ht="14.25">
-      <c r="A431" s="8" t="str">
+      <c r="A431" s="10" t="str">
         <f>IF(ISBLANK(raw!A429),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A429))</f>
         <v/>
       </c>
@@ -10155,13 +10170,13 @@
         <f>IF(ISBLANK(raw!$B429),"",raw!$B429)</f>
         <v/>
       </c>
-      <c r="E431" t="str">
+      <c r="E431" s="9" t="str">
         <f>IF(ISBLANK(raw!M429),"",raw!$M429)</f>
         <v/>
       </c>
     </row>
     <row r="432" ht="14.25">
-      <c r="A432" s="8" t="str">
+      <c r="A432" s="10" t="str">
         <f>IF(ISBLANK(raw!A430),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A430))</f>
         <v/>
       </c>
@@ -10177,13 +10192,13 @@
         <f>IF(ISBLANK(raw!$B430),"",raw!$B430)</f>
         <v/>
       </c>
-      <c r="E432" t="str">
+      <c r="E432" s="9" t="str">
         <f>IF(ISBLANK(raw!M430),"",raw!$M430)</f>
         <v/>
       </c>
     </row>
     <row r="433" ht="14.25">
-      <c r="A433" s="8" t="str">
+      <c r="A433" s="10" t="str">
         <f>IF(ISBLANK(raw!A431),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A431))</f>
         <v/>
       </c>
@@ -10199,13 +10214,13 @@
         <f>IF(ISBLANK(raw!$B431),"",raw!$B431)</f>
         <v/>
       </c>
-      <c r="E433" t="str">
+      <c r="E433" s="9" t="str">
         <f>IF(ISBLANK(raw!M431),"",raw!$M431)</f>
         <v/>
       </c>
     </row>
     <row r="434" ht="14.25">
-      <c r="A434" s="8" t="str">
+      <c r="A434" s="10" t="str">
         <f>IF(ISBLANK(raw!A432),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A432))</f>
         <v/>
       </c>
@@ -10221,13 +10236,13 @@
         <f>IF(ISBLANK(raw!$B432),"",raw!$B432)</f>
         <v/>
       </c>
-      <c r="E434" t="str">
+      <c r="E434" s="9" t="str">
         <f>IF(ISBLANK(raw!M432),"",raw!$M432)</f>
         <v/>
       </c>
     </row>
     <row r="435" ht="14.25">
-      <c r="A435" s="8" t="str">
+      <c r="A435" s="10" t="str">
         <f>IF(ISBLANK(raw!A433),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A433))</f>
         <v/>
       </c>
@@ -10243,13 +10258,13 @@
         <f>IF(ISBLANK(raw!$B433),"",raw!$B433)</f>
         <v/>
       </c>
-      <c r="E435" t="str">
+      <c r="E435" s="9" t="str">
         <f>IF(ISBLANK(raw!M433),"",raw!$M433)</f>
         <v/>
       </c>
     </row>
     <row r="436" ht="14.25">
-      <c r="A436" s="8" t="str">
+      <c r="A436" s="10" t="str">
         <f>IF(ISBLANK(raw!A434),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A434))</f>
         <v/>
       </c>
@@ -10265,13 +10280,13 @@
         <f>IF(ISBLANK(raw!$B434),"",raw!$B434)</f>
         <v/>
       </c>
-      <c r="E436" t="str">
+      <c r="E436" s="9" t="str">
         <f>IF(ISBLANK(raw!M434),"",raw!$M434)</f>
         <v/>
       </c>
     </row>
     <row r="437" ht="14.25">
-      <c r="A437" s="8" t="str">
+      <c r="A437" s="10" t="str">
         <f>IF(ISBLANK(raw!A435),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A435))</f>
         <v/>
       </c>
@@ -10287,13 +10302,13 @@
         <f>IF(ISBLANK(raw!$B435),"",raw!$B435)</f>
         <v/>
       </c>
-      <c r="E437" t="str">
+      <c r="E437" s="9" t="str">
         <f>IF(ISBLANK(raw!M435),"",raw!$M435)</f>
         <v/>
       </c>
     </row>
     <row r="438" ht="14.25">
-      <c r="A438" s="8" t="str">
+      <c r="A438" s="10" t="str">
         <f>IF(ISBLANK(raw!A436),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A436))</f>
         <v/>
       </c>
@@ -10309,13 +10324,13 @@
         <f>IF(ISBLANK(raw!$B436),"",raw!$B436)</f>
         <v/>
       </c>
-      <c r="E438" t="str">
+      <c r="E438" s="9" t="str">
         <f>IF(ISBLANK(raw!M436),"",raw!$M436)</f>
         <v/>
       </c>
     </row>
     <row r="439" ht="14.25">
-      <c r="A439" s="8" t="str">
+      <c r="A439" s="10" t="str">
         <f>IF(ISBLANK(raw!A437),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A437))</f>
         <v/>
       </c>
@@ -10331,13 +10346,13 @@
         <f>IF(ISBLANK(raw!$B437),"",raw!$B437)</f>
         <v/>
       </c>
-      <c r="E439" t="str">
+      <c r="E439" s="9" t="str">
         <f>IF(ISBLANK(raw!M437),"",raw!$M437)</f>
         <v/>
       </c>
     </row>
     <row r="440" ht="14.25">
-      <c r="A440" s="8" t="str">
+      <c r="A440" s="10" t="str">
         <f>IF(ISBLANK(raw!A438),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A438))</f>
         <v/>
       </c>
@@ -10353,13 +10368,13 @@
         <f>IF(ISBLANK(raw!$B438),"",raw!$B438)</f>
         <v/>
       </c>
-      <c r="E440" t="str">
+      <c r="E440" s="9" t="str">
         <f>IF(ISBLANK(raw!M438),"",raw!$M438)</f>
         <v/>
       </c>
     </row>
     <row r="441" ht="14.25">
-      <c r="A441" s="8" t="str">
+      <c r="A441" s="10" t="str">
         <f>IF(ISBLANK(raw!A439),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A439))</f>
         <v/>
       </c>
@@ -10375,13 +10390,13 @@
         <f>IF(ISBLANK(raw!$B439),"",raw!$B439)</f>
         <v/>
       </c>
-      <c r="E441" t="str">
+      <c r="E441" s="9" t="str">
         <f>IF(ISBLANK(raw!M439),"",raw!$M439)</f>
         <v/>
       </c>
     </row>
     <row r="442" ht="14.25">
-      <c r="A442" s="8" t="str">
+      <c r="A442" s="10" t="str">
         <f>IF(ISBLANK(raw!A440),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A440))</f>
         <v/>
       </c>
@@ -10397,13 +10412,13 @@
         <f>IF(ISBLANK(raw!$B440),"",raw!$B440)</f>
         <v/>
       </c>
-      <c r="E442" t="str">
+      <c r="E442" s="9" t="str">
         <f>IF(ISBLANK(raw!M440),"",raw!$M440)</f>
         <v/>
       </c>
     </row>
     <row r="443" ht="14.25">
-      <c r="A443" s="8" t="str">
+      <c r="A443" s="10" t="str">
         <f>IF(ISBLANK(raw!A441),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A441))</f>
         <v/>
       </c>
@@ -10419,13 +10434,13 @@
         <f>IF(ISBLANK(raw!$B441),"",raw!$B441)</f>
         <v/>
       </c>
-      <c r="E443" t="str">
+      <c r="E443" s="9" t="str">
         <f>IF(ISBLANK(raw!M441),"",raw!$M441)</f>
         <v/>
       </c>
     </row>
     <row r="444" ht="14.25">
-      <c r="A444" s="8" t="str">
+      <c r="A444" s="10" t="str">
         <f>IF(ISBLANK(raw!A442),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A442))</f>
         <v/>
       </c>
@@ -10441,13 +10456,13 @@
         <f>IF(ISBLANK(raw!$B442),"",raw!$B442)</f>
         <v/>
       </c>
-      <c r="E444" t="str">
+      <c r="E444" s="9" t="str">
         <f>IF(ISBLANK(raw!M442),"",raw!$M442)</f>
         <v/>
       </c>
     </row>
     <row r="445" ht="14.25">
-      <c r="A445" s="8" t="str">
+      <c r="A445" s="10" t="str">
         <f>IF(ISBLANK(raw!A443),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A443))</f>
         <v/>
       </c>
@@ -10463,13 +10478,13 @@
         <f>IF(ISBLANK(raw!$B443),"",raw!$B443)</f>
         <v/>
       </c>
-      <c r="E445" t="str">
+      <c r="E445" s="9" t="str">
         <f>IF(ISBLANK(raw!M443),"",raw!$M443)</f>
         <v/>
       </c>
     </row>
     <row r="446" ht="14.25">
-      <c r="A446" s="8" t="str">
+      <c r="A446" s="10" t="str">
         <f>IF(ISBLANK(raw!A444),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A444))</f>
         <v/>
       </c>
@@ -10485,13 +10500,13 @@
         <f>IF(ISBLANK(raw!$B444),"",raw!$B444)</f>
         <v/>
       </c>
-      <c r="E446" t="str">
+      <c r="E446" s="9" t="str">
         <f>IF(ISBLANK(raw!M444),"",raw!$M444)</f>
         <v/>
       </c>
     </row>
     <row r="447" ht="14.25">
-      <c r="A447" s="8" t="str">
+      <c r="A447" s="10" t="str">
         <f>IF(ISBLANK(raw!A445),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A445))</f>
         <v/>
       </c>
@@ -10507,13 +10522,13 @@
         <f>IF(ISBLANK(raw!$B445),"",raw!$B445)</f>
         <v/>
       </c>
-      <c r="E447" t="str">
+      <c r="E447" s="9" t="str">
         <f>IF(ISBLANK(raw!M445),"",raw!$M445)</f>
         <v/>
       </c>
     </row>
     <row r="448" ht="14.25">
-      <c r="A448" s="8" t="str">
+      <c r="A448" s="10" t="str">
         <f>IF(ISBLANK(raw!A446),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A446))</f>
         <v/>
       </c>
@@ -10529,13 +10544,13 @@
         <f>IF(ISBLANK(raw!$B446),"",raw!$B446)</f>
         <v/>
       </c>
-      <c r="E448" t="str">
+      <c r="E448" s="9" t="str">
         <f>IF(ISBLANK(raw!M446),"",raw!$M446)</f>
         <v/>
       </c>
     </row>
     <row r="449" ht="14.25">
-      <c r="A449" s="8" t="str">
+      <c r="A449" s="10" t="str">
         <f>IF(ISBLANK(raw!A447),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A447))</f>
         <v/>
       </c>
@@ -10551,13 +10566,13 @@
         <f>IF(ISBLANK(raw!$B447),"",raw!$B447)</f>
         <v/>
       </c>
-      <c r="E449" t="str">
+      <c r="E449" s="9" t="str">
         <f>IF(ISBLANK(raw!M447),"",raw!$M447)</f>
         <v/>
       </c>
     </row>
     <row r="450" ht="14.25">
-      <c r="A450" s="8" t="str">
+      <c r="A450" s="10" t="str">
         <f>IF(ISBLANK(raw!A448),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A448))</f>
         <v/>
       </c>
@@ -10573,13 +10588,13 @@
         <f>IF(ISBLANK(raw!$B448),"",raw!$B448)</f>
         <v/>
       </c>
-      <c r="E450" t="str">
+      <c r="E450" s="9" t="str">
         <f>IF(ISBLANK(raw!M448),"",raw!$M448)</f>
         <v/>
       </c>
     </row>
     <row r="451" ht="14.25">
-      <c r="A451" s="8" t="str">
+      <c r="A451" s="10" t="str">
         <f>IF(ISBLANK(raw!A449),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A449))</f>
         <v/>
       </c>
@@ -10595,13 +10610,13 @@
         <f>IF(ISBLANK(raw!$B449),"",raw!$B449)</f>
         <v/>
       </c>
-      <c r="E451" t="str">
+      <c r="E451" s="9" t="str">
         <f>IF(ISBLANK(raw!M449),"",raw!$M449)</f>
         <v/>
       </c>
     </row>
     <row r="452" ht="14.25">
-      <c r="A452" s="8" t="str">
+      <c r="A452" s="10" t="str">
         <f>IF(ISBLANK(raw!A450),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A450))</f>
         <v/>
       </c>
@@ -10617,13 +10632,13 @@
         <f>IF(ISBLANK(raw!$B450),"",raw!$B450)</f>
         <v/>
       </c>
-      <c r="E452" t="str">
+      <c r="E452" s="9" t="str">
         <f>IF(ISBLANK(raw!M450),"",raw!$M450)</f>
         <v/>
       </c>
     </row>
     <row r="453" ht="14.25">
-      <c r="A453" s="8" t="str">
+      <c r="A453" s="10" t="str">
         <f>IF(ISBLANK(raw!A451),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A451))</f>
         <v/>
       </c>
@@ -10639,13 +10654,13 @@
         <f>IF(ISBLANK(raw!$B451),"",raw!$B451)</f>
         <v/>
       </c>
-      <c r="E453" t="str">
+      <c r="E453" s="9" t="str">
         <f>IF(ISBLANK(raw!M451),"",raw!$M451)</f>
         <v/>
       </c>
     </row>
     <row r="454" ht="14.25">
-      <c r="A454" s="8" t="str">
+      <c r="A454" s="10" t="str">
         <f>IF(ISBLANK(raw!A452),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A452))</f>
         <v/>
       </c>
@@ -10661,13 +10676,13 @@
         <f>IF(ISBLANK(raw!$B452),"",raw!$B452)</f>
         <v/>
       </c>
-      <c r="E454" t="str">
+      <c r="E454" s="9" t="str">
         <f>IF(ISBLANK(raw!M452),"",raw!$M452)</f>
         <v/>
       </c>
     </row>
     <row r="455" ht="14.25">
-      <c r="A455" s="8" t="str">
+      <c r="A455" s="10" t="str">
         <f>IF(ISBLANK(raw!A453),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A453))</f>
         <v/>
       </c>
@@ -10683,13 +10698,13 @@
         <f>IF(ISBLANK(raw!$B453),"",raw!$B453)</f>
         <v/>
       </c>
-      <c r="E455" t="str">
+      <c r="E455" s="9" t="str">
         <f>IF(ISBLANK(raw!M453),"",raw!$M453)</f>
         <v/>
       </c>
     </row>
     <row r="456" ht="14.25">
-      <c r="A456" s="8" t="str">
+      <c r="A456" s="10" t="str">
         <f>IF(ISBLANK(raw!A454),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A454))</f>
         <v/>
       </c>
@@ -10705,13 +10720,13 @@
         <f>IF(ISBLANK(raw!$B454),"",raw!$B454)</f>
         <v/>
       </c>
-      <c r="E456" t="str">
+      <c r="E456" s="9" t="str">
         <f>IF(ISBLANK(raw!M454),"",raw!$M454)</f>
         <v/>
       </c>
     </row>
     <row r="457" ht="14.25">
-      <c r="A457" s="8" t="str">
+      <c r="A457" s="10" t="str">
         <f>IF(ISBLANK(raw!A455),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A455))</f>
         <v/>
       </c>
@@ -10727,13 +10742,13 @@
         <f>IF(ISBLANK(raw!$B455),"",raw!$B455)</f>
         <v/>
       </c>
-      <c r="E457" t="str">
+      <c r="E457" s="9" t="str">
         <f>IF(ISBLANK(raw!M455),"",raw!$M455)</f>
         <v/>
       </c>
     </row>
     <row r="458" ht="14.25">
-      <c r="A458" s="8" t="str">
+      <c r="A458" s="10" t="str">
         <f>IF(ISBLANK(raw!A456),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A456))</f>
         <v/>
       </c>
@@ -10749,13 +10764,13 @@
         <f>IF(ISBLANK(raw!$B456),"",raw!$B456)</f>
         <v/>
       </c>
-      <c r="E458" t="str">
+      <c r="E458" s="9" t="str">
         <f>IF(ISBLANK(raw!M456),"",raw!$M456)</f>
         <v/>
       </c>
     </row>
     <row r="459" ht="14.25">
-      <c r="A459" s="8" t="str">
+      <c r="A459" s="10" t="str">
         <f>IF(ISBLANK(raw!A457),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A457))</f>
         <v/>
       </c>
@@ -10771,13 +10786,13 @@
         <f>IF(ISBLANK(raw!$B457),"",raw!$B457)</f>
         <v/>
       </c>
-      <c r="E459" t="str">
+      <c r="E459" s="9" t="str">
         <f>IF(ISBLANK(raw!M457),"",raw!$M457)</f>
         <v/>
       </c>
     </row>
     <row r="460" ht="14.25">
-      <c r="A460" s="8" t="str">
+      <c r="A460" s="10" t="str">
         <f>IF(ISBLANK(raw!A458),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A458))</f>
         <v/>
       </c>
@@ -10793,13 +10808,13 @@
         <f>IF(ISBLANK(raw!$B458),"",raw!$B458)</f>
         <v/>
       </c>
-      <c r="E460" t="str">
+      <c r="E460" s="9" t="str">
         <f>IF(ISBLANK(raw!M458),"",raw!$M458)</f>
         <v/>
       </c>
     </row>
     <row r="461" ht="14.25">
-      <c r="A461" s="8" t="str">
+      <c r="A461" s="10" t="str">
         <f>IF(ISBLANK(raw!A459),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A459))</f>
         <v/>
       </c>
@@ -10815,13 +10830,13 @@
         <f>IF(ISBLANK(raw!$B459),"",raw!$B459)</f>
         <v/>
       </c>
-      <c r="E461" t="str">
+      <c r="E461" s="9" t="str">
         <f>IF(ISBLANK(raw!M459),"",raw!$M459)</f>
         <v/>
       </c>
     </row>
     <row r="462" ht="14.25">
-      <c r="A462" s="8" t="str">
+      <c r="A462" s="10" t="str">
         <f>IF(ISBLANK(raw!A460),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A460))</f>
         <v/>
       </c>
@@ -10837,13 +10852,13 @@
         <f>IF(ISBLANK(raw!$B460),"",raw!$B460)</f>
         <v/>
       </c>
-      <c r="E462" t="str">
+      <c r="E462" s="9" t="str">
         <f>IF(ISBLANK(raw!M460),"",raw!$M460)</f>
         <v/>
       </c>
     </row>
     <row r="463" ht="14.25">
-      <c r="A463" s="8" t="str">
+      <c r="A463" s="10" t="str">
         <f>IF(ISBLANK(raw!A461),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A461))</f>
         <v/>
       </c>
@@ -10859,13 +10874,13 @@
         <f>IF(ISBLANK(raw!$B461),"",raw!$B461)</f>
         <v/>
       </c>
-      <c r="E463" t="str">
+      <c r="E463" s="9" t="str">
         <f>IF(ISBLANK(raw!M461),"",raw!$M461)</f>
         <v/>
       </c>
     </row>
     <row r="464" ht="14.25">
-      <c r="A464" s="8" t="str">
+      <c r="A464" s="10" t="str">
         <f>IF(ISBLANK(raw!A462),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A462))</f>
         <v/>
       </c>
@@ -10881,13 +10896,13 @@
         <f>IF(ISBLANK(raw!$B462),"",raw!$B462)</f>
         <v/>
       </c>
-      <c r="E464" t="str">
+      <c r="E464" s="9" t="str">
         <f>IF(ISBLANK(raw!M462),"",raw!$M462)</f>
         <v/>
       </c>
     </row>
     <row r="465" ht="14.25">
-      <c r="A465" s="8" t="str">
+      <c r="A465" s="10" t="str">
         <f>IF(ISBLANK(raw!A463),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A463))</f>
         <v/>
       </c>
@@ -10903,13 +10918,13 @@
         <f>IF(ISBLANK(raw!$B463),"",raw!$B463)</f>
         <v/>
       </c>
-      <c r="E465" t="str">
+      <c r="E465" s="9" t="str">
         <f>IF(ISBLANK(raw!M463),"",raw!$M463)</f>
         <v/>
       </c>
     </row>
     <row r="466" ht="14.25">
-      <c r="A466" s="8" t="str">
+      <c r="A466" s="10" t="str">
         <f>IF(ISBLANK(raw!A464),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A464))</f>
         <v/>
       </c>
@@ -10925,13 +10940,13 @@
         <f>IF(ISBLANK(raw!$B464),"",raw!$B464)</f>
         <v/>
       </c>
-      <c r="E466" t="str">
+      <c r="E466" s="9" t="str">
         <f>IF(ISBLANK(raw!M464),"",raw!$M464)</f>
         <v/>
       </c>
     </row>
     <row r="467" ht="14.25">
-      <c r="A467" s="8" t="str">
+      <c r="A467" s="10" t="str">
         <f>IF(ISBLANK(raw!A465),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A465))</f>
         <v/>
       </c>
@@ -10947,13 +10962,13 @@
         <f>IF(ISBLANK(raw!$B465),"",raw!$B465)</f>
         <v/>
       </c>
-      <c r="E467" t="str">
+      <c r="E467" s="9" t="str">
         <f>IF(ISBLANK(raw!M465),"",raw!$M465)</f>
         <v/>
       </c>
     </row>
     <row r="468" ht="14.25">
-      <c r="A468" s="8" t="str">
+      <c r="A468" s="10" t="str">
         <f>IF(ISBLANK(raw!A466),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A466))</f>
         <v/>
       </c>
@@ -10969,13 +10984,13 @@
         <f>IF(ISBLANK(raw!$B466),"",raw!$B466)</f>
         <v/>
       </c>
-      <c r="E468" t="str">
+      <c r="E468" s="9" t="str">
         <f>IF(ISBLANK(raw!M466),"",raw!$M466)</f>
         <v/>
       </c>
     </row>
     <row r="469" ht="14.25">
-      <c r="A469" s="8" t="str">
+      <c r="A469" s="10" t="str">
         <f>IF(ISBLANK(raw!A467),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A467))</f>
         <v/>
       </c>
@@ -10991,13 +11006,13 @@
         <f>IF(ISBLANK(raw!$B467),"",raw!$B467)</f>
         <v/>
       </c>
-      <c r="E469" t="str">
+      <c r="E469" s="9" t="str">
         <f>IF(ISBLANK(raw!M467),"",raw!$M467)</f>
         <v/>
       </c>
     </row>
     <row r="470" ht="14.25">
-      <c r="A470" s="8" t="str">
+      <c r="A470" s="10" t="str">
         <f>IF(ISBLANK(raw!A468),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A468))</f>
         <v/>
       </c>
@@ -11013,13 +11028,13 @@
         <f>IF(ISBLANK(raw!$B468),"",raw!$B468)</f>
         <v/>
       </c>
-      <c r="E470" t="str">
+      <c r="E470" s="9" t="str">
         <f>IF(ISBLANK(raw!M468),"",raw!$M468)</f>
         <v/>
       </c>
     </row>
     <row r="471" ht="14.25">
-      <c r="A471" s="8" t="str">
+      <c r="A471" s="10" t="str">
         <f>IF(ISBLANK(raw!A469),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A469))</f>
         <v/>
       </c>
@@ -11035,13 +11050,13 @@
         <f>IF(ISBLANK(raw!$B469),"",raw!$B469)</f>
         <v/>
       </c>
-      <c r="E471" t="str">
+      <c r="E471" s="9" t="str">
         <f>IF(ISBLANK(raw!M469),"",raw!$M469)</f>
         <v/>
       </c>
     </row>
     <row r="472" ht="14.25">
-      <c r="A472" s="8" t="str">
+      <c r="A472" s="10" t="str">
         <f>IF(ISBLANK(raw!A470),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A470))</f>
         <v/>
       </c>
@@ -11057,13 +11072,13 @@
         <f>IF(ISBLANK(raw!$B470),"",raw!$B470)</f>
         <v/>
       </c>
-      <c r="E472" t="str">
+      <c r="E472" s="9" t="str">
         <f>IF(ISBLANK(raw!M470),"",raw!$M470)</f>
         <v/>
       </c>
     </row>
     <row r="473" ht="14.25">
-      <c r="A473" s="8" t="str">
+      <c r="A473" s="10" t="str">
         <f>IF(ISBLANK(raw!A471),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A471))</f>
         <v/>
       </c>
@@ -11079,13 +11094,13 @@
         <f>IF(ISBLANK(raw!$B471),"",raw!$B471)</f>
         <v/>
       </c>
-      <c r="E473" t="str">
+      <c r="E473" s="9" t="str">
         <f>IF(ISBLANK(raw!M471),"",raw!$M471)</f>
         <v/>
       </c>
     </row>
     <row r="474" ht="14.25">
-      <c r="A474" s="8" t="str">
+      <c r="A474" s="10" t="str">
         <f>IF(ISBLANK(raw!A472),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A472))</f>
         <v/>
       </c>
@@ -11101,13 +11116,13 @@
         <f>IF(ISBLANK(raw!$B472),"",raw!$B472)</f>
         <v/>
       </c>
-      <c r="E474" t="str">
+      <c r="E474" s="9" t="str">
         <f>IF(ISBLANK(raw!M472),"",raw!$M472)</f>
         <v/>
       </c>
     </row>
     <row r="475" ht="14.25">
-      <c r="A475" s="8" t="str">
+      <c r="A475" s="10" t="str">
         <f>IF(ISBLANK(raw!A473),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A473))</f>
         <v/>
       </c>
@@ -11123,13 +11138,13 @@
         <f>IF(ISBLANK(raw!$B473),"",raw!$B473)</f>
         <v/>
       </c>
-      <c r="E475" t="str">
+      <c r="E475" s="9" t="str">
         <f>IF(ISBLANK(raw!M473),"",raw!$M473)</f>
         <v/>
       </c>
     </row>
     <row r="476" ht="14.25">
-      <c r="A476" s="8" t="str">
+      <c r="A476" s="10" t="str">
         <f>IF(ISBLANK(raw!A474),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A474))</f>
         <v/>
       </c>
@@ -11145,13 +11160,13 @@
         <f>IF(ISBLANK(raw!$B474),"",raw!$B474)</f>
         <v/>
       </c>
-      <c r="E476" t="str">
+      <c r="E476" s="9" t="str">
         <f>IF(ISBLANK(raw!M474),"",raw!$M474)</f>
         <v/>
       </c>
     </row>
     <row r="477" ht="14.25">
-      <c r="A477" s="8" t="str">
+      <c r="A477" s="10" t="str">
         <f>IF(ISBLANK(raw!A475),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A475))</f>
         <v/>
       </c>
@@ -11167,13 +11182,13 @@
         <f>IF(ISBLANK(raw!$B475),"",raw!$B475)</f>
         <v/>
       </c>
-      <c r="E477" t="str">
+      <c r="E477" s="9" t="str">
         <f>IF(ISBLANK(raw!M475),"",raw!$M475)</f>
         <v/>
       </c>
     </row>
     <row r="478" ht="14.25">
-      <c r="A478" s="8" t="str">
+      <c r="A478" s="10" t="str">
         <f>IF(ISBLANK(raw!A476),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A476))</f>
         <v/>
       </c>
@@ -11189,13 +11204,13 @@
         <f>IF(ISBLANK(raw!$B476),"",raw!$B476)</f>
         <v/>
       </c>
-      <c r="E478" t="str">
+      <c r="E478" s="9" t="str">
         <f>IF(ISBLANK(raw!M476),"",raw!$M476)</f>
         <v/>
       </c>
     </row>
     <row r="479" ht="14.25">
-      <c r="A479" s="8" t="str">
+      <c r="A479" s="10" t="str">
         <f>IF(ISBLANK(raw!A477),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A477))</f>
         <v/>
       </c>
@@ -11211,13 +11226,13 @@
         <f>IF(ISBLANK(raw!$B477),"",raw!$B477)</f>
         <v/>
       </c>
-      <c r="E479" t="str">
+      <c r="E479" s="9" t="str">
         <f>IF(ISBLANK(raw!M477),"",raw!$M477)</f>
         <v/>
       </c>
     </row>
     <row r="480" ht="14.25">
-      <c r="A480" s="8" t="str">
+      <c r="A480" s="10" t="str">
         <f>IF(ISBLANK(raw!A478),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A478))</f>
         <v/>
       </c>
@@ -11233,13 +11248,13 @@
         <f>IF(ISBLANK(raw!$B478),"",raw!$B478)</f>
         <v/>
       </c>
-      <c r="E480" t="str">
+      <c r="E480" s="9" t="str">
         <f>IF(ISBLANK(raw!M478),"",raw!$M478)</f>
         <v/>
       </c>
     </row>
     <row r="481" ht="14.25">
-      <c r="A481" s="8" t="str">
+      <c r="A481" s="10" t="str">
         <f>IF(ISBLANK(raw!A479),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A479))</f>
         <v/>
       </c>
@@ -11255,13 +11270,13 @@
         <f>IF(ISBLANK(raw!$B479),"",raw!$B479)</f>
         <v/>
       </c>
-      <c r="E481" t="str">
+      <c r="E481" s="9" t="str">
         <f>IF(ISBLANK(raw!M479),"",raw!$M479)</f>
         <v/>
       </c>
     </row>
     <row r="482" ht="14.25">
-      <c r="A482" s="8" t="str">
+      <c r="A482" s="10" t="str">
         <f>IF(ISBLANK(raw!A480),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A480))</f>
         <v/>
       </c>
@@ -11277,13 +11292,13 @@
         <f>IF(ISBLANK(raw!$B480),"",raw!$B480)</f>
         <v/>
       </c>
-      <c r="E482" t="str">
+      <c r="E482" s="9" t="str">
         <f>IF(ISBLANK(raw!M480),"",raw!$M480)</f>
         <v/>
       </c>
     </row>
     <row r="483" ht="14.25">
-      <c r="A483" s="8" t="str">
+      <c r="A483" s="10" t="str">
         <f>IF(ISBLANK(raw!A481),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A481))</f>
         <v/>
       </c>
@@ -11299,13 +11314,13 @@
         <f>IF(ISBLANK(raw!$B481),"",raw!$B481)</f>
         <v/>
       </c>
-      <c r="E483" t="str">
+      <c r="E483" s="9" t="str">
         <f>IF(ISBLANK(raw!M481),"",raw!$M481)</f>
         <v/>
       </c>
     </row>
     <row r="484" ht="14.25">
-      <c r="A484" s="8" t="str">
+      <c r="A484" s="10" t="str">
         <f>IF(ISBLANK(raw!A482),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A482))</f>
         <v/>
       </c>
@@ -11321,13 +11336,13 @@
         <f>IF(ISBLANK(raw!$B482),"",raw!$B482)</f>
         <v/>
       </c>
-      <c r="E484" t="str">
+      <c r="E484" s="9" t="str">
         <f>IF(ISBLANK(raw!M482),"",raw!$M482)</f>
         <v/>
       </c>
     </row>
     <row r="485" ht="14.25">
-      <c r="A485" s="8" t="str">
+      <c r="A485" s="10" t="str">
         <f>IF(ISBLANK(raw!A483),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A483))</f>
         <v/>
       </c>
@@ -11343,13 +11358,13 @@
         <f>IF(ISBLANK(raw!$B483),"",raw!$B483)</f>
         <v/>
       </c>
-      <c r="E485" t="str">
+      <c r="E485" s="9" t="str">
         <f>IF(ISBLANK(raw!M483),"",raw!$M483)</f>
         <v/>
       </c>
     </row>
     <row r="486" ht="14.25">
-      <c r="A486" s="8" t="str">
+      <c r="A486" s="10" t="str">
         <f>IF(ISBLANK(raw!A484),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A484))</f>
         <v/>
       </c>
@@ -11365,13 +11380,13 @@
         <f>IF(ISBLANK(raw!$B484),"",raw!$B484)</f>
         <v/>
       </c>
-      <c r="E486" t="str">
+      <c r="E486" s="9" t="str">
         <f>IF(ISBLANK(raw!M484),"",raw!$M484)</f>
         <v/>
       </c>
     </row>
     <row r="487" ht="14.25">
-      <c r="A487" s="8" t="str">
+      <c r="A487" s="10" t="str">
         <f>IF(ISBLANK(raw!A485),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A485))</f>
         <v/>
       </c>
@@ -11387,13 +11402,13 @@
         <f>IF(ISBLANK(raw!$B485),"",raw!$B485)</f>
         <v/>
       </c>
-      <c r="E487" t="str">
+      <c r="E487" s="9" t="str">
         <f>IF(ISBLANK(raw!M485),"",raw!$M485)</f>
         <v/>
       </c>
     </row>
     <row r="488" ht="14.25">
-      <c r="A488" s="8" t="str">
+      <c r="A488" s="10" t="str">
         <f>IF(ISBLANK(raw!A486),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A486))</f>
         <v/>
       </c>
@@ -11409,13 +11424,13 @@
         <f>IF(ISBLANK(raw!$B486),"",raw!$B486)</f>
         <v/>
       </c>
-      <c r="E488" t="str">
+      <c r="E488" s="9" t="str">
         <f>IF(ISBLANK(raw!M486),"",raw!$M486)</f>
         <v/>
       </c>
     </row>
     <row r="489" ht="14.25">
-      <c r="A489" s="8" t="str">
+      <c r="A489" s="10" t="str">
         <f>IF(ISBLANK(raw!A487),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A487))</f>
         <v/>
       </c>
@@ -11431,13 +11446,13 @@
         <f>IF(ISBLANK(raw!$B487),"",raw!$B487)</f>
         <v/>
       </c>
-      <c r="E489" t="str">
+      <c r="E489" s="9" t="str">
         <f>IF(ISBLANK(raw!M487),"",raw!$M487)</f>
         <v/>
       </c>
     </row>
     <row r="490" ht="14.25">
-      <c r="A490" s="8" t="str">
+      <c r="A490" s="10" t="str">
         <f>IF(ISBLANK(raw!A488),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A488))</f>
         <v/>
       </c>
@@ -11453,13 +11468,13 @@
         <f>IF(ISBLANK(raw!$B488),"",raw!$B488)</f>
         <v/>
       </c>
-      <c r="E490" t="str">
+      <c r="E490" s="9" t="str">
         <f>IF(ISBLANK(raw!M488),"",raw!$M488)</f>
         <v/>
       </c>
     </row>
     <row r="491" ht="14.25">
-      <c r="A491" s="8" t="str">
+      <c r="A491" s="10" t="str">
         <f>IF(ISBLANK(raw!A489),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A489))</f>
         <v/>
       </c>
@@ -11475,13 +11490,13 @@
         <f>IF(ISBLANK(raw!$B489),"",raw!$B489)</f>
         <v/>
       </c>
-      <c r="E491" t="str">
+      <c r="E491" s="9" t="str">
         <f>IF(ISBLANK(raw!M489),"",raw!$M489)</f>
         <v/>
       </c>
     </row>
     <row r="492" ht="14.25">
-      <c r="A492" s="8" t="str">
+      <c r="A492" s="10" t="str">
         <f>IF(ISBLANK(raw!A490),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A490))</f>
         <v/>
       </c>
@@ -11497,13 +11512,13 @@
         <f>IF(ISBLANK(raw!$B490),"",raw!$B490)</f>
         <v/>
       </c>
-      <c r="E492" t="str">
+      <c r="E492" s="9" t="str">
         <f>IF(ISBLANK(raw!M490),"",raw!$M490)</f>
         <v/>
       </c>
     </row>
     <row r="493" ht="14.25">
-      <c r="A493" s="8" t="str">
+      <c r="A493" s="10" t="str">
         <f>IF(ISBLANK(raw!A491),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A491))</f>
         <v/>
       </c>
@@ -11519,13 +11534,13 @@
         <f>IF(ISBLANK(raw!$B491),"",raw!$B491)</f>
         <v/>
       </c>
-      <c r="E493" t="str">
+      <c r="E493" s="9" t="str">
         <f>IF(ISBLANK(raw!M491),"",raw!$M491)</f>
         <v/>
       </c>
     </row>
     <row r="494" ht="14.25">
-      <c r="A494" s="8" t="str">
+      <c r="A494" s="10" t="str">
         <f>IF(ISBLANK(raw!A492),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A492))</f>
         <v/>
       </c>
@@ -11541,13 +11556,13 @@
         <f>IF(ISBLANK(raw!$B492),"",raw!$B492)</f>
         <v/>
       </c>
-      <c r="E494" t="str">
+      <c r="E494" s="9" t="str">
         <f>IF(ISBLANK(raw!M492),"",raw!$M492)</f>
         <v/>
       </c>
     </row>
     <row r="495" ht="14.25">
-      <c r="A495" s="8" t="str">
+      <c r="A495" s="10" t="str">
         <f>IF(ISBLANK(raw!A493),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A493))</f>
         <v/>
       </c>
@@ -11563,13 +11578,13 @@
         <f>IF(ISBLANK(raw!$B493),"",raw!$B493)</f>
         <v/>
       </c>
-      <c r="E495" t="str">
+      <c r="E495" s="9" t="str">
         <f>IF(ISBLANK(raw!M493),"",raw!$M493)</f>
         <v/>
       </c>
     </row>
     <row r="496" ht="14.25">
-      <c r="A496" s="8" t="str">
+      <c r="A496" s="10" t="str">
         <f>IF(ISBLANK(raw!A494),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A494))</f>
         <v/>
       </c>
@@ -11585,13 +11600,13 @@
         <f>IF(ISBLANK(raw!$B494),"",raw!$B494)</f>
         <v/>
       </c>
-      <c r="E496" t="str">
+      <c r="E496" s="9" t="str">
         <f>IF(ISBLANK(raw!M494),"",raw!$M494)</f>
         <v/>
       </c>
     </row>
     <row r="497" ht="14.25">
-      <c r="A497" s="8" t="str">
+      <c r="A497" s="10" t="str">
         <f>IF(ISBLANK(raw!A495),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A495))</f>
         <v/>
       </c>
@@ -11607,13 +11622,13 @@
         <f>IF(ISBLANK(raw!$B495),"",raw!$B495)</f>
         <v/>
       </c>
-      <c r="E497" t="str">
+      <c r="E497" s="9" t="str">
         <f>IF(ISBLANK(raw!M495),"",raw!$M495)</f>
         <v/>
       </c>
     </row>
     <row r="498" ht="14.25">
-      <c r="A498" s="8" t="str">
+      <c r="A498" s="10" t="str">
         <f>IF(ISBLANK(raw!A496),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A496))</f>
         <v/>
       </c>
@@ -11629,13 +11644,13 @@
         <f>IF(ISBLANK(raw!$B496),"",raw!$B496)</f>
         <v/>
       </c>
-      <c r="E498" t="str">
+      <c r="E498" s="9" t="str">
         <f>IF(ISBLANK(raw!M496),"",raw!$M496)</f>
         <v/>
       </c>
     </row>
     <row r="499" ht="14.25">
-      <c r="A499" s="8" t="str">
+      <c r="A499" s="10" t="str">
         <f>IF(ISBLANK(raw!A497),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A497))</f>
         <v/>
       </c>
@@ -11651,13 +11666,13 @@
         <f>IF(ISBLANK(raw!$B497),"",raw!$B497)</f>
         <v/>
       </c>
-      <c r="E499" t="str">
+      <c r="E499" s="9" t="str">
         <f>IF(ISBLANK(raw!M497),"",raw!$M497)</f>
         <v/>
       </c>
     </row>
     <row r="500" ht="14.25">
-      <c r="A500" s="8" t="str">
+      <c r="A500" s="10" t="str">
         <f>IF(ISBLANK(raw!A498),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A498))</f>
         <v/>
       </c>
@@ -11673,13 +11688,13 @@
         <f>IF(ISBLANK(raw!$B498),"",raw!$B498)</f>
         <v/>
       </c>
-      <c r="E500" t="str">
+      <c r="E500" s="9" t="str">
         <f>IF(ISBLANK(raw!M498),"",raw!$M498)</f>
         <v/>
       </c>
     </row>
     <row r="501" ht="14.25">
-      <c r="A501" s="8" t="str">
+      <c r="A501" s="10" t="str">
         <f>IF(ISBLANK(raw!A499),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A499))</f>
         <v/>
       </c>
@@ -11695,13 +11710,13 @@
         <f>IF(ISBLANK(raw!$B499),"",raw!$B499)</f>
         <v/>
       </c>
-      <c r="E501" t="str">
+      <c r="E501" s="9" t="str">
         <f>IF(ISBLANK(raw!M499),"",raw!$M499)</f>
         <v/>
       </c>
     </row>
     <row r="502" ht="14.25">
-      <c r="A502" s="8" t="str">
+      <c r="A502" s="10" t="str">
         <f>IF(ISBLANK(raw!A500),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A500))</f>
         <v/>
       </c>
@@ -11717,7 +11732,7 @@
         <f>IF(ISBLANK(raw!$B500),"",raw!$B500)</f>
         <v/>
       </c>
-      <c r="E502" t="str">
+      <c r="E502" s="9" t="str">
         <f>IF(ISBLANK(raw!M500),"",raw!$M500)</f>
         <v/>
       </c>
@@ -11752,820 +11767,820 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
     </row>
     <row r="4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
     </row>
     <row r="5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
     </row>
     <row r="6">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
     </row>
     <row r="7">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
     </row>
     <row r="8">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
     </row>
     <row r="9">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
     </row>
     <row r="10">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
     </row>
     <row r="11">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
     </row>
     <row r="12">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
     </row>
     <row r="13">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
     </row>
     <row r="14">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
     </row>
     <row r="15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
     </row>
     <row r="16">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
     </row>
     <row r="17">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
     </row>
     <row r="18">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
     </row>
     <row r="19">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
     </row>
     <row r="20">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
     </row>
     <row r="21">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
     </row>
     <row r="22">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
     </row>
     <row r="23">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
     </row>
     <row r="24">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
     </row>
     <row r="25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
     </row>
     <row r="26">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
     </row>
     <row r="27">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
     </row>
     <row r="28">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
     </row>
     <row r="29">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
     </row>
     <row r="30">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
     </row>
     <row r="31">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
     </row>
     <row r="32">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
     </row>
     <row r="33">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
     </row>
     <row r="34">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
     </row>
     <row r="35">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
     </row>
     <row r="36">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
     </row>
     <row r="37">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
     </row>
     <row r="38">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
     </row>
     <row r="39">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
     </row>
     <row r="40">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
     </row>
     <row r="41">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
     </row>
     <row r="42">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
     </row>
     <row r="43">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
     </row>
     <row r="44">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
     </row>
     <row r="45">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
     </row>
     <row r="46">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
     </row>
     <row r="47">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
     </row>
     <row r="48">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
     </row>
     <row r="49">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="9"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
     </row>
     <row r="50">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
     </row>
     <row r="51">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
     </row>
     <row r="52"/>
   </sheetData>

--- a/Einsatzsuche.xlsx
+++ b/Einsatzsuche.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Structured" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="raw" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Tutorial" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Pflichtenhefte" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Tutorial" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr/>
   <extLst>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Tutorial</t>
   </si>
@@ -36,6 +37,141 @@
   </si>
   <si>
     <t>Betrieb</t>
+  </si>
+  <si>
+    <t>pflichtenheftId</t>
+  </si>
+  <si>
+    <t>pflichtenheftTitel</t>
+  </si>
+  <si>
+    <t>pflichtenheftNummer</t>
+  </si>
+  <si>
+    <t>taetigkeitsbereich/id</t>
+  </si>
+  <si>
+    <t>taetigkeitsbereich/version</t>
+  </si>
+  <si>
+    <t>taetigkeitsbereich/domain</t>
+  </si>
+  <si>
+    <t>taetigkeitsbereich/code</t>
+  </si>
+  <si>
+    <t>taetigkeitsbereich/textDe</t>
+  </si>
+  <si>
+    <t>taetigkeitsbereich/textFr</t>
+  </si>
+  <si>
+    <t>taetigkeitsbereich/textIt</t>
+  </si>
+  <si>
+    <t>taetigkeitsbereich/sort</t>
+  </si>
+  <si>
+    <t>einsatzArbeitsort</t>
+  </si>
+  <si>
+    <t>eibName</t>
+  </si>
+  <si>
+    <t>merkliste</t>
+  </si>
+  <si>
+    <t>Beispieltitel</t>
+  </si>
+  <si>
+    <t>3009</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>EIB_TAETIGKEITSBEREICH</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Sozialwesen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Servizi sociali</t>
+  </si>
+  <si>
+    <t>Beispielort</t>
+  </si>
+  <si>
+    <t>Beispielname</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>PLZ</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Einsatzbetrieb</t>
+  </si>
+  <si>
+    <t>Tätigkeiten</t>
+  </si>
+  <si>
+    <t>Mindestdauer</t>
+  </si>
+  <si>
+    <t>Arbeitszeitenmodell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wochenendarbeit Möglich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachtarbeit Möglich</t>
+  </si>
+  <si>
+    <t>Unterkunft</t>
+  </si>
+  <si>
+    <t>Verpflegung</t>
+  </si>
+  <si>
+    <t>Kurse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontaktperson Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontaktperson VCard</t>
+  </si>
+  <si>
+    <t>Schwerpunktprogramm</t>
+  </si>
+  <si>
+    <t>Schweiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beispieltätigkeit, Beispieltätigkeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gleitende Arbeitszeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GKKB, NAP1, NAP2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beispiel Person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./VCards/1234/Beispiel Person.vcf</t>
   </si>
   <si>
     <t xml:space="preserve">Einsatzsuche von ZiviConnect öffnen</t>
@@ -143,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -174,6 +310,10 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,7 +857,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="4" t="str">
         <f>COUNTA(raw!A2:A501)&amp;" Einsätze"</f>
-        <v xml:space="preserve">0 Einsätze</v>
+        <v xml:space="preserve">1 Einsätze</v>
       </c>
       <c r="F1" s="5"/>
     </row>
@@ -762,23 +902,23 @@
     <row r="4" ht="14.25">
       <c r="A4" s="10" t="str">
         <f>IF(ISBLANK(raw!A2),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A2))</f>
-        <v/>
+        <v>https://ziviconnect.admin.ch/zdp/pflichtenheft/1234</v>
       </c>
       <c r="B4" t="str">
         <f>IF(ISBLANK(raw!$L2),"",raw!$L2)</f>
-        <v/>
+        <v>Beispielort</v>
       </c>
       <c r="C4" t="str">
         <f>IF(ISBLANK(raw!H2),"",RIGHT(raw!$H2,LEN(raw!$H2)-2))</f>
-        <v/>
+        <v>Sozialwesen</v>
       </c>
       <c r="D4" t="str">
         <f>IF(ISBLANK(raw!$B2),"",raw!$B2)</f>
-        <v/>
+        <v>Beispieltitel</v>
       </c>
       <c r="E4" s="9" t="str">
         <f>IF(ISBLANK(raw!M2),"",raw!$M2)</f>
-        <v/>
+        <v>Beispielname</v>
       </c>
     </row>
     <row r="5" ht="14.25">
@@ -11757,46 +11897,102 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A478" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="14" width="9.140625"/>
+    <col customWidth="1" min="1" max="14" width="10.28125"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="A1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
+      <c r="A2" s="11">
+        <v>1234</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="11">
+        <v>5678</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="11"/>
@@ -11915,7 +12111,7 @@
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
@@ -12582,7 +12778,1818 @@
       <c r="M51" s="11"/>
       <c r="N51" s="11"/>
     </row>
-    <row r="52"/>
+    <row r="52">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+    </row>
+    <row r="53" ht="14.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+    </row>
+    <row r="54" ht="14.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+    </row>
+    <row r="55" ht="14.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+    </row>
+    <row r="56" ht="14.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+    </row>
+    <row r="57" ht="14.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+    </row>
+    <row r="58" ht="14.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+    </row>
+    <row r="59" ht="14.25">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+    </row>
+    <row r="60" ht="14.25">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+    </row>
+    <row r="61" ht="14.25">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+    </row>
+    <row r="62" ht="14.25">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+    </row>
+    <row r="63" ht="14.25">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+    </row>
+    <row r="64" ht="14.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+    </row>
+    <row r="65" ht="14.25">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+    </row>
+    <row r="66" ht="14.25">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+    </row>
+    <row r="67" ht="14.25">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+    </row>
+    <row r="68" ht="14.25">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+    </row>
+    <row r="69" ht="14.25">
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+    </row>
+    <row r="70" ht="14.25">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+    </row>
+    <row r="71" ht="14.25">
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+    </row>
+    <row r="72" ht="14.25">
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+    </row>
+    <row r="73" ht="14.25">
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+    </row>
+    <row r="74" ht="14.25">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+    </row>
+    <row r="75" ht="14.25">
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+    </row>
+    <row r="76" ht="14.25">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+    </row>
+    <row r="77" ht="14.25">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+    </row>
+    <row r="78" ht="14.25">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+    </row>
+    <row r="79" ht="14.25">
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+    </row>
+    <row r="80" ht="14.25">
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+    </row>
+    <row r="81" ht="14.25">
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+    </row>
+    <row r="82" ht="14.25">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+    </row>
+    <row r="83" ht="14.25">
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+    </row>
+    <row r="84" ht="14.25">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+    </row>
+    <row r="85" ht="14.25">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+    </row>
+    <row r="86" ht="14.25">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+    </row>
+    <row r="87" ht="14.25">
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+    </row>
+    <row r="88" ht="14.25">
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+    </row>
+    <row r="89" ht="14.25">
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+    </row>
+    <row r="90" ht="14.25">
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+    </row>
+    <row r="91" ht="14.25">
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
+    </row>
+    <row r="92" ht="14.25">
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+    </row>
+    <row r="93" ht="14.25">
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+    </row>
+    <row r="94" ht="14.25">
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+    </row>
+    <row r="95" ht="14.25">
+      <c r="A95" s="11"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+    </row>
+    <row r="96" ht="14.25">
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+    </row>
+    <row r="97" ht="14.25">
+      <c r="A97" s="11"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+    </row>
+    <row r="98" ht="14.25">
+      <c r="A98" s="11"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+    </row>
+    <row r="99" ht="14.25">
+      <c r="A99" s="11"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+    </row>
+    <row r="100" ht="14.25">
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="11"/>
+    </row>
+    <row r="101" ht="14.25">
+      <c r="A101" s="11"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+    </row>
+    <row r="102" ht="14.25">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+    </row>
+    <row r="103" ht="14.25">
+      <c r="A103" s="11"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="11"/>
+      <c r="L103" s="11"/>
+      <c r="M103" s="11"/>
+      <c r="N103" s="11"/>
+    </row>
+    <row r="104" ht="14.25">
+      <c r="A104" s="11"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
+    </row>
+    <row r="105" ht="14.25">
+      <c r="A105" s="11"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="11"/>
+      <c r="L105" s="11"/>
+      <c r="M105" s="11"/>
+      <c r="N105" s="11"/>
+    </row>
+    <row r="106" ht="14.25">
+      <c r="A106" s="11"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="11"/>
+      <c r="L106" s="11"/>
+      <c r="M106" s="11"/>
+      <c r="N106" s="11"/>
+    </row>
+    <row r="107" ht="14.25">
+      <c r="A107" s="11"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="11"/>
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="11"/>
+    </row>
+    <row r="108" ht="14.25">
+      <c r="A108" s="11"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="11"/>
+      <c r="L108" s="11"/>
+      <c r="M108" s="11"/>
+      <c r="N108" s="11"/>
+    </row>
+    <row r="109" ht="14.25">
+      <c r="A109" s="11"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="11"/>
+      <c r="L109" s="11"/>
+      <c r="M109" s="11"/>
+      <c r="N109" s="11"/>
+    </row>
+    <row r="110" ht="14.25">
+      <c r="A110" s="11"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="11"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="11"/>
+      <c r="L110" s="11"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
+    </row>
+    <row r="111" ht="14.25">
+      <c r="A111" s="11"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="11"/>
+      <c r="L111" s="11"/>
+      <c r="M111" s="11"/>
+      <c r="N111" s="11"/>
+    </row>
+    <row r="112" ht="14.25">
+      <c r="A112" s="11"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="11"/>
+      <c r="L112" s="11"/>
+      <c r="M112" s="11"/>
+      <c r="N112" s="11"/>
+    </row>
+    <row r="113" ht="14.25">
+      <c r="A113" s="11"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="11"/>
+      <c r="L113" s="11"/>
+      <c r="M113" s="11"/>
+      <c r="N113" s="11"/>
+    </row>
+    <row r="114" ht="14.25">
+      <c r="A114" s="11"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="11"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="11"/>
+      <c r="L114" s="11"/>
+      <c r="M114" s="11"/>
+      <c r="N114" s="11"/>
+    </row>
+    <row r="115" ht="14.25">
+      <c r="A115" s="11"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="11"/>
+      <c r="L115" s="11"/>
+      <c r="M115" s="11"/>
+      <c r="N115" s="11"/>
+    </row>
+    <row r="116" ht="14.25">
+      <c r="A116" s="11"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="11"/>
+      <c r="M116" s="11"/>
+      <c r="N116" s="11"/>
+    </row>
+    <row r="117" ht="14.25">
+      <c r="A117" s="11"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="11"/>
+      <c r="L117" s="11"/>
+      <c r="M117" s="11"/>
+      <c r="N117" s="11"/>
+    </row>
+    <row r="118" ht="14.25">
+      <c r="A118" s="11"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="11"/>
+    </row>
+    <row r="119" ht="14.25">
+      <c r="A119" s="11"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="11"/>
+      <c r="L119" s="11"/>
+      <c r="M119" s="11"/>
+      <c r="N119" s="11"/>
+    </row>
+    <row r="120" ht="14.25">
+      <c r="A120" s="11"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="11"/>
+      <c r="L120" s="11"/>
+      <c r="M120" s="11"/>
+      <c r="N120" s="11"/>
+    </row>
+    <row r="121" ht="14.25">
+      <c r="A121" s="11"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="11"/>
+      <c r="L121" s="11"/>
+      <c r="M121" s="11"/>
+      <c r="N121" s="11"/>
+    </row>
+    <row r="122" ht="14.25">
+      <c r="A122" s="11"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="11"/>
+      <c r="L122" s="11"/>
+      <c r="M122" s="11"/>
+      <c r="N122" s="11"/>
+    </row>
+    <row r="123" ht="14.25">
+      <c r="A123" s="11"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="11"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="11"/>
+      <c r="L123" s="11"/>
+      <c r="M123" s="11"/>
+      <c r="N123" s="11"/>
+    </row>
+    <row r="124" ht="14.25">
+      <c r="A124" s="11"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="11"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="11"/>
+      <c r="L124" s="11"/>
+      <c r="M124" s="11"/>
+      <c r="N124" s="11"/>
+    </row>
+    <row r="125" ht="14.25">
+      <c r="A125" s="11"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="11"/>
+      <c r="L125" s="11"/>
+      <c r="M125" s="11"/>
+      <c r="N125" s="11"/>
+    </row>
+    <row r="126" ht="14.25">
+      <c r="A126" s="11"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="11"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="11"/>
+      <c r="L126" s="11"/>
+      <c r="M126" s="11"/>
+      <c r="N126" s="11"/>
+    </row>
+    <row r="127" ht="14.25">
+      <c r="A127" s="11"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="11"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
+      <c r="N127" s="11"/>
+    </row>
+    <row r="128" ht="14.25">
+      <c r="A128" s="11"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="11"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
+      <c r="N128" s="11"/>
+    </row>
+    <row r="129" ht="14.25">
+      <c r="A129" s="11"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="11"/>
+      <c r="L129" s="11"/>
+      <c r="M129" s="11"/>
+      <c r="N129" s="11"/>
+    </row>
+    <row r="130" ht="14.25">
+      <c r="A130" s="11"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="11"/>
+      <c r="L130" s="11"/>
+      <c r="M130" s="11"/>
+      <c r="N130" s="11"/>
+    </row>
+    <row r="131" ht="14.25">
+      <c r="A131" s="11"/>
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="11"/>
+      <c r="L131" s="11"/>
+      <c r="M131" s="11"/>
+      <c r="N131" s="11"/>
+    </row>
+    <row r="132" ht="14.25">
+      <c r="A132" s="11"/>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="11"/>
+      <c r="L132" s="11"/>
+      <c r="M132" s="11"/>
+      <c r="N132" s="11"/>
+    </row>
+    <row r="133" ht="14.25">
+      <c r="A133" s="11"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="11"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="11"/>
+      <c r="L133" s="11"/>
+      <c r="M133" s="11"/>
+      <c r="N133" s="11"/>
+    </row>
+    <row r="134" ht="14.25">
+      <c r="A134" s="11"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="11"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="11"/>
+      <c r="L134" s="11"/>
+      <c r="M134" s="11"/>
+      <c r="N134" s="11"/>
+    </row>
+    <row r="135" ht="14.25">
+      <c r="A135" s="11"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="11"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="11"/>
+      <c r="L135" s="11"/>
+      <c r="M135" s="11"/>
+      <c r="N135" s="11"/>
+    </row>
+    <row r="136" ht="14.25">
+      <c r="A136" s="11"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="11"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="11"/>
+      <c r="L136" s="11"/>
+      <c r="M136" s="11"/>
+      <c r="N136" s="11"/>
+    </row>
+    <row r="137" ht="14.25">
+      <c r="A137" s="11"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="11"/>
+      <c r="L137" s="11"/>
+      <c r="M137" s="11"/>
+      <c r="N137" s="11"/>
+    </row>
+    <row r="138" ht="14.25">
+      <c r="A138" s="11"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="11"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="11"/>
+      <c r="L138" s="11"/>
+      <c r="M138" s="11"/>
+      <c r="N138" s="11"/>
+    </row>
+    <row r="139" ht="14.25">
+      <c r="A139" s="11"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="11"/>
+      <c r="I139" s="11"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="11"/>
+      <c r="L139" s="11"/>
+      <c r="M139" s="11"/>
+      <c r="N139" s="11"/>
+    </row>
+    <row r="140" ht="14.25">
+      <c r="A140" s="11"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="11"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="11"/>
+      <c r="L140" s="11"/>
+      <c r="M140" s="11"/>
+      <c r="N140" s="11"/>
+    </row>
+    <row r="141" ht="14.25">
+      <c r="A141" s="11"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="11"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="11"/>
+      <c r="L141" s="11"/>
+      <c r="M141" s="11"/>
+      <c r="N141" s="11"/>
+    </row>
+    <row r="142" ht="14.25">
+      <c r="A142" s="11"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="11"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="11"/>
+      <c r="L142" s="11"/>
+      <c r="M142" s="11"/>
+      <c r="N142" s="11"/>
+    </row>
+    <row r="143" ht="14.25">
+      <c r="A143" s="11"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+      <c r="G143" s="11"/>
+      <c r="H143" s="11"/>
+      <c r="I143" s="11"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="11"/>
+      <c r="L143" s="11"/>
+      <c r="M143" s="11"/>
+      <c r="N143" s="11"/>
+    </row>
+    <row r="144" ht="14.25">
+      <c r="A144" s="11"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="11"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="11"/>
+      <c r="L144" s="11"/>
+      <c r="M144" s="11"/>
+      <c r="N144" s="11"/>
+    </row>
+    <row r="145" ht="14.25">
+      <c r="A145" s="11"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="11"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="11"/>
+      <c r="L145" s="11"/>
+      <c r="M145" s="11"/>
+      <c r="N145" s="11"/>
+    </row>
+    <row r="146" ht="14.25">
+      <c r="A146" s="11"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="11"/>
+      <c r="I146" s="11"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="11"/>
+      <c r="L146" s="11"/>
+      <c r="M146" s="11"/>
+      <c r="N146" s="11"/>
+    </row>
+    <row r="147" ht="14.25">
+      <c r="A147" s="11"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="11"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="11"/>
+      <c r="L147" s="11"/>
+      <c r="M147" s="11"/>
+      <c r="N147" s="11"/>
+    </row>
+    <row r="148" ht="14.25">
+      <c r="A148" s="11"/>
+      <c r="B148" s="11"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="11"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="11"/>
+      <c r="L148" s="11"/>
+      <c r="M148" s="11"/>
+      <c r="N148" s="11"/>
+    </row>
+    <row r="149" ht="14.25">
+      <c r="A149" s="11"/>
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="11"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="11"/>
+      <c r="L149" s="11"/>
+      <c r="M149" s="11"/>
+      <c r="N149" s="11"/>
+    </row>
+    <row r="150" ht="14.25">
+      <c r="A150" s="11"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="11"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="11"/>
+      <c r="L150" s="11"/>
+      <c r="M150" s="11"/>
+      <c r="N150" s="11"/>
+    </row>
+    <row r="151" ht="14.25">
+      <c r="A151" s="11"/>
+      <c r="B151" s="11"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="11"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="11"/>
+      <c r="L151" s="11"/>
+      <c r="M151" s="11"/>
+      <c r="N151" s="11"/>
+    </row>
+    <row r="152" ht="14.25"/>
+    <row r="153" ht="14.25"/>
+    <row r="154" ht="14.25"/>
+    <row r="155" ht="14.25"/>
+    <row r="156" ht="14.25"/>
+    <row r="157" ht="14.25"/>
+    <row r="158" ht="14.25"/>
+    <row r="159" ht="14.25"/>
+    <row r="160" ht="14.25"/>
+    <row r="161" ht="14.25"/>
+    <row r="162" ht="14.25"/>
+    <row r="163" ht="14.25"/>
+    <row r="164" ht="14.25"/>
+    <row r="165" ht="14.25"/>
+    <row r="166" ht="14.25"/>
+    <row r="167" ht="14.25"/>
+    <row r="168" ht="14.25"/>
+    <row r="169" ht="14.25"/>
+    <row r="170" ht="14.25"/>
+    <row r="171" ht="14.25"/>
+    <row r="172" ht="14.25"/>
+    <row r="173" ht="14.25"/>
+    <row r="174" ht="14.25"/>
+    <row r="175" ht="14.25"/>
+    <row r="176" ht="14.25"/>
+    <row r="177" ht="14.25"/>
+    <row r="178" ht="14.25"/>
+    <row r="179" ht="14.25"/>
+    <row r="180" ht="14.25"/>
+    <row r="181" ht="14.25"/>
+    <row r="182" ht="14.25"/>
+    <row r="183" ht="14.25"/>
+    <row r="184" ht="14.25"/>
+    <row r="185" ht="14.25"/>
+    <row r="186" ht="14.25"/>
+    <row r="187" ht="14.25"/>
+    <row r="188" ht="14.25"/>
+    <row r="189" ht="14.25"/>
+    <row r="190" ht="14.25"/>
+    <row r="191" ht="14.25"/>
+    <row r="192" ht="14.25"/>
+    <row r="193" ht="14.25"/>
+    <row r="194" ht="14.25"/>
+    <row r="195" ht="14.25"/>
+    <row r="196" ht="14.25"/>
+    <row r="197" ht="14.25"/>
+    <row r="198" ht="14.25"/>
+    <row r="199" ht="14.25"/>
+    <row r="200" ht="14.25"/>
+    <row r="201" ht="14.25"/>
+    <row r="202" ht="14.25"/>
+    <row r="203" ht="14.25"/>
+    <row r="204" ht="14.25"/>
+    <row r="205" ht="14.25"/>
+    <row r="206" ht="14.25"/>
+    <row r="207" ht="14.25"/>
+    <row r="208" ht="14.25"/>
+    <row r="209" ht="14.25"/>
+    <row r="210" ht="14.25"/>
+    <row r="211" ht="14.25"/>
+    <row r="212" ht="14.25"/>
+    <row r="213" ht="14.25"/>
+    <row r="214" ht="14.25"/>
+    <row r="215" ht="14.25"/>
+    <row r="216" ht="14.25"/>
+    <row r="217" ht="14.25"/>
+    <row r="218" ht="14.25"/>
+    <row r="219" ht="14.25"/>
+    <row r="220" ht="14.25"/>
+    <row r="221" ht="14.25"/>
+    <row r="222" ht="14.25"/>
+    <row r="223" ht="14.25"/>
+    <row r="224" ht="14.25"/>
+    <row r="225" ht="14.25"/>
+    <row r="226" ht="14.25"/>
+    <row r="227" ht="14.25"/>
+    <row r="228" ht="14.25"/>
+    <row r="229" ht="14.25"/>
+    <row r="230" ht="14.25"/>
+    <row r="231" ht="14.25"/>
+    <row r="232" ht="14.25"/>
+    <row r="233" ht="14.25"/>
+    <row r="234" ht="14.25"/>
+    <row r="235" ht="14.25"/>
+    <row r="236" ht="14.25"/>
+    <row r="237" ht="14.25"/>
+    <row r="238" ht="14.25"/>
+    <row r="239" ht="14.25"/>
+    <row r="240" ht="14.25"/>
+    <row r="241" ht="14.25"/>
+    <row r="242" ht="14.25"/>
+    <row r="243" ht="14.25"/>
+    <row r="244" ht="14.25"/>
+    <row r="245" ht="14.25"/>
+    <row r="246" ht="14.25"/>
+    <row r="247" ht="14.25"/>
+    <row r="248" ht="14.25"/>
+    <row r="249" ht="14.25"/>
+    <row r="250" ht="14.25"/>
+    <row r="251" ht="14.25"/>
+    <row r="252" ht="14.25"/>
+    <row r="253" ht="14.25"/>
+    <row r="254" ht="14.25"/>
+    <row r="255" ht="14.25"/>
+    <row r="256" ht="14.25"/>
+    <row r="257" ht="14.25"/>
+    <row r="258" ht="14.25"/>
+    <row r="259" ht="14.25"/>
+    <row r="260" ht="14.25"/>
+    <row r="261" ht="14.25"/>
+    <row r="262" ht="14.25"/>
+    <row r="263" ht="14.25"/>
+    <row r="264" ht="14.25"/>
+    <row r="265" ht="14.25"/>
+    <row r="266" ht="14.25"/>
+    <row r="267" ht="14.25"/>
+    <row r="268" ht="14.25"/>
+    <row r="269" ht="14.25"/>
+    <row r="270" ht="14.25"/>
+    <row r="271" ht="14.25"/>
+    <row r="272" ht="14.25"/>
+    <row r="273" ht="14.25"/>
+    <row r="274" ht="14.25"/>
+    <row r="275" ht="14.25"/>
+    <row r="276" ht="14.25"/>
+    <row r="277" ht="14.25"/>
+    <row r="278" ht="14.25"/>
+    <row r="279" ht="14.25"/>
+    <row r="280" ht="14.25"/>
+    <row r="281" ht="14.25"/>
+    <row r="282" ht="14.25"/>
+    <row r="283" ht="14.25"/>
+    <row r="284" ht="14.25"/>
+    <row r="285" ht="14.25"/>
+    <row r="286" ht="14.25"/>
+    <row r="287" ht="14.25"/>
+    <row r="288" ht="14.25"/>
+    <row r="289" ht="14.25"/>
+    <row r="290" ht="14.25"/>
+    <row r="291" ht="14.25"/>
+    <row r="292" ht="14.25"/>
+    <row r="293" ht="14.25"/>
+    <row r="294" ht="14.25"/>
+    <row r="295" ht="14.25"/>
+    <row r="296" ht="14.25"/>
+    <row r="297" ht="14.25"/>
+    <row r="298" ht="14.25"/>
+    <row r="299" ht="14.25"/>
+    <row r="300" ht="14.25"/>
+    <row r="301" ht="14.25"/>
+    <row r="302" ht="14.25"/>
+    <row r="303" ht="14.25"/>
+    <row r="304" ht="14.25"/>
+    <row r="305" ht="14.25"/>
+    <row r="306" ht="14.25"/>
+    <row r="307" ht="14.25"/>
+    <row r="308" ht="14.25"/>
+    <row r="309" ht="14.25"/>
+    <row r="310" ht="14.25"/>
+    <row r="311" ht="14.25"/>
+    <row r="312" ht="14.25"/>
+    <row r="313" ht="14.25"/>
+    <row r="314" ht="14.25"/>
+    <row r="315" ht="14.25"/>
+    <row r="316" ht="14.25"/>
+    <row r="317" ht="14.25"/>
+    <row r="318" ht="14.25"/>
+    <row r="319" ht="14.25"/>
+    <row r="320" ht="14.25"/>
+    <row r="321" ht="14.25"/>
+    <row r="322" ht="14.25"/>
+    <row r="323" ht="14.25"/>
+    <row r="324" ht="14.25"/>
+    <row r="325" ht="14.25"/>
+    <row r="326" ht="14.25"/>
+    <row r="327" ht="14.25"/>
+    <row r="328" ht="14.25"/>
+    <row r="329" ht="14.25"/>
+    <row r="330" ht="14.25"/>
+    <row r="331" ht="14.25"/>
+    <row r="332" ht="14.25"/>
+    <row r="333" ht="14.25"/>
+    <row r="334" ht="14.25"/>
+    <row r="335" ht="14.25"/>
+    <row r="336" ht="14.25"/>
+    <row r="337" ht="14.25"/>
+    <row r="338" ht="14.25"/>
+    <row r="339" ht="14.25"/>
+    <row r="340" ht="14.25"/>
+    <row r="341" ht="14.25"/>
+    <row r="342" ht="14.25"/>
+    <row r="343" ht="14.25"/>
+    <row r="344" ht="14.25"/>
+    <row r="345" ht="14.25"/>
+    <row r="346" ht="14.25"/>
+    <row r="347" ht="14.25"/>
+    <row r="348" ht="14.25"/>
+    <row r="349" ht="14.25"/>
+    <row r="350" ht="14.25"/>
+    <row r="351" ht="14.25"/>
+    <row r="352" ht="14.25"/>
+    <row r="353" ht="14.25"/>
+    <row r="354" ht="14.25"/>
+    <row r="355" ht="14.25"/>
+    <row r="356" ht="14.25"/>
+    <row r="357" ht="14.25"/>
+    <row r="358" ht="14.25"/>
+    <row r="359" ht="14.25"/>
+    <row r="360" ht="14.25"/>
+    <row r="361" ht="14.25"/>
+    <row r="362" ht="14.25"/>
+    <row r="363" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -12598,51 +14605,894 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+    </row>
+    <row r="4">
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+    </row>
+    <row r="5">
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+    </row>
+    <row r="6">
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+    </row>
+    <row r="7">
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+    </row>
+    <row r="8">
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+    </row>
+    <row r="9">
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+    </row>
+    <row r="10">
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+    </row>
+    <row r="11">
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+    </row>
+    <row r="12">
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+    </row>
+    <row r="13">
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+    </row>
+    <row r="14">
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+    </row>
+    <row r="15">
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+    </row>
+    <row r="16">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+    </row>
+    <row r="17">
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+    </row>
+    <row r="18">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+    </row>
+    <row r="19">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+    </row>
+    <row r="20">
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+    </row>
+    <row r="21">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+    </row>
+    <row r="22">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+    </row>
+    <row r="23">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+    </row>
+    <row r="24">
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+    </row>
+    <row r="25">
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+    </row>
+    <row r="26">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+    </row>
+    <row r="27">
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+    </row>
+    <row r="28">
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+    </row>
+    <row r="29">
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+    </row>
+    <row r="30">
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+    </row>
+    <row r="31">
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+    </row>
+    <row r="32">
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+    </row>
+    <row r="33">
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+    </row>
+    <row r="34">
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+    </row>
+    <row r="35">
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+    </row>
+    <row r="36">
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+    </row>
+    <row r="37">
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+    </row>
+    <row r="38">
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+    </row>
+    <row r="39">
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+    </row>
+    <row r="40">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+    </row>
+    <row r="41">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+    </row>
+    <row r="42">
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+    </row>
+    <row r="43">
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+    </row>
+    <row r="44">
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+    </row>
+    <row r="45">
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+    </row>
+    <row r="46">
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+    </row>
+    <row r="47">
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+    </row>
+    <row r="48">
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+    </row>
+    <row r="49">
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+    </row>
+    <row r="50">
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+    </row>
+    <row r="51">
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+    </row>
+    <row r="52">
+      <c r="A52"/>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Einsatzsuche.xlsx
+++ b/Einsatzsuche.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Structured" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Tutorial</t>
   </si>
@@ -226,6 +226,15 @@
   </si>
   <si>
     <t xml:space="preserve">Das Resultat im "raw" Arbeitsblatt einfügen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einzelne Pflichtenhefter gleichermassen herunterladen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diese mit dem Python Script einlesen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultat im "Pflichtenhefte" Arbeitsblatt einfügen</t>
   </si>
 </sst>
 </file>
@@ -39702,6 +39711,21 @@
         <v>67</v>
       </c>
     </row>
+    <row r="10" ht="14.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/Einsatzsuche.xlsx
+++ b/Einsatzsuche.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Structured" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Tutorial</t>
   </si>
@@ -76,129 +76,6 @@
   </si>
   <si>
     <t>Kontaktperson</t>
-  </si>
-  <si>
-    <t>pflichtenheftId</t>
-  </si>
-  <si>
-    <t>pflichtenheftTitel</t>
-  </si>
-  <si>
-    <t>pflichtenheftNummer</t>
-  </si>
-  <si>
-    <t>taetigkeitsbereich/id</t>
-  </si>
-  <si>
-    <t>taetigkeitsbereich/version</t>
-  </si>
-  <si>
-    <t>taetigkeitsbereich/domain</t>
-  </si>
-  <si>
-    <t>taetigkeitsbereich/code</t>
-  </si>
-  <si>
-    <t>taetigkeitsbereich/textDe</t>
-  </si>
-  <si>
-    <t>taetigkeitsbereich/textFr</t>
-  </si>
-  <si>
-    <t>taetigkeitsbereich/textIt</t>
-  </si>
-  <si>
-    <t>taetigkeitsbereich/sort</t>
-  </si>
-  <si>
-    <t>einsatzArbeitsort</t>
-  </si>
-  <si>
-    <t>eibName</t>
-  </si>
-  <si>
-    <t>merkliste</t>
-  </si>
-  <si>
-    <t>Beispieltitel</t>
-  </si>
-  <si>
-    <t>3009</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>EIB_TAETIGKEITSBEREICH</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Sozialwesen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 Servizi sociali</t>
-  </si>
-  <si>
-    <t>Beispielort</t>
-  </si>
-  <si>
-    <t>Beispielname</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einsatzbetrieb Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einsatzbetrieb VCard</t>
-  </si>
-  <si>
-    <t>Mindestdauer</t>
-  </si>
-  <si>
-    <t>Arbeitszeitenmodell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wochenendarbeit Möglich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nachtarbeit Möglich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kontaktperson Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kontaktperson VCard</t>
-  </si>
-  <si>
-    <t>Schwerpunktprogramm</t>
-  </si>
-  <si>
-    <t>Schweiz</t>
-  </si>
-  <si>
-    <t>./VCards/1234.vcf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beispieltätigkeit, Beispieltätigkeit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gleitende Arbeitszeit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GKKB, NAP1, NAP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beispiel Person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./VCards/1234/Beispiel Person.vcf</t>
   </si>
   <si>
     <t xml:space="preserve">Einsatzsuche von ZiviConnect öffnen</t>
@@ -992,7 +869,7 @@
       <c r="P1" s="7"/>
       <c r="Q1" s="8" t="str">
         <f>COUNTA(raw!$A2:$A501)&amp;" Einsätze"</f>
-        <v xml:space="preserve">1 Einsätze</v>
+        <v xml:space="preserve">0 Einsätze</v>
       </c>
       <c r="R1" s="9"/>
     </row>
@@ -1086,71 +963,71 @@
     <row r="4" ht="14.25">
       <c r="A4" s="17" t="str">
         <f>IF(ISBLANK(raw!A2),"",HYPERLINK("https://ziviconnect.admin.ch/zdp/pflichtenheft/"&amp;raw!$A2,"↗"))</f>
-        <v>↗</v>
+        <v/>
       </c>
       <c r="B4" s="18" t="str">
         <f>IF(ISBLANK(raw!$B2),"",raw!$B2)</f>
-        <v>Beispieltitel</v>
+        <v/>
       </c>
       <c r="C4" s="19" t="str">
         <f>IF(ISBLANK(Pflichtenhefte!$B2),"",Pflichtenhefte!$B2)</f>
-        <v>Schweiz</v>
-      </c>
-      <c r="D4" s="20">
+        <v/>
+      </c>
+      <c r="D4" s="20" t="str">
         <f>IF(ISBLANK(Pflichtenhefte!$A2),"",Pflichtenhefte!$A2)</f>
-        <v>1234</v>
+        <v/>
       </c>
       <c r="E4" s="19" t="str">
         <f>IF(ISBLANK(raw!$L2),"",raw!$L2)</f>
-        <v>Beispielort</v>
+        <v/>
       </c>
       <c r="F4" s="21" t="str">
         <f>IF(ISBLANK(raw!$M2),"",IF(ISBLANK(Pflichtenhefte!$D2),raw!$M2,HYPERLINK(Pflichtenhefte!$D2,raw!$M2)))</f>
-        <v>Beispielname</v>
+        <v/>
       </c>
       <c r="G4" s="19" t="str">
         <f>IF(ISBLANK(raw!H2),"",RIGHT(raw!$H2,LEN(raw!$H2)-2))</f>
-        <v>Sozialwesen</v>
+        <v/>
       </c>
       <c r="H4" s="22" t="str">
         <f>IF(ISBLANK(Pflichtenhefte!$E2),"",Pflichtenhefte!$E2)</f>
-        <v xml:space="preserve">Beispieltätigkeit, Beispieltätigkeit</v>
-      </c>
-      <c r="I4" s="4" t="b">
+        <v/>
+      </c>
+      <c r="I4" s="4" t="str">
         <f>IF(ISBLANK(Pflichtenhefte!$O2),"",Pflichtenhefte!$O2)</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="J4" s="22" t="str">
         <f>IF(ISBLANK(Pflichtenhefte!$L2),"",Pflichtenhefte!$L2)</f>
-        <v xml:space="preserve">GKKB, NAP1, NAP2</v>
-      </c>
-      <c r="K4" s="23">
+        <v/>
+      </c>
+      <c r="K4" s="23" t="str">
         <f>IF(ISBLANK(Pflichtenhefte!$F2),"",Pflichtenhefte!$F2)</f>
-        <v>4</v>
-      </c>
-      <c r="L4" s="24" t="b">
+        <v/>
+      </c>
+      <c r="L4" s="24" t="str">
         <f>IF(ISBLANK(Pflichtenhefte!$G2),"",Pflichtenhefte!$G2="Gleitende Arbeitszeit")</f>
-        <v>1</v>
-      </c>
-      <c r="M4" s="24" t="b">
+        <v/>
+      </c>
+      <c r="M4" s="24" t="str">
         <f>IF(ISBLANK(Pflichtenhefte!$I2),"",NOT(Pflichtenhefte!$I2))</f>
-        <v>1</v>
-      </c>
-      <c r="N4" s="24" t="b">
+        <v/>
+      </c>
+      <c r="N4" s="24" t="str">
         <f>IF(ISBLANK(Pflichtenhefte!$H2),"",NOT(Pflichtenhefte!$H2))</f>
-        <v>1</v>
-      </c>
-      <c r="O4" s="24" t="b">
+        <v/>
+      </c>
+      <c r="O4" s="24" t="str">
         <f>IF(ISBLANK(Pflichtenhefte!$J2),"",Pflichtenhefte!$J2)</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="24" t="b">
+        <v/>
+      </c>
+      <c r="P4" s="24" t="str">
         <f>IF(ISBLANK(Pflichtenhefte!$K2),"",Pflichtenhefte!$K2)</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="Q4" s="25" t="str">
         <f>IF(ISBLANK(Pflichtenhefte!$M2),"",IF(ISBLANK(Pflichtenhefte!$N2),Pflichtenhefte!$M2,HYPERLINK(Pflichtenhefte!$N2,Pflichtenhefte!$M2)))</f>
-        <v xml:space="preserve">Beispiel Person</v>
+        <v/>
       </c>
     </row>
     <row r="5" ht="14.25">
@@ -36053,92 +35930,36 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="27" t="s">
-        <v>31</v>
-      </c>
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
     </row>
     <row r="2">
-      <c r="A2" s="27">
-        <v>1234</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="27">
-        <v>5678</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>42</v>
-      </c>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
     </row>
     <row r="3">
       <c r="A3" s="27"/>
@@ -38758,98 +38579,38 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="O1" s="26" t="s">
-        <v>51</v>
-      </c>
+      <c r="A1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="26">
-        <v>1234</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="26">
-        <v>4</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="O2" s="26" t="b">
-        <v>1</v>
-      </c>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
     </row>
     <row r="3" ht="14.25">
       <c r="B3" s="26"/>
@@ -39657,62 +39418,62 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" s="28" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" s="28" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Einsatzsuche.xlsx
+++ b/Einsatzsuche.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Structured" sheetId="1" state="visible" r:id="rId1"/>
@@ -873,13 +873,13 @@
       </c>
       <c r="R1" s="9"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="129" customHeight="1">
+    <row r="2" s="1" customFormat="1" ht="181.5" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11" t="str">
         <f>"-"&amp;_xlfn.TEXTJOIN("
--",TRUE,Tutorial!A1:A9)</f>
+-",TRUE,Tutorial!A1:A20)</f>
         <v xml:space="preserve">-Einsatzsuche von ZiviConnect öffnen
 -Beliebige Filter einstellen
 -Die f12 taste oder ctrl+shift+i drücken
@@ -888,7 +888,10 @@
 -In den Developer Tools den neuen Eintrag "search" in der Tabelle rechts klicken
 -Die Antwort Speichern
 -Die Datei zu CSV Konvertieren
--Das Resultat im "Suchresultate" Arbeitsblatt einfügen</v>
+-Das Resultat im "Suchresultate" Arbeitsblatt einfügen
+-Einzelne Pflichtenhefter gleichermassen herunterladen
+-Diese mit dem Python Script einlesen
+-Resultat im "Pflichtenhefte" Arbeitsblatt einfügen</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -38574,8 +38577,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" style="26" width="9.140625"/>
-    <col min="2" max="16384" style="26" width="9.140625"/>
+    <col min="1" max="16384" style="26" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
